--- a/sse/综合数据分析（天）/2014新股.xlsx
+++ b/sse/综合数据分析（天）/2014新股.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="8580"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="345">
   <si>
     <t>证券代码</t>
   </si>
@@ -889,13 +889,571 @@
   </si>
   <si>
     <t>*2000</t>
+  </si>
+  <si>
+    <t>神思电子</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>800</t>
+    </r>
+  </si>
+  <si>
+    <t>新元科技</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1667</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>667</t>
+    </r>
+  </si>
+  <si>
+    <t>凤形股份</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>880</t>
+    </r>
+  </si>
+  <si>
+    <t>韩建河山</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3668</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1368</t>
+    </r>
+  </si>
+  <si>
+    <t>宝钢包装</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20833</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6250</t>
+    </r>
+  </si>
+  <si>
+    <t>德尔股份</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+  </si>
+  <si>
+    <t>索菱股份</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1830</t>
+    </r>
+  </si>
+  <si>
+    <t>胜宏科技</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3667</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1417</t>
+    </r>
+  </si>
+  <si>
+    <t>信息发展</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1670</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>620</t>
+    </r>
+  </si>
+  <si>
+    <t>音飞储存</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2500</t>
+    </r>
+  </si>
+  <si>
+    <t>绿城水务</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14700</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4410</t>
+    </r>
+  </si>
+  <si>
+    <t>蓝黛传动</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2080</t>
+    </r>
+  </si>
+  <si>
+    <t>聚隆科技</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+  </si>
+  <si>
+    <t>汇洁股份</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5400</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2160</t>
+    </r>
+  </si>
+  <si>
+    <t>中国核电</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>389100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>116730</t>
+    </r>
+  </si>
+  <si>
+    <t>杭州高新</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>567</t>
+    </r>
+  </si>
+  <si>
+    <t>星徽精密</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2067</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>817</t>
+    </r>
+  </si>
+  <si>
+    <t>合纵科技</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2740</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1096</t>
+    </r>
+  </si>
+  <si>
+    <t>日机密封</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>524</t>
+    </r>
+  </si>
+  <si>
+    <t>金发拉比</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>680</t>
+    </r>
+  </si>
+  <si>
+    <t>多喜爱</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1200</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -905,6 +1463,7 @@
       <sz val="9"/>
       <color indexed="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -912,127 +1471,7 @@
       <sz val="9"/>
       <color indexed="63"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1041,8 +1480,170 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1193,8 +1794,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1327,8 +1940,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCDCDD5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1455,8 +2077,12 @@
     <xf numFmtId="0" fontId="21" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1511,8 +2137,44 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="12" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="12" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 强调文字颜色 1" xfId="4"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="2"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="6"/>
@@ -1538,6 +2200,7 @@
     <cellStyle name="标题 4" xfId="23"/>
     <cellStyle name="差" xfId="15"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="汇总" xfId="33"/>
     <cellStyle name="计算" xfId="34"/>
@@ -1894,14 +2557,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P246"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D222" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="A247" sqref="A247:O267"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="26.875" customWidth="1"/>
@@ -1909,7 +2572,7 @@
     <col min="16" max="16" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1959,7 +2622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1988,7 +2651,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>603968</v>
       </c>
@@ -2032,7 +2695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>603566</v>
       </c>
@@ -2076,7 +2739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>2753</v>
       </c>
@@ -2120,7 +2783,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>2755</v>
       </c>
@@ -2164,7 +2827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>603718</v>
       </c>
@@ -2208,7 +2871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>300456</v>
       </c>
@@ -2252,7 +2915,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>300458</v>
       </c>
@@ -2296,7 +2959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>300453</v>
       </c>
@@ -2340,7 +3003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>300450</v>
       </c>
@@ -2384,7 +3047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>603022</v>
       </c>
@@ -2428,7 +3091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>603227</v>
       </c>
@@ -2472,7 +3135,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>300451</v>
       </c>
@@ -2516,7 +3179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>603599</v>
       </c>
@@ -2560,7 +3223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>300460</v>
       </c>
@@ -2604,7 +3267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>603355</v>
       </c>
@@ -2648,7 +3311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>300452</v>
       </c>
@@ -2692,7 +3355,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>300457</v>
       </c>
@@ -2736,7 +3399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>2756</v>
       </c>
@@ -2780,7 +3443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>300459</v>
       </c>
@@ -2824,7 +3487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>300414</v>
       </c>
@@ -2868,7 +3531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>300404</v>
       </c>
@@ -2912,7 +3575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>300434</v>
       </c>
@@ -2956,7 +3619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>300438</v>
       </c>
@@ -3000,7 +3663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>300442</v>
       </c>
@@ -3044,7 +3707,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>2751</v>
       </c>
@@ -3091,7 +3754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>300437</v>
       </c>
@@ -3138,7 +3801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>300440</v>
       </c>
@@ -3185,7 +3848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>300441</v>
       </c>
@@ -3232,7 +3895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>300444</v>
       </c>
@@ -3279,7 +3942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>300446</v>
       </c>
@@ -3326,7 +3989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>300448</v>
       </c>
@@ -3371,7 +4034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>600959</v>
       </c>
@@ -3416,7 +4079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>603021</v>
       </c>
@@ -3463,7 +4126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>603315</v>
       </c>
@@ -3507,7 +4170,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>2752</v>
       </c>
@@ -3554,7 +4217,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>300424</v>
       </c>
@@ -3601,7 +4264,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>300436</v>
       </c>
@@ -3648,7 +4311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>300439</v>
       </c>
@@ -3695,7 +4358,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>300443</v>
       </c>
@@ -3742,7 +4405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>300445</v>
       </c>
@@ -3787,7 +4450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>300447</v>
       </c>
@@ -3834,7 +4497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>603025</v>
       </c>
@@ -3881,7 +4544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>603318</v>
       </c>
@@ -3925,7 +4588,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>603567</v>
       </c>
@@ -3969,7 +4632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>603703</v>
       </c>
@@ -4016,7 +4679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>603789</v>
       </c>
@@ -4060,7 +4723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>603808</v>
       </c>
@@ -4107,7 +4770,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>603818</v>
       </c>
@@ -4154,7 +4817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>603883</v>
       </c>
@@ -4201,7 +4864,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>300449</v>
       </c>
@@ -4248,7 +4911,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>300435</v>
       </c>
@@ -4295,7 +4958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>603338</v>
       </c>
@@ -4342,7 +5005,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>2747</v>
       </c>
@@ -4389,7 +5052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>2749</v>
       </c>
@@ -4436,7 +5099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:15">
       <c r="A57" s="8">
         <v>2750</v>
       </c>
@@ -4483,7 +5146,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>300429</v>
       </c>
@@ -4530,7 +5193,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>300431</v>
       </c>
@@ -4577,7 +5240,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>603012</v>
       </c>
@@ -4624,7 +5287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:15">
       <c r="A61">
         <v>603020</v>
       </c>
@@ -4671,7 +5334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15">
       <c r="A62">
         <v>603030</v>
       </c>
@@ -4718,7 +5381,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:15">
       <c r="A63">
         <v>603158</v>
       </c>
@@ -4765,7 +5428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>603199</v>
       </c>
@@ -4812,7 +5475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>603869</v>
       </c>
@@ -4859,7 +5522,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>2748</v>
       </c>
@@ -4906,7 +5569,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>300374</v>
       </c>
@@ -4953,7 +5616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>300428</v>
       </c>
@@ -5000,7 +5663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>300430</v>
       </c>
@@ -5047,7 +5710,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>300432</v>
       </c>
@@ -5094,7 +5757,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>600958</v>
       </c>
@@ -5141,7 +5804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>601689</v>
       </c>
@@ -5188,7 +5851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>603268</v>
       </c>
@@ -5235,7 +5898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:15">
       <c r="A74">
         <v>603519</v>
       </c>
@@ -5282,7 +5945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:15">
       <c r="A75">
         <v>603729</v>
       </c>
@@ -5329,7 +5992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>300433</v>
       </c>
@@ -5376,7 +6039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:15">
       <c r="A77">
         <v>603997</v>
       </c>
@@ -5423,7 +6086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:15">
       <c r="A78">
         <v>603015</v>
       </c>
@@ -5470,7 +6133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:15">
       <c r="A79">
         <v>603828</v>
       </c>
@@ -5517,7 +6180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:15">
       <c r="A80">
         <v>603969</v>
       </c>
@@ -5564,7 +6227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:15">
       <c r="A81">
         <v>2742</v>
       </c>
@@ -5611,7 +6274,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:15">
       <c r="A82">
         <v>2743</v>
       </c>
@@ -5658,7 +6321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:15">
       <c r="A83">
         <v>2745</v>
       </c>
@@ -5705,7 +6368,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:15">
       <c r="A84">
         <v>300394</v>
       </c>
@@ -5752,7 +6415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:15">
       <c r="A85">
         <v>300420</v>
       </c>
@@ -5799,7 +6462,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:15">
       <c r="A86">
         <v>300421</v>
       </c>
@@ -5846,7 +6509,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:15">
       <c r="A87">
         <v>300422</v>
       </c>
@@ -5893,7 +6556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:15">
       <c r="A88">
         <v>300423</v>
       </c>
@@ -5940,7 +6603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:15">
       <c r="A89">
         <v>300426</v>
       </c>
@@ -5987,7 +6650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:15">
       <c r="A90">
         <v>300427</v>
       </c>
@@ -6034,7 +6697,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:15">
       <c r="A91">
         <v>601198</v>
       </c>
@@ -6081,7 +6744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:15">
       <c r="A92">
         <v>603118</v>
       </c>
@@ -6128,7 +6791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:15">
       <c r="A93">
         <v>603222</v>
       </c>
@@ -6175,7 +6838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:15">
       <c r="A94">
         <v>603309</v>
       </c>
@@ -6222,7 +6885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:15">
       <c r="A95">
         <v>603618</v>
       </c>
@@ -6269,7 +6932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:15">
       <c r="A96">
         <v>603898</v>
       </c>
@@ -6316,7 +6979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:15">
       <c r="A97">
         <v>603939</v>
       </c>
@@ -6363,7 +7026,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:15">
       <c r="A98">
         <v>2741</v>
       </c>
@@ -6410,7 +7073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:15">
       <c r="A99">
         <v>2746</v>
       </c>
@@ -6457,7 +7120,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:15">
       <c r="A100">
         <v>300425</v>
       </c>
@@ -6504,7 +7167,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:15">
       <c r="A101">
         <v>603698</v>
       </c>
@@ -6551,7 +7214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:15">
       <c r="A102">
         <v>603799</v>
       </c>
@@ -6598,7 +7261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:15">
       <c r="A103" s="1">
         <v>300416</v>
       </c>
@@ -6645,7 +7308,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:15">
       <c r="A104" s="1">
         <v>300419</v>
       </c>
@@ -6692,7 +7355,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:15">
       <c r="A105" s="1">
         <v>603558</v>
       </c>
@@ -6739,7 +7402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:15">
       <c r="A106" s="1">
         <v>603600</v>
       </c>
@@ -6786,7 +7449,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:15">
       <c r="A107" s="1">
         <v>603686</v>
       </c>
@@ -6833,7 +7496,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:15">
       <c r="A108" s="1">
         <v>603899</v>
       </c>
@@ -6880,7 +7543,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:15">
       <c r="A109" s="1">
         <v>2734</v>
       </c>
@@ -6927,7 +7590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:15">
       <c r="A110" s="1">
         <v>2739</v>
       </c>
@@ -6974,7 +7637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:15">
       <c r="A111" s="1">
         <v>2740</v>
       </c>
@@ -7021,7 +7684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:15">
       <c r="A112" s="1">
         <v>300364</v>
       </c>
@@ -7068,7 +7731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:15">
       <c r="A113" s="1">
         <v>300415</v>
       </c>
@@ -7115,7 +7778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:15">
       <c r="A114" s="1">
         <v>300417</v>
       </c>
@@ -7162,7 +7825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:15">
       <c r="A115" s="1">
         <v>601069</v>
       </c>
@@ -7209,7 +7872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:15">
       <c r="A116" s="1">
         <v>603601</v>
       </c>
@@ -7256,7 +7919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:15">
       <c r="A117" s="1">
         <v>603611</v>
       </c>
@@ -7303,7 +7966,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:15">
       <c r="A118" s="1">
         <v>603678</v>
       </c>
@@ -7350,7 +8013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:15">
       <c r="A119" s="1">
         <v>300413</v>
       </c>
@@ -7397,7 +8060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:15">
       <c r="A120" s="1">
         <v>300418</v>
       </c>
@@ -7444,7 +8107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:15">
       <c r="A121" s="1">
         <v>603788</v>
       </c>
@@ -7489,7 +8152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:15">
       <c r="A122" s="1">
         <v>603889</v>
       </c>
@@ -7536,7 +8199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:15">
       <c r="A123" s="1">
         <v>603017</v>
       </c>
@@ -7583,7 +8246,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:15">
       <c r="A124" s="1">
         <v>603636</v>
       </c>
@@ -7630,7 +8293,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:15">
       <c r="A125" s="1">
         <v>2736</v>
       </c>
@@ -7677,7 +8340,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:15">
       <c r="A126" s="1">
         <v>2738</v>
       </c>
@@ -7724,7 +8387,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:15">
       <c r="A127" s="1">
         <v>300410</v>
       </c>
@@ -7771,7 +8434,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:15">
       <c r="A128" s="1">
         <v>300411</v>
       </c>
@@ -7818,7 +8481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:15">
       <c r="A129" s="1">
         <v>300412</v>
       </c>
@@ -7865,7 +8528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:15">
       <c r="A130" s="1">
         <v>603588</v>
       </c>
@@ -7912,7 +8575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:15">
       <c r="A131" s="1">
         <v>2737</v>
       </c>
@@ -7959,7 +8622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:15">
       <c r="A132" s="1">
         <v>601226</v>
       </c>
@@ -8006,7 +8669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:15">
       <c r="A133" s="1">
         <v>300408</v>
       </c>
@@ -8053,7 +8716,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:15">
       <c r="A134" s="1">
         <v>601969</v>
       </c>
@@ -8100,7 +8763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:15">
       <c r="A135" s="1">
         <v>603998</v>
       </c>
@@ -8147,7 +8810,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:15">
       <c r="A136" s="1">
         <v>2732</v>
       </c>
@@ -8194,7 +8857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:15">
       <c r="A137" s="1">
         <v>2733</v>
       </c>
@@ -8241,7 +8904,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:15">
       <c r="A138" s="1">
         <v>2735</v>
       </c>
@@ -8288,7 +8951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:15">
       <c r="A139" s="1">
         <v>300407</v>
       </c>
@@ -8335,7 +8998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:15">
       <c r="A140" s="1">
         <v>300409</v>
       </c>
@@ -8382,7 +9045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:15">
       <c r="A141" s="1">
         <v>603368</v>
       </c>
@@ -8429,7 +9092,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:15">
       <c r="A142" s="1">
         <v>603518</v>
       </c>
@@ -8476,7 +9139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:15">
       <c r="A143" s="1">
         <v>603166</v>
       </c>
@@ -8523,7 +9186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:15">
       <c r="A144" s="1">
         <v>603011</v>
       </c>
@@ -8570,7 +9233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:15">
       <c r="A145" s="1">
         <v>603088</v>
       </c>
@@ -8617,7 +9280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:15">
       <c r="A146" s="1">
         <v>2724</v>
       </c>
@@ -8664,7 +9327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:15">
       <c r="A147" s="1">
         <v>2731</v>
       </c>
@@ -8711,7 +9374,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:15">
       <c r="A148" s="1">
         <v>601015</v>
       </c>
@@ -8758,7 +9421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:15">
       <c r="A149" s="1">
         <v>603019</v>
       </c>
@@ -8805,7 +9468,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:15">
       <c r="A150" s="1">
         <v>603688</v>
       </c>
@@ -8852,7 +9515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:15">
       <c r="A151" s="1">
         <v>603988</v>
       </c>
@@ -8899,7 +9562,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:15">
       <c r="A152" s="1">
         <v>300403</v>
       </c>
@@ -8946,7 +9609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:15">
       <c r="A153" s="1">
         <v>300405</v>
       </c>
@@ -8993,7 +9656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:15">
       <c r="A154" s="1">
         <v>300406</v>
       </c>
@@ -9040,7 +9703,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:15">
       <c r="A155" s="1">
         <v>300400</v>
       </c>
@@ -9087,7 +9750,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:15">
       <c r="A156" s="1">
         <v>300402</v>
       </c>
@@ -9134,7 +9797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:15">
       <c r="A157" s="1">
         <v>603606</v>
       </c>
@@ -9181,7 +9844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:15">
       <c r="A158" s="1">
         <v>2730</v>
       </c>
@@ -9228,7 +9891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:15">
       <c r="A159" s="1">
         <v>300398</v>
       </c>
@@ -9275,7 +9938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:15">
       <c r="A160" s="1">
         <v>300399</v>
       </c>
@@ -9322,7 +9985,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:15">
       <c r="A161" s="1">
         <v>300401</v>
       </c>
@@ -9369,7 +10032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:15">
       <c r="A162" s="1">
         <v>603010</v>
       </c>
@@ -9416,7 +10079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:15">
       <c r="A163" s="1">
         <v>603018</v>
       </c>
@@ -9463,7 +10126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:15">
       <c r="A164" s="1">
         <v>603169</v>
       </c>
@@ -9510,7 +10173,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:15">
       <c r="A165" s="1">
         <v>603456</v>
       </c>
@@ -9557,7 +10220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:15">
       <c r="A166" s="1">
         <v>600917</v>
       </c>
@@ -9604,7 +10267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:15">
       <c r="A167" s="1">
         <v>601016</v>
       </c>
@@ -9651,7 +10314,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:15">
       <c r="A168" s="1">
         <v>603306</v>
       </c>
@@ -9698,7 +10361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:15">
       <c r="A169" s="1">
         <v>300392</v>
       </c>
@@ -9745,7 +10408,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:15">
       <c r="A170" s="1">
         <v>300396</v>
       </c>
@@ -9792,7 +10455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:15">
       <c r="A171" s="1">
         <v>2729</v>
       </c>
@@ -9839,7 +10502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:15">
       <c r="A172" s="1">
         <v>300393</v>
       </c>
@@ -9886,7 +10549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:15">
       <c r="A173" s="1">
         <v>300395</v>
       </c>
@@ -9933,7 +10596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:15">
       <c r="A174" s="1">
         <v>300397</v>
       </c>
@@ -9980,7 +10643,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:15">
       <c r="A175" s="1">
         <v>603188</v>
       </c>
@@ -10027,7 +10690,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:15">
       <c r="A176" s="1">
         <v>603806</v>
       </c>
@@ -10074,7 +10737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:15">
       <c r="A177" s="1">
         <v>601579</v>
       </c>
@@ -10121,7 +10784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:15">
       <c r="A178" s="1">
         <v>603099</v>
       </c>
@@ -10168,7 +10831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:15">
       <c r="A179" s="1">
         <v>603609</v>
       </c>
@@ -10215,7 +10878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:15">
       <c r="A180" s="1">
         <v>300384</v>
       </c>
@@ -10262,7 +10925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:15">
       <c r="A181" s="1">
         <v>300388</v>
       </c>
@@ -10309,7 +10972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:15">
       <c r="A182" s="1">
         <v>300389</v>
       </c>
@@ -10356,7 +11019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:15">
       <c r="A183" s="1">
         <v>300391</v>
       </c>
@@ -10403,7 +11066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:15">
       <c r="A184" s="1">
         <v>2728</v>
       </c>
@@ -10450,7 +11113,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:15">
       <c r="A185" s="1">
         <v>300390</v>
       </c>
@@ -10497,7 +11160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:15">
       <c r="A186" s="1">
         <v>603100</v>
       </c>
@@ -10544,7 +11207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:15">
       <c r="A187" s="1">
         <v>603111</v>
       </c>
@@ -10591,7 +11254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:15">
       <c r="A188" s="1">
         <v>603126</v>
       </c>
@@ -10638,7 +11301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:15">
       <c r="A189" s="1">
         <v>603009</v>
       </c>
@@ -10685,7 +11348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:15">
       <c r="A190" s="1">
         <v>300387</v>
       </c>
@@ -10732,7 +11395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:15">
       <c r="A191" s="1">
         <v>2727</v>
       </c>
@@ -10779,7 +11442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:15">
       <c r="A192" s="1">
         <v>603369</v>
       </c>
@@ -10826,7 +11489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:16">
       <c r="A193" s="1">
         <v>603168</v>
       </c>
@@ -10873,7 +11536,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:16">
       <c r="A194" s="1">
         <v>603328</v>
       </c>
@@ -10920,7 +11583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:16">
       <c r="A195" s="1">
         <v>2726</v>
       </c>
@@ -10967,7 +11630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:16">
       <c r="A196" s="1">
         <v>300385</v>
       </c>
@@ -11014,7 +11677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:16">
       <c r="A197" s="1">
         <v>300386</v>
       </c>
@@ -11061,7 +11724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:16">
       <c r="A198" s="1">
         <v>603006</v>
       </c>
@@ -11108,7 +11771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:16">
       <c r="A199" s="1">
         <v>2713</v>
       </c>
@@ -11155,7 +11818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:16">
       <c r="A200" s="1">
         <v>2715</v>
       </c>
@@ -11202,7 +11865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:16">
       <c r="A201" s="1">
         <v>2717</v>
       </c>
@@ -11249,7 +11912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:16">
       <c r="A202" s="1">
         <v>603288</v>
       </c>
@@ -11296,7 +11959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:16">
       <c r="A203" s="1">
         <v>603005</v>
       </c>
@@ -11346,7 +12009,7 @@
         <v>20140109</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:16">
       <c r="A204" s="1">
         <v>300363</v>
       </c>
@@ -11393,7 +12056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:16">
       <c r="A205" s="1">
         <v>300367</v>
       </c>
@@ -11440,7 +12103,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:16">
       <c r="A206" s="1">
         <v>300369</v>
       </c>
@@ -11487,7 +12150,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:16">
       <c r="A207" s="1">
         <v>300383</v>
       </c>
@@ -11534,7 +12197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:16">
       <c r="A208" s="1">
         <v>2718</v>
       </c>
@@ -11581,7 +12244,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:15">
       <c r="A209" s="1">
         <v>2719</v>
       </c>
@@ -11628,7 +12291,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:15">
       <c r="A210" s="1">
         <v>2722</v>
       </c>
@@ -11675,7 +12338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:15">
       <c r="A211" s="1">
         <v>2723</v>
       </c>
@@ -11722,7 +12385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:15">
       <c r="A212" s="1">
         <v>2725</v>
       </c>
@@ -11769,7 +12432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:15">
       <c r="A213" s="1">
         <v>300379</v>
       </c>
@@ -11816,7 +12479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:15">
       <c r="A214" s="1">
         <v>300382</v>
       </c>
@@ -11863,7 +12526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:15">
       <c r="A215" s="1">
         <v>2711</v>
       </c>
@@ -11910,7 +12573,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:15">
       <c r="A216" s="1">
         <v>2714</v>
       </c>
@@ -11957,7 +12620,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:15">
       <c r="A217" s="1">
         <v>2716</v>
       </c>
@@ -12004,7 +12667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:15">
       <c r="A218" s="1">
         <v>300376</v>
       </c>
@@ -12051,7 +12714,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:15">
       <c r="A219" s="1">
         <v>300378</v>
       </c>
@@ -12098,7 +12761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:15">
       <c r="A220" s="1">
         <v>300380</v>
       </c>
@@ -12145,7 +12808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:15">
       <c r="A221" s="1">
         <v>300381</v>
       </c>
@@ -12192,7 +12855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:15">
       <c r="A222" s="1">
         <v>601225</v>
       </c>
@@ -12239,7 +12902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:15">
       <c r="A223" s="1">
         <v>2721</v>
       </c>
@@ -12286,7 +12949,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:15">
       <c r="A224" s="1">
         <v>300366</v>
       </c>
@@ -12333,7 +12996,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:15">
       <c r="A225" s="1">
         <v>300372</v>
       </c>
@@ -12380,7 +13043,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:15">
       <c r="A226" s="1">
         <v>300377</v>
       </c>
@@ -12427,7 +13090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:15">
       <c r="A227" s="1">
         <v>2707</v>
       </c>
@@ -12474,7 +13137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:15">
       <c r="A228" s="1">
         <v>300365</v>
       </c>
@@ -12521,7 +13184,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:15">
       <c r="A229" s="1">
         <v>300368</v>
       </c>
@@ -12568,7 +13231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:15">
       <c r="A230" s="1">
         <v>300371</v>
       </c>
@@ -12615,7 +13278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:15">
       <c r="A231" s="1">
         <v>300373</v>
       </c>
@@ -12662,7 +13325,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:15">
       <c r="A232" s="1">
         <v>300375</v>
       </c>
@@ -12709,7 +13372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:15">
       <c r="A233" s="1">
         <v>603555</v>
       </c>
@@ -12756,7 +13419,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:15">
       <c r="A234" s="1">
         <v>2708</v>
       </c>
@@ -12803,7 +13466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:15">
       <c r="A235" s="1">
         <v>2709</v>
       </c>
@@ -12850,7 +13513,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:15">
       <c r="A236" s="1">
         <v>2712</v>
       </c>
@@ -12897,7 +13560,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:15">
       <c r="A237" s="1">
         <v>300359</v>
       </c>
@@ -12944,7 +13607,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:15">
       <c r="A238" s="1">
         <v>300370</v>
       </c>
@@ -12991,7 +13654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:15">
       <c r="A239" s="1">
         <v>603308</v>
       </c>
@@ -13038,7 +13701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:15">
       <c r="A240" s="1">
         <v>2706</v>
       </c>
@@ -13085,7 +13748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:15">
       <c r="A241" s="1">
         <v>300360</v>
       </c>
@@ -13132,7 +13795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:15">
       <c r="A242" s="1">
         <v>300362</v>
       </c>
@@ -13179,7 +13842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:15">
       <c r="A243" s="1">
         <v>300358</v>
       </c>
@@ -13226,7 +13889,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:15">
       <c r="A244" s="1">
         <v>603699</v>
       </c>
@@ -13273,7 +13936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:15">
       <c r="A245" s="1">
         <v>2705</v>
       </c>
@@ -13320,7 +13983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:15">
       <c r="A246" s="1">
         <v>300357</v>
       </c>
@@ -13364,6 +14027,951 @@
         <v>13</v>
       </c>
       <c r="O246" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15">
+      <c r="A247" s="18">
+        <v>300479</v>
+      </c>
+      <c r="B247" s="19">
+        <v>300479</v>
+      </c>
+      <c r="C247" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="D247" s="21">
+        <v>42158</v>
+      </c>
+      <c r="E247" s="19"/>
+      <c r="F247" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G247" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="H247" s="22">
+        <v>0</v>
+      </c>
+      <c r="I247" s="22">
+        <v>0</v>
+      </c>
+      <c r="J247" s="22">
+        <v>0</v>
+      </c>
+      <c r="K247" s="22">
+        <v>2.2040000000000002</v>
+      </c>
+      <c r="L247" s="22">
+        <v>0</v>
+      </c>
+      <c r="M247" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N247" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O247" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15">
+      <c r="A248" s="24">
+        <v>300472</v>
+      </c>
+      <c r="B248" s="25">
+        <v>300472</v>
+      </c>
+      <c r="C248" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D248" s="27">
+        <v>42158</v>
+      </c>
+      <c r="E248" s="25"/>
+      <c r="F248" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="G248" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="H248" s="29">
+        <v>0</v>
+      </c>
+      <c r="I248" s="29">
+        <v>0</v>
+      </c>
+      <c r="J248" s="29">
+        <v>0</v>
+      </c>
+      <c r="K248" s="29">
+        <v>1.899</v>
+      </c>
+      <c r="L248" s="29">
+        <v>0</v>
+      </c>
+      <c r="M248" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N248" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O248" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15">
+      <c r="A249" s="18">
+        <v>2760</v>
+      </c>
+      <c r="B249" s="19">
+        <v>2760</v>
+      </c>
+      <c r="C249" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="D249" s="21">
+        <v>42158</v>
+      </c>
+      <c r="E249" s="19"/>
+      <c r="F249" s="22">
+        <v>2200</v>
+      </c>
+      <c r="G249" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="H249" s="22">
+        <v>0</v>
+      </c>
+      <c r="I249" s="22">
+        <v>0</v>
+      </c>
+      <c r="J249" s="22">
+        <v>0</v>
+      </c>
+      <c r="K249" s="22">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="L249" s="22">
+        <v>0</v>
+      </c>
+      <c r="M249" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N249" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O249" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15">
+      <c r="A250" s="24">
+        <v>603616</v>
+      </c>
+      <c r="B250" s="25">
+        <v>732616</v>
+      </c>
+      <c r="C250" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D250" s="27">
+        <v>42158</v>
+      </c>
+      <c r="E250" s="25"/>
+      <c r="F250" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="G250" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="H250" s="29">
+        <v>0</v>
+      </c>
+      <c r="I250" s="29">
+        <v>0</v>
+      </c>
+      <c r="J250" s="29">
+        <v>0</v>
+      </c>
+      <c r="K250" s="29">
+        <v>4.1660000000000004</v>
+      </c>
+      <c r="L250" s="29">
+        <v>0</v>
+      </c>
+      <c r="M250" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N250" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O250" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15">
+      <c r="A251" s="18">
+        <v>601968</v>
+      </c>
+      <c r="B251" s="19">
+        <v>780968</v>
+      </c>
+      <c r="C251" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D251" s="21">
+        <v>42158</v>
+      </c>
+      <c r="E251" s="19"/>
+      <c r="F251" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="G251" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="H251" s="22">
+        <v>0</v>
+      </c>
+      <c r="I251" s="22">
+        <v>0</v>
+      </c>
+      <c r="J251" s="22">
+        <v>0</v>
+      </c>
+      <c r="K251" s="22">
+        <v>6.4169999999999998</v>
+      </c>
+      <c r="L251" s="22">
+        <v>0</v>
+      </c>
+      <c r="M251" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N251" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O251" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15">
+      <c r="A252" s="24">
+        <v>300473</v>
+      </c>
+      <c r="B252" s="25">
+        <v>300473</v>
+      </c>
+      <c r="C252" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="D252" s="27">
+        <v>42158</v>
+      </c>
+      <c r="E252" s="25"/>
+      <c r="F252" s="29">
+        <v>2500</v>
+      </c>
+      <c r="G252" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="H252" s="29">
+        <v>0</v>
+      </c>
+      <c r="I252" s="29">
+        <v>0</v>
+      </c>
+      <c r="J252" s="29">
+        <v>0</v>
+      </c>
+      <c r="K252" s="29">
+        <v>7.19</v>
+      </c>
+      <c r="L252" s="29">
+        <v>0</v>
+      </c>
+      <c r="M252" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N252" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O252" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15">
+      <c r="A253" s="18">
+        <v>2766</v>
+      </c>
+      <c r="B253" s="19">
+        <v>2766</v>
+      </c>
+      <c r="C253" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="D253" s="21">
+        <v>42158</v>
+      </c>
+      <c r="E253" s="19"/>
+      <c r="F253" s="22">
+        <v>4580</v>
+      </c>
+      <c r="G253" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="H253" s="22">
+        <v>0</v>
+      </c>
+      <c r="I253" s="22">
+        <v>0</v>
+      </c>
+      <c r="J253" s="22">
+        <v>0</v>
+      </c>
+      <c r="K253" s="22">
+        <v>3.4489999999999998</v>
+      </c>
+      <c r="L253" s="22">
+        <v>0</v>
+      </c>
+      <c r="M253" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N253" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O253" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15">
+      <c r="A254" s="24">
+        <v>300476</v>
+      </c>
+      <c r="B254" s="25">
+        <v>300476</v>
+      </c>
+      <c r="C254" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="D254" s="27">
+        <v>42158</v>
+      </c>
+      <c r="E254" s="25"/>
+      <c r="F254" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="G254" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="H254" s="29">
+        <v>0</v>
+      </c>
+      <c r="I254" s="29">
+        <v>0</v>
+      </c>
+      <c r="J254" s="29">
+        <v>0</v>
+      </c>
+      <c r="K254" s="29">
+        <v>5.7679999999999998</v>
+      </c>
+      <c r="L254" s="29">
+        <v>0</v>
+      </c>
+      <c r="M254" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N254" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O254" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15">
+      <c r="A255" s="18">
+        <v>300469</v>
+      </c>
+      <c r="B255" s="19">
+        <v>300469</v>
+      </c>
+      <c r="C255" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="D255" s="21">
+        <v>42158</v>
+      </c>
+      <c r="E255" s="19"/>
+      <c r="F255" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="G255" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="H255" s="22">
+        <v>0</v>
+      </c>
+      <c r="I255" s="22">
+        <v>0</v>
+      </c>
+      <c r="J255" s="22">
+        <v>0</v>
+      </c>
+      <c r="K255" s="22">
+        <v>1.6930000000000001</v>
+      </c>
+      <c r="L255" s="22">
+        <v>0</v>
+      </c>
+      <c r="M255" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N255" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O255" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15">
+      <c r="A256" s="24">
+        <v>603066</v>
+      </c>
+      <c r="B256" s="25">
+        <v>732066</v>
+      </c>
+      <c r="C256" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="D256" s="27">
+        <v>42158</v>
+      </c>
+      <c r="E256" s="25"/>
+      <c r="F256" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="G256" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="H256" s="29">
+        <v>0</v>
+      </c>
+      <c r="I256" s="29">
+        <v>0</v>
+      </c>
+      <c r="J256" s="29">
+        <v>0</v>
+      </c>
+      <c r="K256" s="29">
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="L256" s="29">
+        <v>0</v>
+      </c>
+      <c r="M256" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N256" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O256" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15">
+      <c r="A257" s="18">
+        <v>601368</v>
+      </c>
+      <c r="B257" s="19">
+        <v>780368</v>
+      </c>
+      <c r="C257" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="D257" s="21">
+        <v>42157</v>
+      </c>
+      <c r="E257" s="19"/>
+      <c r="F257" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="G257" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="H257" s="22">
+        <v>0</v>
+      </c>
+      <c r="I257" s="22">
+        <v>0</v>
+      </c>
+      <c r="J257" s="22">
+        <v>0</v>
+      </c>
+      <c r="K257" s="22">
+        <v>8.8010000000000002</v>
+      </c>
+      <c r="L257" s="22">
+        <v>0</v>
+      </c>
+      <c r="M257" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N257" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O257" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15">
+      <c r="A258" s="24">
+        <v>2765</v>
+      </c>
+      <c r="B258" s="25">
+        <v>2765</v>
+      </c>
+      <c r="C258" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="D258" s="27">
+        <v>42157</v>
+      </c>
+      <c r="E258" s="25"/>
+      <c r="F258" s="29">
+        <v>5200</v>
+      </c>
+      <c r="G258" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="H258" s="29">
+        <v>0</v>
+      </c>
+      <c r="I258" s="29">
+        <v>0</v>
+      </c>
+      <c r="J258" s="29">
+        <v>0</v>
+      </c>
+      <c r="K258" s="29">
+        <v>3.669</v>
+      </c>
+      <c r="L258" s="29">
+        <v>0</v>
+      </c>
+      <c r="M258" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N258" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O258" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15">
+      <c r="A259" s="18">
+        <v>300475</v>
+      </c>
+      <c r="B259" s="19">
+        <v>300475</v>
+      </c>
+      <c r="C259" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="D259" s="21">
+        <v>42157</v>
+      </c>
+      <c r="E259" s="19"/>
+      <c r="F259" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="G259" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="H259" s="22">
+        <v>0</v>
+      </c>
+      <c r="I259" s="22">
+        <v>0</v>
+      </c>
+      <c r="J259" s="22">
+        <v>0</v>
+      </c>
+      <c r="K259" s="22">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L259" s="22">
+        <v>0</v>
+      </c>
+      <c r="M259" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N259" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O259" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15">
+      <c r="A260" s="24">
+        <v>2763</v>
+      </c>
+      <c r="B260" s="25">
+        <v>2763</v>
+      </c>
+      <c r="C260" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="D260" s="27">
+        <v>42157</v>
+      </c>
+      <c r="E260" s="25"/>
+      <c r="F260" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="G260" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="H260" s="29">
+        <v>0</v>
+      </c>
+      <c r="I260" s="29">
+        <v>0</v>
+      </c>
+      <c r="J260" s="29">
+        <v>0</v>
+      </c>
+      <c r="K260" s="29">
+        <v>7.077</v>
+      </c>
+      <c r="L260" s="29">
+        <v>0</v>
+      </c>
+      <c r="M260" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N260" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O260" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15">
+      <c r="A261" s="18">
+        <v>601985</v>
+      </c>
+      <c r="B261" s="19">
+        <v>780985</v>
+      </c>
+      <c r="C261" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D261" s="21">
+        <v>42157</v>
+      </c>
+      <c r="E261" s="19"/>
+      <c r="F261" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="G261" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="H261" s="22">
+        <v>0</v>
+      </c>
+      <c r="I261" s="22">
+        <v>0</v>
+      </c>
+      <c r="J261" s="22">
+        <v>0</v>
+      </c>
+      <c r="K261" s="22">
+        <v>135.79900000000001</v>
+      </c>
+      <c r="L261" s="22">
+        <v>0</v>
+      </c>
+      <c r="M261" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N261" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O261" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15">
+      <c r="A262" s="24">
+        <v>300478</v>
+      </c>
+      <c r="B262" s="25">
+        <v>300478</v>
+      </c>
+      <c r="C262" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="D262" s="27">
+        <v>42157</v>
+      </c>
+      <c r="E262" s="25"/>
+      <c r="F262" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="G262" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="H262" s="29">
+        <v>0</v>
+      </c>
+      <c r="I262" s="29">
+        <v>0</v>
+      </c>
+      <c r="J262" s="29">
+        <v>0</v>
+      </c>
+      <c r="K262" s="29">
+        <v>2.4740000000000002</v>
+      </c>
+      <c r="L262" s="29">
+        <v>0</v>
+      </c>
+      <c r="M262" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N262" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O262" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15">
+      <c r="A263" s="18">
+        <v>300464</v>
+      </c>
+      <c r="B263" s="19">
+        <v>300464</v>
+      </c>
+      <c r="C263" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D263" s="21">
+        <v>42157</v>
+      </c>
+      <c r="E263" s="19"/>
+      <c r="F263" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="G263" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="H263" s="22">
+        <v>0</v>
+      </c>
+      <c r="I263" s="22">
+        <v>0</v>
+      </c>
+      <c r="J263" s="22">
+        <v>0</v>
+      </c>
+      <c r="K263" s="22">
+        <v>2.1080000000000001</v>
+      </c>
+      <c r="L263" s="22">
+        <v>0</v>
+      </c>
+      <c r="M263" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N263" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O263" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15">
+      <c r="A264" s="24">
+        <v>300477</v>
+      </c>
+      <c r="B264" s="25">
+        <v>300477</v>
+      </c>
+      <c r="C264" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="D264" s="27">
+        <v>42157</v>
+      </c>
+      <c r="E264" s="25"/>
+      <c r="F264" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="G264" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="H264" s="29">
+        <v>0</v>
+      </c>
+      <c r="I264" s="29">
+        <v>0</v>
+      </c>
+      <c r="J264" s="29">
+        <v>0</v>
+      </c>
+      <c r="K264" s="29">
+        <v>2.76</v>
+      </c>
+      <c r="L264" s="29">
+        <v>0</v>
+      </c>
+      <c r="M264" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N264" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O264" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15">
+      <c r="A265" s="18">
+        <v>300470</v>
+      </c>
+      <c r="B265" s="19">
+        <v>300470</v>
+      </c>
+      <c r="C265" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D265" s="21">
+        <v>42157</v>
+      </c>
+      <c r="E265" s="19"/>
+      <c r="F265" s="22">
+        <v>1334</v>
+      </c>
+      <c r="G265" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="H265" s="22">
+        <v>0</v>
+      </c>
+      <c r="I265" s="22">
+        <v>0</v>
+      </c>
+      <c r="J265" s="22">
+        <v>0</v>
+      </c>
+      <c r="K265" s="22">
+        <v>4.617</v>
+      </c>
+      <c r="L265" s="22">
+        <v>0</v>
+      </c>
+      <c r="M265" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N265" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O265" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15">
+      <c r="A266" s="24">
+        <v>2762</v>
+      </c>
+      <c r="B266" s="25">
+        <v>2762</v>
+      </c>
+      <c r="C266" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="D266" s="27">
+        <v>42157</v>
+      </c>
+      <c r="E266" s="25"/>
+      <c r="F266" s="29">
+        <v>1700</v>
+      </c>
+      <c r="G266" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="H266" s="29">
+        <v>0</v>
+      </c>
+      <c r="I266" s="29">
+        <v>0</v>
+      </c>
+      <c r="J266" s="29">
+        <v>0</v>
+      </c>
+      <c r="K266" s="29">
+        <v>4.4210000000000003</v>
+      </c>
+      <c r="L266" s="29">
+        <v>0</v>
+      </c>
+      <c r="M266" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N266" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O266" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15">
+      <c r="A267" s="18">
+        <v>2761</v>
+      </c>
+      <c r="B267" s="19">
+        <v>2761</v>
+      </c>
+      <c r="C267" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="D267" s="21">
+        <v>42157</v>
+      </c>
+      <c r="E267" s="19"/>
+      <c r="F267" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="G267" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="H267" s="22">
+        <v>0</v>
+      </c>
+      <c r="I267" s="22">
+        <v>0</v>
+      </c>
+      <c r="J267" s="22">
+        <v>0</v>
+      </c>
+      <c r="K267" s="22">
+        <v>2.1840000000000002</v>
+      </c>
+      <c r="L267" s="22">
+        <v>0</v>
+      </c>
+      <c r="M267" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N267" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O267" s="20" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13930,20 +15538,104 @@
     <hyperlink ref="N122" r:id="rId555" tooltip="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603889"/>
     <hyperlink ref="M122" r:id="rId556" tooltip="http://money.finance.sina.com.cn/corp/view/javascript:void(0)"/>
     <hyperlink ref="C122" r:id="rId557" tooltip="http://finance.sina.com.cn/realstock/company/sh603889/nc.shtml"/>
+    <hyperlink ref="C247" r:id="rId558" display="http://finance.sina.com.cn/realstock/company/sz300479/nc.shtml"/>
+    <hyperlink ref="M247" r:id="rId559" display="javascript:void(0)"/>
+    <hyperlink ref="N247" r:id="rId560" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300479"/>
+    <hyperlink ref="O247" r:id="rId561" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300479.phtml"/>
+    <hyperlink ref="C248" r:id="rId562" display="http://finance.sina.com.cn/realstock/company/sz300472/nc.shtml"/>
+    <hyperlink ref="M248" r:id="rId563" display="javascript:void(0)"/>
+    <hyperlink ref="N248" r:id="rId564" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300472"/>
+    <hyperlink ref="O248" r:id="rId565" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300472.phtml"/>
+    <hyperlink ref="C249" r:id="rId566" display="http://finance.sina.com.cn/realstock/company/sz002760/nc.shtml"/>
+    <hyperlink ref="M249" r:id="rId567" display="javascript:void(0)"/>
+    <hyperlink ref="N249" r:id="rId568" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002760"/>
+    <hyperlink ref="O249" r:id="rId569" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002760.phtml"/>
+    <hyperlink ref="C250" r:id="rId570" display="http://finance.sina.com.cn/realstock/company/sh603616/nc.shtml"/>
+    <hyperlink ref="M250" r:id="rId571" display="javascript:void(0)"/>
+    <hyperlink ref="N250" r:id="rId572" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603616"/>
+    <hyperlink ref="O250" r:id="rId573" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603616.phtml"/>
+    <hyperlink ref="C251" r:id="rId574" display="http://finance.sina.com.cn/realstock/company/sh601968/nc.shtml"/>
+    <hyperlink ref="M251" r:id="rId575" display="javascript:void(0)"/>
+    <hyperlink ref="N251" r:id="rId576" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=601968"/>
+    <hyperlink ref="O251" r:id="rId577" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/601968.phtml"/>
+    <hyperlink ref="C252" r:id="rId578" display="http://finance.sina.com.cn/realstock/company/sz300473/nc.shtml"/>
+    <hyperlink ref="M252" r:id="rId579" display="javascript:void(0)"/>
+    <hyperlink ref="N252" r:id="rId580" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300473"/>
+    <hyperlink ref="O252" r:id="rId581" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300473.phtml"/>
+    <hyperlink ref="C253" r:id="rId582" display="http://finance.sina.com.cn/realstock/company/sz002766/nc.shtml"/>
+    <hyperlink ref="M253" r:id="rId583" display="javascript:void(0)"/>
+    <hyperlink ref="N253" r:id="rId584" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002766"/>
+    <hyperlink ref="O253" r:id="rId585" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002766.phtml"/>
+    <hyperlink ref="C254" r:id="rId586" display="http://finance.sina.com.cn/realstock/company/sz300476/nc.shtml"/>
+    <hyperlink ref="M254" r:id="rId587" display="javascript:void(0)"/>
+    <hyperlink ref="N254" r:id="rId588" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300476"/>
+    <hyperlink ref="O254" r:id="rId589" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300476.phtml"/>
+    <hyperlink ref="C255" r:id="rId590" display="http://finance.sina.com.cn/realstock/company/sz300469/nc.shtml"/>
+    <hyperlink ref="M255" r:id="rId591" display="javascript:void(0)"/>
+    <hyperlink ref="N255" r:id="rId592" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300469"/>
+    <hyperlink ref="O255" r:id="rId593" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300469.phtml"/>
+    <hyperlink ref="C256" r:id="rId594" display="http://finance.sina.com.cn/realstock/company/sh603066/nc.shtml"/>
+    <hyperlink ref="M256" r:id="rId595" display="javascript:void(0)"/>
+    <hyperlink ref="N256" r:id="rId596" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603066"/>
+    <hyperlink ref="O256" r:id="rId597" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603066.phtml"/>
+    <hyperlink ref="C257" r:id="rId598" display="http://finance.sina.com.cn/realstock/company/sh601368/nc.shtml"/>
+    <hyperlink ref="M257" r:id="rId599" display="javascript:void(0)"/>
+    <hyperlink ref="N257" r:id="rId600" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=601368"/>
+    <hyperlink ref="O257" r:id="rId601" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/601368.phtml"/>
+    <hyperlink ref="C258" r:id="rId602" display="http://finance.sina.com.cn/realstock/company/sz002765/nc.shtml"/>
+    <hyperlink ref="M258" r:id="rId603" display="javascript:void(0)"/>
+    <hyperlink ref="N258" r:id="rId604" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002765"/>
+    <hyperlink ref="O258" r:id="rId605" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002765.phtml"/>
+    <hyperlink ref="C259" r:id="rId606" display="http://finance.sina.com.cn/realstock/company/sz300475/nc.shtml"/>
+    <hyperlink ref="M259" r:id="rId607" display="javascript:void(0)"/>
+    <hyperlink ref="N259" r:id="rId608" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300475"/>
+    <hyperlink ref="O259" r:id="rId609" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300475.phtml"/>
+    <hyperlink ref="C260" r:id="rId610" display="http://finance.sina.com.cn/realstock/company/sz002763/nc.shtml"/>
+    <hyperlink ref="M260" r:id="rId611" display="javascript:void(0)"/>
+    <hyperlink ref="N260" r:id="rId612" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002763"/>
+    <hyperlink ref="O260" r:id="rId613" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002763.phtml"/>
+    <hyperlink ref="C261" r:id="rId614" display="http://finance.sina.com.cn/realstock/company/sh601985/nc.shtml"/>
+    <hyperlink ref="M261" r:id="rId615" display="javascript:void(0)"/>
+    <hyperlink ref="N261" r:id="rId616" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=601985"/>
+    <hyperlink ref="O261" r:id="rId617" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/601985.phtml"/>
+    <hyperlink ref="C262" r:id="rId618" display="http://finance.sina.com.cn/realstock/company/sz300478/nc.shtml"/>
+    <hyperlink ref="M262" r:id="rId619" display="javascript:void(0)"/>
+    <hyperlink ref="N262" r:id="rId620" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300478"/>
+    <hyperlink ref="O262" r:id="rId621" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300478.phtml"/>
+    <hyperlink ref="C263" r:id="rId622" display="http://finance.sina.com.cn/realstock/company/sz300464/nc.shtml"/>
+    <hyperlink ref="M263" r:id="rId623" display="javascript:void(0)"/>
+    <hyperlink ref="N263" r:id="rId624" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300464"/>
+    <hyperlink ref="O263" r:id="rId625" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300464.phtml"/>
+    <hyperlink ref="C264" r:id="rId626" display="http://finance.sina.com.cn/realstock/company/sz300477/nc.shtml"/>
+    <hyperlink ref="M264" r:id="rId627" display="javascript:void(0)"/>
+    <hyperlink ref="N264" r:id="rId628" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300477"/>
+    <hyperlink ref="O264" r:id="rId629" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300477.phtml"/>
+    <hyperlink ref="C265" r:id="rId630" display="http://finance.sina.com.cn/realstock/company/sz300470/nc.shtml"/>
+    <hyperlink ref="M265" r:id="rId631" display="javascript:void(0)"/>
+    <hyperlink ref="N265" r:id="rId632" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300470"/>
+    <hyperlink ref="O265" r:id="rId633" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300470.phtml"/>
+    <hyperlink ref="C266" r:id="rId634" display="http://finance.sina.com.cn/realstock/company/sz002762/nc.shtml"/>
+    <hyperlink ref="M266" r:id="rId635" display="javascript:void(0)"/>
+    <hyperlink ref="N266" r:id="rId636" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002762"/>
+    <hyperlink ref="O266" r:id="rId637" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002762.phtml"/>
+    <hyperlink ref="C267" r:id="rId638" display="http://finance.sina.com.cn/realstock/company/sz002761/nc.shtml"/>
+    <hyperlink ref="M267" r:id="rId639" display="javascript:void(0)"/>
+    <hyperlink ref="N267" r:id="rId640" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002761"/>
+    <hyperlink ref="O267" r:id="rId641" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002761.phtml"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId558"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId642"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
@@ -13953,12 +15645,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>

--- a/sse/综合数据分析（天）/2014新股.xlsx
+++ b/sse/综合数据分析（天）/2014新股.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="372">
   <si>
     <t>证券代码</t>
   </si>
@@ -1517,11 +1517,57 @@
   <si>
     <t>迈克生物</t>
   </si>
+  <si>
+    <t>网下有效申购数量(万股)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>网上有效申购数量(股</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>网下冻结资金（万元）</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上冻结资金（元）</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算用网下冻结金额</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算用网上冻结金额</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上初始认购倍数</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上初始发行股数（万股）</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="181" formatCode="#,##0_ "/>
+  </numFmts>
   <fonts count="25">
     <font>
       <sz val="12"/>
@@ -2139,7 +2185,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2262,6 +2308,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2647,10 +2702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L292"/>
+  <dimension ref="A1:T292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2658,10 +2713,16 @@
     <col min="3" max="3" width="19" style="30" customWidth="1"/>
     <col min="4" max="4" width="26.875" customWidth="1"/>
     <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="7" width="9" style="1"/>
+    <col min="6" max="7" width="9" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="13" max="13" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="56.5" customWidth="1"/>
+    <col min="16" max="16" width="15.375" customWidth="1"/>
+    <col min="17" max="17" width="10.5" customWidth="1"/>
+    <col min="18" max="18" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.5" customHeight="1">
+    <row r="1" spans="1:20" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2698,8 +2759,32 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="18">
         <v>603616</v>
       </c>
@@ -2735,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:20">
       <c r="A3" s="19">
         <v>603066</v>
       </c>
@@ -2770,8 +2855,9 @@
       <c r="L3" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="R3" s="42"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="19">
         <v>601968</v>
       </c>
@@ -2806,8 +2892,9 @@
       <c r="L4" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="R4" s="42"/>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="18">
         <v>300479</v>
       </c>
@@ -2842,8 +2929,9 @@
       <c r="L5" s="38">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="R5" s="42"/>
+    </row>
+    <row r="6" spans="1:20" ht="56.25">
       <c r="A6" s="19">
         <v>300476</v>
       </c>
@@ -2878,8 +2966,9 @@
       <c r="L6" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="R6" s="42"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="19">
         <v>300473</v>
       </c>
@@ -2914,8 +3003,9 @@
       <c r="L7" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="R7" s="42"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="19">
         <v>300472</v>
       </c>
@@ -2950,8 +3040,9 @@
       <c r="L8" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="R8" s="42"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="19">
         <v>300471</v>
       </c>
@@ -2986,8 +3077,9 @@
       <c r="L9" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="R9" s="42"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="18">
         <v>300469</v>
       </c>
@@ -3022,8 +3114,9 @@
       <c r="L10" s="38">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="R10" s="42"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="18">
         <v>2767</v>
       </c>
@@ -3058,8 +3151,9 @@
       <c r="L11" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="R11" s="42"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="18">
         <v>2766</v>
       </c>
@@ -3094,8 +3188,9 @@
       <c r="L12" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="R12" s="42"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="18">
         <v>2760</v>
       </c>
@@ -3130,8 +3225,9 @@
       <c r="L13" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="R13" s="42"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="19">
         <v>601985</v>
       </c>
@@ -3152,7 +3248,7 @@
         <v>334</v>
       </c>
       <c r="H14" s="27">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I14" s="27">
         <v>0</v>
@@ -3166,8 +3262,15 @@
       <c r="L14" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="41">
+        <v>1119264096000</v>
+      </c>
+      <c r="N14" s="41">
+        <v>565814638470</v>
+      </c>
+      <c r="R14" s="42"/>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="19">
         <v>601368</v>
       </c>
@@ -3202,8 +3305,9 @@
       <c r="L15" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="R15" s="42"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="18">
         <v>300478</v>
       </c>
@@ -3238,8 +3342,9 @@
       <c r="L16" s="38">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="R16" s="42"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="18">
         <v>300477</v>
       </c>
@@ -3274,8 +3379,9 @@
       <c r="L17" s="38">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="R17" s="42"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="19">
         <v>300475</v>
       </c>
@@ -3310,8 +3416,9 @@
       <c r="L18" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="R18" s="42"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="19">
         <v>300470</v>
       </c>
@@ -3346,8 +3453,9 @@
       <c r="L19" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="R19" s="42"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="19">
         <v>300464</v>
       </c>
@@ -3382,8 +3490,9 @@
       <c r="L20" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="R20" s="42"/>
+    </row>
+    <row r="21" spans="1:20" ht="22.5">
       <c r="A21" s="18">
         <v>2765</v>
       </c>
@@ -3418,8 +3527,9 @@
       <c r="L21" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="R21" s="42"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="18">
         <v>2763</v>
       </c>
@@ -3440,7 +3550,7 @@
         <v>331</v>
       </c>
       <c r="H22" s="28">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="I22" s="28">
         <v>0</v>
@@ -3454,8 +3564,24 @@
       <c r="L22" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="41">
+        <v>35562570000</v>
+      </c>
+      <c r="N22" s="42">
+        <v>173714803200</v>
+      </c>
+      <c r="R22" s="42">
+        <f>H22*S22*T22*10000</f>
+        <v>173714803200</v>
+      </c>
+      <c r="S22" s="41">
+        <v>2160</v>
+      </c>
+      <c r="T22">
+        <v>613.91999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="22.5">
       <c r="A23" s="18">
         <v>2762</v>
       </c>
@@ -3476,7 +3602,7 @@
         <v>346</v>
       </c>
       <c r="H23" s="28">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I23" s="28">
         <v>0</v>
@@ -3490,8 +3616,28 @@
       <c r="L23" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="41">
+        <v>26520000000</v>
+      </c>
+      <c r="N23" s="42">
+        <v>134950894000</v>
+      </c>
+      <c r="O23" s="41">
+        <v>102000</v>
+      </c>
+      <c r="P23" s="41">
+        <v>5190419000</v>
+      </c>
+      <c r="Q23">
+        <f>H23*O23*10000</f>
+        <v>26520000000</v>
+      </c>
+      <c r="R23" s="42">
+        <f>H23*P23</f>
+        <v>134950894000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="18">
         <v>2761</v>
       </c>
@@ -3512,7 +3658,7 @@
         <v>320</v>
       </c>
       <c r="H24" s="28">
-        <v>0</v>
+        <v>7.28</v>
       </c>
       <c r="I24" s="28">
         <v>0</v>
@@ -3526,8 +3672,21 @@
       <c r="L24" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="41">
+        <v>12055680000</v>
+      </c>
+      <c r="N24" s="42">
+        <v>86288784400</v>
+      </c>
+      <c r="P24" s="43">
+        <v>11852855000</v>
+      </c>
+      <c r="R24" s="42">
+        <f>H24*P24</f>
+        <v>86288784400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="19">
         <v>603026</v>
       </c>
@@ -3565,7 +3724,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:20">
       <c r="A26" s="18">
         <v>603918</v>
       </c>
@@ -3603,7 +3762,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:20">
       <c r="A27" s="19">
         <v>603901</v>
       </c>
@@ -3641,7 +3800,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:20">
       <c r="A28" s="19">
         <v>603669</v>
       </c>
@@ -3679,7 +3838,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:20">
       <c r="A29" s="18">
         <v>603568</v>
       </c>
@@ -3717,7 +3876,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:20">
       <c r="A30" s="18">
         <v>603300</v>
       </c>
@@ -3755,7 +3914,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:20">
       <c r="A31" s="18">
         <v>603198</v>
       </c>
@@ -3793,7 +3952,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:20">
       <c r="A32" s="19">
         <v>300465</v>
       </c>

--- a/sse/综合数据分析（天）/2014新股.xlsx
+++ b/sse/综合数据分析（天）/2014新股.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="409">
   <si>
     <t>证券代码</t>
   </si>
@@ -1498,64 +1498,394 @@
     <t xml:space="preserve">金发拉比 </t>
   </si>
   <si>
-    <t xml:space="preserve">石大胜华 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">灵康药业 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">华铁科技 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">永创智能 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">迎驾贡酒 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">伟明环保 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">高伟达 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">金桥信息 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">迅游科技 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">迈克生物 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">华通医药 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">引力传媒 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">威帝股份 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">赛摩电气 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">华铭智能 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">南兴装备 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">吉祥航空 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">润达医疗 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">四方精创 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">天际股份 </t>
+    <t xml:space="preserve">光力科技 </t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>920</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">恒锋工具 </t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>657</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">科迪乳业 </t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2736</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">中飞股份 </t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>454</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">濮阳惠成 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">天成自控 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蓝晓科技 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">金诚信 </t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9500</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3800</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">恒通股份 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">东杰智能 </t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1372</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">万孚生物 </t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2200</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">真视通 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">国恩股份 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">口子窖 </t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1800</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">普路通 </t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1850</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>740</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">柏堡龙 </t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2622</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1042</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">国泰君安 </t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>45750</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">红蜻蜓 </t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1764</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">沃施股份 </t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1550</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">文科园林 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">四通股份 </t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1324</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">万林股份 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">康弘药业 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">赛升药业 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">众兴菌业 </t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1490</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">厚普股份 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">韩建河山 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">宝钢包装 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">先锋电子 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">德尔股份 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">索菱股份 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">胜宏科技 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">信息发展 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">音飞储存 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">神思电子 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">新元科技 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">凤形股份 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">杭州高新 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">多喜爱 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">聚隆科技 </t>
   </si>
 </sst>
 </file>
@@ -2202,7 +2532,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2331,6 +2661,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -14083,10 +14419,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14155,38 +14491,38 @@
     </row>
     <row r="2" spans="1:20" ht="15" thickBot="1">
       <c r="A2" s="40">
-        <v>300470</v>
+        <v>300480</v>
       </c>
       <c r="B2" s="30">
-        <v>300470</v>
+        <v>300480</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="D2" s="32">
-        <v>42157</v>
+        <v>42178</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="34">
-        <v>1334</v>
-      </c>
-      <c r="G2" s="34">
-        <v>1201</v>
+        <v>2300</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>352</v>
       </c>
       <c r="H2" s="34">
-        <v>34.6</v>
+        <v>0</v>
       </c>
       <c r="I2" s="34">
-        <v>21.84</v>
+        <v>0</v>
       </c>
       <c r="J2" s="34">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K2" s="34">
-        <v>4.617</v>
+        <v>1.675</v>
       </c>
       <c r="L2" s="34">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="M2" s="31" t="s">
         <v>13</v>
@@ -14200,38 +14536,38 @@
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1">
       <c r="A3" s="42">
-        <v>601368</v>
+        <v>300488</v>
       </c>
       <c r="B3" s="35">
-        <v>780368</v>
+        <v>300488</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="D3" s="37">
-        <v>42157</v>
+        <v>42178</v>
       </c>
       <c r="E3" s="38"/>
-      <c r="F3" s="39">
-        <v>14700</v>
-      </c>
-      <c r="G3" s="39">
-        <v>13230</v>
+      <c r="F3" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>354</v>
       </c>
       <c r="H3" s="39">
-        <v>6.43</v>
+        <v>0</v>
       </c>
       <c r="I3" s="39">
-        <v>22.96</v>
+        <v>0</v>
       </c>
       <c r="J3" s="39">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="K3" s="39">
-        <v>8.8010000000000002</v>
+        <v>2.516</v>
       </c>
       <c r="L3" s="39">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M3" s="36" t="s">
         <v>13</v>
@@ -14245,40 +14581,38 @@
     </row>
     <row r="4" spans="1:20" ht="15" thickBot="1">
       <c r="A4" s="40">
-        <v>300464</v>
+        <v>2770</v>
       </c>
       <c r="B4" s="30">
-        <v>300464</v>
+        <v>2770</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="D4" s="32">
-        <v>42157</v>
-      </c>
-      <c r="E4" s="32">
-        <v>42165</v>
-      </c>
+        <v>42174</v>
+      </c>
+      <c r="E4" s="33"/>
       <c r="F4" s="34">
-        <v>2067</v>
-      </c>
-      <c r="G4" s="34">
-        <v>1860</v>
+        <v>6840</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>356</v>
       </c>
       <c r="H4" s="34">
-        <v>10.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I4" s="34">
-        <v>22.67</v>
+        <v>0</v>
       </c>
       <c r="J4" s="34">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K4" s="34">
-        <v>2.1080000000000001</v>
+        <v>4.6849999999999996</v>
       </c>
       <c r="L4" s="34">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="M4" s="31" t="s">
         <v>13</v>
@@ -14292,40 +14626,38 @@
     </row>
     <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="42">
-        <v>2763</v>
+        <v>300489</v>
       </c>
       <c r="B5" s="35">
-        <v>2763</v>
+        <v>300489</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D5" s="37">
-        <v>42157</v>
-      </c>
-      <c r="E5" s="37">
-        <v>42165</v>
-      </c>
+        <v>42174</v>
+      </c>
+      <c r="E5" s="38"/>
       <c r="F5" s="39">
-        <v>5400</v>
-      </c>
-      <c r="G5" s="39">
-        <v>4860</v>
+        <v>1135</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>358</v>
       </c>
       <c r="H5" s="39">
-        <v>13.1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="39">
-        <v>21.72</v>
+        <v>0</v>
       </c>
       <c r="J5" s="39">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="K5" s="39">
-        <v>7.077</v>
+        <v>1.9930000000000001</v>
       </c>
       <c r="L5" s="39">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="M5" s="36" t="s">
         <v>13</v>
@@ -14339,40 +14671,38 @@
     </row>
     <row r="6" spans="1:20" ht="15" thickBot="1">
       <c r="A6" s="40">
-        <v>601985</v>
+        <v>300481</v>
       </c>
       <c r="B6" s="30">
-        <v>780985</v>
+        <v>300481</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="D6" s="32">
-        <v>42157</v>
-      </c>
-      <c r="E6" s="32">
-        <v>42165</v>
-      </c>
+        <v>42174</v>
+      </c>
+      <c r="E6" s="33"/>
       <c r="F6" s="34">
-        <v>389100</v>
-      </c>
-      <c r="G6" s="34">
-        <v>272370</v>
+        <v>2000</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>280</v>
       </c>
       <c r="H6" s="34">
-        <v>3.39</v>
+        <v>0</v>
       </c>
       <c r="I6" s="34">
-        <v>22.29</v>
+        <v>0</v>
       </c>
       <c r="J6" s="34">
-        <v>116.7</v>
+        <v>0</v>
       </c>
       <c r="K6" s="34">
-        <v>135.79900000000001</v>
+        <v>1.8260000000000001</v>
       </c>
       <c r="L6" s="34">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="M6" s="31" t="s">
         <v>13</v>
@@ -14386,38 +14716,38 @@
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1">
       <c r="A7" s="42">
-        <v>2765</v>
+        <v>603085</v>
       </c>
       <c r="B7" s="35">
-        <v>2765</v>
+        <v>732085</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="D7" s="37">
-        <v>42157</v>
+        <v>42174</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="39">
-        <v>5200</v>
-      </c>
-      <c r="G7" s="39">
-        <v>4680</v>
+        <v>2500</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>268</v>
       </c>
       <c r="H7" s="39">
-        <v>7.67</v>
+        <v>0</v>
       </c>
       <c r="I7" s="39">
-        <v>22.98</v>
+        <v>0</v>
       </c>
       <c r="J7" s="39">
-        <v>2.0499999999999998</v>
+        <v>0</v>
       </c>
       <c r="K7" s="39">
-        <v>3.669</v>
+        <v>1.8180000000000001</v>
       </c>
       <c r="L7" s="39">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="M7" s="36" t="s">
         <v>13</v>
@@ -14431,40 +14761,38 @@
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1">
       <c r="A8" s="40">
-        <v>300477</v>
+        <v>300487</v>
       </c>
       <c r="B8" s="30">
-        <v>300477</v>
+        <v>300487</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="D8" s="32">
-        <v>42157</v>
-      </c>
-      <c r="E8" s="32">
-        <v>42165</v>
-      </c>
+        <v>42174</v>
+      </c>
+      <c r="E8" s="33"/>
       <c r="F8" s="34">
-        <v>2705</v>
-      </c>
-      <c r="G8" s="34">
-        <v>2340</v>
+        <v>2000</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>280</v>
       </c>
       <c r="H8" s="34">
-        <v>10.61</v>
+        <v>0</v>
       </c>
       <c r="I8" s="34">
-        <v>15.38</v>
+        <v>0</v>
       </c>
       <c r="J8" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="34">
-        <v>2.76</v>
+        <v>2.9660000000000002</v>
       </c>
       <c r="L8" s="34">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="M8" s="31" t="s">
         <v>13</v>
@@ -14478,40 +14806,38 @@
     </row>
     <row r="9" spans="1:20" ht="15" thickBot="1">
       <c r="A9" s="42">
-        <v>2762</v>
+        <v>603979</v>
       </c>
       <c r="B9" s="35">
-        <v>2762</v>
+        <v>732979</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="D9" s="37">
-        <v>42157</v>
-      </c>
-      <c r="E9" s="37">
-        <v>42165</v>
-      </c>
-      <c r="F9" s="39">
-        <v>1700</v>
-      </c>
-      <c r="G9" s="39">
-        <v>1530</v>
+        <v>42174</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>364</v>
       </c>
       <c r="H9" s="39">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I9" s="39">
-        <v>18.71</v>
+        <v>0</v>
       </c>
       <c r="J9" s="39">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="K9" s="39">
-        <v>4.4210000000000003</v>
+        <v>16.332000000000001</v>
       </c>
       <c r="L9" s="39">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="M9" s="36" t="s">
         <v>13</v>
@@ -14525,40 +14851,38 @@
     </row>
     <row r="10" spans="1:20" ht="15" thickBot="1">
       <c r="A10" s="40">
-        <v>603026</v>
+        <v>603223</v>
       </c>
       <c r="B10" s="30">
-        <v>732026</v>
+        <v>732223</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="D10" s="32">
-        <v>42145</v>
-      </c>
-      <c r="E10" s="32">
-        <v>42153</v>
-      </c>
-      <c r="F10" s="34">
-        <v>5068</v>
-      </c>
-      <c r="G10" s="34">
-        <v>4561</v>
+        <v>42174</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>290</v>
       </c>
       <c r="H10" s="34">
-        <v>6.51</v>
+        <v>0</v>
       </c>
       <c r="I10" s="34">
-        <v>32.549999999999997</v>
+        <v>0</v>
       </c>
       <c r="J10" s="34">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="K10" s="34">
-        <v>3.2989999999999999</v>
+        <v>2.4929999999999999</v>
       </c>
       <c r="L10" s="34">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M10" s="31" t="s">
         <v>13</v>
@@ -14572,40 +14896,38 @@
     </row>
     <row r="11" spans="1:20" ht="15" thickBot="1">
       <c r="A11" s="42">
-        <v>603669</v>
+        <v>300486</v>
       </c>
       <c r="B11" s="35">
-        <v>732669</v>
+        <v>300486</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="D11" s="37">
-        <v>42144</v>
-      </c>
-      <c r="E11" s="37">
-        <v>42152</v>
-      </c>
+        <v>42174</v>
+      </c>
+      <c r="E11" s="38"/>
       <c r="F11" s="39">
-        <v>6500</v>
-      </c>
-      <c r="G11" s="39">
-        <v>5850</v>
+        <v>3472</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>367</v>
       </c>
       <c r="H11" s="39">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="I11" s="39">
-        <v>22.98</v>
+        <v>0</v>
       </c>
       <c r="J11" s="39">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="K11" s="39">
-        <v>7.6050000000000004</v>
+        <v>3.1070000000000002</v>
       </c>
       <c r="L11" s="39">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="M11" s="36" t="s">
         <v>13</v>
@@ -14619,40 +14941,38 @@
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1">
       <c r="A12" s="40">
-        <v>603300</v>
+        <v>300482</v>
       </c>
       <c r="B12" s="30">
-        <v>732300</v>
+        <v>300482</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="D12" s="32">
-        <v>42144</v>
-      </c>
-      <c r="E12" s="32">
-        <v>42153</v>
-      </c>
-      <c r="F12" s="34">
-        <v>5067</v>
-      </c>
-      <c r="G12" s="34">
-        <v>4560</v>
+        <v>42174</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>285</v>
       </c>
       <c r="H12" s="34">
-        <v>8.2200000000000006</v>
+        <v>0</v>
       </c>
       <c r="I12" s="34">
-        <v>22.98</v>
+        <v>0</v>
       </c>
       <c r="J12" s="34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12" s="34">
-        <v>4.165</v>
+        <v>3.52</v>
       </c>
       <c r="L12" s="34">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="M12" s="31" t="s">
         <v>13</v>
@@ -14666,40 +14986,38 @@
     </row>
     <row r="13" spans="1:20" ht="15" thickBot="1">
       <c r="A13" s="42">
-        <v>603901</v>
+        <v>2771</v>
       </c>
       <c r="B13" s="35">
-        <v>732901</v>
+        <v>2771</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="D13" s="37">
-        <v>42144</v>
-      </c>
-      <c r="E13" s="37">
-        <v>42153</v>
-      </c>
+        <v>42173</v>
+      </c>
+      <c r="E13" s="38"/>
       <c r="F13" s="39">
-        <v>2500</v>
-      </c>
-      <c r="G13" s="39">
-        <v>2250</v>
+        <v>2000</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>280</v>
       </c>
       <c r="H13" s="39">
-        <v>15.81</v>
+        <v>0</v>
       </c>
       <c r="I13" s="39">
-        <v>22.91</v>
+        <v>0</v>
       </c>
       <c r="J13" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="39">
-        <v>3.9529999999999998</v>
+        <v>2.556</v>
       </c>
       <c r="L13" s="39">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="M13" s="36" t="s">
         <v>13</v>
@@ -14713,40 +15031,38 @@
     </row>
     <row r="14" spans="1:20" ht="15" thickBot="1">
       <c r="A14" s="40">
-        <v>603198</v>
+        <v>2768</v>
       </c>
       <c r="B14" s="30">
-        <v>732198</v>
+        <v>2768</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="D14" s="32">
-        <v>42144</v>
-      </c>
-      <c r="E14" s="32">
-        <v>42152</v>
-      </c>
+        <v>42173</v>
+      </c>
+      <c r="E14" s="33"/>
       <c r="F14" s="34">
-        <v>8000</v>
-      </c>
-      <c r="G14" s="34">
-        <v>7200</v>
+        <v>2000</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>280</v>
       </c>
       <c r="H14" s="34">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="I14" s="34">
-        <v>19.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="J14" s="34">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="K14" s="34">
-        <v>9.4459999999999997</v>
+        <v>3.4940000000000002</v>
       </c>
       <c r="L14" s="34">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="M14" s="31" t="s">
         <v>13</v>
@@ -14760,40 +15076,38 @@
     </row>
     <row r="15" spans="1:20" ht="15" thickBot="1">
       <c r="A15" s="42">
-        <v>603568</v>
+        <v>603589</v>
       </c>
       <c r="B15" s="35">
-        <v>732568</v>
+        <v>732589</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="D15" s="37">
-        <v>42144</v>
-      </c>
-      <c r="E15" s="37">
-        <v>42152</v>
-      </c>
+        <v>42173</v>
+      </c>
+      <c r="E15" s="38"/>
       <c r="F15" s="39">
-        <v>4580</v>
-      </c>
-      <c r="G15" s="39">
-        <v>4122</v>
+        <v>6000</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>373</v>
       </c>
       <c r="H15" s="39">
-        <v>11.27</v>
+        <v>0</v>
       </c>
       <c r="I15" s="39">
-        <v>22.97</v>
+        <v>0</v>
       </c>
       <c r="J15" s="39">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="K15" s="39">
-        <v>5.1619999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="L15" s="39">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="M15" s="36" t="s">
         <v>13</v>
@@ -14807,40 +15121,38 @@
     </row>
     <row r="16" spans="1:20" ht="15" thickBot="1">
       <c r="A16" s="40">
-        <v>300465</v>
+        <v>2769</v>
       </c>
       <c r="B16" s="30">
-        <v>300465</v>
+        <v>2769</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="D16" s="32">
-        <v>42144</v>
-      </c>
-      <c r="E16" s="32">
-        <v>42152</v>
-      </c>
-      <c r="F16" s="34">
-        <v>3334</v>
-      </c>
-      <c r="G16" s="34">
-        <v>3001</v>
+        <v>42173</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>376</v>
       </c>
       <c r="H16" s="34">
-        <v>11.26</v>
+        <v>0</v>
       </c>
       <c r="I16" s="34">
-        <v>22.93</v>
+        <v>0</v>
       </c>
       <c r="J16" s="34">
-        <v>1.2</v>
+        <v>0.74</v>
       </c>
       <c r="K16" s="34">
-        <v>3.754</v>
+        <v>5.2709999999999999</v>
       </c>
       <c r="L16" s="34">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M16" s="31" t="s">
         <v>13</v>
@@ -14854,40 +15166,38 @@
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1">
       <c r="A17" s="42">
-        <v>603918</v>
+        <v>2776</v>
       </c>
       <c r="B17" s="35">
-        <v>732918</v>
+        <v>2776</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="D17" s="37">
-        <v>42144</v>
-      </c>
-      <c r="E17" s="37">
-        <v>42152</v>
-      </c>
-      <c r="F17" s="39">
-        <v>2200</v>
-      </c>
-      <c r="G17" s="39">
-        <v>1980</v>
+        <v>42173</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="44" t="s">
+        <v>378</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>379</v>
       </c>
       <c r="H17" s="39">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="I17" s="39">
-        <v>22.99</v>
+        <v>0</v>
       </c>
       <c r="J17" s="39">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K17" s="39">
-        <v>2.09</v>
+        <v>6.1070000000000002</v>
       </c>
       <c r="L17" s="39">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="M17" s="36" t="s">
         <v>13</v>
@@ -14901,40 +15211,38 @@
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1">
       <c r="A18" s="40">
-        <v>300467</v>
+        <v>601211</v>
       </c>
       <c r="B18" s="30">
-        <v>300467</v>
+        <v>780211</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="D18" s="32">
-        <v>42143</v>
-      </c>
-      <c r="E18" s="32">
-        <v>42151</v>
-      </c>
+        <v>42173</v>
+      </c>
+      <c r="E18" s="33"/>
       <c r="F18" s="34">
-        <v>1000</v>
-      </c>
-      <c r="G18" s="34">
-        <v>900</v>
+        <v>152500</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>381</v>
       </c>
       <c r="H18" s="34">
-        <v>33.75</v>
+        <v>0</v>
       </c>
       <c r="I18" s="34">
-        <v>22.99</v>
+        <v>0</v>
       </c>
       <c r="J18" s="34">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K18" s="34">
-        <v>3.375</v>
+        <v>300.577</v>
       </c>
       <c r="L18" s="34">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M18" s="31" t="s">
         <v>13</v>
@@ -14948,40 +15256,38 @@
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1">
       <c r="A19" s="42">
-        <v>300463</v>
+        <v>603116</v>
       </c>
       <c r="B19" s="35">
-        <v>300463</v>
+        <v>732116</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D19" s="37">
-        <v>42143</v>
-      </c>
-      <c r="E19" s="37">
-        <v>42152</v>
-      </c>
+        <v>42173</v>
+      </c>
+      <c r="E19" s="38"/>
       <c r="F19" s="39">
-        <v>4650</v>
-      </c>
-      <c r="G19" s="39">
-        <v>3375</v>
+        <v>5880</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>383</v>
       </c>
       <c r="H19" s="39">
-        <v>27.96</v>
+        <v>0</v>
       </c>
       <c r="I19" s="39">
-        <v>22.99</v>
+        <v>0</v>
       </c>
       <c r="J19" s="39">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="K19" s="39">
-        <v>10.066000000000001</v>
+        <v>10.412000000000001</v>
       </c>
       <c r="L19" s="39">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="M19" s="36" t="s">
         <v>13</v>
@@ -14995,40 +15301,38 @@
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1">
       <c r="A20" s="40">
-        <v>2758</v>
+        <v>300483</v>
       </c>
       <c r="B20" s="30">
-        <v>2758</v>
+        <v>300483</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="D20" s="32">
-        <v>42143</v>
-      </c>
-      <c r="E20" s="32">
-        <v>42151</v>
-      </c>
-      <c r="F20" s="34">
-        <v>1400</v>
-      </c>
-      <c r="G20" s="34">
-        <v>1260</v>
+        <v>42173</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>277</v>
       </c>
       <c r="H20" s="34">
-        <v>18.04</v>
+        <v>0</v>
       </c>
       <c r="I20" s="34">
-        <v>22.98</v>
+        <v>0</v>
       </c>
       <c r="J20" s="34">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="K20" s="34">
-        <v>2.5259999999999998</v>
+        <v>1.7649999999999999</v>
       </c>
       <c r="L20" s="34">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="M20" s="31" t="s">
         <v>13</v>
@@ -15042,40 +15346,38 @@
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1">
       <c r="A21" s="42">
-        <v>603598</v>
+        <v>2775</v>
       </c>
       <c r="B21" s="35">
-        <v>732598</v>
+        <v>2775</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="D21" s="37">
-        <v>42143</v>
-      </c>
-      <c r="E21" s="37">
-        <v>42151</v>
-      </c>
-      <c r="F21" s="39">
-        <v>3334</v>
-      </c>
-      <c r="G21" s="39">
-        <v>3001</v>
+        <v>42173</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>290</v>
       </c>
       <c r="H21" s="39">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="39">
-        <v>22.96</v>
+        <v>0</v>
       </c>
       <c r="J21" s="39">
         <v>1.2</v>
       </c>
       <c r="K21" s="39">
-        <v>2.403</v>
+        <v>5.0789999999999997</v>
       </c>
       <c r="L21" s="39">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="M21" s="36" t="s">
         <v>13</v>
@@ -15089,40 +15391,38 @@
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1">
       <c r="A22" s="40">
-        <v>603023</v>
+        <v>603838</v>
       </c>
       <c r="B22" s="30">
-        <v>732023</v>
+        <v>732838</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="D22" s="32">
-        <v>42143</v>
-      </c>
-      <c r="E22" s="32">
-        <v>42151</v>
-      </c>
+        <v>42173</v>
+      </c>
+      <c r="E22" s="33"/>
       <c r="F22" s="34">
-        <v>2000</v>
-      </c>
-      <c r="G22" s="34">
-        <v>1800</v>
+        <v>3334</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>388</v>
       </c>
       <c r="H22" s="34">
-        <v>13.25</v>
+        <v>0</v>
       </c>
       <c r="I22" s="34">
-        <v>14.46</v>
+        <v>0</v>
       </c>
       <c r="J22" s="34">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K22" s="34">
-        <v>2.65</v>
+        <v>2.577</v>
       </c>
       <c r="L22" s="34">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="M22" s="31" t="s">
         <v>13</v>
@@ -15136,40 +15436,38 @@
     </row>
     <row r="23" spans="1:15" ht="15" thickBot="1">
       <c r="A23" s="42">
-        <v>300466</v>
+        <v>603117</v>
       </c>
       <c r="B23" s="35">
-        <v>300466</v>
+        <v>732117</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="D23" s="37">
-        <v>42143</v>
-      </c>
-      <c r="E23" s="37">
-        <v>42152</v>
-      </c>
+        <v>42173</v>
+      </c>
+      <c r="E23" s="38"/>
       <c r="F23" s="39">
-        <v>2000</v>
-      </c>
-      <c r="G23" s="39">
-        <v>1800</v>
+        <v>6000</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>373</v>
       </c>
       <c r="H23" s="39">
-        <v>10.25</v>
+        <v>0</v>
       </c>
       <c r="I23" s="39">
-        <v>22.99</v>
+        <v>0</v>
       </c>
       <c r="J23" s="39">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K23" s="39">
-        <v>2.0499999999999998</v>
+        <v>3.5579999999999998</v>
       </c>
       <c r="L23" s="39">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="M23" s="36" t="s">
         <v>13</v>
@@ -15183,40 +15481,38 @@
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1">
       <c r="A24" s="40">
-        <v>300462</v>
+        <v>2773</v>
       </c>
       <c r="B24" s="30">
-        <v>300462</v>
+        <v>2773</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="D24" s="32">
-        <v>42143</v>
-      </c>
-      <c r="E24" s="32">
-        <v>42151</v>
-      </c>
+        <v>42172</v>
+      </c>
+      <c r="E24" s="33"/>
       <c r="F24" s="34">
-        <v>1722</v>
-      </c>
-      <c r="G24" s="34">
-        <v>1550</v>
+        <v>4560</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>262</v>
       </c>
       <c r="H24" s="34">
-        <v>14.25</v>
+        <v>0</v>
       </c>
       <c r="I24" s="34">
-        <v>22.97</v>
+        <v>0</v>
       </c>
       <c r="J24" s="34">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K24" s="34">
-        <v>2.4540000000000002</v>
+        <v>6.2110000000000003</v>
       </c>
       <c r="L24" s="34">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="M24" s="31" t="s">
         <v>13</v>
@@ -15230,40 +15526,38 @@
     </row>
     <row r="25" spans="1:15" ht="15" thickBot="1">
       <c r="A25" s="42">
-        <v>2757</v>
+        <v>300485</v>
       </c>
       <c r="B25" s="35">
-        <v>2757</v>
+        <v>300485</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="D25" s="37">
-        <v>42143</v>
-      </c>
-      <c r="E25" s="37">
-        <v>42151</v>
-      </c>
-      <c r="F25" s="39">
-        <v>2734</v>
-      </c>
-      <c r="G25" s="39">
-        <v>2461</v>
+        <v>42172</v>
+      </c>
+      <c r="E25" s="38"/>
+      <c r="F25" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>290</v>
       </c>
       <c r="H25" s="39">
-        <v>12.94</v>
+        <v>0</v>
       </c>
       <c r="I25" s="39">
-        <v>22.98</v>
+        <v>0</v>
       </c>
       <c r="J25" s="39">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="K25" s="39">
-        <v>3.5379999999999998</v>
+        <v>11.538</v>
       </c>
       <c r="L25" s="39">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="M25" s="36" t="s">
         <v>13</v>
@@ -15277,40 +15571,38 @@
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1">
       <c r="A26" s="40">
-        <v>603885</v>
+        <v>2772</v>
       </c>
       <c r="B26" s="30">
-        <v>732885</v>
+        <v>2772</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="D26" s="32">
-        <v>42143</v>
-      </c>
-      <c r="E26" s="32">
-        <v>42151</v>
-      </c>
+        <v>42172</v>
+      </c>
+      <c r="E26" s="33"/>
       <c r="F26" s="34">
-        <v>6800</v>
-      </c>
-      <c r="G26" s="34">
-        <v>6120</v>
+        <v>3725</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>393</v>
       </c>
       <c r="H26" s="34">
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="I26" s="34">
-        <v>22.98</v>
+        <v>0</v>
       </c>
       <c r="J26" s="34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K26" s="34">
-        <v>7.6070000000000002</v>
+        <v>4.843</v>
       </c>
       <c r="L26" s="34">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="M26" s="31" t="s">
         <v>13</v>
@@ -15324,40 +15616,40 @@
     </row>
     <row r="27" spans="1:15" ht="15" thickBot="1">
       <c r="A27" s="42">
-        <v>603108</v>
+        <v>300471</v>
       </c>
       <c r="B27" s="35">
-        <v>732108</v>
+        <v>300471</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="D27" s="37">
-        <v>42143</v>
+        <v>42158</v>
       </c>
       <c r="E27" s="37">
-        <v>42151</v>
+        <v>42166</v>
       </c>
       <c r="F27" s="39">
-        <v>2360</v>
+        <v>1780</v>
       </c>
       <c r="G27" s="39">
-        <v>2124</v>
+        <v>1332</v>
       </c>
       <c r="H27" s="39">
-        <v>17</v>
+        <v>54.01</v>
       </c>
       <c r="I27" s="39">
-        <v>22.97</v>
+        <v>21.85</v>
       </c>
       <c r="J27" s="39">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K27" s="39">
-        <v>4.0119999999999996</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="L27" s="39">
-        <v>0.28000000000000003</v>
+        <v>0.53</v>
       </c>
       <c r="M27" s="36" t="s">
         <v>13</v>
@@ -15371,40 +15663,40 @@
     </row>
     <row r="28" spans="1:15" ht="15" thickBot="1">
       <c r="A28" s="40">
-        <v>300468</v>
+        <v>603616</v>
       </c>
       <c r="B28" s="30">
-        <v>300468</v>
+        <v>732616</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="D28" s="32">
-        <v>42143</v>
+        <v>42158</v>
       </c>
       <c r="E28" s="32">
-        <v>42151</v>
+        <v>42166</v>
       </c>
       <c r="F28" s="34">
-        <v>2500</v>
+        <v>3668</v>
       </c>
       <c r="G28" s="34">
-        <v>2250</v>
+        <v>3301</v>
       </c>
       <c r="H28" s="34">
-        <v>18.760000000000002</v>
+        <v>11.35</v>
       </c>
       <c r="I28" s="34">
-        <v>22.98</v>
+        <v>20.64</v>
       </c>
       <c r="J28" s="34">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="K28" s="34">
-        <v>4.6900000000000004</v>
+        <v>4.1660000000000004</v>
       </c>
       <c r="L28" s="34">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="M28" s="31" t="s">
         <v>13</v>
@@ -15418,40 +15710,40 @@
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1">
       <c r="A29" s="42">
-        <v>2759</v>
+        <v>601968</v>
       </c>
       <c r="B29" s="35">
-        <v>2759</v>
+        <v>780968</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="D29" s="37">
-        <v>42143</v>
+        <v>42158</v>
       </c>
       <c r="E29" s="37">
-        <v>42152</v>
+        <v>42166</v>
       </c>
       <c r="F29" s="39">
-        <v>2400</v>
+        <v>20833</v>
       </c>
       <c r="G29" s="39">
-        <v>2160</v>
+        <v>18750</v>
       </c>
       <c r="H29" s="39">
-        <v>12.02</v>
+        <v>3.08</v>
       </c>
       <c r="I29" s="39">
-        <v>20.16</v>
+        <v>22.93</v>
       </c>
       <c r="J29" s="39">
-        <v>0.95</v>
+        <v>6.2</v>
       </c>
       <c r="K29" s="39">
-        <v>2.8860000000000001</v>
+        <v>6.4169999999999998</v>
       </c>
       <c r="L29" s="39">
-        <v>0.31</v>
+        <v>0.45</v>
       </c>
       <c r="M29" s="36" t="s">
         <v>13</v>
@@ -15465,40 +15757,40 @@
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1">
       <c r="A30" s="40">
-        <v>300461</v>
+        <v>2767</v>
       </c>
       <c r="B30" s="30">
-        <v>300461</v>
+        <v>2767</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>182</v>
+        <v>397</v>
       </c>
       <c r="D30" s="32">
-        <v>42135</v>
+        <v>42158</v>
       </c>
       <c r="E30" s="32">
-        <v>42143</v>
+        <v>42167</v>
       </c>
       <c r="F30" s="34">
-        <v>1668</v>
+        <v>2500</v>
       </c>
       <c r="G30" s="34">
-        <v>1501</v>
+        <v>2250</v>
       </c>
       <c r="H30" s="34">
-        <v>7.92</v>
+        <v>14.87</v>
       </c>
       <c r="I30" s="34">
-        <v>22.98</v>
+        <v>22.43</v>
       </c>
       <c r="J30" s="34">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="K30" s="34">
-        <v>1.321</v>
+        <v>3.7189999999999999</v>
       </c>
       <c r="L30" s="34">
-        <v>0.12</v>
+        <v>0.35</v>
       </c>
       <c r="M30" s="31" t="s">
         <v>13</v>
@@ -15512,40 +15804,40 @@
     </row>
     <row r="31" spans="1:15" ht="15" thickBot="1">
       <c r="A31" s="42">
-        <v>603989</v>
+        <v>300473</v>
       </c>
       <c r="B31" s="35">
-        <v>732989</v>
+        <v>300473</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>186</v>
+        <v>398</v>
       </c>
       <c r="D31" s="37">
-        <v>42131</v>
+        <v>42158</v>
       </c>
       <c r="E31" s="37">
-        <v>42139</v>
+        <v>42167</v>
       </c>
       <c r="F31" s="39">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G31" s="39">
-        <v>4500</v>
+        <v>2250</v>
       </c>
       <c r="H31" s="39">
-        <v>20.74</v>
+        <v>28.76</v>
       </c>
       <c r="I31" s="39">
         <v>22.99</v>
       </c>
       <c r="J31" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K31" s="39">
-        <v>10.371</v>
+        <v>7.19</v>
       </c>
       <c r="L31" s="39">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
       <c r="M31" s="36" t="s">
         <v>13</v>
@@ -15559,40 +15851,40 @@
     </row>
     <row r="32" spans="1:15" ht="15" thickBot="1">
       <c r="A32" s="40">
-        <v>2753</v>
+        <v>2766</v>
       </c>
       <c r="B32" s="30">
-        <v>2753</v>
+        <v>2766</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>187</v>
+        <v>399</v>
       </c>
       <c r="D32" s="32">
-        <v>42131</v>
+        <v>42158</v>
       </c>
       <c r="E32" s="32">
-        <v>42143</v>
+        <v>42166</v>
       </c>
       <c r="F32" s="34">
-        <v>2470</v>
+        <v>4580</v>
       </c>
       <c r="G32" s="34">
-        <v>2223</v>
+        <v>4122</v>
       </c>
       <c r="H32" s="34">
-        <v>13.56</v>
+        <v>7.53</v>
       </c>
       <c r="I32" s="34">
-        <v>22.99</v>
+        <v>22.82</v>
       </c>
       <c r="J32" s="34">
-        <v>0.95</v>
+        <v>1.8</v>
       </c>
       <c r="K32" s="34">
-        <v>3.3490000000000002</v>
+        <v>3.4489999999999998</v>
       </c>
       <c r="L32" s="34">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
       <c r="M32" s="31" t="s">
         <v>13</v>
@@ -15606,40 +15898,40 @@
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1">
       <c r="A33" s="42">
-        <v>603311</v>
+        <v>300476</v>
       </c>
       <c r="B33" s="35">
-        <v>732311</v>
+        <v>300476</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>183</v>
+        <v>400</v>
       </c>
       <c r="D33" s="37">
-        <v>42131</v>
+        <v>42158</v>
       </c>
       <c r="E33" s="37">
-        <v>42142</v>
+        <v>42166</v>
       </c>
       <c r="F33" s="39">
-        <v>5250</v>
+        <v>3667</v>
       </c>
       <c r="G33" s="39">
-        <v>4725</v>
+        <v>3300</v>
       </c>
       <c r="H33" s="39">
-        <v>5.39</v>
+        <v>15.73</v>
       </c>
       <c r="I33" s="39">
-        <v>22.99</v>
+        <v>22.97</v>
       </c>
       <c r="J33" s="39">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="K33" s="39">
-        <v>2.83</v>
+        <v>5.7679999999999998</v>
       </c>
       <c r="L33" s="39">
-        <v>0.3</v>
+        <v>0.46</v>
       </c>
       <c r="M33" s="36" t="s">
         <v>13</v>
@@ -15653,40 +15945,40 @@
     </row>
     <row r="34" spans="1:15" ht="15" thickBot="1">
       <c r="A34" s="40">
-        <v>603968</v>
+        <v>300469</v>
       </c>
       <c r="B34" s="30">
-        <v>732968</v>
+        <v>300469</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>184</v>
+        <v>401</v>
       </c>
       <c r="D34" s="32">
-        <v>42131</v>
+        <v>42158</v>
       </c>
       <c r="E34" s="32">
-        <v>42142</v>
+        <v>42166</v>
       </c>
       <c r="F34" s="34">
-        <v>2556</v>
+        <v>1670</v>
       </c>
       <c r="G34" s="34">
-        <v>2300</v>
+        <v>1503</v>
       </c>
       <c r="H34" s="34">
-        <v>19.579999999999998</v>
+        <v>10.14</v>
       </c>
       <c r="I34" s="34">
         <v>22.98</v>
       </c>
       <c r="J34" s="34">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K34" s="34">
-        <v>5.0049999999999999</v>
+        <v>1.6930000000000001</v>
       </c>
       <c r="L34" s="34">
-        <v>0.57999999999999996</v>
+        <v>0.26</v>
       </c>
       <c r="M34" s="31" t="s">
         <v>13</v>
@@ -15700,40 +15992,40 @@
     </row>
     <row r="35" spans="1:15" ht="15" thickBot="1">
       <c r="A35" s="42">
-        <v>603566</v>
+        <v>603066</v>
       </c>
       <c r="B35" s="35">
-        <v>732566</v>
+        <v>732066</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>185</v>
+        <v>402</v>
       </c>
       <c r="D35" s="37">
-        <v>42131</v>
+        <v>42158</v>
       </c>
       <c r="E35" s="37">
-        <v>42142</v>
+        <v>42166</v>
       </c>
       <c r="F35" s="39">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="G35" s="39">
-        <v>3600</v>
+        <v>2250</v>
       </c>
       <c r="H35" s="39">
-        <v>15.52</v>
+        <v>12.43</v>
       </c>
       <c r="I35" s="39">
-        <v>18.89</v>
+        <v>20.98</v>
       </c>
       <c r="J35" s="39">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="K35" s="39">
-        <v>6.2119999999999997</v>
+        <v>3.1080000000000001</v>
       </c>
       <c r="L35" s="39">
-        <v>0.51</v>
+        <v>0.26</v>
       </c>
       <c r="M35" s="36" t="s">
         <v>13</v>
@@ -15747,40 +16039,40 @@
     </row>
     <row r="36" spans="1:15" ht="15" thickBot="1">
       <c r="A36" s="40">
-        <v>603227</v>
+        <v>300479</v>
       </c>
       <c r="B36" s="30">
-        <v>732227</v>
+        <v>300479</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>196</v>
+        <v>403</v>
       </c>
       <c r="D36" s="32">
-        <v>42130</v>
+        <v>42158</v>
       </c>
       <c r="E36" s="32">
-        <v>42139</v>
+        <v>42167</v>
       </c>
       <c r="F36" s="34">
-        <v>8235</v>
+        <v>2000</v>
       </c>
       <c r="G36" s="34">
-        <v>7412</v>
+        <v>1800</v>
       </c>
       <c r="H36" s="34">
-        <v>4.9800000000000004</v>
+        <v>11.02</v>
       </c>
       <c r="I36" s="34">
-        <v>22.95</v>
+        <v>22.96</v>
       </c>
       <c r="J36" s="34">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="K36" s="34">
-        <v>3.875</v>
+        <v>2.2040000000000002</v>
       </c>
       <c r="L36" s="34">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M36" s="31" t="s">
         <v>13</v>
@@ -15794,40 +16086,40 @@
     </row>
     <row r="37" spans="1:15" ht="15" thickBot="1">
       <c r="A37" s="42">
-        <v>300456</v>
+        <v>300472</v>
       </c>
       <c r="B37" s="35">
-        <v>300456</v>
+        <v>300472</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>188</v>
+        <v>404</v>
       </c>
       <c r="D37" s="37">
-        <v>42130</v>
+        <v>42158</v>
       </c>
       <c r="E37" s="37">
-        <v>42138</v>
+        <v>42166</v>
       </c>
       <c r="F37" s="39">
-        <v>2100</v>
+        <v>1667</v>
       </c>
       <c r="G37" s="39">
-        <v>1890</v>
+        <v>1500</v>
       </c>
       <c r="H37" s="39">
-        <v>14.01</v>
+        <v>11.39</v>
       </c>
       <c r="I37" s="39">
-        <v>22.98</v>
+        <v>22.99</v>
       </c>
       <c r="J37" s="39">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="K37" s="39">
-        <v>2.802</v>
+        <v>1.899</v>
       </c>
       <c r="L37" s="39">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="M37" s="36" t="s">
         <v>13</v>
@@ -15841,40 +16133,40 @@
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1">
       <c r="A38" s="40">
-        <v>603022</v>
+        <v>2760</v>
       </c>
       <c r="B38" s="30">
-        <v>732022</v>
+        <v>2760</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>189</v>
+        <v>405</v>
       </c>
       <c r="D38" s="32">
-        <v>42130</v>
+        <v>42158</v>
       </c>
       <c r="E38" s="32">
-        <v>42142</v>
+        <v>42166</v>
       </c>
       <c r="F38" s="34">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="G38" s="34">
-        <v>1800</v>
+        <v>1980</v>
       </c>
       <c r="H38" s="34">
-        <v>14.31</v>
+        <v>8.31</v>
       </c>
       <c r="I38" s="34">
-        <v>22.98</v>
+        <v>22.97</v>
       </c>
       <c r="J38" s="34">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="K38" s="34">
-        <v>2.8620000000000001</v>
+        <v>1.8280000000000001</v>
       </c>
       <c r="L38" s="34">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="M38" s="31" t="s">
         <v>13</v>
@@ -15888,40 +16180,40 @@
     </row>
     <row r="39" spans="1:15" ht="15" thickBot="1">
       <c r="A39" s="42">
-        <v>300455</v>
+        <v>300478</v>
       </c>
       <c r="B39" s="35">
-        <v>300455</v>
+        <v>300478</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>190</v>
+        <v>406</v>
       </c>
       <c r="D39" s="37">
-        <v>42130</v>
+        <v>42157</v>
       </c>
       <c r="E39" s="37">
-        <v>42139</v>
+        <v>42165</v>
       </c>
       <c r="F39" s="39">
-        <v>3500</v>
+        <v>1667</v>
       </c>
       <c r="G39" s="39">
-        <v>3150</v>
+        <v>1500</v>
       </c>
       <c r="H39" s="39">
-        <v>6.88</v>
+        <v>14.84</v>
       </c>
       <c r="I39" s="39">
-        <v>18.11</v>
+        <v>22.99</v>
       </c>
       <c r="J39" s="39">
-        <v>1.4</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K39" s="39">
-        <v>2.4089999999999998</v>
+        <v>2.4740000000000002</v>
       </c>
       <c r="L39" s="39">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="M39" s="36" t="s">
         <v>13</v>
@@ -15935,40 +16227,40 @@
     </row>
     <row r="40" spans="1:15" ht="15" thickBot="1">
       <c r="A40" s="40">
-        <v>300458</v>
+        <v>300464</v>
       </c>
       <c r="B40" s="30">
-        <v>300458</v>
+        <v>300464</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>191</v>
+        <v>345</v>
       </c>
       <c r="D40" s="32">
-        <v>42130</v>
+        <v>42157</v>
       </c>
       <c r="E40" s="32">
-        <v>42139</v>
+        <v>42165</v>
       </c>
       <c r="F40" s="34">
-        <v>4000</v>
+        <v>2067</v>
       </c>
       <c r="G40" s="34">
-        <v>3600</v>
+        <v>1860</v>
       </c>
       <c r="H40" s="34">
-        <v>12.73</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I40" s="34">
-        <v>19.89</v>
+        <v>22.67</v>
       </c>
       <c r="J40" s="34">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="K40" s="34">
-        <v>5.0940000000000003</v>
+        <v>2.1080000000000001</v>
       </c>
       <c r="L40" s="34">
-        <v>0.43</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M40" s="31" t="s">
         <v>13</v>
@@ -15982,40 +16274,40 @@
     </row>
     <row r="41" spans="1:15" ht="15" thickBot="1">
       <c r="A41" s="42">
-        <v>300453</v>
+        <v>300477</v>
       </c>
       <c r="B41" s="35">
-        <v>300453</v>
+        <v>300477</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>192</v>
+        <v>349</v>
       </c>
       <c r="D41" s="37">
-        <v>42130</v>
+        <v>42157</v>
       </c>
       <c r="E41" s="37">
-        <v>42139</v>
+        <v>42165</v>
       </c>
       <c r="F41" s="39">
-        <v>1986</v>
+        <v>2705</v>
       </c>
       <c r="G41" s="39">
-        <v>1787</v>
+        <v>2340</v>
       </c>
       <c r="H41" s="39">
-        <v>12.87</v>
+        <v>10.61</v>
       </c>
       <c r="I41" s="39">
-        <v>22.98</v>
+        <v>15.38</v>
       </c>
       <c r="J41" s="39">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K41" s="39">
-        <v>2.556</v>
+        <v>2.76</v>
       </c>
       <c r="L41" s="39">
-        <v>0.41</v>
+        <v>0.24</v>
       </c>
       <c r="M41" s="36" t="s">
         <v>13</v>
@@ -16024,179 +16316,587 @@
         <v>343</v>
       </c>
       <c r="O41" s="36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15" thickBot="1">
+      <c r="A42" s="40">
+        <v>300470</v>
+      </c>
+      <c r="B42" s="30">
+        <v>300470</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="D42" s="32">
+        <v>42157</v>
+      </c>
+      <c r="E42" s="32">
+        <v>42167</v>
+      </c>
+      <c r="F42" s="34">
+        <v>1334</v>
+      </c>
+      <c r="G42" s="34">
+        <v>1201</v>
+      </c>
+      <c r="H42" s="34">
+        <v>34.6</v>
+      </c>
+      <c r="I42" s="34">
+        <v>21.84</v>
+      </c>
+      <c r="J42" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="K42" s="34">
+        <v>4.617</v>
+      </c>
+      <c r="L42" s="34">
+        <v>0.33</v>
+      </c>
+      <c r="M42" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O42" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15" thickBot="1">
+      <c r="A43" s="42">
+        <v>2762</v>
+      </c>
+      <c r="B43" s="35">
+        <v>2762</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="D43" s="37">
+        <v>42157</v>
+      </c>
+      <c r="E43" s="37">
+        <v>42165</v>
+      </c>
+      <c r="F43" s="39">
+        <v>1700</v>
+      </c>
+      <c r="G43" s="39">
+        <v>1530</v>
+      </c>
+      <c r="H43" s="39">
+        <v>26</v>
+      </c>
+      <c r="I43" s="39">
+        <v>18.71</v>
+      </c>
+      <c r="J43" s="39">
+        <v>0.65</v>
+      </c>
+      <c r="K43" s="39">
+        <v>4.4210000000000003</v>
+      </c>
+      <c r="L43" s="39">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M43" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="N43" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="O43" s="36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15" thickBot="1">
+      <c r="A44" s="40">
+        <v>2761</v>
+      </c>
+      <c r="B44" s="30">
+        <v>2761</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="D44" s="32">
+        <v>42157</v>
+      </c>
+      <c r="E44" s="32">
+        <v>42165</v>
+      </c>
+      <c r="F44" s="34">
+        <v>3000</v>
+      </c>
+      <c r="G44" s="34">
+        <v>2700</v>
+      </c>
+      <c r="H44" s="34">
+        <v>7.28</v>
+      </c>
+      <c r="I44" s="34">
+        <v>22.75</v>
+      </c>
+      <c r="J44" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="K44" s="34">
+        <v>2.1840000000000002</v>
+      </c>
+      <c r="L44" s="34">
+        <v>0.23</v>
+      </c>
+      <c r="M44" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N44" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O44" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15" thickBot="1">
+      <c r="A45" s="42">
+        <v>601368</v>
+      </c>
+      <c r="B45" s="35">
+        <v>780368</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="D45" s="37">
+        <v>42157</v>
+      </c>
+      <c r="E45" s="37">
+        <v>42167</v>
+      </c>
+      <c r="F45" s="39">
+        <v>14700</v>
+      </c>
+      <c r="G45" s="39">
+        <v>13230</v>
+      </c>
+      <c r="H45" s="39">
+        <v>6.43</v>
+      </c>
+      <c r="I45" s="39">
+        <v>22.96</v>
+      </c>
+      <c r="J45" s="39">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K45" s="39">
+        <v>8.8010000000000002</v>
+      </c>
+      <c r="L45" s="39">
+        <v>0.3</v>
+      </c>
+      <c r="M45" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="N45" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="O45" s="36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15" thickBot="1">
+      <c r="A46" s="40">
+        <v>2765</v>
+      </c>
+      <c r="B46" s="30">
+        <v>2765</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="D46" s="32">
+        <v>42157</v>
+      </c>
+      <c r="E46" s="32">
+        <v>42167</v>
+      </c>
+      <c r="F46" s="34">
+        <v>5200</v>
+      </c>
+      <c r="G46" s="34">
+        <v>4680</v>
+      </c>
+      <c r="H46" s="34">
+        <v>7.67</v>
+      </c>
+      <c r="I46" s="34">
+        <v>22.98</v>
+      </c>
+      <c r="J46" s="34">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K46" s="34">
+        <v>3.669</v>
+      </c>
+      <c r="L46" s="34">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M46" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N46" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O46" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15" thickBot="1">
+      <c r="A47" s="42">
+        <v>300475</v>
+      </c>
+      <c r="B47" s="35">
+        <v>300475</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="D47" s="37">
+        <v>42157</v>
+      </c>
+      <c r="E47" s="37">
+        <v>42165</v>
+      </c>
+      <c r="F47" s="39">
+        <v>5000</v>
+      </c>
+      <c r="G47" s="39">
+        <v>4500</v>
+      </c>
+      <c r="H47" s="39">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I47" s="39">
+        <v>13.33</v>
+      </c>
+      <c r="J47" s="39">
+        <v>2</v>
+      </c>
+      <c r="K47" s="39">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L47" s="39">
+        <v>0.27</v>
+      </c>
+      <c r="M47" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="N47" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="O47" s="36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15" thickBot="1">
+      <c r="A48" s="40">
+        <v>2763</v>
+      </c>
+      <c r="B48" s="30">
+        <v>2763</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="D48" s="32">
+        <v>42157</v>
+      </c>
+      <c r="E48" s="32">
+        <v>42165</v>
+      </c>
+      <c r="F48" s="34">
+        <v>5400</v>
+      </c>
+      <c r="G48" s="34">
+        <v>4860</v>
+      </c>
+      <c r="H48" s="34">
+        <v>13.1</v>
+      </c>
+      <c r="I48" s="34">
+        <v>21.72</v>
+      </c>
+      <c r="J48" s="34">
+        <v>2.15</v>
+      </c>
+      <c r="K48" s="34">
+        <v>7.077</v>
+      </c>
+      <c r="L48" s="34">
+        <v>0.37</v>
+      </c>
+      <c r="M48" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N48" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O48" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15" thickBot="1">
+      <c r="A49" s="42">
+        <v>601985</v>
+      </c>
+      <c r="B49" s="35">
+        <v>780985</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="D49" s="37">
+        <v>42157</v>
+      </c>
+      <c r="E49" s="37">
+        <v>42165</v>
+      </c>
+      <c r="F49" s="39">
+        <v>389100</v>
+      </c>
+      <c r="G49" s="39">
+        <v>272370</v>
+      </c>
+      <c r="H49" s="39">
+        <v>3.39</v>
+      </c>
+      <c r="I49" s="39">
+        <v>22.29</v>
+      </c>
+      <c r="J49" s="39">
+        <v>116.7</v>
+      </c>
+      <c r="K49" s="39">
+        <v>135.79900000000001</v>
+      </c>
+      <c r="L49" s="39">
+        <v>1.63</v>
+      </c>
+      <c r="M49" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="N49" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="O49" s="36" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://finance.sina.com.cn/realstock/company/sz300470/nc.shtml"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://finance.sina.com.cn/realstock/company/sz300480/nc.shtml"/>
     <hyperlink ref="M2" r:id="rId2" display="javascript:void(0)"/>
-    <hyperlink ref="N2" r:id="rId3" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300470"/>
-    <hyperlink ref="O2" r:id="rId4" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300470.phtml"/>
-    <hyperlink ref="C3" r:id="rId5" display="http://finance.sina.com.cn/realstock/company/sh601368/nc.shtml"/>
+    <hyperlink ref="N2" r:id="rId3" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300480"/>
+    <hyperlink ref="O2" r:id="rId4" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300480.phtml"/>
+    <hyperlink ref="C3" r:id="rId5" display="http://finance.sina.com.cn/realstock/company/sz300488/nc.shtml"/>
     <hyperlink ref="M3" r:id="rId6" display="javascript:void(0)"/>
-    <hyperlink ref="N3" r:id="rId7" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=601368"/>
-    <hyperlink ref="O3" r:id="rId8" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/601368.phtml"/>
-    <hyperlink ref="C4" r:id="rId9" display="http://finance.sina.com.cn/realstock/company/sz300464/nc.shtml"/>
+    <hyperlink ref="N3" r:id="rId7" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300488"/>
+    <hyperlink ref="O3" r:id="rId8" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300488.phtml"/>
+    <hyperlink ref="C4" r:id="rId9" display="http://finance.sina.com.cn/realstock/company/sz002770/nc.shtml"/>
     <hyperlink ref="M4" r:id="rId10" display="javascript:void(0)"/>
-    <hyperlink ref="N4" r:id="rId11" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300464"/>
-    <hyperlink ref="O4" r:id="rId12" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300464.phtml"/>
-    <hyperlink ref="C5" r:id="rId13" display="http://finance.sina.com.cn/realstock/company/sz002763/nc.shtml"/>
+    <hyperlink ref="N4" r:id="rId11" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002770"/>
+    <hyperlink ref="O4" r:id="rId12" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002770.phtml"/>
+    <hyperlink ref="C5" r:id="rId13" display="http://finance.sina.com.cn/realstock/company/sz300489/nc.shtml"/>
     <hyperlink ref="M5" r:id="rId14" display="javascript:void(0)"/>
-    <hyperlink ref="N5" r:id="rId15" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002763"/>
-    <hyperlink ref="O5" r:id="rId16" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002763.phtml"/>
-    <hyperlink ref="C6" r:id="rId17" display="http://finance.sina.com.cn/realstock/company/sh601985/nc.shtml"/>
+    <hyperlink ref="N5" r:id="rId15" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300489"/>
+    <hyperlink ref="O5" r:id="rId16" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300489.phtml"/>
+    <hyperlink ref="C6" r:id="rId17" display="http://finance.sina.com.cn/realstock/company/sz300481/nc.shtml"/>
     <hyperlink ref="M6" r:id="rId18" display="javascript:void(0)"/>
-    <hyperlink ref="N6" r:id="rId19" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=601985"/>
-    <hyperlink ref="O6" r:id="rId20" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/601985.phtml"/>
-    <hyperlink ref="C7" r:id="rId21" display="http://finance.sina.com.cn/realstock/company/sz002765/nc.shtml"/>
+    <hyperlink ref="N6" r:id="rId19" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300481"/>
+    <hyperlink ref="O6" r:id="rId20" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300481.phtml"/>
+    <hyperlink ref="C7" r:id="rId21" display="http://finance.sina.com.cn/realstock/company/sh603085/nc.shtml"/>
     <hyperlink ref="M7" r:id="rId22" display="javascript:void(0)"/>
-    <hyperlink ref="N7" r:id="rId23" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002765"/>
-    <hyperlink ref="O7" r:id="rId24" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002765.phtml"/>
-    <hyperlink ref="C8" r:id="rId25" display="http://finance.sina.com.cn/realstock/company/sz300477/nc.shtml"/>
+    <hyperlink ref="N7" r:id="rId23" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603085"/>
+    <hyperlink ref="O7" r:id="rId24" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603085.phtml"/>
+    <hyperlink ref="C8" r:id="rId25" display="http://finance.sina.com.cn/realstock/company/sz300487/nc.shtml"/>
     <hyperlink ref="M8" r:id="rId26" display="javascript:void(0)"/>
-    <hyperlink ref="N8" r:id="rId27" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300477"/>
-    <hyperlink ref="O8" r:id="rId28" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300477.phtml"/>
-    <hyperlink ref="C9" r:id="rId29" display="http://finance.sina.com.cn/realstock/company/sz002762/nc.shtml"/>
+    <hyperlink ref="N8" r:id="rId27" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300487"/>
+    <hyperlink ref="O8" r:id="rId28" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300487.phtml"/>
+    <hyperlink ref="C9" r:id="rId29" display="http://finance.sina.com.cn/realstock/company/sh603979/nc.shtml"/>
     <hyperlink ref="M9" r:id="rId30" display="javascript:void(0)"/>
-    <hyperlink ref="N9" r:id="rId31" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002762"/>
-    <hyperlink ref="O9" r:id="rId32" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002762.phtml"/>
-    <hyperlink ref="C10" r:id="rId33" display="http://finance.sina.com.cn/realstock/company/sh603026/nc.shtml"/>
+    <hyperlink ref="N9" r:id="rId31" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603979"/>
+    <hyperlink ref="O9" r:id="rId32" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603979.phtml"/>
+    <hyperlink ref="C10" r:id="rId33" display="http://finance.sina.com.cn/realstock/company/sh603223/nc.shtml"/>
     <hyperlink ref="M10" r:id="rId34" display="javascript:void(0)"/>
-    <hyperlink ref="N10" r:id="rId35" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603026"/>
-    <hyperlink ref="O10" r:id="rId36" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603026.phtml"/>
-    <hyperlink ref="C11" r:id="rId37" display="http://finance.sina.com.cn/realstock/company/sh603669/nc.shtml"/>
+    <hyperlink ref="N10" r:id="rId35" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603223"/>
+    <hyperlink ref="O10" r:id="rId36" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603223.phtml"/>
+    <hyperlink ref="C11" r:id="rId37" display="http://finance.sina.com.cn/realstock/company/sz300486/nc.shtml"/>
     <hyperlink ref="M11" r:id="rId38" display="javascript:void(0)"/>
-    <hyperlink ref="N11" r:id="rId39" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603669"/>
-    <hyperlink ref="O11" r:id="rId40" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603669.phtml"/>
-    <hyperlink ref="C12" r:id="rId41" display="http://finance.sina.com.cn/realstock/company/sh603300/nc.shtml"/>
+    <hyperlink ref="N11" r:id="rId39" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300486"/>
+    <hyperlink ref="O11" r:id="rId40" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300486.phtml"/>
+    <hyperlink ref="C12" r:id="rId41" display="http://finance.sina.com.cn/realstock/company/sz300482/nc.shtml"/>
     <hyperlink ref="M12" r:id="rId42" display="javascript:void(0)"/>
-    <hyperlink ref="N12" r:id="rId43" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603300"/>
-    <hyperlink ref="O12" r:id="rId44" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603300.phtml"/>
-    <hyperlink ref="C13" r:id="rId45" display="http://finance.sina.com.cn/realstock/company/sh603901/nc.shtml"/>
+    <hyperlink ref="N12" r:id="rId43" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300482"/>
+    <hyperlink ref="O12" r:id="rId44" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300482.phtml"/>
+    <hyperlink ref="C13" r:id="rId45" display="http://finance.sina.com.cn/realstock/company/sz002771/nc.shtml"/>
     <hyperlink ref="M13" r:id="rId46" display="javascript:void(0)"/>
-    <hyperlink ref="N13" r:id="rId47" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603901"/>
-    <hyperlink ref="O13" r:id="rId48" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603901.phtml"/>
-    <hyperlink ref="C14" r:id="rId49" display="http://finance.sina.com.cn/realstock/company/sh603198/nc.shtml"/>
+    <hyperlink ref="N13" r:id="rId47" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002771"/>
+    <hyperlink ref="O13" r:id="rId48" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002771.phtml"/>
+    <hyperlink ref="C14" r:id="rId49" display="http://finance.sina.com.cn/realstock/company/sz002768/nc.shtml"/>
     <hyperlink ref="M14" r:id="rId50" display="javascript:void(0)"/>
-    <hyperlink ref="N14" r:id="rId51" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603198"/>
-    <hyperlink ref="O14" r:id="rId52" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603198.phtml"/>
-    <hyperlink ref="C15" r:id="rId53" display="http://finance.sina.com.cn/realstock/company/sh603568/nc.shtml"/>
+    <hyperlink ref="N14" r:id="rId51" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002768"/>
+    <hyperlink ref="O14" r:id="rId52" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002768.phtml"/>
+    <hyperlink ref="C15" r:id="rId53" display="http://finance.sina.com.cn/realstock/company/sh603589/nc.shtml"/>
     <hyperlink ref="M15" r:id="rId54" display="javascript:void(0)"/>
-    <hyperlink ref="N15" r:id="rId55" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603568"/>
-    <hyperlink ref="O15" r:id="rId56" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603568.phtml"/>
-    <hyperlink ref="C16" r:id="rId57" display="http://finance.sina.com.cn/realstock/company/sz300465/nc.shtml"/>
+    <hyperlink ref="N15" r:id="rId55" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603589"/>
+    <hyperlink ref="O15" r:id="rId56" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603589.phtml"/>
+    <hyperlink ref="C16" r:id="rId57" display="http://finance.sina.com.cn/realstock/company/sz002769/nc.shtml"/>
     <hyperlink ref="M16" r:id="rId58" display="javascript:void(0)"/>
-    <hyperlink ref="N16" r:id="rId59" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300465"/>
-    <hyperlink ref="O16" r:id="rId60" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300465.phtml"/>
-    <hyperlink ref="C17" r:id="rId61" display="http://finance.sina.com.cn/realstock/company/sh603918/nc.shtml"/>
+    <hyperlink ref="N16" r:id="rId59" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002769"/>
+    <hyperlink ref="O16" r:id="rId60" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002769.phtml"/>
+    <hyperlink ref="C17" r:id="rId61" display="http://finance.sina.com.cn/realstock/company/sz002776/nc.shtml"/>
     <hyperlink ref="M17" r:id="rId62" display="javascript:void(0)"/>
-    <hyperlink ref="N17" r:id="rId63" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603918"/>
-    <hyperlink ref="O17" r:id="rId64" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603918.phtml"/>
-    <hyperlink ref="C18" r:id="rId65" display="http://finance.sina.com.cn/realstock/company/sz300467/nc.shtml"/>
+    <hyperlink ref="N17" r:id="rId63" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002776"/>
+    <hyperlink ref="O17" r:id="rId64" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002776.phtml"/>
+    <hyperlink ref="C18" r:id="rId65" display="http://finance.sina.com.cn/realstock/company/sh601211/nc.shtml"/>
     <hyperlink ref="M18" r:id="rId66" display="javascript:void(0)"/>
-    <hyperlink ref="N18" r:id="rId67" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300467"/>
-    <hyperlink ref="O18" r:id="rId68" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300467.phtml"/>
-    <hyperlink ref="C19" r:id="rId69" display="http://finance.sina.com.cn/realstock/company/sz300463/nc.shtml"/>
+    <hyperlink ref="N18" r:id="rId67" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=601211"/>
+    <hyperlink ref="O18" r:id="rId68" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/601211.phtml"/>
+    <hyperlink ref="C19" r:id="rId69" display="http://finance.sina.com.cn/realstock/company/sh603116/nc.shtml"/>
     <hyperlink ref="M19" r:id="rId70" display="javascript:void(0)"/>
-    <hyperlink ref="N19" r:id="rId71" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300463"/>
-    <hyperlink ref="O19" r:id="rId72" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300463.phtml"/>
-    <hyperlink ref="C20" r:id="rId73" display="http://finance.sina.com.cn/realstock/company/sz002758/nc.shtml"/>
+    <hyperlink ref="N19" r:id="rId71" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603116"/>
+    <hyperlink ref="O19" r:id="rId72" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603116.phtml"/>
+    <hyperlink ref="C20" r:id="rId73" display="http://finance.sina.com.cn/realstock/company/sz300483/nc.shtml"/>
     <hyperlink ref="M20" r:id="rId74" display="javascript:void(0)"/>
-    <hyperlink ref="N20" r:id="rId75" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002758"/>
-    <hyperlink ref="O20" r:id="rId76" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002758.phtml"/>
-    <hyperlink ref="C21" r:id="rId77" display="http://finance.sina.com.cn/realstock/company/sh603598/nc.shtml"/>
+    <hyperlink ref="N20" r:id="rId75" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300483"/>
+    <hyperlink ref="O20" r:id="rId76" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300483.phtml"/>
+    <hyperlink ref="C21" r:id="rId77" display="http://finance.sina.com.cn/realstock/company/sz002775/nc.shtml"/>
     <hyperlink ref="M21" r:id="rId78" display="javascript:void(0)"/>
-    <hyperlink ref="N21" r:id="rId79" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603598"/>
-    <hyperlink ref="O21" r:id="rId80" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603598.phtml"/>
-    <hyperlink ref="C22" r:id="rId81" display="http://finance.sina.com.cn/realstock/company/sh603023/nc.shtml"/>
+    <hyperlink ref="N21" r:id="rId79" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002775"/>
+    <hyperlink ref="O21" r:id="rId80" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002775.phtml"/>
+    <hyperlink ref="C22" r:id="rId81" display="http://finance.sina.com.cn/realstock/company/sh603838/nc.shtml"/>
     <hyperlink ref="M22" r:id="rId82" display="javascript:void(0)"/>
-    <hyperlink ref="N22" r:id="rId83" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603023"/>
-    <hyperlink ref="O22" r:id="rId84" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603023.phtml"/>
-    <hyperlink ref="C23" r:id="rId85" display="http://finance.sina.com.cn/realstock/company/sz300466/nc.shtml"/>
+    <hyperlink ref="N22" r:id="rId83" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603838"/>
+    <hyperlink ref="O22" r:id="rId84" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603838.phtml"/>
+    <hyperlink ref="C23" r:id="rId85" display="http://finance.sina.com.cn/realstock/company/sh603117/nc.shtml"/>
     <hyperlink ref="M23" r:id="rId86" display="javascript:void(0)"/>
-    <hyperlink ref="N23" r:id="rId87" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300466"/>
-    <hyperlink ref="O23" r:id="rId88" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300466.phtml"/>
-    <hyperlink ref="C24" r:id="rId89" display="http://finance.sina.com.cn/realstock/company/sz300462/nc.shtml"/>
+    <hyperlink ref="N23" r:id="rId87" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603117"/>
+    <hyperlink ref="O23" r:id="rId88" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603117.phtml"/>
+    <hyperlink ref="C24" r:id="rId89" display="http://finance.sina.com.cn/realstock/company/sz002773/nc.shtml"/>
     <hyperlink ref="M24" r:id="rId90" display="javascript:void(0)"/>
-    <hyperlink ref="N24" r:id="rId91" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300462"/>
-    <hyperlink ref="O24" r:id="rId92" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300462.phtml"/>
-    <hyperlink ref="C25" r:id="rId93" display="http://finance.sina.com.cn/realstock/company/sz002757/nc.shtml"/>
+    <hyperlink ref="N24" r:id="rId91" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002773"/>
+    <hyperlink ref="O24" r:id="rId92" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002773.phtml"/>
+    <hyperlink ref="C25" r:id="rId93" display="http://finance.sina.com.cn/realstock/company/sz300485/nc.shtml"/>
     <hyperlink ref="M25" r:id="rId94" display="javascript:void(0)"/>
-    <hyperlink ref="N25" r:id="rId95" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002757"/>
-    <hyperlink ref="O25" r:id="rId96" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002757.phtml"/>
-    <hyperlink ref="C26" r:id="rId97" display="http://finance.sina.com.cn/realstock/company/sh603885/nc.shtml"/>
+    <hyperlink ref="N25" r:id="rId95" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300485"/>
+    <hyperlink ref="O25" r:id="rId96" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300485.phtml"/>
+    <hyperlink ref="C26" r:id="rId97" display="http://finance.sina.com.cn/realstock/company/sz002772/nc.shtml"/>
     <hyperlink ref="M26" r:id="rId98" display="javascript:void(0)"/>
-    <hyperlink ref="N26" r:id="rId99" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603885"/>
-    <hyperlink ref="O26" r:id="rId100" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603885.phtml"/>
-    <hyperlink ref="C27" r:id="rId101" display="http://finance.sina.com.cn/realstock/company/sh603108/nc.shtml"/>
+    <hyperlink ref="N26" r:id="rId99" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002772"/>
+    <hyperlink ref="O26" r:id="rId100" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002772.phtml"/>
+    <hyperlink ref="C27" r:id="rId101" display="http://finance.sina.com.cn/realstock/company/sz300471/nc.shtml"/>
     <hyperlink ref="M27" r:id="rId102" display="javascript:void(0)"/>
-    <hyperlink ref="N27" r:id="rId103" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603108"/>
-    <hyperlink ref="O27" r:id="rId104" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603108.phtml"/>
-    <hyperlink ref="C28" r:id="rId105" display="http://finance.sina.com.cn/realstock/company/sz300468/nc.shtml"/>
+    <hyperlink ref="N27" r:id="rId103" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300471"/>
+    <hyperlink ref="O27" r:id="rId104" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300471.phtml"/>
+    <hyperlink ref="C28" r:id="rId105" display="http://finance.sina.com.cn/realstock/company/sh603616/nc.shtml"/>
     <hyperlink ref="M28" r:id="rId106" display="javascript:void(0)"/>
-    <hyperlink ref="N28" r:id="rId107" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300468"/>
-    <hyperlink ref="O28" r:id="rId108" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300468.phtml"/>
-    <hyperlink ref="C29" r:id="rId109" display="http://finance.sina.com.cn/realstock/company/sz002759/nc.shtml"/>
+    <hyperlink ref="N28" r:id="rId107" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603616"/>
+    <hyperlink ref="O28" r:id="rId108" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603616.phtml"/>
+    <hyperlink ref="C29" r:id="rId109" display="http://finance.sina.com.cn/realstock/company/sh601968/nc.shtml"/>
     <hyperlink ref="M29" r:id="rId110" display="javascript:void(0)"/>
-    <hyperlink ref="N29" r:id="rId111" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002759"/>
-    <hyperlink ref="O29" r:id="rId112" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002759.phtml"/>
-    <hyperlink ref="C30" r:id="rId113" display="http://finance.sina.com.cn/realstock/company/sz300461/nc.shtml"/>
+    <hyperlink ref="N29" r:id="rId111" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=601968"/>
+    <hyperlink ref="O29" r:id="rId112" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/601968.phtml"/>
+    <hyperlink ref="C30" r:id="rId113" display="http://finance.sina.com.cn/realstock/company/sz002767/nc.shtml"/>
     <hyperlink ref="M30" r:id="rId114" display="javascript:void(0)"/>
-    <hyperlink ref="N30" r:id="rId115" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300461"/>
-    <hyperlink ref="O30" r:id="rId116" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300461.phtml"/>
-    <hyperlink ref="C31" r:id="rId117" display="http://finance.sina.com.cn/realstock/company/sh603989/nc.shtml"/>
+    <hyperlink ref="N30" r:id="rId115" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002767"/>
+    <hyperlink ref="O30" r:id="rId116" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002767.phtml"/>
+    <hyperlink ref="C31" r:id="rId117" display="http://finance.sina.com.cn/realstock/company/sz300473/nc.shtml"/>
     <hyperlink ref="M31" r:id="rId118" display="javascript:void(0)"/>
-    <hyperlink ref="N31" r:id="rId119" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603989"/>
-    <hyperlink ref="O31" r:id="rId120" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603989.phtml"/>
-    <hyperlink ref="C32" r:id="rId121" display="http://finance.sina.com.cn/realstock/company/sz002753/nc.shtml"/>
+    <hyperlink ref="N31" r:id="rId119" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300473"/>
+    <hyperlink ref="O31" r:id="rId120" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300473.phtml"/>
+    <hyperlink ref="C32" r:id="rId121" display="http://finance.sina.com.cn/realstock/company/sz002766/nc.shtml"/>
     <hyperlink ref="M32" r:id="rId122" display="javascript:void(0)"/>
-    <hyperlink ref="N32" r:id="rId123" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002753"/>
-    <hyperlink ref="O32" r:id="rId124" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002753.phtml"/>
-    <hyperlink ref="C33" r:id="rId125" display="http://finance.sina.com.cn/realstock/company/sh603311/nc.shtml"/>
+    <hyperlink ref="N32" r:id="rId123" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002766"/>
+    <hyperlink ref="O32" r:id="rId124" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002766.phtml"/>
+    <hyperlink ref="C33" r:id="rId125" display="http://finance.sina.com.cn/realstock/company/sz300476/nc.shtml"/>
     <hyperlink ref="M33" r:id="rId126" display="javascript:void(0)"/>
-    <hyperlink ref="N33" r:id="rId127" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603311"/>
-    <hyperlink ref="O33" r:id="rId128" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603311.phtml"/>
-    <hyperlink ref="C34" r:id="rId129" display="http://finance.sina.com.cn/realstock/company/sh603968/nc.shtml"/>
+    <hyperlink ref="N33" r:id="rId127" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300476"/>
+    <hyperlink ref="O33" r:id="rId128" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300476.phtml"/>
+    <hyperlink ref="C34" r:id="rId129" display="http://finance.sina.com.cn/realstock/company/sz300469/nc.shtml"/>
     <hyperlink ref="M34" r:id="rId130" display="javascript:void(0)"/>
-    <hyperlink ref="N34" r:id="rId131" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603968"/>
-    <hyperlink ref="O34" r:id="rId132" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603968.phtml"/>
-    <hyperlink ref="C35" r:id="rId133" display="http://finance.sina.com.cn/realstock/company/sh603566/nc.shtml"/>
+    <hyperlink ref="N34" r:id="rId131" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300469"/>
+    <hyperlink ref="O34" r:id="rId132" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300469.phtml"/>
+    <hyperlink ref="C35" r:id="rId133" display="http://finance.sina.com.cn/realstock/company/sh603066/nc.shtml"/>
     <hyperlink ref="M35" r:id="rId134" display="javascript:void(0)"/>
-    <hyperlink ref="N35" r:id="rId135" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603566"/>
-    <hyperlink ref="O35" r:id="rId136" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603566.phtml"/>
-    <hyperlink ref="C36" r:id="rId137" display="http://finance.sina.com.cn/realstock/company/sh603227/nc.shtml"/>
+    <hyperlink ref="N35" r:id="rId135" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603066"/>
+    <hyperlink ref="O35" r:id="rId136" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603066.phtml"/>
+    <hyperlink ref="C36" r:id="rId137" display="http://finance.sina.com.cn/realstock/company/sz300479/nc.shtml"/>
     <hyperlink ref="M36" r:id="rId138" display="javascript:void(0)"/>
-    <hyperlink ref="N36" r:id="rId139" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603227"/>
-    <hyperlink ref="O36" r:id="rId140" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603227.phtml"/>
-    <hyperlink ref="C37" r:id="rId141" display="http://finance.sina.com.cn/realstock/company/sz300456/nc.shtml"/>
+    <hyperlink ref="N36" r:id="rId139" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300479"/>
+    <hyperlink ref="O36" r:id="rId140" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300479.phtml"/>
+    <hyperlink ref="C37" r:id="rId141" display="http://finance.sina.com.cn/realstock/company/sz300472/nc.shtml"/>
     <hyperlink ref="M37" r:id="rId142" display="javascript:void(0)"/>
-    <hyperlink ref="N37" r:id="rId143" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300456"/>
-    <hyperlink ref="O37" r:id="rId144" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300456.phtml"/>
-    <hyperlink ref="C38" r:id="rId145" display="http://finance.sina.com.cn/realstock/company/sh603022/nc.shtml"/>
+    <hyperlink ref="N37" r:id="rId143" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300472"/>
+    <hyperlink ref="O37" r:id="rId144" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300472.phtml"/>
+    <hyperlink ref="C38" r:id="rId145" display="http://finance.sina.com.cn/realstock/company/sz002760/nc.shtml"/>
     <hyperlink ref="M38" r:id="rId146" display="javascript:void(0)"/>
-    <hyperlink ref="N38" r:id="rId147" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603022"/>
-    <hyperlink ref="O38" r:id="rId148" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603022.phtml"/>
-    <hyperlink ref="C39" r:id="rId149" display="http://finance.sina.com.cn/realstock/company/sz300455/nc.shtml"/>
+    <hyperlink ref="N38" r:id="rId147" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002760"/>
+    <hyperlink ref="O38" r:id="rId148" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002760.phtml"/>
+    <hyperlink ref="C39" r:id="rId149" display="http://finance.sina.com.cn/realstock/company/sz300478/nc.shtml"/>
     <hyperlink ref="M39" r:id="rId150" display="javascript:void(0)"/>
-    <hyperlink ref="N39" r:id="rId151" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300455"/>
-    <hyperlink ref="O39" r:id="rId152" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300455.phtml"/>
-    <hyperlink ref="C40" r:id="rId153" display="http://finance.sina.com.cn/realstock/company/sz300458/nc.shtml"/>
+    <hyperlink ref="N39" r:id="rId151" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300478"/>
+    <hyperlink ref="O39" r:id="rId152" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300478.phtml"/>
+    <hyperlink ref="C40" r:id="rId153" display="http://finance.sina.com.cn/realstock/company/sz300464/nc.shtml"/>
     <hyperlink ref="M40" r:id="rId154" display="javascript:void(0)"/>
-    <hyperlink ref="N40" r:id="rId155" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300458"/>
-    <hyperlink ref="O40" r:id="rId156" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300458.phtml"/>
-    <hyperlink ref="C41" r:id="rId157" display="http://finance.sina.com.cn/realstock/company/sz300453/nc.shtml"/>
+    <hyperlink ref="N40" r:id="rId155" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300464"/>
+    <hyperlink ref="O40" r:id="rId156" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300464.phtml"/>
+    <hyperlink ref="C41" r:id="rId157" display="http://finance.sina.com.cn/realstock/company/sz300477/nc.shtml"/>
     <hyperlink ref="M41" r:id="rId158" display="javascript:void(0)"/>
-    <hyperlink ref="N41" r:id="rId159" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300453"/>
-    <hyperlink ref="O41" r:id="rId160" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300453.phtml"/>
+    <hyperlink ref="N41" r:id="rId159" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300477"/>
+    <hyperlink ref="O41" r:id="rId160" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300477.phtml"/>
     <hyperlink ref="A1" r:id="rId161" tooltip="http://money.finance.sina.com.cn/corp/view/vRPD_NewStockIssue.php?page=1&amp;cngem=0&amp;orderBy=PaperCode&amp;orderType=asc"/>
     <hyperlink ref="C1" r:id="rId162" tooltip="http://money.finance.sina.com.cn/corp/view/vRPD_NewStockIssue.php?page=1&amp;cngem=0&amp;orderBy=PaperName&amp;orderType=asc"/>
     <hyperlink ref="D1" r:id="rId163" tooltip="http://money.finance.sina.com.cn/corp/view/vRPD_NewStockIssue.php?page=1&amp;cngem=0&amp;orderBy=NetDate&amp;orderType=asc"/>
     <hyperlink ref="E1" r:id="rId164" tooltip="http://money.finance.sina.com.cn/corp/view/vRPD_NewStockIssue.php?page=1&amp;cngem=0&amp;orderBy=MarketDate&amp;orderType=asc"/>
+    <hyperlink ref="C42" r:id="rId165" display="http://finance.sina.com.cn/realstock/company/sz300470/nc.shtml"/>
+    <hyperlink ref="M42" r:id="rId166" display="javascript:void(0)"/>
+    <hyperlink ref="N42" r:id="rId167" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300470"/>
+    <hyperlink ref="O42" r:id="rId168" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300470.phtml"/>
+    <hyperlink ref="C43" r:id="rId169" display="http://finance.sina.com.cn/realstock/company/sz002762/nc.shtml"/>
+    <hyperlink ref="M43" r:id="rId170" display="javascript:void(0)"/>
+    <hyperlink ref="N43" r:id="rId171" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002762"/>
+    <hyperlink ref="O43" r:id="rId172" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002762.phtml"/>
+    <hyperlink ref="C44" r:id="rId173" display="http://finance.sina.com.cn/realstock/company/sz002761/nc.shtml"/>
+    <hyperlink ref="M44" r:id="rId174" display="javascript:void(0)"/>
+    <hyperlink ref="N44" r:id="rId175" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002761"/>
+    <hyperlink ref="O44" r:id="rId176" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002761.phtml"/>
+    <hyperlink ref="C45" r:id="rId177" display="http://finance.sina.com.cn/realstock/company/sh601368/nc.shtml"/>
+    <hyperlink ref="M45" r:id="rId178" display="javascript:void(0)"/>
+    <hyperlink ref="N45" r:id="rId179" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=601368"/>
+    <hyperlink ref="O45" r:id="rId180" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/601368.phtml"/>
+    <hyperlink ref="C46" r:id="rId181" display="http://finance.sina.com.cn/realstock/company/sz002765/nc.shtml"/>
+    <hyperlink ref="M46" r:id="rId182" display="javascript:void(0)"/>
+    <hyperlink ref="N46" r:id="rId183" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002765"/>
+    <hyperlink ref="O46" r:id="rId184" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002765.phtml"/>
+    <hyperlink ref="C47" r:id="rId185" display="http://finance.sina.com.cn/realstock/company/sz300475/nc.shtml"/>
+    <hyperlink ref="M47" r:id="rId186" display="javascript:void(0)"/>
+    <hyperlink ref="N47" r:id="rId187" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300475"/>
+    <hyperlink ref="O47" r:id="rId188" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300475.phtml"/>
+    <hyperlink ref="C48" r:id="rId189" display="http://finance.sina.com.cn/realstock/company/sz002763/nc.shtml"/>
+    <hyperlink ref="M48" r:id="rId190" display="javascript:void(0)"/>
+    <hyperlink ref="N48" r:id="rId191" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002763"/>
+    <hyperlink ref="O48" r:id="rId192" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002763.phtml"/>
+    <hyperlink ref="C49" r:id="rId193" display="http://finance.sina.com.cn/realstock/company/sh601985/nc.shtml"/>
+    <hyperlink ref="M49" r:id="rId194" display="javascript:void(0)"/>
+    <hyperlink ref="N49" r:id="rId195" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=601985"/>
+    <hyperlink ref="O49" r:id="rId196" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/601985.phtml"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId197"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/sse/综合数据分析（天）/2014新股.xlsx
+++ b/sse/综合数据分析（天）/2014新股.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="410">
   <si>
     <t>证券代码</t>
   </si>
@@ -1471,34 +1471,19 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">日机密封 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">预测 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">绿城水务 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">星徽精密 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">汇洁股份 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国核电 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">蓝黛传动 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">合纵科技 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">金发拉比 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">光力科技 </t>
+    <t>万里石</t>
+  </si>
+  <si>
+    <t>预测</t>
+  </si>
+  <si>
+    <t>高科石化</t>
+  </si>
+  <si>
+    <t>通合科技</t>
+  </si>
+  <si>
+    <t>井神股份</t>
   </si>
   <si>
     <r>
@@ -1512,11 +1497,11 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>920</t>
+      <t>2700</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">恒锋工具 </t>
+    <t>华源包装</t>
   </si>
   <si>
     <r>
@@ -1530,11 +1515,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>657</t>
+      <t>3520</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">科迪乳业 </t>
   </si>
   <si>
     <r>
@@ -1548,11 +1530,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>2736</t>
+      <t>1400</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">中飞股份 </t>
+    <t>华自科技</t>
+  </si>
+  <si>
+    <t>盛天网络</t>
+  </si>
+  <si>
+    <t>奇信股份</t>
   </si>
   <si>
     <r>
@@ -1566,20 +1554,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>454</t>
+      <t>6000</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">濮阳惠成 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">天成自控 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">蓝晓科技 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">金诚信 </t>
   </si>
   <si>
     <r>
@@ -1593,8 +1569,14 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>9500</t>
+      <t>2400</t>
     </r>
+  </si>
+  <si>
+    <t>中新科技</t>
+  </si>
+  <si>
+    <t>思维列控</t>
   </si>
   <si>
     <r>
@@ -1608,14 +1590,11 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>3800</t>
+      <t>4000</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">恒通股份 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">东杰智能 </t>
+    <t>山鼎设计</t>
   </si>
   <si>
     <r>
@@ -1629,11 +1608,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>1372</t>
+      <t>830</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">万孚生物 </t>
+    <t>久远银海</t>
+  </si>
+  <si>
+    <t>乾景园林</t>
+  </si>
+  <si>
+    <t>美尚生态</t>
   </si>
   <si>
     <r>
@@ -1647,17 +1632,11 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>2200</t>
+      <t>660</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">真视通 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">国恩股份 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">口子窖 </t>
+    <t>可立克</t>
   </si>
   <si>
     <r>
@@ -1671,11 +1650,11 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>1800</t>
+      <t>1700</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">普路通 </t>
+    <t>桃李面包</t>
   </si>
   <si>
     <r>
@@ -1689,7 +1668,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>1850</t>
+      <t>4501</t>
     </r>
   </si>
   <si>
@@ -1704,11 +1683,11 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>740</t>
+      <t>1350</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">柏堡龙 </t>
+    <t>银宝山新</t>
   </si>
   <si>
     <r>
@@ -1722,7 +1701,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>2622</t>
+      <t>3178</t>
     </r>
   </si>
   <si>
@@ -1737,11 +1716,11 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>1042</t>
+      <t>1268</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">国泰君安 </t>
+    <t>道森股份</t>
   </si>
   <si>
     <r>
@@ -1755,11 +1734,11 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>45750</t>
+      <t>5200</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">红蜻蜓 </t>
+    <t>邦宝益智</t>
   </si>
   <si>
     <r>
@@ -1773,11 +1752,14 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>1764</t>
+      <t>900</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">沃施股份 </t>
+    <t>中科创达</t>
+  </si>
+  <si>
+    <t>凯龙股份</t>
   </si>
   <si>
     <r>
@@ -1791,14 +1773,14 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>1550</t>
+      <t>835</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">文科园林 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">四通股份 </t>
+    <t>三夫户外</t>
+  </si>
+  <si>
+    <t>博敏电子</t>
   </si>
   <si>
     <r>
@@ -1812,80 +1794,89 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>1324</t>
+      <t>1665</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">万林股份 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">康弘药业 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">赛升药业 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">众兴菌业 </t>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1490</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">厚普股份 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">韩建河山 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">宝钢包装 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">先锋电子 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">德尔股份 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">索菱股份 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">胜宏科技 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">信息发展 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">音飞储存 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">神思电子 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">新元科技 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">凤形股份 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">杭州高新 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">多喜爱 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">聚隆科技 </t>
+    <t>中坚科技</t>
+  </si>
+  <si>
+    <t>读者传媒</t>
+  </si>
+  <si>
+    <t>安记食品</t>
+  </si>
+  <si>
+    <t>润欣科技</t>
+  </si>
+  <si>
+    <t>光力科技</t>
+  </si>
+  <si>
+    <t>恒锋工具</t>
+  </si>
+  <si>
+    <t>恒通股份</t>
+  </si>
+  <si>
+    <t>蓝晓科技</t>
+  </si>
+  <si>
+    <t>万孚生物</t>
+  </si>
+  <si>
+    <t>濮阳惠成</t>
+  </si>
+  <si>
+    <t>金诚信</t>
+  </si>
+  <si>
+    <t>天成自控</t>
+  </si>
+  <si>
+    <t>东杰智能</t>
+  </si>
+  <si>
+    <t>中飞股份</t>
+  </si>
+  <si>
+    <t>科迪乳业</t>
+  </si>
+  <si>
+    <t>柏堡龙</t>
+  </si>
+  <si>
+    <t>口子窖</t>
+  </si>
+  <si>
+    <t>文科园林</t>
+  </si>
+  <si>
+    <t>国泰君安</t>
+  </si>
+  <si>
+    <t>四通股份</t>
+  </si>
+  <si>
+    <t>普路通</t>
+  </si>
+  <si>
+    <t>沃施股份</t>
+  </si>
+  <si>
+    <t>国恩股份</t>
+  </si>
+  <si>
+    <t>红蜻蜓</t>
+  </si>
+  <si>
+    <t>众兴菌业</t>
+  </si>
+  <si>
+    <t>赛升药业</t>
+  </si>
+  <si>
+    <t>康弘药业</t>
   </si>
 </sst>
 </file>
@@ -2229,7 +2220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2358,43 +2349,6 @@
         <color rgb="FFCDCDD5"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCDCDD5"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFAAACBC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFAAACBC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFAAACBC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFAAACBC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFAAACBC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCDCDD5"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFAAACBC"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2532,7 +2486,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2633,39 +2587,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="12" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="14" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3055,8 +2991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T292"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94:XFD94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14419,10 +14355,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T49"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:O49"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:O82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14489,2414 +14425,4070 @@
         <v>340</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1">
-      <c r="A2" s="40">
+    <row r="2" spans="1:20">
+      <c r="A2">
+        <v>300436</v>
+      </c>
+      <c r="B2">
+        <v>300436</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="3">
+        <v>42108</v>
+      </c>
+      <c r="E2" s="3">
+        <v>42116</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1750</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1260</v>
+      </c>
+      <c r="H2">
+        <v>21.47</v>
+      </c>
+      <c r="I2">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="J2">
+        <v>0.7</v>
+      </c>
+      <c r="K2">
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="L2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="6">
+        <v>2785</v>
+      </c>
+      <c r="B3" s="30">
+        <v>2785</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3" s="32">
+        <v>42193</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="33">
+        <v>5000</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="H3" s="33">
+        <v>0</v>
+      </c>
+      <c r="I3" s="33">
+        <v>0</v>
+      </c>
+      <c r="J3" s="33">
+        <v>0</v>
+      </c>
+      <c r="K3" s="33">
+        <v>1.145</v>
+      </c>
+      <c r="L3" s="33">
+        <v>0</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="7">
+        <v>2778</v>
+      </c>
+      <c r="B4" s="16">
+        <v>2778</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4" s="36">
+        <v>42192</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="37">
+        <v>2230</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="H4" s="37">
+        <v>0</v>
+      </c>
+      <c r="I4" s="37">
+        <v>0</v>
+      </c>
+      <c r="J4" s="37">
+        <v>0.85</v>
+      </c>
+      <c r="K4" s="37">
+        <v>1.895</v>
+      </c>
+      <c r="L4" s="37">
+        <v>0</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="6">
+        <v>300491</v>
+      </c>
+      <c r="B5" s="30">
+        <v>300491</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" s="32">
+        <v>42192</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="H5" s="33">
+        <v>0</v>
+      </c>
+      <c r="I5" s="33">
+        <v>0</v>
+      </c>
+      <c r="J5" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="K5" s="33">
+        <v>2.0960000000000001</v>
+      </c>
+      <c r="L5" s="33">
+        <v>0</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="7">
+        <v>603299</v>
+      </c>
+      <c r="B6" s="16">
+        <v>732299</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" s="36">
+        <v>42192</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="37">
+        <v>9000</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="H6" s="37">
+        <v>0</v>
+      </c>
+      <c r="I6" s="37">
+        <v>0</v>
+      </c>
+      <c r="J6" s="37">
+        <v>0</v>
+      </c>
+      <c r="K6" s="37">
+        <v>3.3290000000000002</v>
+      </c>
+      <c r="L6" s="37">
+        <v>0</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="6">
+        <v>2787</v>
+      </c>
+      <c r="B7" s="30">
+        <v>2787</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7" s="32">
+        <v>42192</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="H7" s="33">
+        <v>0</v>
+      </c>
+      <c r="I7" s="33">
+        <v>0</v>
+      </c>
+      <c r="J7" s="33">
+        <v>1.4</v>
+      </c>
+      <c r="K7" s="33">
+        <v>4.0019999999999998</v>
+      </c>
+      <c r="L7" s="33">
+        <v>0</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="7">
+        <v>300490</v>
+      </c>
+      <c r="B8" s="16">
+        <v>300490</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" s="36">
+        <v>42192</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="37">
+        <v>2500</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="H8" s="37">
+        <v>0</v>
+      </c>
+      <c r="I8" s="37">
+        <v>0</v>
+      </c>
+      <c r="J8" s="37">
+        <v>0</v>
+      </c>
+      <c r="K8" s="37">
+        <v>2.2719999999999998</v>
+      </c>
+      <c r="L8" s="37">
+        <v>0</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="6">
+        <v>300494</v>
+      </c>
+      <c r="B9" s="30">
+        <v>300494</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="D9" s="32">
+        <v>42192</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="33">
+        <v>3000</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="H9" s="33">
+        <v>0</v>
+      </c>
+      <c r="I9" s="33">
+        <v>0</v>
+      </c>
+      <c r="J9" s="33">
+        <v>0</v>
+      </c>
+      <c r="K9" s="33">
+        <v>5.431</v>
+      </c>
+      <c r="L9" s="33">
+        <v>0</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="7">
+        <v>2781</v>
+      </c>
+      <c r="B10" s="16">
+        <v>2781</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="D10" s="36">
+        <v>42191</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="H10" s="37">
+        <v>0</v>
+      </c>
+      <c r="I10" s="37">
+        <v>0</v>
+      </c>
+      <c r="J10" s="37">
+        <v>2.4</v>
+      </c>
+      <c r="K10" s="37">
+        <v>6.117</v>
+      </c>
+      <c r="L10" s="37">
+        <v>0</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O10" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="6">
+        <v>603996</v>
+      </c>
+      <c r="B11" s="30">
+        <v>732996</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="D11" s="32">
+        <v>42191</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="33">
+        <v>5010</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="H11" s="33">
+        <v>0</v>
+      </c>
+      <c r="I11" s="33">
+        <v>0</v>
+      </c>
+      <c r="J11" s="33">
+        <v>2</v>
+      </c>
+      <c r="K11" s="33">
+        <v>5.2709999999999999</v>
+      </c>
+      <c r="L11" s="33">
+        <v>0</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O11" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="7">
+        <v>603508</v>
+      </c>
+      <c r="B12" s="16">
+        <v>732508</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="D12" s="36">
+        <v>42191</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0</v>
+      </c>
+      <c r="I12" s="37">
+        <v>0</v>
+      </c>
+      <c r="J12" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="K12" s="37">
+        <v>13.428000000000001</v>
+      </c>
+      <c r="L12" s="37">
+        <v>0</v>
+      </c>
+      <c r="M12" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O12" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="6">
+        <v>300492</v>
+      </c>
+      <c r="B13" s="30">
+        <v>300492</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="D13" s="32">
+        <v>42191</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="33">
+        <v>2080</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="H13" s="33">
+        <v>0</v>
+      </c>
+      <c r="I13" s="33">
+        <v>0</v>
+      </c>
+      <c r="J13" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="K13" s="33">
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="L13" s="33">
+        <v>0</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O13" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="7">
+        <v>2777</v>
+      </c>
+      <c r="B14" s="16">
+        <v>2777</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="D14" s="36">
+        <v>42191</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="37">
+        <v>2000</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="H14" s="37">
+        <v>0</v>
+      </c>
+      <c r="I14" s="37">
+        <v>0</v>
+      </c>
+      <c r="J14" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="K14" s="37">
+        <v>2.2930000000000001</v>
+      </c>
+      <c r="L14" s="37">
+        <v>0</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O14" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="6">
+        <v>603778</v>
+      </c>
+      <c r="B15" s="30">
+        <v>732778</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="D15" s="32">
+        <v>42191</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="H15" s="33">
+        <v>0</v>
+      </c>
+      <c r="I15" s="33">
+        <v>0</v>
+      </c>
+      <c r="J15" s="33">
+        <v>0</v>
+      </c>
+      <c r="K15" s="33">
+        <v>4.4379999999999997</v>
+      </c>
+      <c r="L15" s="33">
+        <v>0</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O15" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="7">
+        <v>300495</v>
+      </c>
+      <c r="B16" s="16">
+        <v>300495</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="D16" s="36">
+        <v>42191</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="H16" s="37">
+        <v>0</v>
+      </c>
+      <c r="I16" s="37">
+        <v>0</v>
+      </c>
+      <c r="J16" s="37">
+        <v>0.65</v>
+      </c>
+      <c r="K16" s="37">
+        <v>6.0250000000000004</v>
+      </c>
+      <c r="L16" s="37">
+        <v>0</v>
+      </c>
+      <c r="M16" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O16" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="6">
+        <v>2782</v>
+      </c>
+      <c r="B17" s="30">
+        <v>2782</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="D17" s="32">
+        <v>42191</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="33">
+        <v>4260</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="H17" s="33">
+        <v>0</v>
+      </c>
+      <c r="I17" s="33">
+        <v>0</v>
+      </c>
+      <c r="J17" s="33">
+        <v>0</v>
+      </c>
+      <c r="K17" s="33">
+        <v>3.2290000000000001</v>
+      </c>
+      <c r="L17" s="33">
+        <v>0</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O17" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="7">
+        <v>603866</v>
+      </c>
+      <c r="B18" s="16">
+        <v>732866</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="D18" s="36">
+        <v>42191</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="H18" s="37">
+        <v>0</v>
+      </c>
+      <c r="I18" s="37">
+        <v>0</v>
+      </c>
+      <c r="J18" s="37">
+        <v>0</v>
+      </c>
+      <c r="K18" s="37">
+        <v>6.1959999999999997</v>
+      </c>
+      <c r="L18" s="37">
+        <v>0</v>
+      </c>
+      <c r="M18" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O18" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="6">
+        <v>2786</v>
+      </c>
+      <c r="B19" s="30">
+        <v>2786</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="D19" s="32">
+        <v>42191</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="H19" s="33">
+        <v>0</v>
+      </c>
+      <c r="I19" s="33">
+        <v>0</v>
+      </c>
+      <c r="J19" s="33">
+        <v>1.25</v>
+      </c>
+      <c r="K19" s="33">
+        <v>3.407</v>
+      </c>
+      <c r="L19" s="33">
+        <v>0</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="7">
+        <v>603800</v>
+      </c>
+      <c r="B20" s="16">
+        <v>732800</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="D20" s="36">
+        <v>42188</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="H20" s="37">
+        <v>0</v>
+      </c>
+      <c r="I20" s="37">
+        <v>0</v>
+      </c>
+      <c r="J20" s="37">
+        <v>0</v>
+      </c>
+      <c r="K20" s="37">
+        <v>5.6840000000000002</v>
+      </c>
+      <c r="L20" s="37">
+        <v>0</v>
+      </c>
+      <c r="M20" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O20" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="6">
+        <v>603398</v>
+      </c>
+      <c r="B21" s="30">
+        <v>732398</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="D21" s="32">
+        <v>42188</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="H21" s="33">
+        <v>0</v>
+      </c>
+      <c r="I21" s="33">
+        <v>0</v>
+      </c>
+      <c r="J21" s="33">
+        <v>0</v>
+      </c>
+      <c r="K21" s="33">
+        <v>3.3530000000000002</v>
+      </c>
+      <c r="L21" s="33">
+        <v>0</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="7">
+        <v>300496</v>
+      </c>
+      <c r="B22" s="16">
+        <v>300496</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="D22" s="36">
+        <v>42188</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="37">
+        <v>2500</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="H22" s="37">
+        <v>0</v>
+      </c>
+      <c r="I22" s="37">
+        <v>0</v>
+      </c>
+      <c r="J22" s="37">
+        <v>0</v>
+      </c>
+      <c r="K22" s="37">
+        <v>5.8170000000000002</v>
+      </c>
+      <c r="L22" s="37">
+        <v>0</v>
+      </c>
+      <c r="M22" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O22" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="6">
+        <v>2783</v>
+      </c>
+      <c r="B23" s="30">
+        <v>2783</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="D23" s="32">
+        <v>42188</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="33">
+        <v>2087</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="H23" s="33">
+        <v>0</v>
+      </c>
+      <c r="I23" s="33">
+        <v>0</v>
+      </c>
+      <c r="J23" s="33">
+        <v>0</v>
+      </c>
+      <c r="K23" s="33">
+        <v>5.9720000000000004</v>
+      </c>
+      <c r="L23" s="33">
+        <v>0</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O23" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="7">
+        <v>2780</v>
+      </c>
+      <c r="B24" s="16">
+        <v>2780</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="D24" s="36">
+        <v>42188</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="37">
+        <v>1700</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="H24" s="37">
+        <v>0</v>
+      </c>
+      <c r="I24" s="37">
+        <v>0</v>
+      </c>
+      <c r="J24" s="37">
+        <v>0</v>
+      </c>
+      <c r="K24" s="37">
+        <v>1.601</v>
+      </c>
+      <c r="L24" s="37">
+        <v>0</v>
+      </c>
+      <c r="M24" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N24" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O24" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="6">
+        <v>603936</v>
+      </c>
+      <c r="B25" s="30">
+        <v>732936</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="D25" s="32">
+        <v>42188</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="33">
+        <v>4185</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="H25" s="33">
+        <v>0</v>
+      </c>
+      <c r="I25" s="33">
+        <v>0</v>
+      </c>
+      <c r="J25" s="33">
+        <v>1.6</v>
+      </c>
+      <c r="K25" s="33">
+        <v>3.3730000000000002</v>
+      </c>
+      <c r="L25" s="33">
+        <v>0</v>
+      </c>
+      <c r="M25" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O25" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="7">
+        <v>2779</v>
+      </c>
+      <c r="B26" s="16">
+        <v>2779</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="D26" s="36">
+        <v>42188</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="37">
+        <v>2200</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="H26" s="37">
+        <v>0</v>
+      </c>
+      <c r="I26" s="37">
+        <v>0</v>
+      </c>
+      <c r="J26" s="37">
+        <v>0</v>
+      </c>
+      <c r="K26" s="37">
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="L26" s="37">
+        <v>0</v>
+      </c>
+      <c r="M26" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O26" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="6">
+        <v>603999</v>
+      </c>
+      <c r="B27" s="30">
+        <v>732999</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="D27" s="32">
+        <v>42188</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="33">
+        <v>6000</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="H27" s="33">
+        <v>0</v>
+      </c>
+      <c r="I27" s="33">
+        <v>0</v>
+      </c>
+      <c r="J27" s="33">
+        <v>0</v>
+      </c>
+      <c r="K27" s="33">
+        <v>5.8630000000000004</v>
+      </c>
+      <c r="L27" s="33">
+        <v>0</v>
+      </c>
+      <c r="M27" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O27" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="7">
+        <v>603696</v>
+      </c>
+      <c r="B28" s="16">
+        <v>732696</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>385</v>
+      </c>
+      <c r="D28" s="36">
+        <v>42188</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="37">
+        <v>3000</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="H28" s="37">
+        <v>0</v>
+      </c>
+      <c r="I28" s="37">
+        <v>0</v>
+      </c>
+      <c r="J28" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="K28" s="37">
+        <v>5.1909999999999998</v>
+      </c>
+      <c r="L28" s="37">
+        <v>0</v>
+      </c>
+      <c r="M28" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O28" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="6">
+        <v>300493</v>
+      </c>
+      <c r="B29" s="30">
+        <v>300493</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="D29" s="32">
+        <v>42188</v>
+      </c>
+      <c r="E29" s="30"/>
+      <c r="F29" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="H29" s="33">
+        <v>0</v>
+      </c>
+      <c r="I29" s="33">
+        <v>0</v>
+      </c>
+      <c r="J29" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="K29" s="33">
+        <v>2.0609999999999999</v>
+      </c>
+      <c r="L29" s="33">
+        <v>0</v>
+      </c>
+      <c r="M29" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O29" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="7">
         <v>300480</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B30" s="16">
         <v>300480</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>351</v>
-      </c>
-      <c r="D2" s="32">
+      <c r="C30" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="D30" s="36">
         <v>42178</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34">
+      <c r="E30" s="16"/>
+      <c r="F30" s="37">
         <v>2300</v>
       </c>
-      <c r="G2" s="43" t="s">
-        <v>352</v>
-      </c>
-      <c r="H2" s="34">
-        <v>0</v>
-      </c>
-      <c r="I2" s="34">
-        <v>0</v>
-      </c>
-      <c r="J2" s="34">
-        <v>0</v>
-      </c>
-      <c r="K2" s="34">
+      <c r="G30" s="37">
+        <v>2070</v>
+      </c>
+      <c r="H30" s="37">
+        <v>7.28</v>
+      </c>
+      <c r="I30" s="37">
+        <v>22.99</v>
+      </c>
+      <c r="J30" s="37">
+        <v>0.9</v>
+      </c>
+      <c r="K30" s="37">
         <v>1.675</v>
       </c>
-      <c r="L2" s="34">
-        <v>0</v>
-      </c>
-      <c r="M2" s="31" t="s">
+      <c r="L30" s="37">
+        <v>0.16</v>
+      </c>
+      <c r="M30" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N30" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O30" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1">
-      <c r="A3" s="42">
+    <row r="31" spans="1:15">
+      <c r="A31" s="6">
         <v>300488</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B31" s="30">
         <v>300488</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="D3" s="37">
+      <c r="C31" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="D31" s="32">
         <v>42178</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="H3" s="39">
-        <v>0</v>
-      </c>
-      <c r="I3" s="39">
-        <v>0</v>
-      </c>
-      <c r="J3" s="39">
-        <v>0</v>
-      </c>
-      <c r="K3" s="39">
+      <c r="E31" s="30"/>
+      <c r="F31" s="33">
+        <v>1563</v>
+      </c>
+      <c r="G31" s="33">
+        <v>1126</v>
+      </c>
+      <c r="H31" s="33">
+        <v>20.11</v>
+      </c>
+      <c r="I31" s="33">
+        <v>19.3</v>
+      </c>
+      <c r="J31" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="K31" s="33">
         <v>2.516</v>
       </c>
-      <c r="L3" s="39">
-        <v>0</v>
-      </c>
-      <c r="M3" s="36" t="s">
+      <c r="L31" s="33">
+        <v>0.15</v>
+      </c>
+      <c r="M31" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N31" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O31" s="31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1">
-      <c r="A4" s="40">
+    <row r="32" spans="1:15">
+      <c r="A32" s="7">
+        <v>603223</v>
+      </c>
+      <c r="B32" s="16">
+        <v>732223</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="D32" s="36">
+        <v>42174</v>
+      </c>
+      <c r="E32" s="36">
+        <v>42185</v>
+      </c>
+      <c r="F32" s="37">
+        <v>3000</v>
+      </c>
+      <c r="G32" s="37">
+        <v>2700</v>
+      </c>
+      <c r="H32" s="37">
+        <v>8.31</v>
+      </c>
+      <c r="I32" s="37">
+        <v>22.97</v>
+      </c>
+      <c r="J32" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="K32" s="37">
+        <v>2.4929999999999999</v>
+      </c>
+      <c r="L32" s="37">
+        <v>0.35</v>
+      </c>
+      <c r="M32" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N32" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O32" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="6">
+        <v>300487</v>
+      </c>
+      <c r="B33" s="30">
+        <v>300487</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="D33" s="32">
+        <v>42174</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="33">
+        <v>2000</v>
+      </c>
+      <c r="G33" s="33">
+        <v>1800</v>
+      </c>
+      <c r="H33" s="33">
+        <v>14.83</v>
+      </c>
+      <c r="I33" s="33">
+        <v>20.32</v>
+      </c>
+      <c r="J33" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="K33" s="33">
+        <v>2.9660000000000002</v>
+      </c>
+      <c r="L33" s="33">
+        <v>0.47</v>
+      </c>
+      <c r="M33" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N33" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O33" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="7">
+        <v>300482</v>
+      </c>
+      <c r="B34" s="16">
+        <v>300482</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="D34" s="36">
+        <v>42174</v>
+      </c>
+      <c r="E34" s="36">
+        <v>42185</v>
+      </c>
+      <c r="F34" s="37">
+        <v>2200</v>
+      </c>
+      <c r="G34" s="37">
+        <v>1980</v>
+      </c>
+      <c r="H34" s="37">
+        <v>16</v>
+      </c>
+      <c r="I34" s="37">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="J34" s="37">
+        <v>0.85</v>
+      </c>
+      <c r="K34" s="37">
+        <v>3.52</v>
+      </c>
+      <c r="L34" s="37">
+        <v>0.39</v>
+      </c>
+      <c r="M34" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O34" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="6">
+        <v>300481</v>
+      </c>
+      <c r="B35" s="30">
+        <v>300481</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="D35" s="32">
+        <v>42174</v>
+      </c>
+      <c r="E35" s="32">
+        <v>42185</v>
+      </c>
+      <c r="F35" s="33">
+        <v>2000</v>
+      </c>
+      <c r="G35" s="33">
+        <v>1800</v>
+      </c>
+      <c r="H35" s="33">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="I35" s="33">
+        <v>22.95</v>
+      </c>
+      <c r="J35" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="K35" s="33">
+        <v>1.8260000000000001</v>
+      </c>
+      <c r="L35" s="33">
+        <v>0.47</v>
+      </c>
+      <c r="M35" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O35" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="7">
+        <v>603979</v>
+      </c>
+      <c r="B36" s="16">
+        <v>732979</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="D36" s="36">
+        <v>42174</v>
+      </c>
+      <c r="E36" s="36">
+        <v>42185</v>
+      </c>
+      <c r="F36" s="37">
+        <v>9500</v>
+      </c>
+      <c r="G36" s="37">
+        <v>8550</v>
+      </c>
+      <c r="H36" s="37">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="I36" s="37">
+        <v>22.98</v>
+      </c>
+      <c r="J36" s="37">
+        <v>3.8</v>
+      </c>
+      <c r="K36" s="37">
+        <v>16.332000000000001</v>
+      </c>
+      <c r="L36" s="37">
+        <v>0.78</v>
+      </c>
+      <c r="M36" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O36" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="6">
+        <v>603085</v>
+      </c>
+      <c r="B37" s="30">
+        <v>732085</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="D37" s="32">
+        <v>42174</v>
+      </c>
+      <c r="E37" s="32">
+        <v>42185</v>
+      </c>
+      <c r="F37" s="33">
+        <v>2500</v>
+      </c>
+      <c r="G37" s="33">
+        <v>2250</v>
+      </c>
+      <c r="H37" s="33">
+        <v>7.27</v>
+      </c>
+      <c r="I37" s="33">
+        <v>22.98</v>
+      </c>
+      <c r="J37" s="33">
+        <v>1</v>
+      </c>
+      <c r="K37" s="33">
+        <v>1.8180000000000001</v>
+      </c>
+      <c r="L37" s="33">
+        <v>0.27</v>
+      </c>
+      <c r="M37" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O37" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="7">
+        <v>300486</v>
+      </c>
+      <c r="B38" s="16">
+        <v>300486</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="D38" s="36">
+        <v>42174</v>
+      </c>
+      <c r="E38" s="36">
+        <v>42185</v>
+      </c>
+      <c r="F38" s="37">
+        <v>3472</v>
+      </c>
+      <c r="G38" s="37">
+        <v>3125</v>
+      </c>
+      <c r="H38" s="37">
+        <v>8.94</v>
+      </c>
+      <c r="I38" s="37">
+        <v>22.96</v>
+      </c>
+      <c r="J38" s="37">
+        <v>1.35</v>
+      </c>
+      <c r="K38" s="37">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="L38" s="37">
+        <v>0.37</v>
+      </c>
+      <c r="M38" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N38" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O38" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="6">
+        <v>300489</v>
+      </c>
+      <c r="B39" s="30">
+        <v>300489</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="D39" s="32">
+        <v>42174</v>
+      </c>
+      <c r="E39" s="30"/>
+      <c r="F39" s="33">
+        <v>1135</v>
+      </c>
+      <c r="G39" s="33">
+        <v>1022</v>
+      </c>
+      <c r="H39" s="33">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="I39" s="33">
+        <v>22.97</v>
+      </c>
+      <c r="J39" s="33">
+        <v>0.45</v>
+      </c>
+      <c r="K39" s="33">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="L39" s="33">
+        <v>0.41</v>
+      </c>
+      <c r="M39" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N39" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O39" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="7">
         <v>2770</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B40" s="16">
         <v>2770</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>355</v>
-      </c>
-      <c r="D4" s="32">
+      <c r="C40" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="D40" s="36">
         <v>42174</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34">
+      <c r="E40" s="36">
+        <v>42185</v>
+      </c>
+      <c r="F40" s="37">
         <v>6840</v>
       </c>
-      <c r="G4" s="43" t="s">
-        <v>356</v>
-      </c>
-      <c r="H4" s="34">
-        <v>0</v>
-      </c>
-      <c r="I4" s="34">
-        <v>0</v>
-      </c>
-      <c r="J4" s="34">
-        <v>0</v>
-      </c>
-      <c r="K4" s="34">
+      <c r="G40" s="37">
+        <v>6156</v>
+      </c>
+      <c r="H40" s="37">
+        <v>6.85</v>
+      </c>
+      <c r="I40" s="37">
+        <v>20.81</v>
+      </c>
+      <c r="J40" s="37">
+        <v>2.7</v>
+      </c>
+      <c r="K40" s="37">
         <v>4.6849999999999996</v>
       </c>
-      <c r="L4" s="34">
-        <v>0</v>
-      </c>
-      <c r="M4" s="31" t="s">
+      <c r="L40" s="37">
+        <v>0.49</v>
+      </c>
+      <c r="M40" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N40" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="O4" s="41" t="s">
+      <c r="O40" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1">
-      <c r="A5" s="42">
-        <v>300489</v>
-      </c>
-      <c r="B5" s="35">
-        <v>300489</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="D5" s="37">
-        <v>42174</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39">
-        <v>1135</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="H5" s="39">
-        <v>0</v>
-      </c>
-      <c r="I5" s="39">
-        <v>0</v>
-      </c>
-      <c r="J5" s="39">
-        <v>0</v>
-      </c>
-      <c r="K5" s="39">
-        <v>1.9930000000000001</v>
-      </c>
-      <c r="L5" s="39">
-        <v>0</v>
-      </c>
-      <c r="M5" s="36" t="s">
+    <row r="41" spans="1:15">
+      <c r="A41" s="6">
+        <v>2776</v>
+      </c>
+      <c r="B41" s="30">
+        <v>2776</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="D41" s="32">
+        <v>42173</v>
+      </c>
+      <c r="E41" s="32">
+        <v>42181</v>
+      </c>
+      <c r="F41" s="33">
+        <v>2622</v>
+      </c>
+      <c r="G41" s="33">
+        <v>2360</v>
+      </c>
+      <c r="H41" s="33">
+        <v>23.29</v>
+      </c>
+      <c r="I41" s="33">
+        <v>22.98</v>
+      </c>
+      <c r="J41" s="33">
+        <v>1</v>
+      </c>
+      <c r="K41" s="33">
+        <v>6.1070000000000002</v>
+      </c>
+      <c r="L41" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="M41" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="N41" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="O41" s="31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1">
-      <c r="A6" s="40">
-        <v>300481</v>
-      </c>
-      <c r="B6" s="30">
-        <v>300481</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="D6" s="32">
-        <v>42174</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34">
+    <row r="42" spans="1:15">
+      <c r="A42" s="7">
+        <v>603589</v>
+      </c>
+      <c r="B42" s="16">
+        <v>732589</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="D42" s="36">
+        <v>42173</v>
+      </c>
+      <c r="E42" s="36">
+        <v>42184</v>
+      </c>
+      <c r="F42" s="37">
+        <v>6000</v>
+      </c>
+      <c r="G42" s="37">
+        <v>5400</v>
+      </c>
+      <c r="H42" s="37">
+        <v>16</v>
+      </c>
+      <c r="I42" s="37">
+        <v>22.98</v>
+      </c>
+      <c r="J42" s="37">
+        <v>1.8</v>
+      </c>
+      <c r="K42" s="37">
+        <v>9.6</v>
+      </c>
+      <c r="L42" s="37">
+        <v>0.69</v>
+      </c>
+      <c r="M42" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O42" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="6">
+        <v>2775</v>
+      </c>
+      <c r="B43" s="30">
+        <v>2775</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="D43" s="32">
+        <v>42173</v>
+      </c>
+      <c r="E43" s="32">
+        <v>42184</v>
+      </c>
+      <c r="F43" s="33">
+        <v>3000</v>
+      </c>
+      <c r="G43" s="33">
+        <v>2700</v>
+      </c>
+      <c r="H43" s="33">
+        <v>16.93</v>
+      </c>
+      <c r="I43" s="33">
+        <v>22.98</v>
+      </c>
+      <c r="J43" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="K43" s="33">
+        <v>5.0789999999999997</v>
+      </c>
+      <c r="L43" s="33">
+        <v>0.49</v>
+      </c>
+      <c r="M43" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N43" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O43" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="7">
+        <v>601211</v>
+      </c>
+      <c r="B44" s="16">
+        <v>780211</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="D44" s="36">
+        <v>42173</v>
+      </c>
+      <c r="E44" s="36">
+        <v>42181</v>
+      </c>
+      <c r="F44" s="37">
+        <v>152500</v>
+      </c>
+      <c r="G44" s="37">
+        <v>106750</v>
+      </c>
+      <c r="H44" s="37">
+        <v>19.71</v>
+      </c>
+      <c r="I44" s="37">
+        <v>22.99</v>
+      </c>
+      <c r="J44" s="37">
+        <v>45.7</v>
+      </c>
+      <c r="K44" s="37">
+        <v>300.577</v>
+      </c>
+      <c r="L44" s="37">
+        <v>1.57</v>
+      </c>
+      <c r="M44" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N44" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O44" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="6">
+        <v>603838</v>
+      </c>
+      <c r="B45" s="30">
+        <v>732838</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="D45" s="32">
+        <v>42173</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="33">
+        <v>3334</v>
+      </c>
+      <c r="G45" s="33">
+        <v>3001</v>
+      </c>
+      <c r="H45" s="33">
+        <v>7.73</v>
+      </c>
+      <c r="I45" s="33">
+        <v>22.96</v>
+      </c>
+      <c r="J45" s="33">
+        <v>1.3</v>
+      </c>
+      <c r="K45" s="33">
+        <v>2.577</v>
+      </c>
+      <c r="L45" s="33">
+        <v>0.27</v>
+      </c>
+      <c r="M45" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N45" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O45" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="7">
+        <v>2776</v>
+      </c>
+      <c r="B46" s="16">
+        <v>2776</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="D46" s="36">
+        <v>42173</v>
+      </c>
+      <c r="E46" s="36">
+        <v>42181</v>
+      </c>
+      <c r="F46" s="37">
+        <v>2622</v>
+      </c>
+      <c r="G46" s="37">
+        <v>2360</v>
+      </c>
+      <c r="H46" s="37">
+        <v>23.29</v>
+      </c>
+      <c r="I46" s="37">
+        <v>22.98</v>
+      </c>
+      <c r="J46" s="37">
+        <v>1</v>
+      </c>
+      <c r="K46" s="37">
+        <v>6.1070000000000002</v>
+      </c>
+      <c r="L46" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="M46" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N46" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O46" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="6">
+        <v>603589</v>
+      </c>
+      <c r="B47" s="30">
+        <v>732589</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="D47" s="32">
+        <v>42173</v>
+      </c>
+      <c r="E47" s="32">
+        <v>42184</v>
+      </c>
+      <c r="F47" s="33">
+        <v>6000</v>
+      </c>
+      <c r="G47" s="33">
+        <v>5400</v>
+      </c>
+      <c r="H47" s="33">
+        <v>16</v>
+      </c>
+      <c r="I47" s="33">
+        <v>22.98</v>
+      </c>
+      <c r="J47" s="33">
+        <v>1.8</v>
+      </c>
+      <c r="K47" s="33">
+        <v>9.6</v>
+      </c>
+      <c r="L47" s="33">
+        <v>0.69</v>
+      </c>
+      <c r="M47" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N47" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O47" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="7">
+        <v>2769</v>
+      </c>
+      <c r="B48" s="16">
+        <v>2769</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="D48" s="36">
+        <v>42173</v>
+      </c>
+      <c r="E48" s="36">
+        <v>42184</v>
+      </c>
+      <c r="F48" s="37">
+        <v>1850</v>
+      </c>
+      <c r="G48" s="37">
+        <v>1665</v>
+      </c>
+      <c r="H48" s="37">
+        <v>28.49</v>
+      </c>
+      <c r="I48" s="37">
+        <v>19.64</v>
+      </c>
+      <c r="J48" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="K48" s="37">
+        <v>5.2709999999999999</v>
+      </c>
+      <c r="L48" s="37">
+        <v>0.41</v>
+      </c>
+      <c r="M48" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N48" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O48" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="6">
+        <v>300483</v>
+      </c>
+      <c r="B49" s="30">
+        <v>300483</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="D49" s="32">
+        <v>42173</v>
+      </c>
+      <c r="E49" s="32">
+        <v>42185</v>
+      </c>
+      <c r="F49" s="33">
+        <v>1550</v>
+      </c>
+      <c r="G49" s="33">
+        <v>1395</v>
+      </c>
+      <c r="H49" s="33">
+        <v>11.39</v>
+      </c>
+      <c r="I49" s="33">
+        <v>22.99</v>
+      </c>
+      <c r="J49" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="K49" s="33">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="L49" s="33">
+        <v>0.32</v>
+      </c>
+      <c r="M49" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N49" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O49" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="7">
+        <v>2768</v>
+      </c>
+      <c r="B50" s="16">
+        <v>2768</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="D50" s="36">
+        <v>42173</v>
+      </c>
+      <c r="E50" s="36">
+        <v>42185</v>
+      </c>
+      <c r="F50" s="37">
         <v>2000</v>
       </c>
-      <c r="G6" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="H6" s="34">
-        <v>0</v>
-      </c>
-      <c r="I6" s="34">
-        <v>0</v>
-      </c>
-      <c r="J6" s="34">
-        <v>0</v>
-      </c>
-      <c r="K6" s="34">
-        <v>1.8260000000000001</v>
-      </c>
-      <c r="L6" s="34">
-        <v>0</v>
-      </c>
-      <c r="M6" s="31" t="s">
+      <c r="G50" s="37">
+        <v>1800</v>
+      </c>
+      <c r="H50" s="37">
+        <v>17.47</v>
+      </c>
+      <c r="I50" s="37">
+        <v>22.99</v>
+      </c>
+      <c r="J50" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="K50" s="37">
+        <v>3.4940000000000002</v>
+      </c>
+      <c r="L50" s="37">
+        <v>0.44</v>
+      </c>
+      <c r="M50" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="31" t="s">
+      <c r="N50" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="O6" s="41" t="s">
+      <c r="O50" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1">
-      <c r="A7" s="42">
-        <v>603085</v>
-      </c>
-      <c r="B7" s="35">
-        <v>732085</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="D7" s="37">
-        <v>42174</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39">
+    <row r="51" spans="1:15">
+      <c r="A51" s="6">
+        <v>603116</v>
+      </c>
+      <c r="B51" s="30">
+        <v>732116</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="D51" s="32">
+        <v>42173</v>
+      </c>
+      <c r="E51" s="32">
+        <v>42184</v>
+      </c>
+      <c r="F51" s="33">
+        <v>5880</v>
+      </c>
+      <c r="G51" s="33">
+        <v>5292</v>
+      </c>
+      <c r="H51" s="33">
+        <v>17.7</v>
+      </c>
+      <c r="I51" s="33">
+        <v>22.94</v>
+      </c>
+      <c r="J51" s="33">
+        <v>1.7</v>
+      </c>
+      <c r="K51" s="33">
+        <v>10.412000000000001</v>
+      </c>
+      <c r="L51" s="33">
+        <v>0.77</v>
+      </c>
+      <c r="M51" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N51" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O51" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="7">
+        <v>2772</v>
+      </c>
+      <c r="B52" s="16">
+        <v>2772</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="D52" s="36">
+        <v>42172</v>
+      </c>
+      <c r="E52" s="36">
+        <v>42181</v>
+      </c>
+      <c r="F52" s="37">
+        <v>3725</v>
+      </c>
+      <c r="G52" s="37">
+        <v>3353</v>
+      </c>
+      <c r="H52" s="37">
+        <v>13</v>
+      </c>
+      <c r="I52" s="37">
+        <v>22.98</v>
+      </c>
+      <c r="J52" s="37">
+        <v>1.45</v>
+      </c>
+      <c r="K52" s="37">
+        <v>4.843</v>
+      </c>
+      <c r="L52" s="37">
+        <v>0.22</v>
+      </c>
+      <c r="M52" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N52" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O52" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="6">
+        <v>300485</v>
+      </c>
+      <c r="B53" s="30">
+        <v>300485</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="D53" s="32">
+        <v>42172</v>
+      </c>
+      <c r="E53" s="32">
+        <v>42181</v>
+      </c>
+      <c r="F53" s="33">
+        <v>3000</v>
+      </c>
+      <c r="G53" s="33">
+        <v>2700</v>
+      </c>
+      <c r="H53" s="33">
+        <v>38.46</v>
+      </c>
+      <c r="I53" s="33">
+        <v>22.99</v>
+      </c>
+      <c r="J53" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="K53" s="33">
+        <v>11.538</v>
+      </c>
+      <c r="L53" s="33">
+        <v>0.37</v>
+      </c>
+      <c r="M53" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N53" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O53" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="7">
+        <v>2773</v>
+      </c>
+      <c r="B54" s="16">
+        <v>2773</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="D54" s="36">
+        <v>42172</v>
+      </c>
+      <c r="E54" s="36">
+        <v>42181</v>
+      </c>
+      <c r="F54" s="37">
+        <v>4560</v>
+      </c>
+      <c r="G54" s="37">
+        <v>4104</v>
+      </c>
+      <c r="H54" s="37">
+        <v>13.62</v>
+      </c>
+      <c r="I54" s="37">
+        <v>22.98</v>
+      </c>
+      <c r="J54" s="37">
+        <v>1.35</v>
+      </c>
+      <c r="K54" s="37">
+        <v>6.2110000000000003</v>
+      </c>
+      <c r="L54" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="M54" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N54" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O54" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="6">
+        <v>300471</v>
+      </c>
+      <c r="B55" s="30">
+        <v>300471</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="D55" s="32">
+        <v>42158</v>
+      </c>
+      <c r="E55" s="32">
+        <v>42166</v>
+      </c>
+      <c r="F55" s="33">
+        <v>1780</v>
+      </c>
+      <c r="G55" s="33">
+        <v>1332</v>
+      </c>
+      <c r="H55" s="33">
+        <v>54.01</v>
+      </c>
+      <c r="I55" s="33">
+        <v>21.85</v>
+      </c>
+      <c r="J55" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="K55" s="33">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="L55" s="33">
+        <v>0.53</v>
+      </c>
+      <c r="M55" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N55" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O55" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="7">
+        <v>603616</v>
+      </c>
+      <c r="B56" s="16">
+        <v>732616</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="D56" s="36">
+        <v>42158</v>
+      </c>
+      <c r="E56" s="36">
+        <v>42166</v>
+      </c>
+      <c r="F56" s="37">
+        <v>3668</v>
+      </c>
+      <c r="G56" s="37">
+        <v>3301</v>
+      </c>
+      <c r="H56" s="37">
+        <v>11.35</v>
+      </c>
+      <c r="I56" s="37">
+        <v>20.64</v>
+      </c>
+      <c r="J56" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="K56" s="37">
+        <v>4.1660000000000004</v>
+      </c>
+      <c r="L56" s="37">
+        <v>0.33</v>
+      </c>
+      <c r="M56" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N56" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O56" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="6">
+        <v>601968</v>
+      </c>
+      <c r="B57" s="30">
+        <v>780968</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="D57" s="32">
+        <v>42158</v>
+      </c>
+      <c r="E57" s="32">
+        <v>42166</v>
+      </c>
+      <c r="F57" s="33">
+        <v>20833</v>
+      </c>
+      <c r="G57" s="33">
+        <v>18750</v>
+      </c>
+      <c r="H57" s="33">
+        <v>3.08</v>
+      </c>
+      <c r="I57" s="33">
+        <v>22.93</v>
+      </c>
+      <c r="J57" s="33">
+        <v>6.2</v>
+      </c>
+      <c r="K57" s="33">
+        <v>6.4169999999999998</v>
+      </c>
+      <c r="L57" s="33">
+        <v>0.45</v>
+      </c>
+      <c r="M57" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N57" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O57" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="7">
+        <v>2767</v>
+      </c>
+      <c r="B58" s="16">
+        <v>2767</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="D58" s="36">
+        <v>42158</v>
+      </c>
+      <c r="E58" s="36">
+        <v>42167</v>
+      </c>
+      <c r="F58" s="37">
         <v>2500</v>
       </c>
-      <c r="G7" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="H7" s="39">
-        <v>0</v>
-      </c>
-      <c r="I7" s="39">
-        <v>0</v>
-      </c>
-      <c r="J7" s="39">
-        <v>0</v>
-      </c>
-      <c r="K7" s="39">
-        <v>1.8180000000000001</v>
-      </c>
-      <c r="L7" s="39">
-        <v>0</v>
-      </c>
-      <c r="M7" s="36" t="s">
+      <c r="G58" s="37">
+        <v>2250</v>
+      </c>
+      <c r="H58" s="37">
+        <v>14.87</v>
+      </c>
+      <c r="I58" s="37">
+        <v>22.43</v>
+      </c>
+      <c r="J58" s="37">
+        <v>1</v>
+      </c>
+      <c r="K58" s="37">
+        <v>3.7189999999999999</v>
+      </c>
+      <c r="L58" s="37">
+        <v>0.35</v>
+      </c>
+      <c r="M58" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="36" t="s">
+      <c r="N58" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="O7" s="36" t="s">
+      <c r="O58" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1">
-      <c r="A8" s="40">
-        <v>300487</v>
-      </c>
-      <c r="B8" s="30">
-        <v>300487</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="D8" s="32">
-        <v>42174</v>
-      </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34">
+    <row r="59" spans="1:15">
+      <c r="A59" s="6">
+        <v>300473</v>
+      </c>
+      <c r="B59" s="30">
+        <v>300473</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" s="32">
+        <v>42158</v>
+      </c>
+      <c r="E59" s="32">
+        <v>42167</v>
+      </c>
+      <c r="F59" s="33">
+        <v>2500</v>
+      </c>
+      <c r="G59" s="33">
+        <v>2250</v>
+      </c>
+      <c r="H59" s="33">
+        <v>28.76</v>
+      </c>
+      <c r="I59" s="33">
+        <v>22.99</v>
+      </c>
+      <c r="J59" s="33">
+        <v>1</v>
+      </c>
+      <c r="K59" s="33">
+        <v>7.19</v>
+      </c>
+      <c r="L59" s="33">
+        <v>0.59</v>
+      </c>
+      <c r="M59" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N59" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O59" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="7">
+        <v>2766</v>
+      </c>
+      <c r="B60" s="16">
+        <v>2766</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="D60" s="36">
+        <v>42158</v>
+      </c>
+      <c r="E60" s="36">
+        <v>42166</v>
+      </c>
+      <c r="F60" s="37">
+        <v>4580</v>
+      </c>
+      <c r="G60" s="37">
+        <v>4122</v>
+      </c>
+      <c r="H60" s="37">
+        <v>7.53</v>
+      </c>
+      <c r="I60" s="37">
+        <v>22.82</v>
+      </c>
+      <c r="J60" s="37">
+        <v>1.8</v>
+      </c>
+      <c r="K60" s="37">
+        <v>3.4489999999999998</v>
+      </c>
+      <c r="L60" s="37">
+        <v>0.32</v>
+      </c>
+      <c r="M60" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N60" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O60" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="6">
+        <v>300476</v>
+      </c>
+      <c r="B61" s="30">
+        <v>300476</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="D61" s="32">
+        <v>42158</v>
+      </c>
+      <c r="E61" s="32">
+        <v>42166</v>
+      </c>
+      <c r="F61" s="33">
+        <v>3667</v>
+      </c>
+      <c r="G61" s="33">
+        <v>3300</v>
+      </c>
+      <c r="H61" s="33">
+        <v>15.73</v>
+      </c>
+      <c r="I61" s="33">
+        <v>22.97</v>
+      </c>
+      <c r="J61" s="33">
+        <v>1.4</v>
+      </c>
+      <c r="K61" s="33">
+        <v>5.7679999999999998</v>
+      </c>
+      <c r="L61" s="33">
+        <v>0.46</v>
+      </c>
+      <c r="M61" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N61" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O61" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="7">
+        <v>300469</v>
+      </c>
+      <c r="B62" s="16">
+        <v>300469</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="D62" s="36">
+        <v>42158</v>
+      </c>
+      <c r="E62" s="36">
+        <v>42166</v>
+      </c>
+      <c r="F62" s="37">
+        <v>1670</v>
+      </c>
+      <c r="G62" s="37">
+        <v>1503</v>
+      </c>
+      <c r="H62" s="37">
+        <v>10.14</v>
+      </c>
+      <c r="I62" s="37">
+        <v>22.98</v>
+      </c>
+      <c r="J62" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="K62" s="37">
+        <v>1.6930000000000001</v>
+      </c>
+      <c r="L62" s="37">
+        <v>0.26</v>
+      </c>
+      <c r="M62" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N62" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O62" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="6">
+        <v>603066</v>
+      </c>
+      <c r="B63" s="30">
+        <v>732066</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="D63" s="32">
+        <v>42158</v>
+      </c>
+      <c r="E63" s="32">
+        <v>42166</v>
+      </c>
+      <c r="F63" s="33">
+        <v>2500</v>
+      </c>
+      <c r="G63" s="33">
+        <v>2250</v>
+      </c>
+      <c r="H63" s="33">
+        <v>12.43</v>
+      </c>
+      <c r="I63" s="33">
+        <v>20.98</v>
+      </c>
+      <c r="J63" s="33">
+        <v>1</v>
+      </c>
+      <c r="K63" s="33">
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="L63" s="33">
+        <v>0.26</v>
+      </c>
+      <c r="M63" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N63" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O63" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="7">
+        <v>300479</v>
+      </c>
+      <c r="B64" s="16">
+        <v>300479</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="D64" s="36">
+        <v>42158</v>
+      </c>
+      <c r="E64" s="36">
+        <v>42167</v>
+      </c>
+      <c r="F64" s="37">
         <v>2000</v>
       </c>
-      <c r="G8" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="H8" s="34">
-        <v>0</v>
-      </c>
-      <c r="I8" s="34">
-        <v>0</v>
-      </c>
-      <c r="J8" s="34">
-        <v>0</v>
-      </c>
-      <c r="K8" s="34">
-        <v>2.9660000000000002</v>
-      </c>
-      <c r="L8" s="34">
-        <v>0</v>
-      </c>
-      <c r="M8" s="31" t="s">
+      <c r="G64" s="37">
+        <v>1800</v>
+      </c>
+      <c r="H64" s="37">
+        <v>11.02</v>
+      </c>
+      <c r="I64" s="37">
+        <v>22.96</v>
+      </c>
+      <c r="J64" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="K64" s="37">
+        <v>2.2040000000000002</v>
+      </c>
+      <c r="L64" s="37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M64" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="31" t="s">
+      <c r="N64" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="O8" s="41" t="s">
+      <c r="O64" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1">
-      <c r="A9" s="42">
-        <v>603979</v>
-      </c>
-      <c r="B9" s="35">
-        <v>732979</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D9" s="37">
-        <v>42174</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="44" t="s">
-        <v>363</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="H9" s="39">
-        <v>0</v>
-      </c>
-      <c r="I9" s="39">
-        <v>0</v>
-      </c>
-      <c r="J9" s="39">
-        <v>0</v>
-      </c>
-      <c r="K9" s="39">
-        <v>16.332000000000001</v>
-      </c>
-      <c r="L9" s="39">
-        <v>0</v>
-      </c>
-      <c r="M9" s="36" t="s">
+    <row r="65" spans="1:15">
+      <c r="A65" s="6">
+        <v>300472</v>
+      </c>
+      <c r="B65" s="30">
+        <v>300472</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="D65" s="32">
+        <v>42158</v>
+      </c>
+      <c r="E65" s="32">
+        <v>42166</v>
+      </c>
+      <c r="F65" s="33">
+        <v>1667</v>
+      </c>
+      <c r="G65" s="33">
+        <v>1500</v>
+      </c>
+      <c r="H65" s="33">
+        <v>11.39</v>
+      </c>
+      <c r="I65" s="33">
+        <v>22.99</v>
+      </c>
+      <c r="J65" s="33">
+        <v>0.65</v>
+      </c>
+      <c r="K65" s="33">
+        <v>1.899</v>
+      </c>
+      <c r="L65" s="33">
+        <v>0.35</v>
+      </c>
+      <c r="M65" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="36" t="s">
+      <c r="N65" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="O9" s="36" t="s">
+      <c r="O65" s="31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1">
-      <c r="A10" s="40">
-        <v>603223</v>
-      </c>
-      <c r="B10" s="30">
-        <v>732223</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="D10" s="32">
-        <v>42174</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="43" t="s">
-        <v>289</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>290</v>
-      </c>
-      <c r="H10" s="34">
-        <v>0</v>
-      </c>
-      <c r="I10" s="34">
-        <v>0</v>
-      </c>
-      <c r="J10" s="34">
-        <v>0</v>
-      </c>
-      <c r="K10" s="34">
-        <v>2.4929999999999999</v>
-      </c>
-      <c r="L10" s="34">
-        <v>0</v>
-      </c>
-      <c r="M10" s="31" t="s">
+    <row r="66" spans="1:15">
+      <c r="A66" s="7">
+        <v>2760</v>
+      </c>
+      <c r="B66" s="16">
+        <v>2760</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="D66" s="36">
+        <v>42158</v>
+      </c>
+      <c r="E66" s="36">
+        <v>42166</v>
+      </c>
+      <c r="F66" s="37">
+        <v>2200</v>
+      </c>
+      <c r="G66" s="37">
+        <v>1980</v>
+      </c>
+      <c r="H66" s="37">
+        <v>8.31</v>
+      </c>
+      <c r="I66" s="37">
+        <v>22.97</v>
+      </c>
+      <c r="J66" s="37">
+        <v>0.85</v>
+      </c>
+      <c r="K66" s="37">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="L66" s="37">
+        <v>0.34</v>
+      </c>
+      <c r="M66" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="31" t="s">
+      <c r="N66" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="O10" s="41" t="s">
+      <c r="O66" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1">
-      <c r="A11" s="42">
-        <v>300486</v>
-      </c>
-      <c r="B11" s="35">
-        <v>300486</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="D11" s="37">
-        <v>42174</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39">
-        <v>3472</v>
-      </c>
-      <c r="G11" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="H11" s="39">
-        <v>0</v>
-      </c>
-      <c r="I11" s="39">
-        <v>0</v>
-      </c>
-      <c r="J11" s="39">
-        <v>0</v>
-      </c>
-      <c r="K11" s="39">
-        <v>3.1070000000000002</v>
-      </c>
-      <c r="L11" s="39">
-        <v>0</v>
-      </c>
-      <c r="M11" s="36" t="s">
+    <row r="67" spans="1:15">
+      <c r="A67" s="6">
+        <v>300478</v>
+      </c>
+      <c r="B67" s="30">
+        <v>300478</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="D67" s="32">
+        <v>42157</v>
+      </c>
+      <c r="E67" s="32">
+        <v>42165</v>
+      </c>
+      <c r="F67" s="33">
+        <v>1667</v>
+      </c>
+      <c r="G67" s="33">
+        <v>1500</v>
+      </c>
+      <c r="H67" s="33">
+        <v>14.84</v>
+      </c>
+      <c r="I67" s="33">
+        <v>22.99</v>
+      </c>
+      <c r="J67" s="33">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K67" s="33">
+        <v>2.4740000000000002</v>
+      </c>
+      <c r="L67" s="33">
+        <v>0.27</v>
+      </c>
+      <c r="M67" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="36" t="s">
+      <c r="N67" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="O11" s="36" t="s">
+      <c r="O67" s="31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1">
-      <c r="A12" s="40">
-        <v>300482</v>
-      </c>
-      <c r="B12" s="30">
-        <v>300482</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="D12" s="32">
-        <v>42174</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="43" t="s">
-        <v>369</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="H12" s="34">
-        <v>0</v>
-      </c>
-      <c r="I12" s="34">
-        <v>0</v>
-      </c>
-      <c r="J12" s="34">
-        <v>0</v>
-      </c>
-      <c r="K12" s="34">
-        <v>3.52</v>
-      </c>
-      <c r="L12" s="34">
-        <v>0</v>
-      </c>
-      <c r="M12" s="31" t="s">
+    <row r="68" spans="1:15">
+      <c r="A68" s="7">
+        <v>300464</v>
+      </c>
+      <c r="B68" s="16">
+        <v>300464</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="D68" s="36">
+        <v>42157</v>
+      </c>
+      <c r="E68" s="36">
+        <v>42165</v>
+      </c>
+      <c r="F68" s="37">
+        <v>2067</v>
+      </c>
+      <c r="G68" s="37">
+        <v>1860</v>
+      </c>
+      <c r="H68" s="37">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I68" s="37">
+        <v>22.67</v>
+      </c>
+      <c r="J68" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="K68" s="37">
+        <v>2.1080000000000001</v>
+      </c>
+      <c r="L68" s="37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M68" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N12" s="31" t="s">
+      <c r="N68" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="O12" s="41" t="s">
+      <c r="O68" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1">
-      <c r="A13" s="42">
-        <v>2771</v>
-      </c>
-      <c r="B13" s="35">
-        <v>2771</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>370</v>
-      </c>
-      <c r="D13" s="37">
-        <v>42173</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39">
-        <v>2000</v>
-      </c>
-      <c r="G13" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="H13" s="39">
-        <v>0</v>
-      </c>
-      <c r="I13" s="39">
-        <v>0</v>
-      </c>
-      <c r="J13" s="39">
-        <v>0</v>
-      </c>
-      <c r="K13" s="39">
-        <v>2.556</v>
-      </c>
-      <c r="L13" s="39">
-        <v>0</v>
-      </c>
-      <c r="M13" s="36" t="s">
+    <row r="69" spans="1:15">
+      <c r="A69" s="6">
+        <v>300477</v>
+      </c>
+      <c r="B69" s="30">
+        <v>300477</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="D69" s="32">
+        <v>42157</v>
+      </c>
+      <c r="E69" s="32">
+        <v>42165</v>
+      </c>
+      <c r="F69" s="33">
+        <v>2705</v>
+      </c>
+      <c r="G69" s="33">
+        <v>2340</v>
+      </c>
+      <c r="H69" s="33">
+        <v>10.61</v>
+      </c>
+      <c r="I69" s="33">
+        <v>15.38</v>
+      </c>
+      <c r="J69" s="33">
+        <v>1</v>
+      </c>
+      <c r="K69" s="33">
+        <v>2.76</v>
+      </c>
+      <c r="L69" s="33">
+        <v>0.24</v>
+      </c>
+      <c r="M69" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="36" t="s">
+      <c r="N69" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="O13" s="36" t="s">
+      <c r="O69" s="31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1">
-      <c r="A14" s="40">
-        <v>2768</v>
-      </c>
-      <c r="B14" s="30">
-        <v>2768</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="D14" s="32">
-        <v>42173</v>
-      </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34">
-        <v>2000</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="H14" s="34">
-        <v>0</v>
-      </c>
-      <c r="I14" s="34">
-        <v>0</v>
-      </c>
-      <c r="J14" s="34">
-        <v>0</v>
-      </c>
-      <c r="K14" s="34">
-        <v>3.4940000000000002</v>
-      </c>
-      <c r="L14" s="34">
-        <v>0</v>
-      </c>
-      <c r="M14" s="31" t="s">
+    <row r="70" spans="1:15">
+      <c r="A70" s="7">
+        <v>300470</v>
+      </c>
+      <c r="B70" s="16">
+        <v>300470</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="D70" s="36">
+        <v>42157</v>
+      </c>
+      <c r="E70" s="36">
+        <v>42167</v>
+      </c>
+      <c r="F70" s="37">
+        <v>1334</v>
+      </c>
+      <c r="G70" s="37">
+        <v>1201</v>
+      </c>
+      <c r="H70" s="37">
+        <v>34.6</v>
+      </c>
+      <c r="I70" s="37">
+        <v>21.84</v>
+      </c>
+      <c r="J70" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K70" s="37">
+        <v>4.617</v>
+      </c>
+      <c r="L70" s="37">
+        <v>0.33</v>
+      </c>
+      <c r="M70" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="31" t="s">
+      <c r="N70" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="O14" s="41" t="s">
+      <c r="O70" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1">
-      <c r="A15" s="42">
-        <v>603589</v>
-      </c>
-      <c r="B15" s="35">
-        <v>732589</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>372</v>
-      </c>
-      <c r="D15" s="37">
-        <v>42173</v>
-      </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39">
-        <v>6000</v>
-      </c>
-      <c r="G15" s="44" t="s">
-        <v>373</v>
-      </c>
-      <c r="H15" s="39">
-        <v>0</v>
-      </c>
-      <c r="I15" s="39">
-        <v>0</v>
-      </c>
-      <c r="J15" s="39">
-        <v>0</v>
-      </c>
-      <c r="K15" s="39">
-        <v>9.6</v>
-      </c>
-      <c r="L15" s="39">
-        <v>0</v>
-      </c>
-      <c r="M15" s="36" t="s">
+    <row r="71" spans="1:15">
+      <c r="A71" s="6">
+        <v>2762</v>
+      </c>
+      <c r="B71" s="30">
+        <v>2762</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="D71" s="32">
+        <v>42157</v>
+      </c>
+      <c r="E71" s="32">
+        <v>42165</v>
+      </c>
+      <c r="F71" s="33">
+        <v>1700</v>
+      </c>
+      <c r="G71" s="33">
+        <v>1530</v>
+      </c>
+      <c r="H71" s="33">
+        <v>26</v>
+      </c>
+      <c r="I71" s="33">
+        <v>18.71</v>
+      </c>
+      <c r="J71" s="33">
+        <v>0.65</v>
+      </c>
+      <c r="K71" s="33">
+        <v>4.4210000000000003</v>
+      </c>
+      <c r="L71" s="33">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M71" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="N15" s="36" t="s">
+      <c r="N71" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="O15" s="36" t="s">
+      <c r="O71" s="31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1">
-      <c r="A16" s="40">
-        <v>2769</v>
-      </c>
-      <c r="B16" s="30">
-        <v>2769</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="D16" s="32">
-        <v>42173</v>
-      </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="43" t="s">
-        <v>375</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>376</v>
-      </c>
-      <c r="H16" s="34">
-        <v>0</v>
-      </c>
-      <c r="I16" s="34">
-        <v>0</v>
-      </c>
-      <c r="J16" s="34">
-        <v>0.74</v>
-      </c>
-      <c r="K16" s="34">
-        <v>5.2709999999999999</v>
-      </c>
-      <c r="L16" s="34">
-        <v>0</v>
-      </c>
-      <c r="M16" s="31" t="s">
+    <row r="72" spans="1:15">
+      <c r="A72" s="7">
+        <v>2761</v>
+      </c>
+      <c r="B72" s="16">
+        <v>2761</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="D72" s="36">
+        <v>42157</v>
+      </c>
+      <c r="E72" s="36">
+        <v>42165</v>
+      </c>
+      <c r="F72" s="37">
+        <v>3000</v>
+      </c>
+      <c r="G72" s="37">
+        <v>2700</v>
+      </c>
+      <c r="H72" s="37">
+        <v>7.28</v>
+      </c>
+      <c r="I72" s="37">
+        <v>22.75</v>
+      </c>
+      <c r="J72" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="K72" s="37">
+        <v>2.1840000000000002</v>
+      </c>
+      <c r="L72" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="M72" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="31" t="s">
+      <c r="N72" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="O16" s="41" t="s">
+      <c r="O72" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1">
-      <c r="A17" s="42">
-        <v>2776</v>
-      </c>
-      <c r="B17" s="35">
-        <v>2776</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="D17" s="37">
-        <v>42173</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="44" t="s">
-        <v>378</v>
-      </c>
-      <c r="G17" s="44" t="s">
-        <v>379</v>
-      </c>
-      <c r="H17" s="39">
-        <v>0</v>
-      </c>
-      <c r="I17" s="39">
-        <v>0</v>
-      </c>
-      <c r="J17" s="39">
-        <v>0</v>
-      </c>
-      <c r="K17" s="39">
-        <v>6.1070000000000002</v>
-      </c>
-      <c r="L17" s="39">
-        <v>0</v>
-      </c>
-      <c r="M17" s="36" t="s">
+    <row r="73" spans="1:15">
+      <c r="A73" s="6">
+        <v>601368</v>
+      </c>
+      <c r="B73" s="30">
+        <v>780368</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="D73" s="32">
+        <v>42157</v>
+      </c>
+      <c r="E73" s="32">
+        <v>42167</v>
+      </c>
+      <c r="F73" s="33">
+        <v>14700</v>
+      </c>
+      <c r="G73" s="33">
+        <v>13230</v>
+      </c>
+      <c r="H73" s="33">
+        <v>6.43</v>
+      </c>
+      <c r="I73" s="33">
+        <v>22.96</v>
+      </c>
+      <c r="J73" s="33">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K73" s="33">
+        <v>8.8010000000000002</v>
+      </c>
+      <c r="L73" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="M73" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="N17" s="36" t="s">
+      <c r="N73" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="O17" s="36" t="s">
+      <c r="O73" s="31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1">
-      <c r="A18" s="40">
-        <v>601211</v>
-      </c>
-      <c r="B18" s="30">
-        <v>780211</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="D18" s="32">
-        <v>42173</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34">
-        <v>152500</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>381</v>
-      </c>
-      <c r="H18" s="34">
-        <v>0</v>
-      </c>
-      <c r="I18" s="34">
-        <v>0</v>
-      </c>
-      <c r="J18" s="34">
-        <v>0</v>
-      </c>
-      <c r="K18" s="34">
-        <v>300.577</v>
-      </c>
-      <c r="L18" s="34">
-        <v>0</v>
-      </c>
-      <c r="M18" s="31" t="s">
+    <row r="74" spans="1:15">
+      <c r="A74" s="7">
+        <v>2765</v>
+      </c>
+      <c r="B74" s="16">
+        <v>2765</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="D74" s="36">
+        <v>42157</v>
+      </c>
+      <c r="E74" s="36">
+        <v>42167</v>
+      </c>
+      <c r="F74" s="37">
+        <v>5200</v>
+      </c>
+      <c r="G74" s="37">
+        <v>4680</v>
+      </c>
+      <c r="H74" s="37">
+        <v>7.67</v>
+      </c>
+      <c r="I74" s="37">
+        <v>22.98</v>
+      </c>
+      <c r="J74" s="37">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K74" s="37">
+        <v>3.669</v>
+      </c>
+      <c r="L74" s="37">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M74" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="31" t="s">
+      <c r="N74" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="O18" s="41" t="s">
+      <c r="O74" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1">
-      <c r="A19" s="42">
-        <v>603116</v>
-      </c>
-      <c r="B19" s="35">
-        <v>732116</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>382</v>
-      </c>
-      <c r="D19" s="37">
-        <v>42173</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39">
-        <v>5880</v>
-      </c>
-      <c r="G19" s="44" t="s">
-        <v>383</v>
-      </c>
-      <c r="H19" s="39">
-        <v>0</v>
-      </c>
-      <c r="I19" s="39">
-        <v>0</v>
-      </c>
-      <c r="J19" s="39">
-        <v>0</v>
-      </c>
-      <c r="K19" s="39">
-        <v>10.412000000000001</v>
-      </c>
-      <c r="L19" s="39">
-        <v>0</v>
-      </c>
-      <c r="M19" s="36" t="s">
+    <row r="75" spans="1:15">
+      <c r="A75" s="6">
+        <v>300475</v>
+      </c>
+      <c r="B75" s="30">
+        <v>300475</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D75" s="32">
+        <v>42157</v>
+      </c>
+      <c r="E75" s="32">
+        <v>42165</v>
+      </c>
+      <c r="F75" s="33">
+        <v>5000</v>
+      </c>
+      <c r="G75" s="33">
+        <v>4500</v>
+      </c>
+      <c r="H75" s="33">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I75" s="33">
+        <v>13.33</v>
+      </c>
+      <c r="J75" s="33">
+        <v>2</v>
+      </c>
+      <c r="K75" s="33">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L75" s="33">
+        <v>0.27</v>
+      </c>
+      <c r="M75" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="N19" s="36" t="s">
+      <c r="N75" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="O19" s="36" t="s">
+      <c r="O75" s="31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1">
-      <c r="A20" s="40">
-        <v>300483</v>
-      </c>
-      <c r="B20" s="30">
-        <v>300483</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="D20" s="32">
-        <v>42173</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="43" t="s">
-        <v>385</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>277</v>
-      </c>
-      <c r="H20" s="34">
-        <v>0</v>
-      </c>
-      <c r="I20" s="34">
-        <v>0</v>
-      </c>
-      <c r="J20" s="34">
-        <v>0</v>
-      </c>
-      <c r="K20" s="34">
-        <v>1.7649999999999999</v>
-      </c>
-      <c r="L20" s="34">
-        <v>0</v>
-      </c>
-      <c r="M20" s="31" t="s">
+    <row r="76" spans="1:15">
+      <c r="A76" s="7">
+        <v>2763</v>
+      </c>
+      <c r="B76" s="16">
+        <v>2763</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="D76" s="36">
+        <v>42157</v>
+      </c>
+      <c r="E76" s="36">
+        <v>42165</v>
+      </c>
+      <c r="F76" s="37">
+        <v>5400</v>
+      </c>
+      <c r="G76" s="37">
+        <v>4860</v>
+      </c>
+      <c r="H76" s="37">
+        <v>13.1</v>
+      </c>
+      <c r="I76" s="37">
+        <v>21.72</v>
+      </c>
+      <c r="J76" s="37">
+        <v>2.15</v>
+      </c>
+      <c r="K76" s="37">
+        <v>7.077</v>
+      </c>
+      <c r="L76" s="37">
+        <v>0.37</v>
+      </c>
+      <c r="M76" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N20" s="31" t="s">
+      <c r="N76" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="O20" s="41" t="s">
+      <c r="O76" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1">
-      <c r="A21" s="42">
-        <v>2775</v>
-      </c>
-      <c r="B21" s="35">
-        <v>2775</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>386</v>
-      </c>
-      <c r="D21" s="37">
-        <v>42173</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="G21" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="H21" s="39">
-        <v>0</v>
-      </c>
-      <c r="I21" s="39">
-        <v>0</v>
-      </c>
-      <c r="J21" s="39">
+    <row r="77" spans="1:15">
+      <c r="A77" s="6">
+        <v>601985</v>
+      </c>
+      <c r="B77" s="30">
+        <v>780985</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="D77" s="32">
+        <v>42157</v>
+      </c>
+      <c r="E77" s="32">
+        <v>42165</v>
+      </c>
+      <c r="F77" s="33">
+        <v>389100</v>
+      </c>
+      <c r="G77" s="33">
+        <v>272370</v>
+      </c>
+      <c r="H77" s="33">
+        <v>3.39</v>
+      </c>
+      <c r="I77" s="33">
+        <v>22.29</v>
+      </c>
+      <c r="J77" s="33">
+        <v>116.7</v>
+      </c>
+      <c r="K77" s="33">
+        <v>135.79900000000001</v>
+      </c>
+      <c r="L77" s="33">
+        <v>1.63</v>
+      </c>
+      <c r="M77" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N77" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="O77" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="7">
+        <v>603026</v>
+      </c>
+      <c r="B78" s="16">
+        <v>732026</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D78" s="36">
+        <v>42145</v>
+      </c>
+      <c r="E78" s="36">
+        <v>42153</v>
+      </c>
+      <c r="F78" s="37">
+        <v>5068</v>
+      </c>
+      <c r="G78" s="37">
+        <v>4561</v>
+      </c>
+      <c r="H78" s="37">
+        <v>6.51</v>
+      </c>
+      <c r="I78" s="37">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="J78" s="37">
+        <v>1.8</v>
+      </c>
+      <c r="K78" s="37">
+        <v>3.2989999999999999</v>
+      </c>
+      <c r="L78" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="M78" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N78" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="O78" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="6">
+        <v>300465</v>
+      </c>
+      <c r="B79" s="30">
+        <v>300465</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="D79" s="32">
+        <v>42144</v>
+      </c>
+      <c r="E79" s="32">
+        <v>42152</v>
+      </c>
+      <c r="F79" s="33">
+        <v>3334</v>
+      </c>
+      <c r="G79" s="33">
+        <v>3001</v>
+      </c>
+      <c r="H79" s="33">
+        <v>11.26</v>
+      </c>
+      <c r="I79" s="33">
+        <v>22.93</v>
+      </c>
+      <c r="J79" s="33">
         <v>1.2</v>
       </c>
-      <c r="K21" s="39">
-        <v>5.0789999999999997</v>
-      </c>
-      <c r="L21" s="39">
-        <v>0</v>
-      </c>
-      <c r="M21" s="36" t="s">
+      <c r="K79" s="33">
+        <v>3.754</v>
+      </c>
+      <c r="L79" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="M79" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="N21" s="36" t="s">
+      <c r="N79" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="O21" s="36" t="s">
+      <c r="O79" s="31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1">
-      <c r="A22" s="40">
-        <v>603838</v>
-      </c>
-      <c r="B22" s="30">
-        <v>732838</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="D22" s="32">
-        <v>42173</v>
-      </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34">
-        <v>3334</v>
-      </c>
-      <c r="G22" s="43" t="s">
-        <v>388</v>
-      </c>
-      <c r="H22" s="34">
-        <v>0</v>
-      </c>
-      <c r="I22" s="34">
-        <v>0</v>
-      </c>
-      <c r="J22" s="34">
-        <v>0</v>
-      </c>
-      <c r="K22" s="34">
-        <v>2.577</v>
-      </c>
-      <c r="L22" s="34">
-        <v>0</v>
-      </c>
-      <c r="M22" s="31" t="s">
+    <row r="80" spans="1:15">
+      <c r="A80" s="7">
+        <v>603918</v>
+      </c>
+      <c r="B80" s="16">
+        <v>732918</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="D80" s="36">
+        <v>42144</v>
+      </c>
+      <c r="E80" s="36">
+        <v>42152</v>
+      </c>
+      <c r="F80" s="37">
+        <v>2200</v>
+      </c>
+      <c r="G80" s="37">
+        <v>1980</v>
+      </c>
+      <c r="H80" s="37">
+        <v>9.5</v>
+      </c>
+      <c r="I80" s="37">
+        <v>22.99</v>
+      </c>
+      <c r="J80" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="K80" s="37">
+        <v>2.09</v>
+      </c>
+      <c r="L80" s="37">
+        <v>0.21</v>
+      </c>
+      <c r="M80" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N22" s="31" t="s">
+      <c r="N80" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="O22" s="41" t="s">
+      <c r="O80" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1">
-      <c r="A23" s="42">
-        <v>603117</v>
-      </c>
-      <c r="B23" s="35">
-        <v>732117</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="D23" s="37">
-        <v>42173</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39">
-        <v>6000</v>
-      </c>
-      <c r="G23" s="44" t="s">
-        <v>373</v>
-      </c>
-      <c r="H23" s="39">
-        <v>0</v>
-      </c>
-      <c r="I23" s="39">
-        <v>0</v>
-      </c>
-      <c r="J23" s="39">
-        <v>0</v>
-      </c>
-      <c r="K23" s="39">
-        <v>3.5579999999999998</v>
-      </c>
-      <c r="L23" s="39">
-        <v>0</v>
-      </c>
-      <c r="M23" s="36" t="s">
+    <row r="81" spans="1:15">
+      <c r="A81" s="6">
+        <v>603669</v>
+      </c>
+      <c r="B81" s="30">
+        <v>732669</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="D81" s="32">
+        <v>42144</v>
+      </c>
+      <c r="E81" s="32">
+        <v>42152</v>
+      </c>
+      <c r="F81" s="33">
+        <v>6500</v>
+      </c>
+      <c r="G81" s="33">
+        <v>5850</v>
+      </c>
+      <c r="H81" s="33">
+        <v>11.7</v>
+      </c>
+      <c r="I81" s="33">
+        <v>22.98</v>
+      </c>
+      <c r="J81" s="33">
+        <v>2.6</v>
+      </c>
+      <c r="K81" s="33">
+        <v>7.6050000000000004</v>
+      </c>
+      <c r="L81" s="33">
+        <v>0.41</v>
+      </c>
+      <c r="M81" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="N23" s="36" t="s">
+      <c r="N81" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="O23" s="36" t="s">
+      <c r="O81" s="31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1">
-      <c r="A24" s="40">
-        <v>2773</v>
-      </c>
-      <c r="B24" s="30">
-        <v>2773</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>390</v>
-      </c>
-      <c r="D24" s="32">
-        <v>42172</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34">
+    <row r="82" spans="1:15">
+      <c r="A82" s="7">
+        <v>603300</v>
+      </c>
+      <c r="B82" s="16">
+        <v>732300</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="D82" s="36">
+        <v>42144</v>
+      </c>
+      <c r="E82" s="36">
+        <v>42153</v>
+      </c>
+      <c r="F82" s="37">
+        <v>5067</v>
+      </c>
+      <c r="G82" s="37">
         <v>4560</v>
       </c>
-      <c r="G24" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="H24" s="34">
-        <v>0</v>
-      </c>
-      <c r="I24" s="34">
-        <v>0</v>
-      </c>
-      <c r="J24" s="34">
-        <v>0</v>
-      </c>
-      <c r="K24" s="34">
-        <v>6.2110000000000003</v>
-      </c>
-      <c r="L24" s="34">
-        <v>0</v>
-      </c>
-      <c r="M24" s="31" t="s">
+      <c r="H82" s="37">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="I82" s="37">
+        <v>22.98</v>
+      </c>
+      <c r="J82" s="37">
+        <v>2</v>
+      </c>
+      <c r="K82" s="37">
+        <v>4.165</v>
+      </c>
+      <c r="L82" s="37">
+        <v>0.37</v>
+      </c>
+      <c r="M82" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N24" s="31" t="s">
+      <c r="N82" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="O24" s="41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1">
-      <c r="A25" s="42">
-        <v>300485</v>
-      </c>
-      <c r="B25" s="35">
-        <v>300485</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="D25" s="37">
-        <v>42172</v>
-      </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="G25" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="H25" s="39">
-        <v>0</v>
-      </c>
-      <c r="I25" s="39">
-        <v>0</v>
-      </c>
-      <c r="J25" s="39">
-        <v>0</v>
-      </c>
-      <c r="K25" s="39">
-        <v>11.538</v>
-      </c>
-      <c r="L25" s="39">
-        <v>0</v>
-      </c>
-      <c r="M25" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="N25" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="O25" s="36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1">
-      <c r="A26" s="40">
-        <v>2772</v>
-      </c>
-      <c r="B26" s="30">
-        <v>2772</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>392</v>
-      </c>
-      <c r="D26" s="32">
-        <v>42172</v>
-      </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34">
-        <v>3725</v>
-      </c>
-      <c r="G26" s="43" t="s">
-        <v>393</v>
-      </c>
-      <c r="H26" s="34">
-        <v>0</v>
-      </c>
-      <c r="I26" s="34">
-        <v>0</v>
-      </c>
-      <c r="J26" s="34">
-        <v>0</v>
-      </c>
-      <c r="K26" s="34">
-        <v>4.843</v>
-      </c>
-      <c r="L26" s="34">
-        <v>0</v>
-      </c>
-      <c r="M26" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N26" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O26" s="41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15" thickBot="1">
-      <c r="A27" s="42">
-        <v>300471</v>
-      </c>
-      <c r="B27" s="35">
-        <v>300471</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="D27" s="37">
-        <v>42158</v>
-      </c>
-      <c r="E27" s="37">
-        <v>42166</v>
-      </c>
-      <c r="F27" s="39">
-        <v>1780</v>
-      </c>
-      <c r="G27" s="39">
-        <v>1332</v>
-      </c>
-      <c r="H27" s="39">
-        <v>54.01</v>
-      </c>
-      <c r="I27" s="39">
-        <v>21.85</v>
-      </c>
-      <c r="J27" s="39">
-        <v>0.7</v>
-      </c>
-      <c r="K27" s="39">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="L27" s="39">
-        <v>0.53</v>
-      </c>
-      <c r="M27" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="N27" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="O27" s="36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15" thickBot="1">
-      <c r="A28" s="40">
-        <v>603616</v>
-      </c>
-      <c r="B28" s="30">
-        <v>732616</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="D28" s="32">
-        <v>42158</v>
-      </c>
-      <c r="E28" s="32">
-        <v>42166</v>
-      </c>
-      <c r="F28" s="34">
-        <v>3668</v>
-      </c>
-      <c r="G28" s="34">
-        <v>3301</v>
-      </c>
-      <c r="H28" s="34">
-        <v>11.35</v>
-      </c>
-      <c r="I28" s="34">
-        <v>20.64</v>
-      </c>
-      <c r="J28" s="34">
-        <v>1.3</v>
-      </c>
-      <c r="K28" s="34">
-        <v>4.1660000000000004</v>
-      </c>
-      <c r="L28" s="34">
-        <v>0.33</v>
-      </c>
-      <c r="M28" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N28" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O28" s="41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15" thickBot="1">
-      <c r="A29" s="42">
-        <v>601968</v>
-      </c>
-      <c r="B29" s="35">
-        <v>780968</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>396</v>
-      </c>
-      <c r="D29" s="37">
-        <v>42158</v>
-      </c>
-      <c r="E29" s="37">
-        <v>42166</v>
-      </c>
-      <c r="F29" s="39">
-        <v>20833</v>
-      </c>
-      <c r="G29" s="39">
-        <v>18750</v>
-      </c>
-      <c r="H29" s="39">
-        <v>3.08</v>
-      </c>
-      <c r="I29" s="39">
-        <v>22.93</v>
-      </c>
-      <c r="J29" s="39">
-        <v>6.2</v>
-      </c>
-      <c r="K29" s="39">
-        <v>6.4169999999999998</v>
-      </c>
-      <c r="L29" s="39">
-        <v>0.45</v>
-      </c>
-      <c r="M29" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="N29" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="O29" s="36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1">
-      <c r="A30" s="40">
-        <v>2767</v>
-      </c>
-      <c r="B30" s="30">
-        <v>2767</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>397</v>
-      </c>
-      <c r="D30" s="32">
-        <v>42158</v>
-      </c>
-      <c r="E30" s="32">
-        <v>42167</v>
-      </c>
-      <c r="F30" s="34">
-        <v>2500</v>
-      </c>
-      <c r="G30" s="34">
-        <v>2250</v>
-      </c>
-      <c r="H30" s="34">
-        <v>14.87</v>
-      </c>
-      <c r="I30" s="34">
-        <v>22.43</v>
-      </c>
-      <c r="J30" s="34">
-        <v>1</v>
-      </c>
-      <c r="K30" s="34">
-        <v>3.7189999999999999</v>
-      </c>
-      <c r="L30" s="34">
-        <v>0.35</v>
-      </c>
-      <c r="M30" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N30" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O30" s="41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15" thickBot="1">
-      <c r="A31" s="42">
-        <v>300473</v>
-      </c>
-      <c r="B31" s="35">
-        <v>300473</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>398</v>
-      </c>
-      <c r="D31" s="37">
-        <v>42158</v>
-      </c>
-      <c r="E31" s="37">
-        <v>42167</v>
-      </c>
-      <c r="F31" s="39">
-        <v>2500</v>
-      </c>
-      <c r="G31" s="39">
-        <v>2250</v>
-      </c>
-      <c r="H31" s="39">
-        <v>28.76</v>
-      </c>
-      <c r="I31" s="39">
-        <v>22.99</v>
-      </c>
-      <c r="J31" s="39">
-        <v>1</v>
-      </c>
-      <c r="K31" s="39">
-        <v>7.19</v>
-      </c>
-      <c r="L31" s="39">
-        <v>0.59</v>
-      </c>
-      <c r="M31" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="N31" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="O31" s="36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15" thickBot="1">
-      <c r="A32" s="40">
-        <v>2766</v>
-      </c>
-      <c r="B32" s="30">
-        <v>2766</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="D32" s="32">
-        <v>42158</v>
-      </c>
-      <c r="E32" s="32">
-        <v>42166</v>
-      </c>
-      <c r="F32" s="34">
-        <v>4580</v>
-      </c>
-      <c r="G32" s="34">
-        <v>4122</v>
-      </c>
-      <c r="H32" s="34">
-        <v>7.53</v>
-      </c>
-      <c r="I32" s="34">
-        <v>22.82</v>
-      </c>
-      <c r="J32" s="34">
-        <v>1.8</v>
-      </c>
-      <c r="K32" s="34">
-        <v>3.4489999999999998</v>
-      </c>
-      <c r="L32" s="34">
-        <v>0.32</v>
-      </c>
-      <c r="M32" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N32" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O32" s="41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15" thickBot="1">
-      <c r="A33" s="42">
-        <v>300476</v>
-      </c>
-      <c r="B33" s="35">
-        <v>300476</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>400</v>
-      </c>
-      <c r="D33" s="37">
-        <v>42158</v>
-      </c>
-      <c r="E33" s="37">
-        <v>42166</v>
-      </c>
-      <c r="F33" s="39">
-        <v>3667</v>
-      </c>
-      <c r="G33" s="39">
-        <v>3300</v>
-      </c>
-      <c r="H33" s="39">
-        <v>15.73</v>
-      </c>
-      <c r="I33" s="39">
-        <v>22.97</v>
-      </c>
-      <c r="J33" s="39">
-        <v>1.4</v>
-      </c>
-      <c r="K33" s="39">
-        <v>5.7679999999999998</v>
-      </c>
-      <c r="L33" s="39">
-        <v>0.46</v>
-      </c>
-      <c r="M33" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="N33" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="O33" s="36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15" thickBot="1">
-      <c r="A34" s="40">
-        <v>300469</v>
-      </c>
-      <c r="B34" s="30">
-        <v>300469</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="D34" s="32">
-        <v>42158</v>
-      </c>
-      <c r="E34" s="32">
-        <v>42166</v>
-      </c>
-      <c r="F34" s="34">
-        <v>1670</v>
-      </c>
-      <c r="G34" s="34">
-        <v>1503</v>
-      </c>
-      <c r="H34" s="34">
-        <v>10.14</v>
-      </c>
-      <c r="I34" s="34">
-        <v>22.98</v>
-      </c>
-      <c r="J34" s="34">
-        <v>0.6</v>
-      </c>
-      <c r="K34" s="34">
-        <v>1.6930000000000001</v>
-      </c>
-      <c r="L34" s="34">
-        <v>0.26</v>
-      </c>
-      <c r="M34" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N34" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O34" s="41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15" thickBot="1">
-      <c r="A35" s="42">
-        <v>603066</v>
-      </c>
-      <c r="B35" s="35">
-        <v>732066</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="D35" s="37">
-        <v>42158</v>
-      </c>
-      <c r="E35" s="37">
-        <v>42166</v>
-      </c>
-      <c r="F35" s="39">
-        <v>2500</v>
-      </c>
-      <c r="G35" s="39">
-        <v>2250</v>
-      </c>
-      <c r="H35" s="39">
-        <v>12.43</v>
-      </c>
-      <c r="I35" s="39">
-        <v>20.98</v>
-      </c>
-      <c r="J35" s="39">
-        <v>1</v>
-      </c>
-      <c r="K35" s="39">
-        <v>3.1080000000000001</v>
-      </c>
-      <c r="L35" s="39">
-        <v>0.26</v>
-      </c>
-      <c r="M35" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="N35" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="O35" s="36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15" thickBot="1">
-      <c r="A36" s="40">
-        <v>300479</v>
-      </c>
-      <c r="B36" s="30">
-        <v>300479</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>403</v>
-      </c>
-      <c r="D36" s="32">
-        <v>42158</v>
-      </c>
-      <c r="E36" s="32">
-        <v>42167</v>
-      </c>
-      <c r="F36" s="34">
-        <v>2000</v>
-      </c>
-      <c r="G36" s="34">
-        <v>1800</v>
-      </c>
-      <c r="H36" s="34">
-        <v>11.02</v>
-      </c>
-      <c r="I36" s="34">
-        <v>22.96</v>
-      </c>
-      <c r="J36" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="K36" s="34">
-        <v>2.2040000000000002</v>
-      </c>
-      <c r="L36" s="34">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="M36" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N36" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O36" s="41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="15" thickBot="1">
-      <c r="A37" s="42">
-        <v>300472</v>
-      </c>
-      <c r="B37" s="35">
-        <v>300472</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>404</v>
-      </c>
-      <c r="D37" s="37">
-        <v>42158</v>
-      </c>
-      <c r="E37" s="37">
-        <v>42166</v>
-      </c>
-      <c r="F37" s="39">
-        <v>1667</v>
-      </c>
-      <c r="G37" s="39">
-        <v>1500</v>
-      </c>
-      <c r="H37" s="39">
-        <v>11.39</v>
-      </c>
-      <c r="I37" s="39">
-        <v>22.99</v>
-      </c>
-      <c r="J37" s="39">
-        <v>0.65</v>
-      </c>
-      <c r="K37" s="39">
-        <v>1.899</v>
-      </c>
-      <c r="L37" s="39">
-        <v>0.35</v>
-      </c>
-      <c r="M37" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="N37" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="O37" s="36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15" thickBot="1">
-      <c r="A38" s="40">
-        <v>2760</v>
-      </c>
-      <c r="B38" s="30">
-        <v>2760</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="D38" s="32">
-        <v>42158</v>
-      </c>
-      <c r="E38" s="32">
-        <v>42166</v>
-      </c>
-      <c r="F38" s="34">
-        <v>2200</v>
-      </c>
-      <c r="G38" s="34">
-        <v>1980</v>
-      </c>
-      <c r="H38" s="34">
-        <v>8.31</v>
-      </c>
-      <c r="I38" s="34">
-        <v>22.97</v>
-      </c>
-      <c r="J38" s="34">
-        <v>0.85</v>
-      </c>
-      <c r="K38" s="34">
-        <v>1.8280000000000001</v>
-      </c>
-      <c r="L38" s="34">
-        <v>0.34</v>
-      </c>
-      <c r="M38" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N38" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O38" s="41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15" thickBot="1">
-      <c r="A39" s="42">
-        <v>300478</v>
-      </c>
-      <c r="B39" s="35">
-        <v>300478</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>406</v>
-      </c>
-      <c r="D39" s="37">
-        <v>42157</v>
-      </c>
-      <c r="E39" s="37">
-        <v>42165</v>
-      </c>
-      <c r="F39" s="39">
-        <v>1667</v>
-      </c>
-      <c r="G39" s="39">
-        <v>1500</v>
-      </c>
-      <c r="H39" s="39">
-        <v>14.84</v>
-      </c>
-      <c r="I39" s="39">
-        <v>22.99</v>
-      </c>
-      <c r="J39" s="39">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="K39" s="39">
-        <v>2.4740000000000002</v>
-      </c>
-      <c r="L39" s="39">
-        <v>0.27</v>
-      </c>
-      <c r="M39" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="N39" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="O39" s="36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="15" thickBot="1">
-      <c r="A40" s="40">
-        <v>300464</v>
-      </c>
-      <c r="B40" s="30">
-        <v>300464</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>345</v>
-      </c>
-      <c r="D40" s="32">
-        <v>42157</v>
-      </c>
-      <c r="E40" s="32">
-        <v>42165</v>
-      </c>
-      <c r="F40" s="34">
-        <v>2067</v>
-      </c>
-      <c r="G40" s="34">
-        <v>1860</v>
-      </c>
-      <c r="H40" s="34">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I40" s="34">
-        <v>22.67</v>
-      </c>
-      <c r="J40" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="K40" s="34">
-        <v>2.1080000000000001</v>
-      </c>
-      <c r="L40" s="34">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="M40" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N40" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O40" s="41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15" thickBot="1">
-      <c r="A41" s="42">
-        <v>300477</v>
-      </c>
-      <c r="B41" s="35">
-        <v>300477</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="D41" s="37">
-        <v>42157</v>
-      </c>
-      <c r="E41" s="37">
-        <v>42165</v>
-      </c>
-      <c r="F41" s="39">
-        <v>2705</v>
-      </c>
-      <c r="G41" s="39">
-        <v>2340</v>
-      </c>
-      <c r="H41" s="39">
-        <v>10.61</v>
-      </c>
-      <c r="I41" s="39">
-        <v>15.38</v>
-      </c>
-      <c r="J41" s="39">
-        <v>1</v>
-      </c>
-      <c r="K41" s="39">
-        <v>2.76</v>
-      </c>
-      <c r="L41" s="39">
-        <v>0.24</v>
-      </c>
-      <c r="M41" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="N41" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="O41" s="36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="15" thickBot="1">
-      <c r="A42" s="40">
-        <v>300470</v>
-      </c>
-      <c r="B42" s="30">
-        <v>300470</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>342</v>
-      </c>
-      <c r="D42" s="32">
-        <v>42157</v>
-      </c>
-      <c r="E42" s="32">
-        <v>42167</v>
-      </c>
-      <c r="F42" s="34">
-        <v>1334</v>
-      </c>
-      <c r="G42" s="34">
-        <v>1201</v>
-      </c>
-      <c r="H42" s="34">
-        <v>34.6</v>
-      </c>
-      <c r="I42" s="34">
-        <v>21.84</v>
-      </c>
-      <c r="J42" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="K42" s="34">
-        <v>4.617</v>
-      </c>
-      <c r="L42" s="34">
-        <v>0.33</v>
-      </c>
-      <c r="M42" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N42" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O42" s="41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="15" thickBot="1">
-      <c r="A43" s="42">
-        <v>2762</v>
-      </c>
-      <c r="B43" s="35">
-        <v>2762</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="D43" s="37">
-        <v>42157</v>
-      </c>
-      <c r="E43" s="37">
-        <v>42165</v>
-      </c>
-      <c r="F43" s="39">
-        <v>1700</v>
-      </c>
-      <c r="G43" s="39">
-        <v>1530</v>
-      </c>
-      <c r="H43" s="39">
-        <v>26</v>
-      </c>
-      <c r="I43" s="39">
-        <v>18.71</v>
-      </c>
-      <c r="J43" s="39">
-        <v>0.65</v>
-      </c>
-      <c r="K43" s="39">
-        <v>4.4210000000000003</v>
-      </c>
-      <c r="L43" s="39">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M43" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="N43" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="O43" s="36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15" thickBot="1">
-      <c r="A44" s="40">
-        <v>2761</v>
-      </c>
-      <c r="B44" s="30">
-        <v>2761</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="D44" s="32">
-        <v>42157</v>
-      </c>
-      <c r="E44" s="32">
-        <v>42165</v>
-      </c>
-      <c r="F44" s="34">
-        <v>3000</v>
-      </c>
-      <c r="G44" s="34">
-        <v>2700</v>
-      </c>
-      <c r="H44" s="34">
-        <v>7.28</v>
-      </c>
-      <c r="I44" s="34">
-        <v>22.75</v>
-      </c>
-      <c r="J44" s="34">
-        <v>1.2</v>
-      </c>
-      <c r="K44" s="34">
-        <v>2.1840000000000002</v>
-      </c>
-      <c r="L44" s="34">
-        <v>0.23</v>
-      </c>
-      <c r="M44" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N44" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O44" s="41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="15" thickBot="1">
-      <c r="A45" s="42">
-        <v>601368</v>
-      </c>
-      <c r="B45" s="35">
-        <v>780368</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="D45" s="37">
-        <v>42157</v>
-      </c>
-      <c r="E45" s="37">
-        <v>42167</v>
-      </c>
-      <c r="F45" s="39">
-        <v>14700</v>
-      </c>
-      <c r="G45" s="39">
-        <v>13230</v>
-      </c>
-      <c r="H45" s="39">
-        <v>6.43</v>
-      </c>
-      <c r="I45" s="39">
-        <v>22.96</v>
-      </c>
-      <c r="J45" s="39">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K45" s="39">
-        <v>8.8010000000000002</v>
-      </c>
-      <c r="L45" s="39">
-        <v>0.3</v>
-      </c>
-      <c r="M45" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="N45" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="O45" s="36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="15" thickBot="1">
-      <c r="A46" s="40">
-        <v>2765</v>
-      </c>
-      <c r="B46" s="30">
-        <v>2765</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>348</v>
-      </c>
-      <c r="D46" s="32">
-        <v>42157</v>
-      </c>
-      <c r="E46" s="32">
-        <v>42167</v>
-      </c>
-      <c r="F46" s="34">
-        <v>5200</v>
-      </c>
-      <c r="G46" s="34">
-        <v>4680</v>
-      </c>
-      <c r="H46" s="34">
-        <v>7.67</v>
-      </c>
-      <c r="I46" s="34">
-        <v>22.98</v>
-      </c>
-      <c r="J46" s="34">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="K46" s="34">
-        <v>3.669</v>
-      </c>
-      <c r="L46" s="34">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M46" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N46" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O46" s="41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15" thickBot="1">
-      <c r="A47" s="42">
-        <v>300475</v>
-      </c>
-      <c r="B47" s="35">
-        <v>300475</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>408</v>
-      </c>
-      <c r="D47" s="37">
-        <v>42157</v>
-      </c>
-      <c r="E47" s="37">
-        <v>42165</v>
-      </c>
-      <c r="F47" s="39">
-        <v>5000</v>
-      </c>
-      <c r="G47" s="39">
-        <v>4500</v>
-      </c>
-      <c r="H47" s="39">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I47" s="39">
-        <v>13.33</v>
-      </c>
-      <c r="J47" s="39">
-        <v>2</v>
-      </c>
-      <c r="K47" s="39">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="L47" s="39">
-        <v>0.27</v>
-      </c>
-      <c r="M47" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="N47" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="O47" s="36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="15" thickBot="1">
-      <c r="A48" s="40">
-        <v>2763</v>
-      </c>
-      <c r="B48" s="30">
-        <v>2763</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="D48" s="32">
-        <v>42157</v>
-      </c>
-      <c r="E48" s="32">
-        <v>42165</v>
-      </c>
-      <c r="F48" s="34">
-        <v>5400</v>
-      </c>
-      <c r="G48" s="34">
-        <v>4860</v>
-      </c>
-      <c r="H48" s="34">
-        <v>13.1</v>
-      </c>
-      <c r="I48" s="34">
-        <v>21.72</v>
-      </c>
-      <c r="J48" s="34">
-        <v>2.15</v>
-      </c>
-      <c r="K48" s="34">
-        <v>7.077</v>
-      </c>
-      <c r="L48" s="34">
-        <v>0.37</v>
-      </c>
-      <c r="M48" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N48" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O48" s="41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="15" thickBot="1">
-      <c r="A49" s="42">
-        <v>601985</v>
-      </c>
-      <c r="B49" s="35">
-        <v>780985</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>347</v>
-      </c>
-      <c r="D49" s="37">
-        <v>42157</v>
-      </c>
-      <c r="E49" s="37">
-        <v>42165</v>
-      </c>
-      <c r="F49" s="39">
-        <v>389100</v>
-      </c>
-      <c r="G49" s="39">
-        <v>272370</v>
-      </c>
-      <c r="H49" s="39">
-        <v>3.39</v>
-      </c>
-      <c r="I49" s="39">
-        <v>22.29</v>
-      </c>
-      <c r="J49" s="39">
-        <v>116.7</v>
-      </c>
-      <c r="K49" s="39">
-        <v>135.79900000000001</v>
-      </c>
-      <c r="L49" s="39">
-        <v>1.63</v>
-      </c>
-      <c r="M49" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="N49" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="O49" s="36" t="s">
+      <c r="O82" s="35" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://finance.sina.com.cn/realstock/company/sz300480/nc.shtml"/>
-    <hyperlink ref="M2" r:id="rId2" display="javascript:void(0)"/>
-    <hyperlink ref="N2" r:id="rId3" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300480"/>
-    <hyperlink ref="O2" r:id="rId4" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300480.phtml"/>
-    <hyperlink ref="C3" r:id="rId5" display="http://finance.sina.com.cn/realstock/company/sz300488/nc.shtml"/>
+    <hyperlink ref="A1" r:id="rId1" tooltip="http://money.finance.sina.com.cn/corp/view/vRPD_NewStockIssue.php?page=1&amp;cngem=0&amp;orderBy=PaperCode&amp;orderType=asc"/>
+    <hyperlink ref="C1" r:id="rId2" tooltip="http://money.finance.sina.com.cn/corp/view/vRPD_NewStockIssue.php?page=1&amp;cngem=0&amp;orderBy=PaperName&amp;orderType=asc"/>
+    <hyperlink ref="D1" r:id="rId3" tooltip="http://money.finance.sina.com.cn/corp/view/vRPD_NewStockIssue.php?page=1&amp;cngem=0&amp;orderBy=NetDate&amp;orderType=asc"/>
+    <hyperlink ref="E1" r:id="rId4" tooltip="http://money.finance.sina.com.cn/corp/view/vRPD_NewStockIssue.php?page=1&amp;cngem=0&amp;orderBy=MarketDate&amp;orderType=asc"/>
+    <hyperlink ref="C3" r:id="rId5" display="http://finance.sina.com.cn/realstock/company/sz002785/nc.shtml"/>
     <hyperlink ref="M3" r:id="rId6" display="javascript:void(0)"/>
-    <hyperlink ref="N3" r:id="rId7" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300488"/>
-    <hyperlink ref="O3" r:id="rId8" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300488.phtml"/>
-    <hyperlink ref="C4" r:id="rId9" display="http://finance.sina.com.cn/realstock/company/sz002770/nc.shtml"/>
+    <hyperlink ref="N3" r:id="rId7" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002785"/>
+    <hyperlink ref="O3" r:id="rId8" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002785.phtml"/>
+    <hyperlink ref="C4" r:id="rId9" display="http://finance.sina.com.cn/realstock/company/sz002778/nc.shtml"/>
     <hyperlink ref="M4" r:id="rId10" display="javascript:void(0)"/>
-    <hyperlink ref="N4" r:id="rId11" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002770"/>
-    <hyperlink ref="O4" r:id="rId12" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002770.phtml"/>
-    <hyperlink ref="C5" r:id="rId13" display="http://finance.sina.com.cn/realstock/company/sz300489/nc.shtml"/>
+    <hyperlink ref="N4" r:id="rId11" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002778"/>
+    <hyperlink ref="O4" r:id="rId12" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002778.phtml"/>
+    <hyperlink ref="C5" r:id="rId13" display="http://finance.sina.com.cn/realstock/company/sz300491/nc.shtml"/>
     <hyperlink ref="M5" r:id="rId14" display="javascript:void(0)"/>
-    <hyperlink ref="N5" r:id="rId15" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300489"/>
-    <hyperlink ref="O5" r:id="rId16" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300489.phtml"/>
-    <hyperlink ref="C6" r:id="rId17" display="http://finance.sina.com.cn/realstock/company/sz300481/nc.shtml"/>
+    <hyperlink ref="N5" r:id="rId15" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300491"/>
+    <hyperlink ref="O5" r:id="rId16" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300491.phtml"/>
+    <hyperlink ref="C6" r:id="rId17" display="http://finance.sina.com.cn/realstock/company/sh603299/nc.shtml"/>
     <hyperlink ref="M6" r:id="rId18" display="javascript:void(0)"/>
-    <hyperlink ref="N6" r:id="rId19" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300481"/>
-    <hyperlink ref="O6" r:id="rId20" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300481.phtml"/>
-    <hyperlink ref="C7" r:id="rId21" display="http://finance.sina.com.cn/realstock/company/sh603085/nc.shtml"/>
+    <hyperlink ref="N6" r:id="rId19" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603299"/>
+    <hyperlink ref="O6" r:id="rId20" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603299.phtml"/>
+    <hyperlink ref="C7" r:id="rId21" display="http://finance.sina.com.cn/realstock/company/sz002787/nc.shtml"/>
     <hyperlink ref="M7" r:id="rId22" display="javascript:void(0)"/>
-    <hyperlink ref="N7" r:id="rId23" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603085"/>
-    <hyperlink ref="O7" r:id="rId24" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603085.phtml"/>
-    <hyperlink ref="C8" r:id="rId25" display="http://finance.sina.com.cn/realstock/company/sz300487/nc.shtml"/>
+    <hyperlink ref="N7" r:id="rId23" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002787"/>
+    <hyperlink ref="O7" r:id="rId24" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002787.phtml"/>
+    <hyperlink ref="C8" r:id="rId25" display="http://finance.sina.com.cn/realstock/company/sz300490/nc.shtml"/>
     <hyperlink ref="M8" r:id="rId26" display="javascript:void(0)"/>
-    <hyperlink ref="N8" r:id="rId27" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300487"/>
-    <hyperlink ref="O8" r:id="rId28" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300487.phtml"/>
-    <hyperlink ref="C9" r:id="rId29" display="http://finance.sina.com.cn/realstock/company/sh603979/nc.shtml"/>
+    <hyperlink ref="N8" r:id="rId27" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300490"/>
+    <hyperlink ref="O8" r:id="rId28" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300490.phtml"/>
+    <hyperlink ref="C9" r:id="rId29" display="http://finance.sina.com.cn/realstock/company/sz300494/nc.shtml"/>
     <hyperlink ref="M9" r:id="rId30" display="javascript:void(0)"/>
-    <hyperlink ref="N9" r:id="rId31" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603979"/>
-    <hyperlink ref="O9" r:id="rId32" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603979.phtml"/>
-    <hyperlink ref="C10" r:id="rId33" display="http://finance.sina.com.cn/realstock/company/sh603223/nc.shtml"/>
+    <hyperlink ref="N9" r:id="rId31" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300494"/>
+    <hyperlink ref="O9" r:id="rId32" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300494.phtml"/>
+    <hyperlink ref="C10" r:id="rId33" display="http://finance.sina.com.cn/realstock/company/sz002781/nc.shtml"/>
     <hyperlink ref="M10" r:id="rId34" display="javascript:void(0)"/>
-    <hyperlink ref="N10" r:id="rId35" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603223"/>
-    <hyperlink ref="O10" r:id="rId36" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603223.phtml"/>
-    <hyperlink ref="C11" r:id="rId37" display="http://finance.sina.com.cn/realstock/company/sz300486/nc.shtml"/>
+    <hyperlink ref="N10" r:id="rId35" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002781"/>
+    <hyperlink ref="O10" r:id="rId36" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002781.phtml"/>
+    <hyperlink ref="C11" r:id="rId37" display="http://finance.sina.com.cn/realstock/company/sh603996/nc.shtml"/>
     <hyperlink ref="M11" r:id="rId38" display="javascript:void(0)"/>
-    <hyperlink ref="N11" r:id="rId39" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300486"/>
-    <hyperlink ref="O11" r:id="rId40" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300486.phtml"/>
-    <hyperlink ref="C12" r:id="rId41" display="http://finance.sina.com.cn/realstock/company/sz300482/nc.shtml"/>
+    <hyperlink ref="N11" r:id="rId39" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603996"/>
+    <hyperlink ref="O11" r:id="rId40" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603996.phtml"/>
+    <hyperlink ref="C12" r:id="rId41" display="http://finance.sina.com.cn/realstock/company/sh603508/nc.shtml"/>
     <hyperlink ref="M12" r:id="rId42" display="javascript:void(0)"/>
-    <hyperlink ref="N12" r:id="rId43" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300482"/>
-    <hyperlink ref="O12" r:id="rId44" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300482.phtml"/>
-    <hyperlink ref="C13" r:id="rId45" display="http://finance.sina.com.cn/realstock/company/sz002771/nc.shtml"/>
+    <hyperlink ref="N12" r:id="rId43" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603508"/>
+    <hyperlink ref="O12" r:id="rId44" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603508.phtml"/>
+    <hyperlink ref="C13" r:id="rId45" display="http://finance.sina.com.cn/realstock/company/sz300492/nc.shtml"/>
     <hyperlink ref="M13" r:id="rId46" display="javascript:void(0)"/>
-    <hyperlink ref="N13" r:id="rId47" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002771"/>
-    <hyperlink ref="O13" r:id="rId48" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002771.phtml"/>
-    <hyperlink ref="C14" r:id="rId49" display="http://finance.sina.com.cn/realstock/company/sz002768/nc.shtml"/>
+    <hyperlink ref="N13" r:id="rId47" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300492"/>
+    <hyperlink ref="O13" r:id="rId48" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300492.phtml"/>
+    <hyperlink ref="C14" r:id="rId49" display="http://finance.sina.com.cn/realstock/company/sz002777/nc.shtml"/>
     <hyperlink ref="M14" r:id="rId50" display="javascript:void(0)"/>
-    <hyperlink ref="N14" r:id="rId51" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002768"/>
-    <hyperlink ref="O14" r:id="rId52" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002768.phtml"/>
-    <hyperlink ref="C15" r:id="rId53" display="http://finance.sina.com.cn/realstock/company/sh603589/nc.shtml"/>
+    <hyperlink ref="N14" r:id="rId51" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002777"/>
+    <hyperlink ref="O14" r:id="rId52" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002777.phtml"/>
+    <hyperlink ref="C15" r:id="rId53" display="http://finance.sina.com.cn/realstock/company/sh603778/nc.shtml"/>
     <hyperlink ref="M15" r:id="rId54" display="javascript:void(0)"/>
-    <hyperlink ref="N15" r:id="rId55" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603589"/>
-    <hyperlink ref="O15" r:id="rId56" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603589.phtml"/>
-    <hyperlink ref="C16" r:id="rId57" display="http://finance.sina.com.cn/realstock/company/sz002769/nc.shtml"/>
+    <hyperlink ref="N15" r:id="rId55" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603778"/>
+    <hyperlink ref="O15" r:id="rId56" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603778.phtml"/>
+    <hyperlink ref="C16" r:id="rId57" display="http://finance.sina.com.cn/realstock/company/sz300495/nc.shtml"/>
     <hyperlink ref="M16" r:id="rId58" display="javascript:void(0)"/>
-    <hyperlink ref="N16" r:id="rId59" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002769"/>
-    <hyperlink ref="O16" r:id="rId60" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002769.phtml"/>
-    <hyperlink ref="C17" r:id="rId61" display="http://finance.sina.com.cn/realstock/company/sz002776/nc.shtml"/>
+    <hyperlink ref="N16" r:id="rId59" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300495"/>
+    <hyperlink ref="O16" r:id="rId60" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300495.phtml"/>
+    <hyperlink ref="C17" r:id="rId61" display="http://finance.sina.com.cn/realstock/company/sz002782/nc.shtml"/>
     <hyperlink ref="M17" r:id="rId62" display="javascript:void(0)"/>
-    <hyperlink ref="N17" r:id="rId63" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002776"/>
-    <hyperlink ref="O17" r:id="rId64" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002776.phtml"/>
-    <hyperlink ref="C18" r:id="rId65" display="http://finance.sina.com.cn/realstock/company/sh601211/nc.shtml"/>
+    <hyperlink ref="N17" r:id="rId63" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002782"/>
+    <hyperlink ref="O17" r:id="rId64" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002782.phtml"/>
+    <hyperlink ref="C18" r:id="rId65" display="http://finance.sina.com.cn/realstock/company/sh603866/nc.shtml"/>
     <hyperlink ref="M18" r:id="rId66" display="javascript:void(0)"/>
-    <hyperlink ref="N18" r:id="rId67" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=601211"/>
-    <hyperlink ref="O18" r:id="rId68" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/601211.phtml"/>
-    <hyperlink ref="C19" r:id="rId69" display="http://finance.sina.com.cn/realstock/company/sh603116/nc.shtml"/>
+    <hyperlink ref="N18" r:id="rId67" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603866"/>
+    <hyperlink ref="O18" r:id="rId68" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603866.phtml"/>
+    <hyperlink ref="C19" r:id="rId69" display="http://finance.sina.com.cn/realstock/company/sz002786/nc.shtml"/>
     <hyperlink ref="M19" r:id="rId70" display="javascript:void(0)"/>
-    <hyperlink ref="N19" r:id="rId71" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603116"/>
-    <hyperlink ref="O19" r:id="rId72" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603116.phtml"/>
-    <hyperlink ref="C20" r:id="rId73" display="http://finance.sina.com.cn/realstock/company/sz300483/nc.shtml"/>
+    <hyperlink ref="N19" r:id="rId71" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002786"/>
+    <hyperlink ref="O19" r:id="rId72" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002786.phtml"/>
+    <hyperlink ref="C20" r:id="rId73" display="http://finance.sina.com.cn/realstock/company/sh603800/nc.shtml"/>
     <hyperlink ref="M20" r:id="rId74" display="javascript:void(0)"/>
-    <hyperlink ref="N20" r:id="rId75" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300483"/>
-    <hyperlink ref="O20" r:id="rId76" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300483.phtml"/>
-    <hyperlink ref="C21" r:id="rId77" display="http://finance.sina.com.cn/realstock/company/sz002775/nc.shtml"/>
+    <hyperlink ref="N20" r:id="rId75" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603800"/>
+    <hyperlink ref="O20" r:id="rId76" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603800.phtml"/>
+    <hyperlink ref="C21" r:id="rId77" display="http://finance.sina.com.cn/realstock/company/sh603398/nc.shtml"/>
     <hyperlink ref="M21" r:id="rId78" display="javascript:void(0)"/>
-    <hyperlink ref="N21" r:id="rId79" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002775"/>
-    <hyperlink ref="O21" r:id="rId80" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002775.phtml"/>
-    <hyperlink ref="C22" r:id="rId81" display="http://finance.sina.com.cn/realstock/company/sh603838/nc.shtml"/>
+    <hyperlink ref="N21" r:id="rId79" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603398"/>
+    <hyperlink ref="O21" r:id="rId80" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603398.phtml"/>
+    <hyperlink ref="C22" r:id="rId81" display="http://finance.sina.com.cn/realstock/company/sz300496/nc.shtml"/>
     <hyperlink ref="M22" r:id="rId82" display="javascript:void(0)"/>
-    <hyperlink ref="N22" r:id="rId83" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603838"/>
-    <hyperlink ref="O22" r:id="rId84" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603838.phtml"/>
-    <hyperlink ref="C23" r:id="rId85" display="http://finance.sina.com.cn/realstock/company/sh603117/nc.shtml"/>
+    <hyperlink ref="N22" r:id="rId83" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300496"/>
+    <hyperlink ref="O22" r:id="rId84" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300496.phtml"/>
+    <hyperlink ref="C23" r:id="rId85" display="http://finance.sina.com.cn/realstock/company/sz002783/nc.shtml"/>
     <hyperlink ref="M23" r:id="rId86" display="javascript:void(0)"/>
-    <hyperlink ref="N23" r:id="rId87" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603117"/>
-    <hyperlink ref="O23" r:id="rId88" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603117.phtml"/>
-    <hyperlink ref="C24" r:id="rId89" display="http://finance.sina.com.cn/realstock/company/sz002773/nc.shtml"/>
+    <hyperlink ref="N23" r:id="rId87" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002783"/>
+    <hyperlink ref="O23" r:id="rId88" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002783.phtml"/>
+    <hyperlink ref="C24" r:id="rId89" display="http://finance.sina.com.cn/realstock/company/sz002780/nc.shtml"/>
     <hyperlink ref="M24" r:id="rId90" display="javascript:void(0)"/>
-    <hyperlink ref="N24" r:id="rId91" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002773"/>
-    <hyperlink ref="O24" r:id="rId92" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002773.phtml"/>
-    <hyperlink ref="C25" r:id="rId93" display="http://finance.sina.com.cn/realstock/company/sz300485/nc.shtml"/>
+    <hyperlink ref="N24" r:id="rId91" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002780"/>
+    <hyperlink ref="O24" r:id="rId92" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002780.phtml"/>
+    <hyperlink ref="C25" r:id="rId93" display="http://finance.sina.com.cn/realstock/company/sh603936/nc.shtml"/>
     <hyperlink ref="M25" r:id="rId94" display="javascript:void(0)"/>
-    <hyperlink ref="N25" r:id="rId95" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300485"/>
-    <hyperlink ref="O25" r:id="rId96" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300485.phtml"/>
-    <hyperlink ref="C26" r:id="rId97" display="http://finance.sina.com.cn/realstock/company/sz002772/nc.shtml"/>
+    <hyperlink ref="N25" r:id="rId95" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603936"/>
+    <hyperlink ref="O25" r:id="rId96" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603936.phtml"/>
+    <hyperlink ref="C26" r:id="rId97" display="http://finance.sina.com.cn/realstock/company/sz002779/nc.shtml"/>
     <hyperlink ref="M26" r:id="rId98" display="javascript:void(0)"/>
-    <hyperlink ref="N26" r:id="rId99" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002772"/>
-    <hyperlink ref="O26" r:id="rId100" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002772.phtml"/>
-    <hyperlink ref="C27" r:id="rId101" display="http://finance.sina.com.cn/realstock/company/sz300471/nc.shtml"/>
+    <hyperlink ref="N26" r:id="rId99" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002779"/>
+    <hyperlink ref="O26" r:id="rId100" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002779.phtml"/>
+    <hyperlink ref="C27" r:id="rId101" display="http://finance.sina.com.cn/realstock/company/sh603999/nc.shtml"/>
     <hyperlink ref="M27" r:id="rId102" display="javascript:void(0)"/>
-    <hyperlink ref="N27" r:id="rId103" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300471"/>
-    <hyperlink ref="O27" r:id="rId104" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300471.phtml"/>
-    <hyperlink ref="C28" r:id="rId105" display="http://finance.sina.com.cn/realstock/company/sh603616/nc.shtml"/>
+    <hyperlink ref="N27" r:id="rId103" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603999"/>
+    <hyperlink ref="O27" r:id="rId104" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603999.phtml"/>
+    <hyperlink ref="C28" r:id="rId105" display="http://finance.sina.com.cn/realstock/company/sh603696/nc.shtml"/>
     <hyperlink ref="M28" r:id="rId106" display="javascript:void(0)"/>
-    <hyperlink ref="N28" r:id="rId107" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603616"/>
-    <hyperlink ref="O28" r:id="rId108" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603616.phtml"/>
-    <hyperlink ref="C29" r:id="rId109" display="http://finance.sina.com.cn/realstock/company/sh601968/nc.shtml"/>
+    <hyperlink ref="N28" r:id="rId107" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603696"/>
+    <hyperlink ref="O28" r:id="rId108" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603696.phtml"/>
+    <hyperlink ref="C29" r:id="rId109" display="http://finance.sina.com.cn/realstock/company/sz300493/nc.shtml"/>
     <hyperlink ref="M29" r:id="rId110" display="javascript:void(0)"/>
-    <hyperlink ref="N29" r:id="rId111" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=601968"/>
-    <hyperlink ref="O29" r:id="rId112" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/601968.phtml"/>
-    <hyperlink ref="C30" r:id="rId113" display="http://finance.sina.com.cn/realstock/company/sz002767/nc.shtml"/>
+    <hyperlink ref="N29" r:id="rId111" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300493"/>
+    <hyperlink ref="O29" r:id="rId112" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300493.phtml"/>
+    <hyperlink ref="C30" r:id="rId113" display="http://finance.sina.com.cn/realstock/company/sz300480/nc.shtml"/>
     <hyperlink ref="M30" r:id="rId114" display="javascript:void(0)"/>
-    <hyperlink ref="N30" r:id="rId115" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002767"/>
-    <hyperlink ref="O30" r:id="rId116" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002767.phtml"/>
-    <hyperlink ref="C31" r:id="rId117" display="http://finance.sina.com.cn/realstock/company/sz300473/nc.shtml"/>
+    <hyperlink ref="N30" r:id="rId115" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300480"/>
+    <hyperlink ref="O30" r:id="rId116" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300480.phtml"/>
+    <hyperlink ref="C31" r:id="rId117" display="http://finance.sina.com.cn/realstock/company/sz300488/nc.shtml"/>
     <hyperlink ref="M31" r:id="rId118" display="javascript:void(0)"/>
-    <hyperlink ref="N31" r:id="rId119" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300473"/>
-    <hyperlink ref="O31" r:id="rId120" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300473.phtml"/>
-    <hyperlink ref="C32" r:id="rId121" display="http://finance.sina.com.cn/realstock/company/sz002766/nc.shtml"/>
+    <hyperlink ref="N31" r:id="rId119" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300488"/>
+    <hyperlink ref="O31" r:id="rId120" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300488.phtml"/>
+    <hyperlink ref="C32" r:id="rId121" display="http://finance.sina.com.cn/realstock/company/sh603223/nc.shtml"/>
     <hyperlink ref="M32" r:id="rId122" display="javascript:void(0)"/>
-    <hyperlink ref="N32" r:id="rId123" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002766"/>
-    <hyperlink ref="O32" r:id="rId124" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002766.phtml"/>
-    <hyperlink ref="C33" r:id="rId125" display="http://finance.sina.com.cn/realstock/company/sz300476/nc.shtml"/>
+    <hyperlink ref="N32" r:id="rId123" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603223"/>
+    <hyperlink ref="O32" r:id="rId124" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603223.phtml"/>
+    <hyperlink ref="C33" r:id="rId125" display="http://finance.sina.com.cn/realstock/company/sz300487/nc.shtml"/>
     <hyperlink ref="M33" r:id="rId126" display="javascript:void(0)"/>
-    <hyperlink ref="N33" r:id="rId127" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300476"/>
-    <hyperlink ref="O33" r:id="rId128" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300476.phtml"/>
-    <hyperlink ref="C34" r:id="rId129" display="http://finance.sina.com.cn/realstock/company/sz300469/nc.shtml"/>
+    <hyperlink ref="N33" r:id="rId127" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300487"/>
+    <hyperlink ref="O33" r:id="rId128" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300487.phtml"/>
+    <hyperlink ref="C34" r:id="rId129" display="http://finance.sina.com.cn/realstock/company/sz300482/nc.shtml"/>
     <hyperlink ref="M34" r:id="rId130" display="javascript:void(0)"/>
-    <hyperlink ref="N34" r:id="rId131" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300469"/>
-    <hyperlink ref="O34" r:id="rId132" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300469.phtml"/>
-    <hyperlink ref="C35" r:id="rId133" display="http://finance.sina.com.cn/realstock/company/sh603066/nc.shtml"/>
+    <hyperlink ref="N34" r:id="rId131" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300482"/>
+    <hyperlink ref="O34" r:id="rId132" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300482.phtml"/>
+    <hyperlink ref="C35" r:id="rId133" display="http://finance.sina.com.cn/realstock/company/sz300481/nc.shtml"/>
     <hyperlink ref="M35" r:id="rId134" display="javascript:void(0)"/>
-    <hyperlink ref="N35" r:id="rId135" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603066"/>
-    <hyperlink ref="O35" r:id="rId136" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603066.phtml"/>
-    <hyperlink ref="C36" r:id="rId137" display="http://finance.sina.com.cn/realstock/company/sz300479/nc.shtml"/>
+    <hyperlink ref="N35" r:id="rId135" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300481"/>
+    <hyperlink ref="O35" r:id="rId136" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300481.phtml"/>
+    <hyperlink ref="C36" r:id="rId137" display="http://finance.sina.com.cn/realstock/company/sh603979/nc.shtml"/>
     <hyperlink ref="M36" r:id="rId138" display="javascript:void(0)"/>
-    <hyperlink ref="N36" r:id="rId139" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300479"/>
-    <hyperlink ref="O36" r:id="rId140" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300479.phtml"/>
-    <hyperlink ref="C37" r:id="rId141" display="http://finance.sina.com.cn/realstock/company/sz300472/nc.shtml"/>
+    <hyperlink ref="N36" r:id="rId139" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603979"/>
+    <hyperlink ref="O36" r:id="rId140" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603979.phtml"/>
+    <hyperlink ref="C37" r:id="rId141" display="http://finance.sina.com.cn/realstock/company/sh603085/nc.shtml"/>
     <hyperlink ref="M37" r:id="rId142" display="javascript:void(0)"/>
-    <hyperlink ref="N37" r:id="rId143" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300472"/>
-    <hyperlink ref="O37" r:id="rId144" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300472.phtml"/>
-    <hyperlink ref="C38" r:id="rId145" display="http://finance.sina.com.cn/realstock/company/sz002760/nc.shtml"/>
+    <hyperlink ref="N37" r:id="rId143" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603085"/>
+    <hyperlink ref="O37" r:id="rId144" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603085.phtml"/>
+    <hyperlink ref="C38" r:id="rId145" display="http://finance.sina.com.cn/realstock/company/sz300486/nc.shtml"/>
     <hyperlink ref="M38" r:id="rId146" display="javascript:void(0)"/>
-    <hyperlink ref="N38" r:id="rId147" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002760"/>
-    <hyperlink ref="O38" r:id="rId148" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002760.phtml"/>
-    <hyperlink ref="C39" r:id="rId149" display="http://finance.sina.com.cn/realstock/company/sz300478/nc.shtml"/>
+    <hyperlink ref="N38" r:id="rId147" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300486"/>
+    <hyperlink ref="O38" r:id="rId148" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300486.phtml"/>
+    <hyperlink ref="C39" r:id="rId149" display="http://finance.sina.com.cn/realstock/company/sz300489/nc.shtml"/>
     <hyperlink ref="M39" r:id="rId150" display="javascript:void(0)"/>
-    <hyperlink ref="N39" r:id="rId151" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300478"/>
-    <hyperlink ref="O39" r:id="rId152" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300478.phtml"/>
-    <hyperlink ref="C40" r:id="rId153" display="http://finance.sina.com.cn/realstock/company/sz300464/nc.shtml"/>
+    <hyperlink ref="N39" r:id="rId151" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300489"/>
+    <hyperlink ref="O39" r:id="rId152" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300489.phtml"/>
+    <hyperlink ref="C40" r:id="rId153" display="http://finance.sina.com.cn/realstock/company/sz002770/nc.shtml"/>
     <hyperlink ref="M40" r:id="rId154" display="javascript:void(0)"/>
-    <hyperlink ref="N40" r:id="rId155" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300464"/>
-    <hyperlink ref="O40" r:id="rId156" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300464.phtml"/>
-    <hyperlink ref="C41" r:id="rId157" display="http://finance.sina.com.cn/realstock/company/sz300477/nc.shtml"/>
+    <hyperlink ref="N40" r:id="rId155" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002770"/>
+    <hyperlink ref="O40" r:id="rId156" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002770.phtml"/>
+    <hyperlink ref="C41" r:id="rId157" display="http://finance.sina.com.cn/realstock/company/sz002776/nc.shtml"/>
     <hyperlink ref="M41" r:id="rId158" display="javascript:void(0)"/>
-    <hyperlink ref="N41" r:id="rId159" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300477"/>
-    <hyperlink ref="O41" r:id="rId160" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300477.phtml"/>
-    <hyperlink ref="A1" r:id="rId161" tooltip="http://money.finance.sina.com.cn/corp/view/vRPD_NewStockIssue.php?page=1&amp;cngem=0&amp;orderBy=PaperCode&amp;orderType=asc"/>
-    <hyperlink ref="C1" r:id="rId162" tooltip="http://money.finance.sina.com.cn/corp/view/vRPD_NewStockIssue.php?page=1&amp;cngem=0&amp;orderBy=PaperName&amp;orderType=asc"/>
-    <hyperlink ref="D1" r:id="rId163" tooltip="http://money.finance.sina.com.cn/corp/view/vRPD_NewStockIssue.php?page=1&amp;cngem=0&amp;orderBy=NetDate&amp;orderType=asc"/>
-    <hyperlink ref="E1" r:id="rId164" tooltip="http://money.finance.sina.com.cn/corp/view/vRPD_NewStockIssue.php?page=1&amp;cngem=0&amp;orderBy=MarketDate&amp;orderType=asc"/>
-    <hyperlink ref="C42" r:id="rId165" display="http://finance.sina.com.cn/realstock/company/sz300470/nc.shtml"/>
-    <hyperlink ref="M42" r:id="rId166" display="javascript:void(0)"/>
-    <hyperlink ref="N42" r:id="rId167" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300470"/>
-    <hyperlink ref="O42" r:id="rId168" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300470.phtml"/>
-    <hyperlink ref="C43" r:id="rId169" display="http://finance.sina.com.cn/realstock/company/sz002762/nc.shtml"/>
-    <hyperlink ref="M43" r:id="rId170" display="javascript:void(0)"/>
-    <hyperlink ref="N43" r:id="rId171" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002762"/>
-    <hyperlink ref="O43" r:id="rId172" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002762.phtml"/>
-    <hyperlink ref="C44" r:id="rId173" display="http://finance.sina.com.cn/realstock/company/sz002761/nc.shtml"/>
-    <hyperlink ref="M44" r:id="rId174" display="javascript:void(0)"/>
-    <hyperlink ref="N44" r:id="rId175" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002761"/>
-    <hyperlink ref="O44" r:id="rId176" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002761.phtml"/>
-    <hyperlink ref="C45" r:id="rId177" display="http://finance.sina.com.cn/realstock/company/sh601368/nc.shtml"/>
-    <hyperlink ref="M45" r:id="rId178" display="javascript:void(0)"/>
-    <hyperlink ref="N45" r:id="rId179" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=601368"/>
-    <hyperlink ref="O45" r:id="rId180" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/601368.phtml"/>
-    <hyperlink ref="C46" r:id="rId181" display="http://finance.sina.com.cn/realstock/company/sz002765/nc.shtml"/>
-    <hyperlink ref="M46" r:id="rId182" display="javascript:void(0)"/>
-    <hyperlink ref="N46" r:id="rId183" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002765"/>
-    <hyperlink ref="O46" r:id="rId184" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002765.phtml"/>
-    <hyperlink ref="C47" r:id="rId185" display="http://finance.sina.com.cn/realstock/company/sz300475/nc.shtml"/>
-    <hyperlink ref="M47" r:id="rId186" display="javascript:void(0)"/>
-    <hyperlink ref="N47" r:id="rId187" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300475"/>
-    <hyperlink ref="O47" r:id="rId188" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300475.phtml"/>
-    <hyperlink ref="C48" r:id="rId189" display="http://finance.sina.com.cn/realstock/company/sz002763/nc.shtml"/>
-    <hyperlink ref="M48" r:id="rId190" display="javascript:void(0)"/>
-    <hyperlink ref="N48" r:id="rId191" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002763"/>
-    <hyperlink ref="O48" r:id="rId192" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002763.phtml"/>
-    <hyperlink ref="C49" r:id="rId193" display="http://finance.sina.com.cn/realstock/company/sh601985/nc.shtml"/>
-    <hyperlink ref="M49" r:id="rId194" display="javascript:void(0)"/>
-    <hyperlink ref="N49" r:id="rId195" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=601985"/>
-    <hyperlink ref="O49" r:id="rId196" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/601985.phtml"/>
+    <hyperlink ref="N41" r:id="rId159" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002776"/>
+    <hyperlink ref="O41" r:id="rId160" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002776.phtml"/>
+    <hyperlink ref="C42" r:id="rId161" display="http://finance.sina.com.cn/realstock/company/sh603589/nc.shtml"/>
+    <hyperlink ref="M42" r:id="rId162" display="javascript:void(0)"/>
+    <hyperlink ref="N42" r:id="rId163" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603589"/>
+    <hyperlink ref="O42" r:id="rId164" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603589.phtml"/>
+    <hyperlink ref="C43" r:id="rId165" display="http://finance.sina.com.cn/realstock/company/sz002775/nc.shtml"/>
+    <hyperlink ref="M43" r:id="rId166" display="javascript:void(0)"/>
+    <hyperlink ref="N43" r:id="rId167" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002775"/>
+    <hyperlink ref="O43" r:id="rId168" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002775.phtml"/>
+    <hyperlink ref="C44" r:id="rId169" display="http://finance.sina.com.cn/realstock/company/sh601211/nc.shtml"/>
+    <hyperlink ref="M44" r:id="rId170" display="javascript:void(0)"/>
+    <hyperlink ref="N44" r:id="rId171" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=601211"/>
+    <hyperlink ref="O44" r:id="rId172" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/601211.phtml"/>
+    <hyperlink ref="C45" r:id="rId173" display="http://finance.sina.com.cn/realstock/company/sh603838/nc.shtml"/>
+    <hyperlink ref="M45" r:id="rId174" display="javascript:void(0)"/>
+    <hyperlink ref="N45" r:id="rId175" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603838"/>
+    <hyperlink ref="O45" r:id="rId176" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603838.phtml"/>
+    <hyperlink ref="C46" r:id="rId177" display="http://finance.sina.com.cn/realstock/company/sz002776/nc.shtml"/>
+    <hyperlink ref="M46" r:id="rId178" display="javascript:void(0)"/>
+    <hyperlink ref="N46" r:id="rId179" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002776"/>
+    <hyperlink ref="O46" r:id="rId180" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002776.phtml"/>
+    <hyperlink ref="C47" r:id="rId181" display="http://finance.sina.com.cn/realstock/company/sh603589/nc.shtml"/>
+    <hyperlink ref="M47" r:id="rId182" display="javascript:void(0)"/>
+    <hyperlink ref="N47" r:id="rId183" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603589"/>
+    <hyperlink ref="O47" r:id="rId184" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603589.phtml"/>
+    <hyperlink ref="C48" r:id="rId185" display="http://finance.sina.com.cn/realstock/company/sz002769/nc.shtml"/>
+    <hyperlink ref="M48" r:id="rId186" display="javascript:void(0)"/>
+    <hyperlink ref="N48" r:id="rId187" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002769"/>
+    <hyperlink ref="O48" r:id="rId188" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002769.phtml"/>
+    <hyperlink ref="C49" r:id="rId189" display="http://finance.sina.com.cn/realstock/company/sz300483/nc.shtml"/>
+    <hyperlink ref="M49" r:id="rId190" display="javascript:void(0)"/>
+    <hyperlink ref="N49" r:id="rId191" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300483"/>
+    <hyperlink ref="O49" r:id="rId192" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300483.phtml"/>
+    <hyperlink ref="C50" r:id="rId193" display="http://finance.sina.com.cn/realstock/company/sz002768/nc.shtml"/>
+    <hyperlink ref="M50" r:id="rId194" display="javascript:void(0)"/>
+    <hyperlink ref="N50" r:id="rId195" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002768"/>
+    <hyperlink ref="O50" r:id="rId196" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002768.phtml"/>
+    <hyperlink ref="C51" r:id="rId197" display="http://finance.sina.com.cn/realstock/company/sh603116/nc.shtml"/>
+    <hyperlink ref="M51" r:id="rId198" display="javascript:void(0)"/>
+    <hyperlink ref="N51" r:id="rId199" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603116"/>
+    <hyperlink ref="O51" r:id="rId200" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603116.phtml"/>
+    <hyperlink ref="C52" r:id="rId201" display="http://finance.sina.com.cn/realstock/company/sz002772/nc.shtml"/>
+    <hyperlink ref="M52" r:id="rId202" display="javascript:void(0)"/>
+    <hyperlink ref="N52" r:id="rId203" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002772"/>
+    <hyperlink ref="O52" r:id="rId204" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002772.phtml"/>
+    <hyperlink ref="C53" r:id="rId205" display="http://finance.sina.com.cn/realstock/company/sz300485/nc.shtml"/>
+    <hyperlink ref="M53" r:id="rId206" display="javascript:void(0)"/>
+    <hyperlink ref="N53" r:id="rId207" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300485"/>
+    <hyperlink ref="O53" r:id="rId208" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300485.phtml"/>
+    <hyperlink ref="C54" r:id="rId209" display="http://finance.sina.com.cn/realstock/company/sz002773/nc.shtml"/>
+    <hyperlink ref="M54" r:id="rId210" display="javascript:void(0)"/>
+    <hyperlink ref="N54" r:id="rId211" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002773"/>
+    <hyperlink ref="O54" r:id="rId212" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002773.phtml"/>
+    <hyperlink ref="C55" r:id="rId213" display="http://finance.sina.com.cn/realstock/company/sz300471/nc.shtml"/>
+    <hyperlink ref="M55" r:id="rId214" display="javascript:void(0)"/>
+    <hyperlink ref="N55" r:id="rId215" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300471"/>
+    <hyperlink ref="O55" r:id="rId216" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300471.phtml"/>
+    <hyperlink ref="C56" r:id="rId217" display="http://finance.sina.com.cn/realstock/company/sh603616/nc.shtml"/>
+    <hyperlink ref="M56" r:id="rId218" display="javascript:void(0)"/>
+    <hyperlink ref="N56" r:id="rId219" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603616"/>
+    <hyperlink ref="O56" r:id="rId220" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603616.phtml"/>
+    <hyperlink ref="C57" r:id="rId221" display="http://finance.sina.com.cn/realstock/company/sh601968/nc.shtml"/>
+    <hyperlink ref="M57" r:id="rId222" display="javascript:void(0)"/>
+    <hyperlink ref="N57" r:id="rId223" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=601968"/>
+    <hyperlink ref="O57" r:id="rId224" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/601968.phtml"/>
+    <hyperlink ref="C58" r:id="rId225" display="http://finance.sina.com.cn/realstock/company/sz002767/nc.shtml"/>
+    <hyperlink ref="M58" r:id="rId226" display="javascript:void(0)"/>
+    <hyperlink ref="N58" r:id="rId227" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002767"/>
+    <hyperlink ref="O58" r:id="rId228" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002767.phtml"/>
+    <hyperlink ref="C59" r:id="rId229" display="http://finance.sina.com.cn/realstock/company/sz300473/nc.shtml"/>
+    <hyperlink ref="M59" r:id="rId230" display="javascript:void(0)"/>
+    <hyperlink ref="N59" r:id="rId231" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300473"/>
+    <hyperlink ref="O59" r:id="rId232" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300473.phtml"/>
+    <hyperlink ref="C60" r:id="rId233" display="http://finance.sina.com.cn/realstock/company/sz002766/nc.shtml"/>
+    <hyperlink ref="M60" r:id="rId234" display="javascript:void(0)"/>
+    <hyperlink ref="N60" r:id="rId235" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002766"/>
+    <hyperlink ref="O60" r:id="rId236" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002766.phtml"/>
+    <hyperlink ref="C61" r:id="rId237" display="http://finance.sina.com.cn/realstock/company/sz300476/nc.shtml"/>
+    <hyperlink ref="M61" r:id="rId238" display="javascript:void(0)"/>
+    <hyperlink ref="N61" r:id="rId239" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300476"/>
+    <hyperlink ref="O61" r:id="rId240" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300476.phtml"/>
+    <hyperlink ref="C62" r:id="rId241" display="http://finance.sina.com.cn/realstock/company/sz300469/nc.shtml"/>
+    <hyperlink ref="M62" r:id="rId242" display="javascript:void(0)"/>
+    <hyperlink ref="N62" r:id="rId243" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300469"/>
+    <hyperlink ref="O62" r:id="rId244" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300469.phtml"/>
+    <hyperlink ref="C63" r:id="rId245" display="http://finance.sina.com.cn/realstock/company/sh603066/nc.shtml"/>
+    <hyperlink ref="M63" r:id="rId246" display="javascript:void(0)"/>
+    <hyperlink ref="N63" r:id="rId247" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603066"/>
+    <hyperlink ref="O63" r:id="rId248" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603066.phtml"/>
+    <hyperlink ref="C64" r:id="rId249" display="http://finance.sina.com.cn/realstock/company/sz300479/nc.shtml"/>
+    <hyperlink ref="M64" r:id="rId250" display="javascript:void(0)"/>
+    <hyperlink ref="N64" r:id="rId251" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300479"/>
+    <hyperlink ref="O64" r:id="rId252" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300479.phtml"/>
+    <hyperlink ref="C65" r:id="rId253" display="http://finance.sina.com.cn/realstock/company/sz300472/nc.shtml"/>
+    <hyperlink ref="M65" r:id="rId254" display="javascript:void(0)"/>
+    <hyperlink ref="N65" r:id="rId255" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300472"/>
+    <hyperlink ref="O65" r:id="rId256" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300472.phtml"/>
+    <hyperlink ref="C66" r:id="rId257" display="http://finance.sina.com.cn/realstock/company/sz002760/nc.shtml"/>
+    <hyperlink ref="M66" r:id="rId258" display="javascript:void(0)"/>
+    <hyperlink ref="N66" r:id="rId259" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002760"/>
+    <hyperlink ref="O66" r:id="rId260" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002760.phtml"/>
+    <hyperlink ref="C67" r:id="rId261" display="http://finance.sina.com.cn/realstock/company/sz300478/nc.shtml"/>
+    <hyperlink ref="M67" r:id="rId262" display="javascript:void(0)"/>
+    <hyperlink ref="N67" r:id="rId263" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300478"/>
+    <hyperlink ref="O67" r:id="rId264" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300478.phtml"/>
+    <hyperlink ref="C68" r:id="rId265" display="http://finance.sina.com.cn/realstock/company/sz300464/nc.shtml"/>
+    <hyperlink ref="M68" r:id="rId266" display="javascript:void(0)"/>
+    <hyperlink ref="N68" r:id="rId267" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300464"/>
+    <hyperlink ref="O68" r:id="rId268" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300464.phtml"/>
+    <hyperlink ref="C69" r:id="rId269" display="http://finance.sina.com.cn/realstock/company/sz300477/nc.shtml"/>
+    <hyperlink ref="M69" r:id="rId270" display="javascript:void(0)"/>
+    <hyperlink ref="N69" r:id="rId271" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300477"/>
+    <hyperlink ref="O69" r:id="rId272" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300477.phtml"/>
+    <hyperlink ref="C70" r:id="rId273" display="http://finance.sina.com.cn/realstock/company/sz300470/nc.shtml"/>
+    <hyperlink ref="M70" r:id="rId274" display="javascript:void(0)"/>
+    <hyperlink ref="N70" r:id="rId275" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300470"/>
+    <hyperlink ref="O70" r:id="rId276" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300470.phtml"/>
+    <hyperlink ref="C71" r:id="rId277" display="http://finance.sina.com.cn/realstock/company/sz002762/nc.shtml"/>
+    <hyperlink ref="M71" r:id="rId278" display="javascript:void(0)"/>
+    <hyperlink ref="N71" r:id="rId279" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002762"/>
+    <hyperlink ref="O71" r:id="rId280" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002762.phtml"/>
+    <hyperlink ref="C72" r:id="rId281" display="http://finance.sina.com.cn/realstock/company/sz002761/nc.shtml"/>
+    <hyperlink ref="M72" r:id="rId282" display="javascript:void(0)"/>
+    <hyperlink ref="N72" r:id="rId283" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002761"/>
+    <hyperlink ref="O72" r:id="rId284" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002761.phtml"/>
+    <hyperlink ref="C73" r:id="rId285" display="http://finance.sina.com.cn/realstock/company/sh601368/nc.shtml"/>
+    <hyperlink ref="M73" r:id="rId286" display="javascript:void(0)"/>
+    <hyperlink ref="N73" r:id="rId287" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=601368"/>
+    <hyperlink ref="O73" r:id="rId288" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/601368.phtml"/>
+    <hyperlink ref="C74" r:id="rId289" display="http://finance.sina.com.cn/realstock/company/sz002765/nc.shtml"/>
+    <hyperlink ref="M74" r:id="rId290" display="javascript:void(0)"/>
+    <hyperlink ref="N74" r:id="rId291" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002765"/>
+    <hyperlink ref="O74" r:id="rId292" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002765.phtml"/>
+    <hyperlink ref="C75" r:id="rId293" display="http://finance.sina.com.cn/realstock/company/sz300475/nc.shtml"/>
+    <hyperlink ref="M75" r:id="rId294" display="javascript:void(0)"/>
+    <hyperlink ref="N75" r:id="rId295" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300475"/>
+    <hyperlink ref="O75" r:id="rId296" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300475.phtml"/>
+    <hyperlink ref="C76" r:id="rId297" display="http://finance.sina.com.cn/realstock/company/sz002763/nc.shtml"/>
+    <hyperlink ref="M76" r:id="rId298" display="javascript:void(0)"/>
+    <hyperlink ref="N76" r:id="rId299" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002763"/>
+    <hyperlink ref="O76" r:id="rId300" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002763.phtml"/>
+    <hyperlink ref="C77" r:id="rId301" display="http://finance.sina.com.cn/realstock/company/sh601985/nc.shtml"/>
+    <hyperlink ref="M77" r:id="rId302" display="javascript:void(0)"/>
+    <hyperlink ref="N77" r:id="rId303" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=601985"/>
+    <hyperlink ref="O77" r:id="rId304" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/601985.phtml"/>
+    <hyperlink ref="C78" r:id="rId305" display="http://finance.sina.com.cn/realstock/company/sh603026/nc.shtml"/>
+    <hyperlink ref="M78" r:id="rId306" display="javascript:void(0)"/>
+    <hyperlink ref="N78" r:id="rId307" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603026"/>
+    <hyperlink ref="O78" r:id="rId308" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603026.phtml"/>
+    <hyperlink ref="C79" r:id="rId309" display="http://finance.sina.com.cn/realstock/company/sz300465/nc.shtml"/>
+    <hyperlink ref="M79" r:id="rId310" display="javascript:void(0)"/>
+    <hyperlink ref="N79" r:id="rId311" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300465"/>
+    <hyperlink ref="O79" r:id="rId312" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300465.phtml"/>
+    <hyperlink ref="C80" r:id="rId313" display="http://finance.sina.com.cn/realstock/company/sh603918/nc.shtml"/>
+    <hyperlink ref="M80" r:id="rId314" display="javascript:void(0)"/>
+    <hyperlink ref="N80" r:id="rId315" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603918"/>
+    <hyperlink ref="O80" r:id="rId316" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603918.phtml"/>
+    <hyperlink ref="C81" r:id="rId317" display="http://finance.sina.com.cn/realstock/company/sh603669/nc.shtml"/>
+    <hyperlink ref="M81" r:id="rId318" display="javascript:void(0)"/>
+    <hyperlink ref="N81" r:id="rId319" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603669"/>
+    <hyperlink ref="O81" r:id="rId320" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603669.phtml"/>
+    <hyperlink ref="C82" r:id="rId321" display="http://finance.sina.com.cn/realstock/company/sh603300/nc.shtml"/>
+    <hyperlink ref="M82" r:id="rId322" display="javascript:void(0)"/>
+    <hyperlink ref="N82" r:id="rId323" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603300"/>
+    <hyperlink ref="O82" r:id="rId324" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603300.phtml"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId197"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId325"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/sse/综合数据分析（天）/2014新股.xlsx
+++ b/sse/综合数据分析（天）/2014新股.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="394">
   <si>
     <t>证券代码</t>
   </si>
@@ -1471,19 +1471,7 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>万里石</t>
-  </si>
-  <si>
     <t>预测</t>
-  </si>
-  <si>
-    <t>高科石化</t>
-  </si>
-  <si>
-    <t>通合科技</t>
-  </si>
-  <si>
-    <t>井神股份</t>
   </si>
   <si>
     <r>
@@ -1501,9 +1489,6 @@
     </r>
   </si>
   <si>
-    <t>华源包装</t>
-  </si>
-  <si>
     <r>
       <t>*</t>
     </r>
@@ -1534,13 +1519,7 @@
     </r>
   </si>
   <si>
-    <t>华自科技</t>
-  </si>
-  <si>
-    <t>盛天网络</t>
-  </si>
-  <si>
-    <t>奇信股份</t>
+    <t xml:space="preserve">富祥股份 </t>
   </si>
   <si>
     <r>
@@ -1554,329 +1533,146 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>6000</t>
+      <t>720</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2400</t>
-    </r>
-  </si>
-  <si>
-    <t>中新科技</t>
-  </si>
-  <si>
-    <t>思维列控</t>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4000</t>
-    </r>
-  </si>
-  <si>
-    <t>山鼎设计</t>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>830</t>
-    </r>
-  </si>
-  <si>
-    <t>久远银海</t>
-  </si>
-  <si>
-    <t>乾景园林</t>
-  </si>
-  <si>
-    <t>美尚生态</t>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>660</t>
-    </r>
-  </si>
-  <si>
-    <t>可立克</t>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1700</t>
-    </r>
-  </si>
-  <si>
-    <t>桃李面包</t>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4501</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1350</t>
-    </r>
-  </si>
-  <si>
-    <t>银宝山新</t>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3178</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1268</t>
-    </r>
-  </si>
-  <si>
-    <t>道森股份</t>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5200</t>
-    </r>
-  </si>
-  <si>
-    <t>邦宝益智</t>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>900</t>
-    </r>
-  </si>
-  <si>
-    <t>中科创达</t>
-  </si>
-  <si>
-    <t>凯龙股份</t>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>835</t>
-    </r>
-  </si>
-  <si>
-    <t>三夫户外</t>
-  </si>
-  <si>
-    <t>博敏电子</t>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1665</t>
-    </r>
-  </si>
-  <si>
-    <t>中坚科技</t>
-  </si>
-  <si>
-    <t>读者传媒</t>
-  </si>
-  <si>
-    <t>安记食品</t>
-  </si>
-  <si>
-    <t>润欣科技</t>
-  </si>
-  <si>
-    <t>光力科技</t>
-  </si>
-  <si>
-    <t>恒锋工具</t>
-  </si>
-  <si>
-    <t>恒通股份</t>
-  </si>
-  <si>
-    <t>蓝晓科技</t>
-  </si>
-  <si>
-    <t>万孚生物</t>
-  </si>
-  <si>
-    <t>濮阳惠成</t>
-  </si>
-  <si>
-    <t>金诚信</t>
-  </si>
-  <si>
-    <t>天成自控</t>
-  </si>
-  <si>
-    <t>东杰智能</t>
-  </si>
-  <si>
-    <t>中飞股份</t>
-  </si>
-  <si>
-    <t>科迪乳业</t>
-  </si>
-  <si>
-    <t>柏堡龙</t>
-  </si>
-  <si>
-    <t>口子窖</t>
-  </si>
-  <si>
-    <t>文科园林</t>
-  </si>
-  <si>
-    <t>国泰君安</t>
-  </si>
-  <si>
-    <t>四通股份</t>
-  </si>
-  <si>
-    <t>普路通</t>
-  </si>
-  <si>
-    <t>沃施股份</t>
-  </si>
-  <si>
-    <t>国恩股份</t>
-  </si>
-  <si>
-    <t>红蜻蜓</t>
-  </si>
-  <si>
-    <t>众兴菌业</t>
-  </si>
-  <si>
-    <t>赛升药业</t>
-  </si>
-  <si>
-    <t>康弘药业</t>
+    <t xml:space="preserve">预测 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">万里石 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">盛天网络 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">高科石化 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">通合科技 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">井神股份 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">华源包装 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">华自科技 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">银宝山新 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">奇信股份 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">中新科技 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">思维列控 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">山鼎设计 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">久远银海 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">乾景园林 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">美尚生态 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">可立克 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">桃李面包 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">润欣科技 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">道森股份 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">邦宝益智 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">中科创达 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">凯龙股份 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">三夫户外 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">博敏电子 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">中坚科技 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">读者传媒 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">安记食品 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">光力科技 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">恒锋工具 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">金诚信 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">恒通股份 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">东杰智能 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">万孚生物 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">科迪乳业 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">中飞股份 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">濮阳惠成 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">天成自控 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蓝晓科技 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">柏堡龙 </t>
+  </si>
+  <si>
+    <t>日期↓</t>
+  </si>
+  <si>
+    <t>(万股)</t>
+  </si>
+  <si>
+    <t>(亿元)</t>
+  </si>
+  <si>
+    <t>(%)</t>
+  </si>
+  <si>
+    <t>中签号</t>
+  </si>
+  <si>
+    <t>公告</t>
   </si>
 </sst>
 </file>
@@ -1886,7 +1682,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2061,6 +1857,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="27">
     <fill>
@@ -2220,7 +2024,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2349,6 +2153,54 @@
         <color rgb="FFCDCDD5"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCDCDD5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAACBC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFAAACBC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAACBC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAACBC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFAAACBC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCDCDD5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAACBC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAACBC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAACBC"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2486,7 +2338,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2592,17 +2444,56 @@
     <xf numFmtId="0" fontId="22" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="12" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="14" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="14" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="15" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="13" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -14355,133 +14246,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T82"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:O82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:15" ht="22.5">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2">
-        <v>300436</v>
-      </c>
-      <c r="B2">
-        <v>300436</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="D2" s="3">
-        <v>42108</v>
-      </c>
-      <c r="E2" s="3">
-        <v>42116</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1750</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1260</v>
-      </c>
-      <c r="H2">
-        <v>21.47</v>
-      </c>
-      <c r="I2">
-        <v>18.670000000000002</v>
-      </c>
-      <c r="J2">
-        <v>0.7</v>
-      </c>
-      <c r="K2">
-        <v>2.5880000000000001</v>
-      </c>
-      <c r="L2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="6">
-        <v>2785</v>
+      <c r="M1" s="50" t="s">
+        <v>392</v>
+      </c>
+      <c r="N1" s="50" t="s">
+        <v>342</v>
+      </c>
+      <c r="O1" s="50" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1">
+      <c r="A2" s="49"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>391</v>
+      </c>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" thickBot="1">
+      <c r="A3" s="42">
+        <v>300497</v>
       </c>
       <c r="B3" s="30">
-        <v>2785</v>
+        <v>300497</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D3" s="32">
-        <v>42193</v>
-      </c>
-      <c r="E3" s="30"/>
+        <v>42195</v>
+      </c>
+      <c r="E3" s="35"/>
       <c r="F3" s="33">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="H3" s="33">
         <v>0</v>
@@ -14493,7 +14360,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="33">
-        <v>1.145</v>
+        <v>2.7549999999999999</v>
       </c>
       <c r="L3" s="33">
         <v>0</v>
@@ -14502,76 +14369,76 @@
         <v>13</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O3" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="O3" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="7">
-        <v>2778</v>
-      </c>
-      <c r="B4" s="16">
-        <v>2778</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="D4" s="36">
-        <v>42192</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="37">
-        <v>2230</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="H4" s="37">
-        <v>0</v>
-      </c>
-      <c r="I4" s="37">
-        <v>0</v>
-      </c>
-      <c r="J4" s="37">
-        <v>0.85</v>
-      </c>
-      <c r="K4" s="37">
-        <v>1.895</v>
-      </c>
-      <c r="L4" s="37">
-        <v>0</v>
-      </c>
-      <c r="M4" s="35" t="s">
+    <row r="4" spans="1:15" ht="15" thickBot="1">
+      <c r="A4" s="44">
+        <v>2785</v>
+      </c>
+      <c r="B4" s="36">
+        <v>2785</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="38">
+        <v>42193</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40">
+        <v>5000</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="H4" s="40">
+        <v>0</v>
+      </c>
+      <c r="I4" s="40">
+        <v>0</v>
+      </c>
+      <c r="J4" s="40">
+        <v>0</v>
+      </c>
+      <c r="K4" s="40">
+        <v>1.145</v>
+      </c>
+      <c r="L4" s="40">
+        <v>0</v>
+      </c>
+      <c r="M4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O4" s="35" t="s">
+      <c r="N4" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="O4" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="6">
-        <v>300491</v>
+    <row r="5" spans="1:15" ht="15" thickBot="1">
+      <c r="A5" s="42">
+        <v>300494</v>
       </c>
       <c r="B5" s="30">
-        <v>300491</v>
+        <v>300494</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D5" s="32">
         <v>42192</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="34" t="s">
-        <v>298</v>
+      <c r="E5" s="35"/>
+      <c r="F5" s="33">
+        <v>3000</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="H5" s="33">
         <v>0</v>
@@ -14580,10 +14447,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="33">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K5" s="33">
-        <v>2.0960000000000001</v>
+        <v>5.431</v>
       </c>
       <c r="L5" s="33">
         <v>0</v>
@@ -14592,76 +14459,76 @@
         <v>13</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O5" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="O5" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="7">
-        <v>603299</v>
-      </c>
-      <c r="B6" s="16">
-        <v>732299</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>346</v>
-      </c>
-      <c r="D6" s="36">
+    <row r="6" spans="1:15" ht="15" thickBot="1">
+      <c r="A6" s="44">
+        <v>2778</v>
+      </c>
+      <c r="B6" s="36">
+        <v>2778</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="38">
         <v>42192</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="37">
-        <v>9000</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="H6" s="37">
-        <v>0</v>
-      </c>
-      <c r="I6" s="37">
-        <v>0</v>
-      </c>
-      <c r="J6" s="37">
-        <v>0</v>
-      </c>
-      <c r="K6" s="37">
-        <v>3.3290000000000002</v>
-      </c>
-      <c r="L6" s="37">
-        <v>0</v>
-      </c>
-      <c r="M6" s="35" t="s">
+      <c r="E6" s="39"/>
+      <c r="F6" s="40">
+        <v>2230</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="H6" s="40">
+        <v>0</v>
+      </c>
+      <c r="I6" s="40">
+        <v>0</v>
+      </c>
+      <c r="J6" s="40">
+        <v>0.85</v>
+      </c>
+      <c r="K6" s="40">
+        <v>1.895</v>
+      </c>
+      <c r="L6" s="40">
+        <v>0</v>
+      </c>
+      <c r="M6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O6" s="35" t="s">
+      <c r="N6" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="O6" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="6">
-        <v>2787</v>
+    <row r="7" spans="1:15" ht="15" thickBot="1">
+      <c r="A7" s="42">
+        <v>300491</v>
       </c>
       <c r="B7" s="30">
-        <v>2787</v>
+        <v>300491</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D7" s="32">
         <v>42192</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="34" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="H7" s="33">
         <v>0</v>
@@ -14670,10 +14537,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="33">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="K7" s="33">
-        <v>4.0019999999999998</v>
+        <v>2.0960000000000001</v>
       </c>
       <c r="L7" s="33">
         <v>0</v>
@@ -14682,76 +14549,76 @@
         <v>13</v>
       </c>
       <c r="N7" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1">
+      <c r="A8" s="44">
+        <v>603299</v>
+      </c>
+      <c r="B8" s="36">
+        <v>732299</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="D8" s="38">
+        <v>42192</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40">
+        <v>9000</v>
+      </c>
+      <c r="G8" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="O7" s="31" t="s">
+      <c r="H8" s="40">
+        <v>0</v>
+      </c>
+      <c r="I8" s="40">
+        <v>0</v>
+      </c>
+      <c r="J8" s="40">
+        <v>0</v>
+      </c>
+      <c r="K8" s="40">
+        <v>3.3290000000000002</v>
+      </c>
+      <c r="L8" s="40">
+        <v>0</v>
+      </c>
+      <c r="M8" s="37" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="7">
-        <v>300490</v>
-      </c>
-      <c r="B8" s="16">
-        <v>300490</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>351</v>
-      </c>
-      <c r="D8" s="36">
-        <v>42192</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="37">
-        <v>2500</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="H8" s="37">
-        <v>0</v>
-      </c>
-      <c r="I8" s="37">
-        <v>0</v>
-      </c>
-      <c r="J8" s="37">
-        <v>0</v>
-      </c>
-      <c r="K8" s="37">
-        <v>2.2719999999999998</v>
-      </c>
-      <c r="L8" s="37">
-        <v>0</v>
-      </c>
-      <c r="M8" s="35" t="s">
+      <c r="N8" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="O8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="6">
-        <v>300494</v>
+    </row>
+    <row r="9" spans="1:15" ht="15" thickBot="1">
+      <c r="A9" s="42">
+        <v>2787</v>
       </c>
       <c r="B9" s="30">
-        <v>300494</v>
+        <v>2787</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D9" s="32">
         <v>42192</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="33">
-        <v>3000</v>
+      <c r="E9" s="35"/>
+      <c r="F9" s="34" t="s">
+        <v>344</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="H9" s="33">
         <v>0</v>
@@ -14760,10 +14627,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="33">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="K9" s="33">
-        <v>5.431</v>
+        <v>4.0019999999999998</v>
       </c>
       <c r="L9" s="33">
         <v>0</v>
@@ -14772,63 +14639,63 @@
         <v>13</v>
       </c>
       <c r="N9" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O9" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="O9" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="7">
-        <v>2781</v>
-      </c>
-      <c r="B10" s="16">
-        <v>2781</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="D10" s="36">
-        <v>42191</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="G10" s="38" t="s">
+    <row r="10" spans="1:15" ht="15" thickBot="1">
+      <c r="A10" s="44">
+        <v>300490</v>
+      </c>
+      <c r="B10" s="36">
+        <v>300490</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>355</v>
       </c>
-      <c r="H10" s="37">
-        <v>0</v>
-      </c>
-      <c r="I10" s="37">
-        <v>0</v>
-      </c>
-      <c r="J10" s="37">
-        <v>2.4</v>
-      </c>
-      <c r="K10" s="37">
-        <v>6.117</v>
-      </c>
-      <c r="L10" s="37">
-        <v>0</v>
-      </c>
-      <c r="M10" s="35" t="s">
+      <c r="D10" s="38">
+        <v>42192</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40">
+        <v>2500</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="H10" s="40">
+        <v>0</v>
+      </c>
+      <c r="I10" s="40">
+        <v>0</v>
+      </c>
+      <c r="J10" s="40">
+        <v>0</v>
+      </c>
+      <c r="K10" s="40">
+        <v>2.2719999999999998</v>
+      </c>
+      <c r="L10" s="40">
+        <v>0</v>
+      </c>
+      <c r="M10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O10" s="35" t="s">
+      <c r="N10" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="O10" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="6">
-        <v>603996</v>
+    <row r="11" spans="1:15" ht="15" thickBot="1">
+      <c r="A11" s="42">
+        <v>2786</v>
       </c>
       <c r="B11" s="30">
-        <v>732996</v>
+        <v>2786</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>356</v>
@@ -14836,24 +14703,24 @@
       <c r="D11" s="32">
         <v>42191</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="33">
-        <v>5010</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>298</v>
+        <v>3178</v>
+      </c>
+      <c r="G11" s="33">
+        <v>1268</v>
       </c>
       <c r="H11" s="33">
-        <v>0</v>
+        <v>10.72</v>
       </c>
       <c r="I11" s="33">
-        <v>0</v>
+        <v>22.81</v>
       </c>
       <c r="J11" s="33">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="K11" s="33">
-        <v>5.2709999999999999</v>
+        <v>3.407</v>
       </c>
       <c r="L11" s="33">
         <v>0</v>
@@ -14862,88 +14729,88 @@
         <v>13</v>
       </c>
       <c r="N11" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O11" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="O11" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="7">
-        <v>603508</v>
-      </c>
-      <c r="B12" s="16">
-        <v>732508</v>
-      </c>
-      <c r="C12" s="35" t="s">
+    <row r="12" spans="1:15" ht="15" thickBot="1">
+      <c r="A12" s="44">
+        <v>2781</v>
+      </c>
+      <c r="B12" s="36">
+        <v>2781</v>
+      </c>
+      <c r="C12" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="38">
         <v>42191</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="38" t="s">
+      <c r="E12" s="39"/>
+      <c r="F12" s="40">
+        <v>5625</v>
+      </c>
+      <c r="G12" s="40">
+        <v>2250</v>
+      </c>
+      <c r="H12" s="40">
+        <v>13.31</v>
+      </c>
+      <c r="I12" s="40">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="J12" s="40">
+        <v>2.25</v>
+      </c>
+      <c r="K12" s="40">
+        <v>6.117</v>
+      </c>
+      <c r="L12" s="40">
+        <v>0</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1">
+      <c r="A13" s="42">
+        <v>603996</v>
+      </c>
+      <c r="B13" s="30">
+        <v>732996</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>358</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="H12" s="37">
-        <v>0</v>
-      </c>
-      <c r="I12" s="37">
-        <v>0</v>
-      </c>
-      <c r="J12" s="37">
-        <v>1.2</v>
-      </c>
-      <c r="K12" s="37">
-        <v>13.428000000000001</v>
-      </c>
-      <c r="L12" s="37">
-        <v>0</v>
-      </c>
-      <c r="M12" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O12" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="6">
-        <v>300492</v>
-      </c>
-      <c r="B13" s="30">
-        <v>300492</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>359</v>
       </c>
       <c r="D13" s="32">
         <v>42191</v>
       </c>
-      <c r="E13" s="30"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="33">
-        <v>2080</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>360</v>
+        <v>5010</v>
+      </c>
+      <c r="G13" s="33">
+        <v>2000</v>
       </c>
       <c r="H13" s="33">
-        <v>0</v>
+        <v>10.52</v>
       </c>
       <c r="I13" s="33">
-        <v>0</v>
+        <v>22.96</v>
       </c>
       <c r="J13" s="33">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="K13" s="33">
-        <v>1.4350000000000001</v>
+        <v>5.2709999999999999</v>
       </c>
       <c r="L13" s="33">
         <v>0</v>
@@ -14952,88 +14819,88 @@
         <v>13</v>
       </c>
       <c r="N13" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O13" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="O13" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="7">
-        <v>2777</v>
-      </c>
-      <c r="B14" s="16">
-        <v>2777</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="D14" s="36">
+    <row r="14" spans="1:15" ht="15" thickBot="1">
+      <c r="A14" s="44">
+        <v>603508</v>
+      </c>
+      <c r="B14" s="36">
+        <v>732508</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="D14" s="38">
         <v>42191</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="37">
-        <v>2000</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="H14" s="37">
-        <v>0</v>
-      </c>
-      <c r="I14" s="37">
-        <v>0</v>
-      </c>
-      <c r="J14" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="K14" s="37">
-        <v>2.2930000000000001</v>
-      </c>
-      <c r="L14" s="37">
-        <v>0</v>
-      </c>
-      <c r="M14" s="35" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="40">
+        <v>4000</v>
+      </c>
+      <c r="G14" s="40">
+        <v>1200</v>
+      </c>
+      <c r="H14" s="40">
+        <v>33.56</v>
+      </c>
+      <c r="I14" s="40">
+        <v>22.99</v>
+      </c>
+      <c r="J14" s="40">
+        <v>1.2</v>
+      </c>
+      <c r="K14" s="40">
+        <v>13.428000000000001</v>
+      </c>
+      <c r="L14" s="40">
+        <v>0</v>
+      </c>
+      <c r="M14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O14" s="35" t="s">
+      <c r="N14" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="O14" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="6">
-        <v>603778</v>
+    <row r="15" spans="1:15" ht="15" thickBot="1">
+      <c r="A15" s="42">
+        <v>300492</v>
       </c>
       <c r="B15" s="30">
-        <v>732778</v>
+        <v>300492</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D15" s="32">
         <v>42191</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>280</v>
+      <c r="E15" s="35"/>
+      <c r="F15" s="33">
+        <v>2080</v>
+      </c>
+      <c r="G15" s="33">
+        <v>830</v>
       </c>
       <c r="H15" s="33">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="I15" s="33">
-        <v>0</v>
+        <v>22.96</v>
       </c>
       <c r="J15" s="33">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K15" s="33">
-        <v>4.4379999999999997</v>
+        <v>1.4350000000000001</v>
       </c>
       <c r="L15" s="33">
         <v>0</v>
@@ -15042,88 +14909,88 @@
         <v>13</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O15" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="O15" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="7">
-        <v>300495</v>
-      </c>
-      <c r="B16" s="16">
-        <v>300495</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="D16" s="36">
+    <row r="16" spans="1:15" ht="15" thickBot="1">
+      <c r="A16" s="44">
+        <v>2777</v>
+      </c>
+      <c r="B16" s="36">
+        <v>2777</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="D16" s="38">
         <v>42191</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="H16" s="37">
-        <v>0</v>
-      </c>
-      <c r="I16" s="37">
-        <v>0</v>
-      </c>
-      <c r="J16" s="37">
-        <v>0.65</v>
-      </c>
-      <c r="K16" s="37">
-        <v>6.0250000000000004</v>
-      </c>
-      <c r="L16" s="37">
-        <v>0</v>
-      </c>
-      <c r="M16" s="35" t="s">
+      <c r="E16" s="39"/>
+      <c r="F16" s="40">
+        <v>2000</v>
+      </c>
+      <c r="G16" s="40">
+        <v>800</v>
+      </c>
+      <c r="H16" s="40">
+        <v>11.46</v>
+      </c>
+      <c r="I16" s="40">
+        <v>17.72</v>
+      </c>
+      <c r="J16" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="K16" s="40">
+        <v>2.2930000000000001</v>
+      </c>
+      <c r="L16" s="40">
+        <v>0</v>
+      </c>
+      <c r="M16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O16" s="35" t="s">
+      <c r="N16" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="O16" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="6">
-        <v>2782</v>
+    <row r="17" spans="1:15" ht="15" thickBot="1">
+      <c r="A17" s="42">
+        <v>603778</v>
       </c>
       <c r="B17" s="30">
-        <v>2782</v>
+        <v>732778</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D17" s="32">
         <v>42191</v>
       </c>
-      <c r="E17" s="30"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="33">
-        <v>4260</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>366</v>
+        <v>2000</v>
+      </c>
+      <c r="G17" s="33">
+        <v>800</v>
       </c>
       <c r="H17" s="33">
-        <v>0</v>
+        <v>22.19</v>
       </c>
       <c r="I17" s="33">
-        <v>0</v>
+        <v>22.88</v>
       </c>
       <c r="J17" s="33">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K17" s="33">
-        <v>3.2290000000000001</v>
+        <v>4.4379999999999997</v>
       </c>
       <c r="L17" s="33">
         <v>0</v>
@@ -15132,88 +14999,88 @@
         <v>13</v>
       </c>
       <c r="N17" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O17" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="O17" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="7">
-        <v>603866</v>
-      </c>
-      <c r="B18" s="16">
-        <v>732866</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>367</v>
-      </c>
-      <c r="D18" s="36">
+    <row r="18" spans="1:15" ht="15" thickBot="1">
+      <c r="A18" s="44">
+        <v>300495</v>
+      </c>
+      <c r="B18" s="36">
+        <v>300495</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="D18" s="38">
         <v>42191</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>369</v>
-      </c>
-      <c r="H18" s="37">
-        <v>0</v>
-      </c>
-      <c r="I18" s="37">
-        <v>0</v>
-      </c>
-      <c r="J18" s="37">
-        <v>0</v>
-      </c>
-      <c r="K18" s="37">
-        <v>6.1959999999999997</v>
-      </c>
-      <c r="L18" s="37">
-        <v>0</v>
-      </c>
-      <c r="M18" s="35" t="s">
+      <c r="E18" s="39"/>
+      <c r="F18" s="40">
+        <v>1670</v>
+      </c>
+      <c r="G18" s="40">
+        <v>660</v>
+      </c>
+      <c r="H18" s="40">
+        <v>36.08</v>
+      </c>
+      <c r="I18" s="40">
+        <v>22.98</v>
+      </c>
+      <c r="J18" s="40">
+        <v>0.65</v>
+      </c>
+      <c r="K18" s="40">
+        <v>6.0250000000000004</v>
+      </c>
+      <c r="L18" s="40">
+        <v>0</v>
+      </c>
+      <c r="M18" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O18" s="35" t="s">
+      <c r="N18" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="O18" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="6">
-        <v>2786</v>
+    <row r="19" spans="1:15" ht="15" thickBot="1">
+      <c r="A19" s="42">
+        <v>2782</v>
       </c>
       <c r="B19" s="30">
-        <v>2786</v>
+        <v>2782</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D19" s="32">
         <v>42191</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>372</v>
+      <c r="E19" s="35"/>
+      <c r="F19" s="33">
+        <v>4260</v>
+      </c>
+      <c r="G19" s="33">
+        <v>1700</v>
       </c>
       <c r="H19" s="33">
-        <v>0</v>
+        <v>7.58</v>
       </c>
       <c r="I19" s="33">
-        <v>0</v>
+        <v>22.97</v>
       </c>
       <c r="J19" s="33">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="K19" s="33">
-        <v>3.407</v>
+        <v>3.2290000000000001</v>
       </c>
       <c r="L19" s="33">
         <v>0</v>
@@ -15222,88 +15089,88 @@
         <v>13</v>
       </c>
       <c r="N19" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O19" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="O19" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="7">
-        <v>603800</v>
-      </c>
-      <c r="B20" s="16">
-        <v>732800</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="D20" s="36">
-        <v>42188</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="38" t="s">
-        <v>374</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="H20" s="37">
-        <v>0</v>
-      </c>
-      <c r="I20" s="37">
-        <v>0</v>
-      </c>
-      <c r="J20" s="37">
-        <v>0</v>
-      </c>
-      <c r="K20" s="37">
-        <v>5.6840000000000002</v>
-      </c>
-      <c r="L20" s="37">
-        <v>0</v>
-      </c>
-      <c r="M20" s="35" t="s">
+    <row r="20" spans="1:15" ht="15" thickBot="1">
+      <c r="A20" s="44">
+        <v>603866</v>
+      </c>
+      <c r="B20" s="36">
+        <v>732866</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="D20" s="38">
+        <v>42191</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40">
+        <v>4501</v>
+      </c>
+      <c r="G20" s="40">
+        <v>1350</v>
+      </c>
+      <c r="H20" s="40">
+        <v>13.76</v>
+      </c>
+      <c r="I20" s="40">
+        <v>22.98</v>
+      </c>
+      <c r="J20" s="40">
+        <v>1.3</v>
+      </c>
+      <c r="K20" s="40">
+        <v>6.1959999999999997</v>
+      </c>
+      <c r="L20" s="40">
+        <v>0</v>
+      </c>
+      <c r="M20" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N20" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O20" s="35" t="s">
+      <c r="N20" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="O20" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="6">
-        <v>603398</v>
+    <row r="21" spans="1:15" ht="15" thickBot="1">
+      <c r="A21" s="42">
+        <v>300493</v>
       </c>
       <c r="B21" s="30">
-        <v>732398</v>
+        <v>300493</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D21" s="32">
         <v>42188</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>376</v>
+      <c r="E21" s="35"/>
+      <c r="F21" s="33">
+        <v>3000</v>
+      </c>
+      <c r="G21" s="33">
+        <v>1200</v>
       </c>
       <c r="H21" s="33">
-        <v>0</v>
+        <v>6.87</v>
       </c>
       <c r="I21" s="33">
-        <v>0</v>
+        <v>22.97</v>
       </c>
       <c r="J21" s="33">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="K21" s="33">
-        <v>3.3530000000000002</v>
+        <v>2.0609999999999999</v>
       </c>
       <c r="L21" s="33">
         <v>0</v>
@@ -15312,88 +15179,88 @@
         <v>13</v>
       </c>
       <c r="N21" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O21" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="O21" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="7">
-        <v>300496</v>
-      </c>
-      <c r="B22" s="16">
-        <v>300496</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>377</v>
-      </c>
-      <c r="D22" s="36">
+    <row r="22" spans="1:15" ht="15" thickBot="1">
+      <c r="A22" s="44">
+        <v>603800</v>
+      </c>
+      <c r="B22" s="36">
+        <v>732800</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="D22" s="38">
         <v>42188</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="37">
-        <v>2500</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="H22" s="37">
-        <v>0</v>
-      </c>
-      <c r="I22" s="37">
-        <v>0</v>
-      </c>
-      <c r="J22" s="37">
-        <v>0</v>
-      </c>
-      <c r="K22" s="37">
-        <v>5.8170000000000002</v>
-      </c>
-      <c r="L22" s="37">
-        <v>0</v>
-      </c>
-      <c r="M22" s="35" t="s">
+      <c r="E22" s="39"/>
+      <c r="F22" s="40">
+        <v>5200</v>
+      </c>
+      <c r="G22" s="40">
+        <v>2080</v>
+      </c>
+      <c r="H22" s="40">
+        <v>10.93</v>
+      </c>
+      <c r="I22" s="40">
+        <v>21.11</v>
+      </c>
+      <c r="J22" s="40">
+        <v>2</v>
+      </c>
+      <c r="K22" s="40">
+        <v>5.6840000000000002</v>
+      </c>
+      <c r="L22" s="40">
+        <v>0</v>
+      </c>
+      <c r="M22" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N22" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O22" s="35" t="s">
+      <c r="N22" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="O22" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="6">
-        <v>2783</v>
+    <row r="23" spans="1:15" ht="15" thickBot="1">
+      <c r="A23" s="42">
+        <v>603398</v>
       </c>
       <c r="B23" s="30">
-        <v>2783</v>
+        <v>732398</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D23" s="32">
         <v>42188</v>
       </c>
-      <c r="E23" s="30"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="33">
-        <v>2087</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>379</v>
+        <v>2400</v>
+      </c>
+      <c r="G23" s="33">
+        <v>900</v>
       </c>
       <c r="H23" s="33">
-        <v>0</v>
+        <v>13.97</v>
       </c>
       <c r="I23" s="33">
-        <v>0</v>
+        <v>22.99</v>
       </c>
       <c r="J23" s="33">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K23" s="33">
-        <v>5.9720000000000004</v>
+        <v>3.3530000000000002</v>
       </c>
       <c r="L23" s="33">
         <v>0</v>
@@ -15402,88 +15269,88 @@
         <v>13</v>
       </c>
       <c r="N23" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O23" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="O23" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="7">
-        <v>2780</v>
-      </c>
-      <c r="B24" s="16">
-        <v>2780</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>380</v>
-      </c>
-      <c r="D24" s="36">
+    <row r="24" spans="1:15" ht="15" thickBot="1">
+      <c r="A24" s="44">
+        <v>300496</v>
+      </c>
+      <c r="B24" s="36">
+        <v>300496</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="D24" s="38">
         <v>42188</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="37">
-        <v>1700</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="H24" s="37">
-        <v>0</v>
-      </c>
-      <c r="I24" s="37">
-        <v>0</v>
-      </c>
-      <c r="J24" s="37">
-        <v>0</v>
-      </c>
-      <c r="K24" s="37">
-        <v>1.601</v>
-      </c>
-      <c r="L24" s="37">
-        <v>0</v>
-      </c>
-      <c r="M24" s="35" t="s">
+      <c r="E24" s="39"/>
+      <c r="F24" s="40">
+        <v>2500</v>
+      </c>
+      <c r="G24" s="40">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="40">
+        <v>23.27</v>
+      </c>
+      <c r="I24" s="40">
+        <v>22.99</v>
+      </c>
+      <c r="J24" s="40">
+        <v>1</v>
+      </c>
+      <c r="K24" s="40">
+        <v>5.8170000000000002</v>
+      </c>
+      <c r="L24" s="40">
+        <v>0</v>
+      </c>
+      <c r="M24" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N24" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O24" s="35" t="s">
+      <c r="N24" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="O24" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="6">
-        <v>603936</v>
+    <row r="25" spans="1:15" ht="15" thickBot="1">
+      <c r="A25" s="42">
+        <v>2783</v>
       </c>
       <c r="B25" s="30">
-        <v>732936</v>
+        <v>2783</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="D25" s="32">
         <v>42188</v>
       </c>
-      <c r="E25" s="30"/>
+      <c r="E25" s="35"/>
       <c r="F25" s="33">
-        <v>4185</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>382</v>
+        <v>2087</v>
+      </c>
+      <c r="G25" s="33">
+        <v>835</v>
       </c>
       <c r="H25" s="33">
-        <v>0</v>
+        <v>28.61</v>
       </c>
       <c r="I25" s="33">
-        <v>0</v>
+        <v>22.93</v>
       </c>
       <c r="J25" s="33">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="K25" s="33">
-        <v>3.3730000000000002</v>
+        <v>5.9720000000000004</v>
       </c>
       <c r="L25" s="33">
         <v>0</v>
@@ -15492,88 +15359,88 @@
         <v>13</v>
       </c>
       <c r="N25" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O25" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="O25" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="7">
-        <v>2779</v>
-      </c>
-      <c r="B26" s="16">
-        <v>2779</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>383</v>
-      </c>
-      <c r="D26" s="36">
+    <row r="26" spans="1:15" ht="15" thickBot="1">
+      <c r="A26" s="44">
+        <v>2780</v>
+      </c>
+      <c r="B26" s="36">
+        <v>2780</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="D26" s="38">
         <v>42188</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="37">
-        <v>2200</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="H26" s="37">
-        <v>0</v>
-      </c>
-      <c r="I26" s="37">
-        <v>0</v>
-      </c>
-      <c r="J26" s="37">
-        <v>0</v>
-      </c>
-      <c r="K26" s="37">
-        <v>2.6640000000000001</v>
-      </c>
-      <c r="L26" s="37">
-        <v>0</v>
-      </c>
-      <c r="M26" s="35" t="s">
+      <c r="E26" s="39"/>
+      <c r="F26" s="40">
+        <v>1700</v>
+      </c>
+      <c r="G26" s="40">
+        <v>680</v>
+      </c>
+      <c r="H26" s="40">
+        <v>9.42</v>
+      </c>
+      <c r="I26" s="40">
+        <v>22.95</v>
+      </c>
+      <c r="J26" s="40">
+        <v>0.65</v>
+      </c>
+      <c r="K26" s="40">
+        <v>1.601</v>
+      </c>
+      <c r="L26" s="40">
+        <v>0</v>
+      </c>
+      <c r="M26" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N26" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O26" s="35" t="s">
+      <c r="N26" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="O26" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="6">
-        <v>603999</v>
+    <row r="27" spans="1:15" ht="15" thickBot="1">
+      <c r="A27" s="42">
+        <v>603936</v>
       </c>
       <c r="B27" s="30">
-        <v>732999</v>
+        <v>732936</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="D27" s="32">
         <v>42188</v>
       </c>
-      <c r="E27" s="30"/>
+      <c r="E27" s="35"/>
       <c r="F27" s="33">
-        <v>6000</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>355</v>
+        <v>4185</v>
+      </c>
+      <c r="G27" s="33">
+        <v>1665</v>
       </c>
       <c r="H27" s="33">
-        <v>0</v>
+        <v>8.06</v>
       </c>
       <c r="I27" s="33">
-        <v>0</v>
+        <v>22.98</v>
       </c>
       <c r="J27" s="33">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="K27" s="33">
-        <v>5.8630000000000004</v>
+        <v>3.3730000000000002</v>
       </c>
       <c r="L27" s="33">
         <v>0</v>
@@ -15582,88 +15449,88 @@
         <v>13</v>
       </c>
       <c r="N27" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O27" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="O27" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="7">
-        <v>603696</v>
-      </c>
-      <c r="B28" s="16">
-        <v>732696</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>385</v>
-      </c>
-      <c r="D28" s="36">
+    <row r="28" spans="1:15" ht="15" thickBot="1">
+      <c r="A28" s="44">
+        <v>2779</v>
+      </c>
+      <c r="B28" s="36">
+        <v>2779</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="D28" s="38">
         <v>42188</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="37">
-        <v>3000</v>
-      </c>
-      <c r="G28" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="H28" s="37">
-        <v>0</v>
-      </c>
-      <c r="I28" s="37">
-        <v>0</v>
-      </c>
-      <c r="J28" s="37">
-        <v>1.2</v>
-      </c>
-      <c r="K28" s="37">
-        <v>5.1909999999999998</v>
-      </c>
-      <c r="L28" s="37">
-        <v>0</v>
-      </c>
-      <c r="M28" s="35" t="s">
+      <c r="E28" s="39"/>
+      <c r="F28" s="40">
+        <v>2200</v>
+      </c>
+      <c r="G28" s="40">
+        <v>880</v>
+      </c>
+      <c r="H28" s="40">
+        <v>12.11</v>
+      </c>
+      <c r="I28" s="40">
+        <v>18.97</v>
+      </c>
+      <c r="J28" s="40">
+        <v>0.85</v>
+      </c>
+      <c r="K28" s="40">
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="L28" s="40">
+        <v>0</v>
+      </c>
+      <c r="M28" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N28" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O28" s="35" t="s">
+      <c r="N28" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="O28" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="6">
-        <v>300493</v>
+    <row r="29" spans="1:15" ht="15" thickBot="1">
+      <c r="A29" s="42">
+        <v>603999</v>
       </c>
       <c r="B29" s="30">
-        <v>300493</v>
+        <v>732999</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="D29" s="32">
         <v>42188</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>290</v>
+      <c r="E29" s="35"/>
+      <c r="F29" s="33">
+        <v>6000</v>
+      </c>
+      <c r="G29" s="33">
+        <v>2400</v>
       </c>
       <c r="H29" s="33">
-        <v>0</v>
+        <v>9.77</v>
       </c>
       <c r="I29" s="33">
-        <v>0</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="J29" s="33">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="K29" s="33">
-        <v>2.0609999999999999</v>
+        <v>5.8630000000000004</v>
       </c>
       <c r="L29" s="33">
         <v>0</v>
@@ -15672,250 +15539,254 @@
         <v>13</v>
       </c>
       <c r="N29" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O29" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="O29" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="7">
+    <row r="30" spans="1:15" ht="15" thickBot="1">
+      <c r="A30" s="44">
+        <v>603696</v>
+      </c>
+      <c r="B30" s="36">
+        <v>732696</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="D30" s="38">
+        <v>42188</v>
+      </c>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40">
+        <v>3000</v>
+      </c>
+      <c r="G30" s="40">
+        <v>1200</v>
+      </c>
+      <c r="H30" s="40">
+        <v>10.1</v>
+      </c>
+      <c r="I30" s="40">
+        <v>22.95</v>
+      </c>
+      <c r="J30" s="40">
+        <v>1.2</v>
+      </c>
+      <c r="K30" s="40">
+        <v>5.1909999999999998</v>
+      </c>
+      <c r="L30" s="40">
+        <v>0</v>
+      </c>
+      <c r="M30" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="O30" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15" thickBot="1">
+      <c r="A31" s="42">
         <v>300480</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B31" s="30">
         <v>300480</v>
       </c>
-      <c r="C30" s="35" t="s">
-        <v>387</v>
-      </c>
-      <c r="D30" s="36">
-        <v>42178</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="37">
-        <v>2300</v>
-      </c>
-      <c r="G30" s="37">
-        <v>2070</v>
-      </c>
-      <c r="H30" s="37">
-        <v>7.28</v>
-      </c>
-      <c r="I30" s="37">
-        <v>22.99</v>
-      </c>
-      <c r="J30" s="37">
-        <v>0.9</v>
-      </c>
-      <c r="K30" s="37">
-        <v>1.675</v>
-      </c>
-      <c r="L30" s="37">
-        <v>0.16</v>
-      </c>
-      <c r="M30" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N30" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O30" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="6">
-        <v>300488</v>
-      </c>
-      <c r="B31" s="30">
-        <v>300488</v>
-      </c>
       <c r="C31" s="31" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D31" s="32">
         <v>42178</v>
       </c>
-      <c r="E31" s="30"/>
+      <c r="E31" s="32">
+        <v>42187</v>
+      </c>
       <c r="F31" s="33">
-        <v>1563</v>
+        <v>2300</v>
       </c>
       <c r="G31" s="33">
-        <v>1126</v>
+        <v>2070</v>
       </c>
       <c r="H31" s="33">
-        <v>20.11</v>
+        <v>7.28</v>
       </c>
       <c r="I31" s="33">
-        <v>19.3</v>
+        <v>22.99</v>
       </c>
       <c r="J31" s="33">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="K31" s="33">
-        <v>2.516</v>
+        <v>1.675</v>
       </c>
       <c r="L31" s="33">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="M31" s="31" t="s">
         <v>13</v>
       </c>
       <c r="N31" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O31" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="O31" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="7">
-        <v>603223</v>
-      </c>
-      <c r="B32" s="16">
-        <v>732223</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>389</v>
-      </c>
-      <c r="D32" s="36">
-        <v>42174</v>
-      </c>
-      <c r="E32" s="36">
-        <v>42185</v>
-      </c>
-      <c r="F32" s="37">
-        <v>3000</v>
-      </c>
-      <c r="G32" s="37">
-        <v>2700</v>
-      </c>
-      <c r="H32" s="37">
-        <v>8.31</v>
-      </c>
-      <c r="I32" s="37">
-        <v>22.97</v>
-      </c>
-      <c r="J32" s="37">
-        <v>1.2</v>
-      </c>
-      <c r="K32" s="37">
-        <v>2.4929999999999999</v>
-      </c>
-      <c r="L32" s="37">
-        <v>0.35</v>
-      </c>
-      <c r="M32" s="35" t="s">
+    <row r="32" spans="1:15" ht="15" thickBot="1">
+      <c r="A32" s="44">
+        <v>300488</v>
+      </c>
+      <c r="B32" s="36">
+        <v>300488</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>377</v>
+      </c>
+      <c r="D32" s="38">
+        <v>42178</v>
+      </c>
+      <c r="E32" s="38">
+        <v>42186</v>
+      </c>
+      <c r="F32" s="40">
+        <v>1563</v>
+      </c>
+      <c r="G32" s="40">
+        <v>1126</v>
+      </c>
+      <c r="H32" s="40">
+        <v>20.11</v>
+      </c>
+      <c r="I32" s="40">
+        <v>19.3</v>
+      </c>
+      <c r="J32" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="K32" s="40">
+        <v>2.516</v>
+      </c>
+      <c r="L32" s="40">
+        <v>0.15</v>
+      </c>
+      <c r="M32" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N32" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O32" s="35" t="s">
+      <c r="N32" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="O32" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="6">
-        <v>300487</v>
+    <row r="33" spans="1:15" ht="15" thickBot="1">
+      <c r="A33" s="42">
+        <v>603979</v>
       </c>
       <c r="B33" s="30">
-        <v>300487</v>
+        <v>732979</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D33" s="32">
         <v>42174</v>
       </c>
-      <c r="E33" s="30"/>
+      <c r="E33" s="32">
+        <v>42185</v>
+      </c>
       <c r="F33" s="33">
-        <v>2000</v>
+        <v>9500</v>
       </c>
       <c r="G33" s="33">
-        <v>1800</v>
+        <v>8550</v>
       </c>
       <c r="H33" s="33">
-        <v>14.83</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="I33" s="33">
-        <v>20.32</v>
+        <v>22.98</v>
       </c>
       <c r="J33" s="33">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="K33" s="33">
-        <v>2.9660000000000002</v>
+        <v>16.332000000000001</v>
       </c>
       <c r="L33" s="33">
-        <v>0.47</v>
+        <v>0.78</v>
       </c>
       <c r="M33" s="31" t="s">
         <v>13</v>
       </c>
       <c r="N33" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O33" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="O33" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="7">
-        <v>300482</v>
-      </c>
-      <c r="B34" s="16">
-        <v>300482</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>391</v>
-      </c>
-      <c r="D34" s="36">
+    <row r="34" spans="1:15" ht="15" thickBot="1">
+      <c r="A34" s="44">
+        <v>603223</v>
+      </c>
+      <c r="B34" s="36">
+        <v>732223</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="D34" s="38">
         <v>42174</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="38">
         <v>42185</v>
       </c>
-      <c r="F34" s="37">
-        <v>2200</v>
-      </c>
-      <c r="G34" s="37">
-        <v>1980</v>
-      </c>
-      <c r="H34" s="37">
-        <v>16</v>
-      </c>
-      <c r="I34" s="37">
-        <v>18.559999999999999</v>
-      </c>
-      <c r="J34" s="37">
-        <v>0.85</v>
-      </c>
-      <c r="K34" s="37">
-        <v>3.52</v>
-      </c>
-      <c r="L34" s="37">
-        <v>0.39</v>
-      </c>
-      <c r="M34" s="35" t="s">
+      <c r="F34" s="40">
+        <v>3000</v>
+      </c>
+      <c r="G34" s="40">
+        <v>2700</v>
+      </c>
+      <c r="H34" s="40">
+        <v>8.31</v>
+      </c>
+      <c r="I34" s="40">
+        <v>22.97</v>
+      </c>
+      <c r="J34" s="40">
+        <v>1.2</v>
+      </c>
+      <c r="K34" s="40">
+        <v>2.4929999999999999</v>
+      </c>
+      <c r="L34" s="40">
+        <v>0.35</v>
+      </c>
+      <c r="M34" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N34" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O34" s="35" t="s">
+      <c r="N34" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="O34" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="6">
-        <v>300481</v>
+    <row r="35" spans="1:15" ht="15" thickBot="1">
+      <c r="A35" s="42">
+        <v>300486</v>
       </c>
       <c r="B35" s="30">
-        <v>300481</v>
+        <v>300486</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="D35" s="32">
         <v>42174</v>
@@ -15924,92 +15795,92 @@
         <v>42185</v>
       </c>
       <c r="F35" s="33">
-        <v>2000</v>
+        <v>3472</v>
       </c>
       <c r="G35" s="33">
-        <v>1800</v>
+        <v>3125</v>
       </c>
       <c r="H35" s="33">
-        <v>9.1300000000000008</v>
+        <v>8.94</v>
       </c>
       <c r="I35" s="33">
-        <v>22.95</v>
+        <v>22.96</v>
       </c>
       <c r="J35" s="33">
-        <v>0.8</v>
+        <v>1.35</v>
       </c>
       <c r="K35" s="33">
-        <v>1.8260000000000001</v>
+        <v>3.1070000000000002</v>
       </c>
       <c r="L35" s="33">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="M35" s="31" t="s">
         <v>13</v>
       </c>
       <c r="N35" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O35" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="O35" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="7">
-        <v>603979</v>
-      </c>
-      <c r="B36" s="16">
-        <v>732979</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="D36" s="36">
+    <row r="36" spans="1:15" ht="15" thickBot="1">
+      <c r="A36" s="44">
+        <v>300482</v>
+      </c>
+      <c r="B36" s="36">
+        <v>300482</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="D36" s="38">
         <v>42174</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="38">
         <v>42185</v>
       </c>
-      <c r="F36" s="37">
-        <v>9500</v>
-      </c>
-      <c r="G36" s="37">
-        <v>8550</v>
-      </c>
-      <c r="H36" s="37">
-        <v>17.190000000000001</v>
-      </c>
-      <c r="I36" s="37">
-        <v>22.98</v>
-      </c>
-      <c r="J36" s="37">
-        <v>3.8</v>
-      </c>
-      <c r="K36" s="37">
-        <v>16.332000000000001</v>
-      </c>
-      <c r="L36" s="37">
-        <v>0.78</v>
-      </c>
-      <c r="M36" s="35" t="s">
+      <c r="F36" s="40">
+        <v>2200</v>
+      </c>
+      <c r="G36" s="40">
+        <v>1980</v>
+      </c>
+      <c r="H36" s="40">
+        <v>16</v>
+      </c>
+      <c r="I36" s="40">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="J36" s="40">
+        <v>0.85</v>
+      </c>
+      <c r="K36" s="40">
+        <v>3.52</v>
+      </c>
+      <c r="L36" s="40">
+        <v>0.39</v>
+      </c>
+      <c r="M36" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N36" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O36" s="35" t="s">
+      <c r="N36" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="O36" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="6">
-        <v>603085</v>
+    <row r="37" spans="1:15" ht="15" thickBot="1">
+      <c r="A37" s="42">
+        <v>2770</v>
       </c>
       <c r="B37" s="30">
-        <v>732085</v>
+        <v>2770</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="D37" s="32">
         <v>42174</v>
@@ -16018,2477 +15889,453 @@
         <v>42185</v>
       </c>
       <c r="F37" s="33">
-        <v>2500</v>
+        <v>6840</v>
       </c>
       <c r="G37" s="33">
-        <v>2250</v>
+        <v>6156</v>
       </c>
       <c r="H37" s="33">
-        <v>7.27</v>
+        <v>6.85</v>
       </c>
       <c r="I37" s="33">
-        <v>22.98</v>
+        <v>20.81</v>
       </c>
       <c r="J37" s="33">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="K37" s="33">
-        <v>1.8180000000000001</v>
+        <v>4.6849999999999996</v>
       </c>
       <c r="L37" s="33">
-        <v>0.27</v>
+        <v>0.49</v>
       </c>
       <c r="M37" s="31" t="s">
         <v>13</v>
       </c>
       <c r="N37" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O37" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="O37" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="7">
-        <v>300486</v>
-      </c>
-      <c r="B38" s="16">
-        <v>300486</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>395</v>
-      </c>
-      <c r="D38" s="36">
+    <row r="38" spans="1:15" ht="15" thickBot="1">
+      <c r="A38" s="44">
+        <v>300489</v>
+      </c>
+      <c r="B38" s="36">
+        <v>300489</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="D38" s="38">
         <v>42174</v>
       </c>
-      <c r="E38" s="36">
-        <v>42185</v>
-      </c>
-      <c r="F38" s="37">
-        <v>3472</v>
-      </c>
-      <c r="G38" s="37">
-        <v>3125</v>
-      </c>
-      <c r="H38" s="37">
-        <v>8.94</v>
-      </c>
-      <c r="I38" s="37">
-        <v>22.96</v>
-      </c>
-      <c r="J38" s="37">
-        <v>1.35</v>
-      </c>
-      <c r="K38" s="37">
-        <v>3.1070000000000002</v>
-      </c>
-      <c r="L38" s="37">
-        <v>0.37</v>
-      </c>
-      <c r="M38" s="35" t="s">
+      <c r="E38" s="38">
+        <v>42186</v>
+      </c>
+      <c r="F38" s="40">
+        <v>1135</v>
+      </c>
+      <c r="G38" s="40">
+        <v>1022</v>
+      </c>
+      <c r="H38" s="40">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="I38" s="40">
+        <v>22.97</v>
+      </c>
+      <c r="J38" s="40">
+        <v>0.45</v>
+      </c>
+      <c r="K38" s="40">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="L38" s="40">
+        <v>0.41</v>
+      </c>
+      <c r="M38" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O38" s="35" t="s">
+      <c r="N38" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="O38" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="6">
-        <v>300489</v>
+    <row r="39" spans="1:15" ht="15" thickBot="1">
+      <c r="A39" s="42">
+        <v>300481</v>
       </c>
       <c r="B39" s="30">
-        <v>300489</v>
+        <v>300481</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D39" s="32">
         <v>42174</v>
       </c>
-      <c r="E39" s="30"/>
+      <c r="E39" s="32">
+        <v>42185</v>
+      </c>
       <c r="F39" s="33">
-        <v>1135</v>
+        <v>2000</v>
       </c>
       <c r="G39" s="33">
-        <v>1022</v>
+        <v>1800</v>
       </c>
       <c r="H39" s="33">
-        <v>17.559999999999999</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="I39" s="33">
-        <v>22.97</v>
+        <v>22.95</v>
       </c>
       <c r="J39" s="33">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="K39" s="33">
-        <v>1.9930000000000001</v>
+        <v>1.8260000000000001</v>
       </c>
       <c r="L39" s="33">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
       <c r="M39" s="31" t="s">
         <v>13</v>
       </c>
       <c r="N39" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O39" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="O39" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="7">
-        <v>2770</v>
-      </c>
-      <c r="B40" s="16">
-        <v>2770</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>397</v>
-      </c>
-      <c r="D40" s="36">
+    <row r="40" spans="1:15" ht="15" thickBot="1">
+      <c r="A40" s="44">
+        <v>603085</v>
+      </c>
+      <c r="B40" s="36">
+        <v>732085</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="D40" s="38">
         <v>42174</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="38">
         <v>42185</v>
       </c>
-      <c r="F40" s="37">
-        <v>6840</v>
-      </c>
-      <c r="G40" s="37">
-        <v>6156</v>
-      </c>
-      <c r="H40" s="37">
-        <v>6.85</v>
-      </c>
-      <c r="I40" s="37">
-        <v>20.81</v>
-      </c>
-      <c r="J40" s="37">
-        <v>2.7</v>
-      </c>
-      <c r="K40" s="37">
-        <v>4.6849999999999996</v>
-      </c>
-      <c r="L40" s="37">
-        <v>0.49</v>
-      </c>
-      <c r="M40" s="35" t="s">
+      <c r="F40" s="40">
+        <v>2500</v>
+      </c>
+      <c r="G40" s="40">
+        <v>2250</v>
+      </c>
+      <c r="H40" s="40">
+        <v>7.27</v>
+      </c>
+      <c r="I40" s="40">
+        <v>22.98</v>
+      </c>
+      <c r="J40" s="40">
+        <v>1</v>
+      </c>
+      <c r="K40" s="40">
+        <v>1.8180000000000001</v>
+      </c>
+      <c r="L40" s="40">
+        <v>0.27</v>
+      </c>
+      <c r="M40" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N40" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O40" s="35" t="s">
+      <c r="N40" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="O40" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="6">
-        <v>2776</v>
+    <row r="41" spans="1:15" ht="15" thickBot="1">
+      <c r="A41" s="42">
+        <v>300487</v>
       </c>
       <c r="B41" s="30">
-        <v>2776</v>
+        <v>300487</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D41" s="32">
-        <v>42173</v>
+        <v>42174</v>
       </c>
       <c r="E41" s="32">
-        <v>42181</v>
+        <v>42187</v>
       </c>
       <c r="F41" s="33">
-        <v>2622</v>
+        <v>2000</v>
       </c>
       <c r="G41" s="33">
-        <v>2360</v>
+        <v>1800</v>
       </c>
       <c r="H41" s="33">
-        <v>23.29</v>
+        <v>14.83</v>
       </c>
       <c r="I41" s="33">
-        <v>22.98</v>
+        <v>20.32</v>
       </c>
       <c r="J41" s="33">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K41" s="33">
-        <v>6.1070000000000002</v>
+        <v>2.9660000000000002</v>
       </c>
       <c r="L41" s="33">
-        <v>0.6</v>
+        <v>0.47</v>
       </c>
       <c r="M41" s="31" t="s">
         <v>13</v>
       </c>
       <c r="N41" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O41" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="O41" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="7">
-        <v>603589</v>
-      </c>
-      <c r="B42" s="16">
-        <v>732589</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>399</v>
-      </c>
-      <c r="D42" s="36">
+    <row r="42" spans="1:15" ht="15" thickBot="1">
+      <c r="A42" s="44">
+        <v>2776</v>
+      </c>
+      <c r="B42" s="36">
+        <v>2776</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>387</v>
+      </c>
+      <c r="D42" s="38">
         <v>42173</v>
       </c>
-      <c r="E42" s="36">
-        <v>42184</v>
-      </c>
-      <c r="F42" s="37">
-        <v>6000</v>
-      </c>
-      <c r="G42" s="37">
-        <v>5400</v>
-      </c>
-      <c r="H42" s="37">
-        <v>16</v>
-      </c>
-      <c r="I42" s="37">
+      <c r="E42" s="38">
+        <v>42181</v>
+      </c>
+      <c r="F42" s="40">
+        <v>2622</v>
+      </c>
+      <c r="G42" s="40">
+        <v>2360</v>
+      </c>
+      <c r="H42" s="40">
+        <v>23.29</v>
+      </c>
+      <c r="I42" s="40">
         <v>22.98</v>
       </c>
-      <c r="J42" s="37">
-        <v>1.8</v>
-      </c>
-      <c r="K42" s="37">
-        <v>9.6</v>
-      </c>
-      <c r="L42" s="37">
-        <v>0.69</v>
-      </c>
-      <c r="M42" s="35" t="s">
+      <c r="J42" s="40">
+        <v>1</v>
+      </c>
+      <c r="K42" s="40">
+        <v>6.1070000000000002</v>
+      </c>
+      <c r="L42" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="M42" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N42" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O42" s="35" t="s">
+      <c r="N42" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="O42" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="6">
-        <v>2775</v>
-      </c>
-      <c r="B43" s="30">
-        <v>2775</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>400</v>
-      </c>
-      <c r="D43" s="32">
-        <v>42173</v>
-      </c>
-      <c r="E43" s="32">
-        <v>42184</v>
-      </c>
-      <c r="F43" s="33">
-        <v>3000</v>
-      </c>
-      <c r="G43" s="33">
-        <v>2700</v>
-      </c>
-      <c r="H43" s="33">
-        <v>16.93</v>
-      </c>
-      <c r="I43" s="33">
-        <v>22.98</v>
-      </c>
-      <c r="J43" s="33">
-        <v>1.2</v>
-      </c>
-      <c r="K43" s="33">
-        <v>5.0789999999999997</v>
-      </c>
-      <c r="L43" s="33">
-        <v>0.49</v>
-      </c>
-      <c r="M43" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N43" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O43" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="7">
-        <v>601211</v>
-      </c>
-      <c r="B44" s="16">
-        <v>780211</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>401</v>
-      </c>
-      <c r="D44" s="36">
-        <v>42173</v>
-      </c>
-      <c r="E44" s="36">
-        <v>42181</v>
-      </c>
-      <c r="F44" s="37">
-        <v>152500</v>
-      </c>
-      <c r="G44" s="37">
-        <v>106750</v>
-      </c>
-      <c r="H44" s="37">
-        <v>19.71</v>
-      </c>
-      <c r="I44" s="37">
-        <v>22.99</v>
-      </c>
-      <c r="J44" s="37">
-        <v>45.7</v>
-      </c>
-      <c r="K44" s="37">
-        <v>300.577</v>
-      </c>
-      <c r="L44" s="37">
-        <v>1.57</v>
-      </c>
-      <c r="M44" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N44" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O44" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="6">
-        <v>603838</v>
-      </c>
-      <c r="B45" s="30">
-        <v>732838</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="D45" s="32">
-        <v>42173</v>
-      </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="33">
-        <v>3334</v>
-      </c>
-      <c r="G45" s="33">
-        <v>3001</v>
-      </c>
-      <c r="H45" s="33">
-        <v>7.73</v>
-      </c>
-      <c r="I45" s="33">
-        <v>22.96</v>
-      </c>
-      <c r="J45" s="33">
-        <v>1.3</v>
-      </c>
-      <c r="K45" s="33">
-        <v>2.577</v>
-      </c>
-      <c r="L45" s="33">
-        <v>0.27</v>
-      </c>
-      <c r="M45" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N45" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O45" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="7">
-        <v>2776</v>
-      </c>
-      <c r="B46" s="16">
-        <v>2776</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>398</v>
-      </c>
-      <c r="D46" s="36">
-        <v>42173</v>
-      </c>
-      <c r="E46" s="36">
-        <v>42181</v>
-      </c>
-      <c r="F46" s="37">
-        <v>2622</v>
-      </c>
-      <c r="G46" s="37">
-        <v>2360</v>
-      </c>
-      <c r="H46" s="37">
-        <v>23.29</v>
-      </c>
-      <c r="I46" s="37">
-        <v>22.98</v>
-      </c>
-      <c r="J46" s="37">
-        <v>1</v>
-      </c>
-      <c r="K46" s="37">
-        <v>6.1070000000000002</v>
-      </c>
-      <c r="L46" s="37">
-        <v>0.6</v>
-      </c>
-      <c r="M46" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N46" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O46" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="6">
-        <v>603589</v>
-      </c>
-      <c r="B47" s="30">
-        <v>732589</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="D47" s="32">
-        <v>42173</v>
-      </c>
-      <c r="E47" s="32">
-        <v>42184</v>
-      </c>
-      <c r="F47" s="33">
-        <v>6000</v>
-      </c>
-      <c r="G47" s="33">
-        <v>5400</v>
-      </c>
-      <c r="H47" s="33">
-        <v>16</v>
-      </c>
-      <c r="I47" s="33">
-        <v>22.98</v>
-      </c>
-      <c r="J47" s="33">
-        <v>1.8</v>
-      </c>
-      <c r="K47" s="33">
-        <v>9.6</v>
-      </c>
-      <c r="L47" s="33">
-        <v>0.69</v>
-      </c>
-      <c r="M47" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N47" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O47" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="7">
-        <v>2769</v>
-      </c>
-      <c r="B48" s="16">
-        <v>2769</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>403</v>
-      </c>
-      <c r="D48" s="36">
-        <v>42173</v>
-      </c>
-      <c r="E48" s="36">
-        <v>42184</v>
-      </c>
-      <c r="F48" s="37">
-        <v>1850</v>
-      </c>
-      <c r="G48" s="37">
-        <v>1665</v>
-      </c>
-      <c r="H48" s="37">
-        <v>28.49</v>
-      </c>
-      <c r="I48" s="37">
-        <v>19.64</v>
-      </c>
-      <c r="J48" s="37">
-        <v>0.7</v>
-      </c>
-      <c r="K48" s="37">
-        <v>5.2709999999999999</v>
-      </c>
-      <c r="L48" s="37">
-        <v>0.41</v>
-      </c>
-      <c r="M48" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N48" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O48" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="6">
-        <v>300483</v>
-      </c>
-      <c r="B49" s="30">
-        <v>300483</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="D49" s="32">
-        <v>42173</v>
-      </c>
-      <c r="E49" s="32">
-        <v>42185</v>
-      </c>
-      <c r="F49" s="33">
-        <v>1550</v>
-      </c>
-      <c r="G49" s="33">
-        <v>1395</v>
-      </c>
-      <c r="H49" s="33">
-        <v>11.39</v>
-      </c>
-      <c r="I49" s="33">
-        <v>22.99</v>
-      </c>
-      <c r="J49" s="33">
-        <v>0.6</v>
-      </c>
-      <c r="K49" s="33">
-        <v>1.7649999999999999</v>
-      </c>
-      <c r="L49" s="33">
-        <v>0.32</v>
-      </c>
-      <c r="M49" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N49" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O49" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="7">
-        <v>2768</v>
-      </c>
-      <c r="B50" s="16">
-        <v>2768</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>405</v>
-      </c>
-      <c r="D50" s="36">
-        <v>42173</v>
-      </c>
-      <c r="E50" s="36">
-        <v>42185</v>
-      </c>
-      <c r="F50" s="37">
-        <v>2000</v>
-      </c>
-      <c r="G50" s="37">
-        <v>1800</v>
-      </c>
-      <c r="H50" s="37">
-        <v>17.47</v>
-      </c>
-      <c r="I50" s="37">
-        <v>22.99</v>
-      </c>
-      <c r="J50" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="K50" s="37">
-        <v>3.4940000000000002</v>
-      </c>
-      <c r="L50" s="37">
-        <v>0.44</v>
-      </c>
-      <c r="M50" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N50" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O50" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="6">
-        <v>603116</v>
-      </c>
-      <c r="B51" s="30">
-        <v>732116</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>406</v>
-      </c>
-      <c r="D51" s="32">
-        <v>42173</v>
-      </c>
-      <c r="E51" s="32">
-        <v>42184</v>
-      </c>
-      <c r="F51" s="33">
-        <v>5880</v>
-      </c>
-      <c r="G51" s="33">
-        <v>5292</v>
-      </c>
-      <c r="H51" s="33">
-        <v>17.7</v>
-      </c>
-      <c r="I51" s="33">
-        <v>22.94</v>
-      </c>
-      <c r="J51" s="33">
-        <v>1.7</v>
-      </c>
-      <c r="K51" s="33">
-        <v>10.412000000000001</v>
-      </c>
-      <c r="L51" s="33">
-        <v>0.77</v>
-      </c>
-      <c r="M51" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N51" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O51" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="7">
-        <v>2772</v>
-      </c>
-      <c r="B52" s="16">
-        <v>2772</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>407</v>
-      </c>
-      <c r="D52" s="36">
-        <v>42172</v>
-      </c>
-      <c r="E52" s="36">
-        <v>42181</v>
-      </c>
-      <c r="F52" s="37">
-        <v>3725</v>
-      </c>
-      <c r="G52" s="37">
-        <v>3353</v>
-      </c>
-      <c r="H52" s="37">
-        <v>13</v>
-      </c>
-      <c r="I52" s="37">
-        <v>22.98</v>
-      </c>
-      <c r="J52" s="37">
-        <v>1.45</v>
-      </c>
-      <c r="K52" s="37">
-        <v>4.843</v>
-      </c>
-      <c r="L52" s="37">
-        <v>0.22</v>
-      </c>
-      <c r="M52" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N52" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O52" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="6">
-        <v>300485</v>
-      </c>
-      <c r="B53" s="30">
-        <v>300485</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>408</v>
-      </c>
-      <c r="D53" s="32">
-        <v>42172</v>
-      </c>
-      <c r="E53" s="32">
-        <v>42181</v>
-      </c>
-      <c r="F53" s="33">
-        <v>3000</v>
-      </c>
-      <c r="G53" s="33">
-        <v>2700</v>
-      </c>
-      <c r="H53" s="33">
-        <v>38.46</v>
-      </c>
-      <c r="I53" s="33">
-        <v>22.99</v>
-      </c>
-      <c r="J53" s="33">
-        <v>1.2</v>
-      </c>
-      <c r="K53" s="33">
-        <v>11.538</v>
-      </c>
-      <c r="L53" s="33">
-        <v>0.37</v>
-      </c>
-      <c r="M53" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N53" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O53" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="7">
-        <v>2773</v>
-      </c>
-      <c r="B54" s="16">
-        <v>2773</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="D54" s="36">
-        <v>42172</v>
-      </c>
-      <c r="E54" s="36">
-        <v>42181</v>
-      </c>
-      <c r="F54" s="37">
-        <v>4560</v>
-      </c>
-      <c r="G54" s="37">
-        <v>4104</v>
-      </c>
-      <c r="H54" s="37">
-        <v>13.62</v>
-      </c>
-      <c r="I54" s="37">
-        <v>22.98</v>
-      </c>
-      <c r="J54" s="37">
-        <v>1.35</v>
-      </c>
-      <c r="K54" s="37">
-        <v>6.2110000000000003</v>
-      </c>
-      <c r="L54" s="37">
-        <v>0.23</v>
-      </c>
-      <c r="M54" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N54" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O54" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="6">
-        <v>300471</v>
-      </c>
-      <c r="B55" s="30">
-        <v>300471</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="D55" s="32">
-        <v>42158</v>
-      </c>
-      <c r="E55" s="32">
-        <v>42166</v>
-      </c>
-      <c r="F55" s="33">
-        <v>1780</v>
-      </c>
-      <c r="G55" s="33">
-        <v>1332</v>
-      </c>
-      <c r="H55" s="33">
-        <v>54.01</v>
-      </c>
-      <c r="I55" s="33">
-        <v>21.85</v>
-      </c>
-      <c r="J55" s="33">
-        <v>0.7</v>
-      </c>
-      <c r="K55" s="33">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="L55" s="33">
-        <v>0.53</v>
-      </c>
-      <c r="M55" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N55" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O55" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="7">
-        <v>603616</v>
-      </c>
-      <c r="B56" s="16">
-        <v>732616</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="D56" s="36">
-        <v>42158</v>
-      </c>
-      <c r="E56" s="36">
-        <v>42166</v>
-      </c>
-      <c r="F56" s="37">
-        <v>3668</v>
-      </c>
-      <c r="G56" s="37">
-        <v>3301</v>
-      </c>
-      <c r="H56" s="37">
-        <v>11.35</v>
-      </c>
-      <c r="I56" s="37">
-        <v>20.64</v>
-      </c>
-      <c r="J56" s="37">
-        <v>1.3</v>
-      </c>
-      <c r="K56" s="37">
-        <v>4.1660000000000004</v>
-      </c>
-      <c r="L56" s="37">
-        <v>0.33</v>
-      </c>
-      <c r="M56" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N56" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O56" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="6">
-        <v>601968</v>
-      </c>
-      <c r="B57" s="30">
-        <v>780968</v>
-      </c>
-      <c r="C57" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="D57" s="32">
-        <v>42158</v>
-      </c>
-      <c r="E57" s="32">
-        <v>42166</v>
-      </c>
-      <c r="F57" s="33">
-        <v>20833</v>
-      </c>
-      <c r="G57" s="33">
-        <v>18750</v>
-      </c>
-      <c r="H57" s="33">
-        <v>3.08</v>
-      </c>
-      <c r="I57" s="33">
-        <v>22.93</v>
-      </c>
-      <c r="J57" s="33">
-        <v>6.2</v>
-      </c>
-      <c r="K57" s="33">
-        <v>6.4169999999999998</v>
-      </c>
-      <c r="L57" s="33">
-        <v>0.45</v>
-      </c>
-      <c r="M57" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N57" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O57" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="7">
-        <v>2767</v>
-      </c>
-      <c r="B58" s="16">
-        <v>2767</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="D58" s="36">
-        <v>42158</v>
-      </c>
-      <c r="E58" s="36">
-        <v>42167</v>
-      </c>
-      <c r="F58" s="37">
-        <v>2500</v>
-      </c>
-      <c r="G58" s="37">
-        <v>2250</v>
-      </c>
-      <c r="H58" s="37">
-        <v>14.87</v>
-      </c>
-      <c r="I58" s="37">
-        <v>22.43</v>
-      </c>
-      <c r="J58" s="37">
-        <v>1</v>
-      </c>
-      <c r="K58" s="37">
-        <v>3.7189999999999999</v>
-      </c>
-      <c r="L58" s="37">
-        <v>0.35</v>
-      </c>
-      <c r="M58" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N58" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O58" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="6">
-        <v>300473</v>
-      </c>
-      <c r="B59" s="30">
-        <v>300473</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="D59" s="32">
-        <v>42158</v>
-      </c>
-      <c r="E59" s="32">
-        <v>42167</v>
-      </c>
-      <c r="F59" s="33">
-        <v>2500</v>
-      </c>
-      <c r="G59" s="33">
-        <v>2250</v>
-      </c>
-      <c r="H59" s="33">
-        <v>28.76</v>
-      </c>
-      <c r="I59" s="33">
-        <v>22.99</v>
-      </c>
-      <c r="J59" s="33">
-        <v>1</v>
-      </c>
-      <c r="K59" s="33">
-        <v>7.19</v>
-      </c>
-      <c r="L59" s="33">
-        <v>0.59</v>
-      </c>
-      <c r="M59" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N59" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O59" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="7">
-        <v>2766</v>
-      </c>
-      <c r="B60" s="16">
-        <v>2766</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="D60" s="36">
-        <v>42158</v>
-      </c>
-      <c r="E60" s="36">
-        <v>42166</v>
-      </c>
-      <c r="F60" s="37">
-        <v>4580</v>
-      </c>
-      <c r="G60" s="37">
-        <v>4122</v>
-      </c>
-      <c r="H60" s="37">
-        <v>7.53</v>
-      </c>
-      <c r="I60" s="37">
-        <v>22.82</v>
-      </c>
-      <c r="J60" s="37">
-        <v>1.8</v>
-      </c>
-      <c r="K60" s="37">
-        <v>3.4489999999999998</v>
-      </c>
-      <c r="L60" s="37">
-        <v>0.32</v>
-      </c>
-      <c r="M60" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N60" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O60" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="6">
-        <v>300476</v>
-      </c>
-      <c r="B61" s="30">
-        <v>300476</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="D61" s="32">
-        <v>42158</v>
-      </c>
-      <c r="E61" s="32">
-        <v>42166</v>
-      </c>
-      <c r="F61" s="33">
-        <v>3667</v>
-      </c>
-      <c r="G61" s="33">
-        <v>3300</v>
-      </c>
-      <c r="H61" s="33">
-        <v>15.73</v>
-      </c>
-      <c r="I61" s="33">
-        <v>22.97</v>
-      </c>
-      <c r="J61" s="33">
-        <v>1.4</v>
-      </c>
-      <c r="K61" s="33">
-        <v>5.7679999999999998</v>
-      </c>
-      <c r="L61" s="33">
-        <v>0.46</v>
-      </c>
-      <c r="M61" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N61" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O61" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="7">
-        <v>300469</v>
-      </c>
-      <c r="B62" s="16">
-        <v>300469</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="D62" s="36">
-        <v>42158</v>
-      </c>
-      <c r="E62" s="36">
-        <v>42166</v>
-      </c>
-      <c r="F62" s="37">
-        <v>1670</v>
-      </c>
-      <c r="G62" s="37">
-        <v>1503</v>
-      </c>
-      <c r="H62" s="37">
-        <v>10.14</v>
-      </c>
-      <c r="I62" s="37">
-        <v>22.98</v>
-      </c>
-      <c r="J62" s="37">
-        <v>0.6</v>
-      </c>
-      <c r="K62" s="37">
-        <v>1.6930000000000001</v>
-      </c>
-      <c r="L62" s="37">
-        <v>0.26</v>
-      </c>
-      <c r="M62" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N62" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O62" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="6">
-        <v>603066</v>
-      </c>
-      <c r="B63" s="30">
-        <v>732066</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="D63" s="32">
-        <v>42158</v>
-      </c>
-      <c r="E63" s="32">
-        <v>42166</v>
-      </c>
-      <c r="F63" s="33">
-        <v>2500</v>
-      </c>
-      <c r="G63" s="33">
-        <v>2250</v>
-      </c>
-      <c r="H63" s="33">
-        <v>12.43</v>
-      </c>
-      <c r="I63" s="33">
-        <v>20.98</v>
-      </c>
-      <c r="J63" s="33">
-        <v>1</v>
-      </c>
-      <c r="K63" s="33">
-        <v>3.1080000000000001</v>
-      </c>
-      <c r="L63" s="33">
-        <v>0.26</v>
-      </c>
-      <c r="M63" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N63" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O63" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="7">
-        <v>300479</v>
-      </c>
-      <c r="B64" s="16">
-        <v>300479</v>
-      </c>
-      <c r="C64" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="D64" s="36">
-        <v>42158</v>
-      </c>
-      <c r="E64" s="36">
-        <v>42167</v>
-      </c>
-      <c r="F64" s="37">
-        <v>2000</v>
-      </c>
-      <c r="G64" s="37">
-        <v>1800</v>
-      </c>
-      <c r="H64" s="37">
-        <v>11.02</v>
-      </c>
-      <c r="I64" s="37">
-        <v>22.96</v>
-      </c>
-      <c r="J64" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="K64" s="37">
-        <v>2.2040000000000002</v>
-      </c>
-      <c r="L64" s="37">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="M64" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N64" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O64" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="6">
-        <v>300472</v>
-      </c>
-      <c r="B65" s="30">
-        <v>300472</v>
-      </c>
-      <c r="C65" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="D65" s="32">
-        <v>42158</v>
-      </c>
-      <c r="E65" s="32">
-        <v>42166</v>
-      </c>
-      <c r="F65" s="33">
-        <v>1667</v>
-      </c>
-      <c r="G65" s="33">
-        <v>1500</v>
-      </c>
-      <c r="H65" s="33">
-        <v>11.39</v>
-      </c>
-      <c r="I65" s="33">
-        <v>22.99</v>
-      </c>
-      <c r="J65" s="33">
-        <v>0.65</v>
-      </c>
-      <c r="K65" s="33">
-        <v>1.899</v>
-      </c>
-      <c r="L65" s="33">
-        <v>0.35</v>
-      </c>
-      <c r="M65" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N65" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O65" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="7">
-        <v>2760</v>
-      </c>
-      <c r="B66" s="16">
-        <v>2760</v>
-      </c>
-      <c r="C66" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="D66" s="36">
-        <v>42158</v>
-      </c>
-      <c r="E66" s="36">
-        <v>42166</v>
-      </c>
-      <c r="F66" s="37">
-        <v>2200</v>
-      </c>
-      <c r="G66" s="37">
-        <v>1980</v>
-      </c>
-      <c r="H66" s="37">
-        <v>8.31</v>
-      </c>
-      <c r="I66" s="37">
-        <v>22.97</v>
-      </c>
-      <c r="J66" s="37">
-        <v>0.85</v>
-      </c>
-      <c r="K66" s="37">
-        <v>1.8280000000000001</v>
-      </c>
-      <c r="L66" s="37">
-        <v>0.34</v>
-      </c>
-      <c r="M66" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N66" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O66" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="6">
-        <v>300478</v>
-      </c>
-      <c r="B67" s="30">
-        <v>300478</v>
-      </c>
-      <c r="C67" s="31" t="s">
-        <v>305</v>
-      </c>
-      <c r="D67" s="32">
-        <v>42157</v>
-      </c>
-      <c r="E67" s="32">
-        <v>42165</v>
-      </c>
-      <c r="F67" s="33">
-        <v>1667</v>
-      </c>
-      <c r="G67" s="33">
-        <v>1500</v>
-      </c>
-      <c r="H67" s="33">
-        <v>14.84</v>
-      </c>
-      <c r="I67" s="33">
-        <v>22.99</v>
-      </c>
-      <c r="J67" s="33">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="K67" s="33">
-        <v>2.4740000000000002</v>
-      </c>
-      <c r="L67" s="33">
-        <v>0.27</v>
-      </c>
-      <c r="M67" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N67" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O67" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="7">
-        <v>300464</v>
-      </c>
-      <c r="B68" s="16">
-        <v>300464</v>
-      </c>
-      <c r="C68" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="D68" s="36">
-        <v>42157</v>
-      </c>
-      <c r="E68" s="36">
-        <v>42165</v>
-      </c>
-      <c r="F68" s="37">
-        <v>2067</v>
-      </c>
-      <c r="G68" s="37">
-        <v>1860</v>
-      </c>
-      <c r="H68" s="37">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I68" s="37">
-        <v>22.67</v>
-      </c>
-      <c r="J68" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="K68" s="37">
-        <v>2.1080000000000001</v>
-      </c>
-      <c r="L68" s="37">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="M68" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N68" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O68" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="6">
-        <v>300477</v>
-      </c>
-      <c r="B69" s="30">
-        <v>300477</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="D69" s="32">
-        <v>42157</v>
-      </c>
-      <c r="E69" s="32">
-        <v>42165</v>
-      </c>
-      <c r="F69" s="33">
-        <v>2705</v>
-      </c>
-      <c r="G69" s="33">
-        <v>2340</v>
-      </c>
-      <c r="H69" s="33">
-        <v>10.61</v>
-      </c>
-      <c r="I69" s="33">
-        <v>15.38</v>
-      </c>
-      <c r="J69" s="33">
-        <v>1</v>
-      </c>
-      <c r="K69" s="33">
-        <v>2.76</v>
-      </c>
-      <c r="L69" s="33">
-        <v>0.24</v>
-      </c>
-      <c r="M69" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N69" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O69" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="7">
-        <v>300470</v>
-      </c>
-      <c r="B70" s="16">
-        <v>300470</v>
-      </c>
-      <c r="C70" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="D70" s="36">
-        <v>42157</v>
-      </c>
-      <c r="E70" s="36">
-        <v>42167</v>
-      </c>
-      <c r="F70" s="37">
-        <v>1334</v>
-      </c>
-      <c r="G70" s="37">
-        <v>1201</v>
-      </c>
-      <c r="H70" s="37">
-        <v>34.6</v>
-      </c>
-      <c r="I70" s="37">
-        <v>21.84</v>
-      </c>
-      <c r="J70" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K70" s="37">
-        <v>4.617</v>
-      </c>
-      <c r="L70" s="37">
-        <v>0.33</v>
-      </c>
-      <c r="M70" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N70" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O70" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="6">
-        <v>2762</v>
-      </c>
-      <c r="B71" s="30">
-        <v>2762</v>
-      </c>
-      <c r="C71" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="D71" s="32">
-        <v>42157</v>
-      </c>
-      <c r="E71" s="32">
-        <v>42165</v>
-      </c>
-      <c r="F71" s="33">
-        <v>1700</v>
-      </c>
-      <c r="G71" s="33">
-        <v>1530</v>
-      </c>
-      <c r="H71" s="33">
-        <v>26</v>
-      </c>
-      <c r="I71" s="33">
-        <v>18.71</v>
-      </c>
-      <c r="J71" s="33">
-        <v>0.65</v>
-      </c>
-      <c r="K71" s="33">
-        <v>4.4210000000000003</v>
-      </c>
-      <c r="L71" s="33">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M71" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N71" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O71" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="7">
-        <v>2761</v>
-      </c>
-      <c r="B72" s="16">
-        <v>2761</v>
-      </c>
-      <c r="C72" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="D72" s="36">
-        <v>42157</v>
-      </c>
-      <c r="E72" s="36">
-        <v>42165</v>
-      </c>
-      <c r="F72" s="37">
-        <v>3000</v>
-      </c>
-      <c r="G72" s="37">
-        <v>2700</v>
-      </c>
-      <c r="H72" s="37">
-        <v>7.28</v>
-      </c>
-      <c r="I72" s="37">
-        <v>22.75</v>
-      </c>
-      <c r="J72" s="37">
-        <v>1.2</v>
-      </c>
-      <c r="K72" s="37">
-        <v>2.1840000000000002</v>
-      </c>
-      <c r="L72" s="37">
-        <v>0.23</v>
-      </c>
-      <c r="M72" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N72" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O72" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="6">
-        <v>601368</v>
-      </c>
-      <c r="B73" s="30">
-        <v>780368</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="D73" s="32">
-        <v>42157</v>
-      </c>
-      <c r="E73" s="32">
-        <v>42167</v>
-      </c>
-      <c r="F73" s="33">
-        <v>14700</v>
-      </c>
-      <c r="G73" s="33">
-        <v>13230</v>
-      </c>
-      <c r="H73" s="33">
-        <v>6.43</v>
-      </c>
-      <c r="I73" s="33">
-        <v>22.96</v>
-      </c>
-      <c r="J73" s="33">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K73" s="33">
-        <v>8.8010000000000002</v>
-      </c>
-      <c r="L73" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="M73" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N73" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O73" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="A74" s="7">
-        <v>2765</v>
-      </c>
-      <c r="B74" s="16">
-        <v>2765</v>
-      </c>
-      <c r="C74" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="D74" s="36">
-        <v>42157</v>
-      </c>
-      <c r="E74" s="36">
-        <v>42167</v>
-      </c>
-      <c r="F74" s="37">
-        <v>5200</v>
-      </c>
-      <c r="G74" s="37">
-        <v>4680</v>
-      </c>
-      <c r="H74" s="37">
-        <v>7.67</v>
-      </c>
-      <c r="I74" s="37">
-        <v>22.98</v>
-      </c>
-      <c r="J74" s="37">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="K74" s="37">
-        <v>3.669</v>
-      </c>
-      <c r="L74" s="37">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M74" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N74" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O74" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="6">
-        <v>300475</v>
-      </c>
-      <c r="B75" s="30">
-        <v>300475</v>
-      </c>
-      <c r="C75" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="D75" s="32">
-        <v>42157</v>
-      </c>
-      <c r="E75" s="32">
-        <v>42165</v>
-      </c>
-      <c r="F75" s="33">
-        <v>5000</v>
-      </c>
-      <c r="G75" s="33">
-        <v>4500</v>
-      </c>
-      <c r="H75" s="33">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I75" s="33">
-        <v>13.33</v>
-      </c>
-      <c r="J75" s="33">
-        <v>2</v>
-      </c>
-      <c r="K75" s="33">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="L75" s="33">
-        <v>0.27</v>
-      </c>
-      <c r="M75" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N75" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O75" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="7">
-        <v>2763</v>
-      </c>
-      <c r="B76" s="16">
-        <v>2763</v>
-      </c>
-      <c r="C76" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="D76" s="36">
-        <v>42157</v>
-      </c>
-      <c r="E76" s="36">
-        <v>42165</v>
-      </c>
-      <c r="F76" s="37">
-        <v>5400</v>
-      </c>
-      <c r="G76" s="37">
-        <v>4860</v>
-      </c>
-      <c r="H76" s="37">
-        <v>13.1</v>
-      </c>
-      <c r="I76" s="37">
-        <v>21.72</v>
-      </c>
-      <c r="J76" s="37">
-        <v>2.15</v>
-      </c>
-      <c r="K76" s="37">
-        <v>7.077</v>
-      </c>
-      <c r="L76" s="37">
-        <v>0.37</v>
-      </c>
-      <c r="M76" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N76" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O76" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77" s="6">
-        <v>601985</v>
-      </c>
-      <c r="B77" s="30">
-        <v>780985</v>
-      </c>
-      <c r="C77" s="31" t="s">
-        <v>302</v>
-      </c>
-      <c r="D77" s="32">
-        <v>42157</v>
-      </c>
-      <c r="E77" s="32">
-        <v>42165</v>
-      </c>
-      <c r="F77" s="33">
-        <v>389100</v>
-      </c>
-      <c r="G77" s="33">
-        <v>272370</v>
-      </c>
-      <c r="H77" s="33">
-        <v>3.39</v>
-      </c>
-      <c r="I77" s="33">
-        <v>22.29</v>
-      </c>
-      <c r="J77" s="33">
-        <v>116.7</v>
-      </c>
-      <c r="K77" s="33">
-        <v>135.79900000000001</v>
-      </c>
-      <c r="L77" s="33">
-        <v>1.63</v>
-      </c>
-      <c r="M77" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N77" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O77" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="A78" s="7">
-        <v>603026</v>
-      </c>
-      <c r="B78" s="16">
-        <v>732026</v>
-      </c>
-      <c r="C78" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="D78" s="36">
-        <v>42145</v>
-      </c>
-      <c r="E78" s="36">
-        <v>42153</v>
-      </c>
-      <c r="F78" s="37">
-        <v>5068</v>
-      </c>
-      <c r="G78" s="37">
-        <v>4561</v>
-      </c>
-      <c r="H78" s="37">
-        <v>6.51</v>
-      </c>
-      <c r="I78" s="37">
-        <v>32.549999999999997</v>
-      </c>
-      <c r="J78" s="37">
-        <v>1.8</v>
-      </c>
-      <c r="K78" s="37">
-        <v>3.2989999999999999</v>
-      </c>
-      <c r="L78" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="M78" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N78" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O78" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
-      <c r="A79" s="6">
-        <v>300465</v>
-      </c>
-      <c r="B79" s="30">
-        <v>300465</v>
-      </c>
-      <c r="C79" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="D79" s="32">
-        <v>42144</v>
-      </c>
-      <c r="E79" s="32">
-        <v>42152</v>
-      </c>
-      <c r="F79" s="33">
-        <v>3334</v>
-      </c>
-      <c r="G79" s="33">
-        <v>3001</v>
-      </c>
-      <c r="H79" s="33">
-        <v>11.26</v>
-      </c>
-      <c r="I79" s="33">
-        <v>22.93</v>
-      </c>
-      <c r="J79" s="33">
-        <v>1.2</v>
-      </c>
-      <c r="K79" s="33">
-        <v>3.754</v>
-      </c>
-      <c r="L79" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="M79" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N79" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O79" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
-      <c r="A80" s="7">
-        <v>603918</v>
-      </c>
-      <c r="B80" s="16">
-        <v>732918</v>
-      </c>
-      <c r="C80" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="D80" s="36">
-        <v>42144</v>
-      </c>
-      <c r="E80" s="36">
-        <v>42152</v>
-      </c>
-      <c r="F80" s="37">
-        <v>2200</v>
-      </c>
-      <c r="G80" s="37">
-        <v>1980</v>
-      </c>
-      <c r="H80" s="37">
-        <v>9.5</v>
-      </c>
-      <c r="I80" s="37">
-        <v>22.99</v>
-      </c>
-      <c r="J80" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="K80" s="37">
-        <v>2.09</v>
-      </c>
-      <c r="L80" s="37">
-        <v>0.21</v>
-      </c>
-      <c r="M80" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N80" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O80" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
-      <c r="A81" s="6">
-        <v>603669</v>
-      </c>
-      <c r="B81" s="30">
-        <v>732669</v>
-      </c>
-      <c r="C81" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="D81" s="32">
-        <v>42144</v>
-      </c>
-      <c r="E81" s="32">
-        <v>42152</v>
-      </c>
-      <c r="F81" s="33">
-        <v>6500</v>
-      </c>
-      <c r="G81" s="33">
-        <v>5850</v>
-      </c>
-      <c r="H81" s="33">
-        <v>11.7</v>
-      </c>
-      <c r="I81" s="33">
-        <v>22.98</v>
-      </c>
-      <c r="J81" s="33">
-        <v>2.6</v>
-      </c>
-      <c r="K81" s="33">
-        <v>7.6050000000000004</v>
-      </c>
-      <c r="L81" s="33">
-        <v>0.41</v>
-      </c>
-      <c r="M81" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N81" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="O81" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
-      <c r="A82" s="7">
-        <v>603300</v>
-      </c>
-      <c r="B82" s="16">
-        <v>732300</v>
-      </c>
-      <c r="C82" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="D82" s="36">
-        <v>42144</v>
-      </c>
-      <c r="E82" s="36">
-        <v>42153</v>
-      </c>
-      <c r="F82" s="37">
-        <v>5067</v>
-      </c>
-      <c r="G82" s="37">
-        <v>4560</v>
-      </c>
-      <c r="H82" s="37">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="I82" s="37">
-        <v>22.98</v>
-      </c>
-      <c r="J82" s="37">
-        <v>2</v>
-      </c>
-      <c r="K82" s="37">
-        <v>4.165</v>
-      </c>
-      <c r="L82" s="37">
-        <v>0.37</v>
-      </c>
-      <c r="M82" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N82" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="O82" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+  </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" tooltip="http://money.finance.sina.com.cn/corp/view/vRPD_NewStockIssue.php?page=1&amp;cngem=0&amp;orderBy=PaperCode&amp;orderType=asc"/>
-    <hyperlink ref="C1" r:id="rId2" tooltip="http://money.finance.sina.com.cn/corp/view/vRPD_NewStockIssue.php?page=1&amp;cngem=0&amp;orderBy=PaperName&amp;orderType=asc"/>
-    <hyperlink ref="D1" r:id="rId3" tooltip="http://money.finance.sina.com.cn/corp/view/vRPD_NewStockIssue.php?page=1&amp;cngem=0&amp;orderBy=NetDate&amp;orderType=asc"/>
-    <hyperlink ref="E1" r:id="rId4" tooltip="http://money.finance.sina.com.cn/corp/view/vRPD_NewStockIssue.php?page=1&amp;cngem=0&amp;orderBy=MarketDate&amp;orderType=asc"/>
-    <hyperlink ref="C3" r:id="rId5" display="http://finance.sina.com.cn/realstock/company/sz002785/nc.shtml"/>
-    <hyperlink ref="M3" r:id="rId6" display="javascript:void(0)"/>
-    <hyperlink ref="N3" r:id="rId7" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002785"/>
-    <hyperlink ref="O3" r:id="rId8" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002785.phtml"/>
-    <hyperlink ref="C4" r:id="rId9" display="http://finance.sina.com.cn/realstock/company/sz002778/nc.shtml"/>
-    <hyperlink ref="M4" r:id="rId10" display="javascript:void(0)"/>
-    <hyperlink ref="N4" r:id="rId11" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002778"/>
-    <hyperlink ref="O4" r:id="rId12" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002778.phtml"/>
-    <hyperlink ref="C5" r:id="rId13" display="http://finance.sina.com.cn/realstock/company/sz300491/nc.shtml"/>
-    <hyperlink ref="M5" r:id="rId14" display="javascript:void(0)"/>
-    <hyperlink ref="N5" r:id="rId15" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300491"/>
-    <hyperlink ref="O5" r:id="rId16" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300491.phtml"/>
-    <hyperlink ref="C6" r:id="rId17" display="http://finance.sina.com.cn/realstock/company/sh603299/nc.shtml"/>
-    <hyperlink ref="M6" r:id="rId18" display="javascript:void(0)"/>
-    <hyperlink ref="N6" r:id="rId19" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603299"/>
-    <hyperlink ref="O6" r:id="rId20" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603299.phtml"/>
-    <hyperlink ref="C7" r:id="rId21" display="http://finance.sina.com.cn/realstock/company/sz002787/nc.shtml"/>
-    <hyperlink ref="M7" r:id="rId22" display="javascript:void(0)"/>
-    <hyperlink ref="N7" r:id="rId23" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002787"/>
-    <hyperlink ref="O7" r:id="rId24" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002787.phtml"/>
-    <hyperlink ref="C8" r:id="rId25" display="http://finance.sina.com.cn/realstock/company/sz300490/nc.shtml"/>
-    <hyperlink ref="M8" r:id="rId26" display="javascript:void(0)"/>
-    <hyperlink ref="N8" r:id="rId27" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300490"/>
-    <hyperlink ref="O8" r:id="rId28" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300490.phtml"/>
-    <hyperlink ref="C9" r:id="rId29" display="http://finance.sina.com.cn/realstock/company/sz300494/nc.shtml"/>
-    <hyperlink ref="M9" r:id="rId30" display="javascript:void(0)"/>
-    <hyperlink ref="N9" r:id="rId31" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300494"/>
-    <hyperlink ref="O9" r:id="rId32" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300494.phtml"/>
-    <hyperlink ref="C10" r:id="rId33" display="http://finance.sina.com.cn/realstock/company/sz002781/nc.shtml"/>
-    <hyperlink ref="M10" r:id="rId34" display="javascript:void(0)"/>
-    <hyperlink ref="N10" r:id="rId35" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002781"/>
-    <hyperlink ref="O10" r:id="rId36" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002781.phtml"/>
-    <hyperlink ref="C11" r:id="rId37" display="http://finance.sina.com.cn/realstock/company/sh603996/nc.shtml"/>
-    <hyperlink ref="M11" r:id="rId38" display="javascript:void(0)"/>
-    <hyperlink ref="N11" r:id="rId39" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603996"/>
-    <hyperlink ref="O11" r:id="rId40" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603996.phtml"/>
-    <hyperlink ref="C12" r:id="rId41" display="http://finance.sina.com.cn/realstock/company/sh603508/nc.shtml"/>
-    <hyperlink ref="M12" r:id="rId42" display="javascript:void(0)"/>
-    <hyperlink ref="N12" r:id="rId43" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603508"/>
-    <hyperlink ref="O12" r:id="rId44" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603508.phtml"/>
-    <hyperlink ref="C13" r:id="rId45" display="http://finance.sina.com.cn/realstock/company/sz300492/nc.shtml"/>
-    <hyperlink ref="M13" r:id="rId46" display="javascript:void(0)"/>
-    <hyperlink ref="N13" r:id="rId47" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300492"/>
-    <hyperlink ref="O13" r:id="rId48" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300492.phtml"/>
-    <hyperlink ref="C14" r:id="rId49" display="http://finance.sina.com.cn/realstock/company/sz002777/nc.shtml"/>
-    <hyperlink ref="M14" r:id="rId50" display="javascript:void(0)"/>
-    <hyperlink ref="N14" r:id="rId51" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002777"/>
-    <hyperlink ref="O14" r:id="rId52" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002777.phtml"/>
-    <hyperlink ref="C15" r:id="rId53" display="http://finance.sina.com.cn/realstock/company/sh603778/nc.shtml"/>
-    <hyperlink ref="M15" r:id="rId54" display="javascript:void(0)"/>
-    <hyperlink ref="N15" r:id="rId55" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603778"/>
-    <hyperlink ref="O15" r:id="rId56" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603778.phtml"/>
-    <hyperlink ref="C16" r:id="rId57" display="http://finance.sina.com.cn/realstock/company/sz300495/nc.shtml"/>
-    <hyperlink ref="M16" r:id="rId58" display="javascript:void(0)"/>
-    <hyperlink ref="N16" r:id="rId59" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300495"/>
-    <hyperlink ref="O16" r:id="rId60" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300495.phtml"/>
-    <hyperlink ref="C17" r:id="rId61" display="http://finance.sina.com.cn/realstock/company/sz002782/nc.shtml"/>
-    <hyperlink ref="M17" r:id="rId62" display="javascript:void(0)"/>
-    <hyperlink ref="N17" r:id="rId63" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002782"/>
-    <hyperlink ref="O17" r:id="rId64" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002782.phtml"/>
-    <hyperlink ref="C18" r:id="rId65" display="http://finance.sina.com.cn/realstock/company/sh603866/nc.shtml"/>
-    <hyperlink ref="M18" r:id="rId66" display="javascript:void(0)"/>
-    <hyperlink ref="N18" r:id="rId67" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603866"/>
-    <hyperlink ref="O18" r:id="rId68" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603866.phtml"/>
-    <hyperlink ref="C19" r:id="rId69" display="http://finance.sina.com.cn/realstock/company/sz002786/nc.shtml"/>
-    <hyperlink ref="M19" r:id="rId70" display="javascript:void(0)"/>
-    <hyperlink ref="N19" r:id="rId71" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002786"/>
-    <hyperlink ref="O19" r:id="rId72" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002786.phtml"/>
-    <hyperlink ref="C20" r:id="rId73" display="http://finance.sina.com.cn/realstock/company/sh603800/nc.shtml"/>
-    <hyperlink ref="M20" r:id="rId74" display="javascript:void(0)"/>
-    <hyperlink ref="N20" r:id="rId75" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603800"/>
-    <hyperlink ref="O20" r:id="rId76" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603800.phtml"/>
-    <hyperlink ref="C21" r:id="rId77" display="http://finance.sina.com.cn/realstock/company/sh603398/nc.shtml"/>
-    <hyperlink ref="M21" r:id="rId78" display="javascript:void(0)"/>
-    <hyperlink ref="N21" r:id="rId79" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603398"/>
-    <hyperlink ref="O21" r:id="rId80" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603398.phtml"/>
-    <hyperlink ref="C22" r:id="rId81" display="http://finance.sina.com.cn/realstock/company/sz300496/nc.shtml"/>
-    <hyperlink ref="M22" r:id="rId82" display="javascript:void(0)"/>
-    <hyperlink ref="N22" r:id="rId83" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300496"/>
-    <hyperlink ref="O22" r:id="rId84" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300496.phtml"/>
-    <hyperlink ref="C23" r:id="rId85" display="http://finance.sina.com.cn/realstock/company/sz002783/nc.shtml"/>
-    <hyperlink ref="M23" r:id="rId86" display="javascript:void(0)"/>
-    <hyperlink ref="N23" r:id="rId87" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002783"/>
-    <hyperlink ref="O23" r:id="rId88" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002783.phtml"/>
-    <hyperlink ref="C24" r:id="rId89" display="http://finance.sina.com.cn/realstock/company/sz002780/nc.shtml"/>
-    <hyperlink ref="M24" r:id="rId90" display="javascript:void(0)"/>
-    <hyperlink ref="N24" r:id="rId91" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002780"/>
-    <hyperlink ref="O24" r:id="rId92" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002780.phtml"/>
-    <hyperlink ref="C25" r:id="rId93" display="http://finance.sina.com.cn/realstock/company/sh603936/nc.shtml"/>
-    <hyperlink ref="M25" r:id="rId94" display="javascript:void(0)"/>
-    <hyperlink ref="N25" r:id="rId95" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603936"/>
-    <hyperlink ref="O25" r:id="rId96" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603936.phtml"/>
-    <hyperlink ref="C26" r:id="rId97" display="http://finance.sina.com.cn/realstock/company/sz002779/nc.shtml"/>
-    <hyperlink ref="M26" r:id="rId98" display="javascript:void(0)"/>
-    <hyperlink ref="N26" r:id="rId99" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002779"/>
-    <hyperlink ref="O26" r:id="rId100" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002779.phtml"/>
-    <hyperlink ref="C27" r:id="rId101" display="http://finance.sina.com.cn/realstock/company/sh603999/nc.shtml"/>
-    <hyperlink ref="M27" r:id="rId102" display="javascript:void(0)"/>
-    <hyperlink ref="N27" r:id="rId103" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603999"/>
-    <hyperlink ref="O27" r:id="rId104" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603999.phtml"/>
-    <hyperlink ref="C28" r:id="rId105" display="http://finance.sina.com.cn/realstock/company/sh603696/nc.shtml"/>
-    <hyperlink ref="M28" r:id="rId106" display="javascript:void(0)"/>
-    <hyperlink ref="N28" r:id="rId107" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603696"/>
-    <hyperlink ref="O28" r:id="rId108" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603696.phtml"/>
-    <hyperlink ref="C29" r:id="rId109" display="http://finance.sina.com.cn/realstock/company/sz300493/nc.shtml"/>
-    <hyperlink ref="M29" r:id="rId110" display="javascript:void(0)"/>
-    <hyperlink ref="N29" r:id="rId111" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300493"/>
-    <hyperlink ref="O29" r:id="rId112" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300493.phtml"/>
-    <hyperlink ref="C30" r:id="rId113" display="http://finance.sina.com.cn/realstock/company/sz300480/nc.shtml"/>
-    <hyperlink ref="M30" r:id="rId114" display="javascript:void(0)"/>
-    <hyperlink ref="N30" r:id="rId115" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300480"/>
-    <hyperlink ref="O30" r:id="rId116" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300480.phtml"/>
-    <hyperlink ref="C31" r:id="rId117" display="http://finance.sina.com.cn/realstock/company/sz300488/nc.shtml"/>
-    <hyperlink ref="M31" r:id="rId118" display="javascript:void(0)"/>
-    <hyperlink ref="N31" r:id="rId119" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300488"/>
-    <hyperlink ref="O31" r:id="rId120" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300488.phtml"/>
-    <hyperlink ref="C32" r:id="rId121" display="http://finance.sina.com.cn/realstock/company/sh603223/nc.shtml"/>
-    <hyperlink ref="M32" r:id="rId122" display="javascript:void(0)"/>
-    <hyperlink ref="N32" r:id="rId123" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603223"/>
-    <hyperlink ref="O32" r:id="rId124" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603223.phtml"/>
-    <hyperlink ref="C33" r:id="rId125" display="http://finance.sina.com.cn/realstock/company/sz300487/nc.shtml"/>
-    <hyperlink ref="M33" r:id="rId126" display="javascript:void(0)"/>
-    <hyperlink ref="N33" r:id="rId127" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300487"/>
-    <hyperlink ref="O33" r:id="rId128" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300487.phtml"/>
-    <hyperlink ref="C34" r:id="rId129" display="http://finance.sina.com.cn/realstock/company/sz300482/nc.shtml"/>
-    <hyperlink ref="M34" r:id="rId130" display="javascript:void(0)"/>
-    <hyperlink ref="N34" r:id="rId131" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300482"/>
-    <hyperlink ref="O34" r:id="rId132" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300482.phtml"/>
-    <hyperlink ref="C35" r:id="rId133" display="http://finance.sina.com.cn/realstock/company/sz300481/nc.shtml"/>
-    <hyperlink ref="M35" r:id="rId134" display="javascript:void(0)"/>
-    <hyperlink ref="N35" r:id="rId135" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300481"/>
-    <hyperlink ref="O35" r:id="rId136" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300481.phtml"/>
-    <hyperlink ref="C36" r:id="rId137" display="http://finance.sina.com.cn/realstock/company/sh603979/nc.shtml"/>
-    <hyperlink ref="M36" r:id="rId138" display="javascript:void(0)"/>
-    <hyperlink ref="N36" r:id="rId139" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603979"/>
-    <hyperlink ref="O36" r:id="rId140" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603979.phtml"/>
-    <hyperlink ref="C37" r:id="rId141" display="http://finance.sina.com.cn/realstock/company/sh603085/nc.shtml"/>
-    <hyperlink ref="M37" r:id="rId142" display="javascript:void(0)"/>
-    <hyperlink ref="N37" r:id="rId143" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603085"/>
-    <hyperlink ref="O37" r:id="rId144" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603085.phtml"/>
-    <hyperlink ref="C38" r:id="rId145" display="http://finance.sina.com.cn/realstock/company/sz300486/nc.shtml"/>
-    <hyperlink ref="M38" r:id="rId146" display="javascript:void(0)"/>
-    <hyperlink ref="N38" r:id="rId147" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300486"/>
-    <hyperlink ref="O38" r:id="rId148" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300486.phtml"/>
-    <hyperlink ref="C39" r:id="rId149" display="http://finance.sina.com.cn/realstock/company/sz300489/nc.shtml"/>
-    <hyperlink ref="M39" r:id="rId150" display="javascript:void(0)"/>
-    <hyperlink ref="N39" r:id="rId151" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300489"/>
-    <hyperlink ref="O39" r:id="rId152" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300489.phtml"/>
-    <hyperlink ref="C40" r:id="rId153" display="http://finance.sina.com.cn/realstock/company/sz002770/nc.shtml"/>
-    <hyperlink ref="M40" r:id="rId154" display="javascript:void(0)"/>
-    <hyperlink ref="N40" r:id="rId155" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002770"/>
-    <hyperlink ref="O40" r:id="rId156" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002770.phtml"/>
-    <hyperlink ref="C41" r:id="rId157" display="http://finance.sina.com.cn/realstock/company/sz002776/nc.shtml"/>
-    <hyperlink ref="M41" r:id="rId158" display="javascript:void(0)"/>
-    <hyperlink ref="N41" r:id="rId159" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002776"/>
-    <hyperlink ref="O41" r:id="rId160" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002776.phtml"/>
-    <hyperlink ref="C42" r:id="rId161" display="http://finance.sina.com.cn/realstock/company/sh603589/nc.shtml"/>
-    <hyperlink ref="M42" r:id="rId162" display="javascript:void(0)"/>
-    <hyperlink ref="N42" r:id="rId163" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603589"/>
-    <hyperlink ref="O42" r:id="rId164" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603589.phtml"/>
-    <hyperlink ref="C43" r:id="rId165" display="http://finance.sina.com.cn/realstock/company/sz002775/nc.shtml"/>
-    <hyperlink ref="M43" r:id="rId166" display="javascript:void(0)"/>
-    <hyperlink ref="N43" r:id="rId167" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002775"/>
-    <hyperlink ref="O43" r:id="rId168" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002775.phtml"/>
-    <hyperlink ref="C44" r:id="rId169" display="http://finance.sina.com.cn/realstock/company/sh601211/nc.shtml"/>
-    <hyperlink ref="M44" r:id="rId170" display="javascript:void(0)"/>
-    <hyperlink ref="N44" r:id="rId171" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=601211"/>
-    <hyperlink ref="O44" r:id="rId172" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/601211.phtml"/>
-    <hyperlink ref="C45" r:id="rId173" display="http://finance.sina.com.cn/realstock/company/sh603838/nc.shtml"/>
-    <hyperlink ref="M45" r:id="rId174" display="javascript:void(0)"/>
-    <hyperlink ref="N45" r:id="rId175" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603838"/>
-    <hyperlink ref="O45" r:id="rId176" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603838.phtml"/>
-    <hyperlink ref="C46" r:id="rId177" display="http://finance.sina.com.cn/realstock/company/sz002776/nc.shtml"/>
-    <hyperlink ref="M46" r:id="rId178" display="javascript:void(0)"/>
-    <hyperlink ref="N46" r:id="rId179" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002776"/>
-    <hyperlink ref="O46" r:id="rId180" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002776.phtml"/>
-    <hyperlink ref="C47" r:id="rId181" display="http://finance.sina.com.cn/realstock/company/sh603589/nc.shtml"/>
-    <hyperlink ref="M47" r:id="rId182" display="javascript:void(0)"/>
-    <hyperlink ref="N47" r:id="rId183" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603589"/>
-    <hyperlink ref="O47" r:id="rId184" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603589.phtml"/>
-    <hyperlink ref="C48" r:id="rId185" display="http://finance.sina.com.cn/realstock/company/sz002769/nc.shtml"/>
-    <hyperlink ref="M48" r:id="rId186" display="javascript:void(0)"/>
-    <hyperlink ref="N48" r:id="rId187" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002769"/>
-    <hyperlink ref="O48" r:id="rId188" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002769.phtml"/>
-    <hyperlink ref="C49" r:id="rId189" display="http://finance.sina.com.cn/realstock/company/sz300483/nc.shtml"/>
-    <hyperlink ref="M49" r:id="rId190" display="javascript:void(0)"/>
-    <hyperlink ref="N49" r:id="rId191" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300483"/>
-    <hyperlink ref="O49" r:id="rId192" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300483.phtml"/>
-    <hyperlink ref="C50" r:id="rId193" display="http://finance.sina.com.cn/realstock/company/sz002768/nc.shtml"/>
-    <hyperlink ref="M50" r:id="rId194" display="javascript:void(0)"/>
-    <hyperlink ref="N50" r:id="rId195" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002768"/>
-    <hyperlink ref="O50" r:id="rId196" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002768.phtml"/>
-    <hyperlink ref="C51" r:id="rId197" display="http://finance.sina.com.cn/realstock/company/sh603116/nc.shtml"/>
-    <hyperlink ref="M51" r:id="rId198" display="javascript:void(0)"/>
-    <hyperlink ref="N51" r:id="rId199" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603116"/>
-    <hyperlink ref="O51" r:id="rId200" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603116.phtml"/>
-    <hyperlink ref="C52" r:id="rId201" display="http://finance.sina.com.cn/realstock/company/sz002772/nc.shtml"/>
-    <hyperlink ref="M52" r:id="rId202" display="javascript:void(0)"/>
-    <hyperlink ref="N52" r:id="rId203" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002772"/>
-    <hyperlink ref="O52" r:id="rId204" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002772.phtml"/>
-    <hyperlink ref="C53" r:id="rId205" display="http://finance.sina.com.cn/realstock/company/sz300485/nc.shtml"/>
-    <hyperlink ref="M53" r:id="rId206" display="javascript:void(0)"/>
-    <hyperlink ref="N53" r:id="rId207" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300485"/>
-    <hyperlink ref="O53" r:id="rId208" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300485.phtml"/>
-    <hyperlink ref="C54" r:id="rId209" display="http://finance.sina.com.cn/realstock/company/sz002773/nc.shtml"/>
-    <hyperlink ref="M54" r:id="rId210" display="javascript:void(0)"/>
-    <hyperlink ref="N54" r:id="rId211" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002773"/>
-    <hyperlink ref="O54" r:id="rId212" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002773.phtml"/>
-    <hyperlink ref="C55" r:id="rId213" display="http://finance.sina.com.cn/realstock/company/sz300471/nc.shtml"/>
-    <hyperlink ref="M55" r:id="rId214" display="javascript:void(0)"/>
-    <hyperlink ref="N55" r:id="rId215" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300471"/>
-    <hyperlink ref="O55" r:id="rId216" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300471.phtml"/>
-    <hyperlink ref="C56" r:id="rId217" display="http://finance.sina.com.cn/realstock/company/sh603616/nc.shtml"/>
-    <hyperlink ref="M56" r:id="rId218" display="javascript:void(0)"/>
-    <hyperlink ref="N56" r:id="rId219" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603616"/>
-    <hyperlink ref="O56" r:id="rId220" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603616.phtml"/>
-    <hyperlink ref="C57" r:id="rId221" display="http://finance.sina.com.cn/realstock/company/sh601968/nc.shtml"/>
-    <hyperlink ref="M57" r:id="rId222" display="javascript:void(0)"/>
-    <hyperlink ref="N57" r:id="rId223" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=601968"/>
-    <hyperlink ref="O57" r:id="rId224" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/601968.phtml"/>
-    <hyperlink ref="C58" r:id="rId225" display="http://finance.sina.com.cn/realstock/company/sz002767/nc.shtml"/>
-    <hyperlink ref="M58" r:id="rId226" display="javascript:void(0)"/>
-    <hyperlink ref="N58" r:id="rId227" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002767"/>
-    <hyperlink ref="O58" r:id="rId228" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002767.phtml"/>
-    <hyperlink ref="C59" r:id="rId229" display="http://finance.sina.com.cn/realstock/company/sz300473/nc.shtml"/>
-    <hyperlink ref="M59" r:id="rId230" display="javascript:void(0)"/>
-    <hyperlink ref="N59" r:id="rId231" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300473"/>
-    <hyperlink ref="O59" r:id="rId232" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300473.phtml"/>
-    <hyperlink ref="C60" r:id="rId233" display="http://finance.sina.com.cn/realstock/company/sz002766/nc.shtml"/>
-    <hyperlink ref="M60" r:id="rId234" display="javascript:void(0)"/>
-    <hyperlink ref="N60" r:id="rId235" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002766"/>
-    <hyperlink ref="O60" r:id="rId236" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002766.phtml"/>
-    <hyperlink ref="C61" r:id="rId237" display="http://finance.sina.com.cn/realstock/company/sz300476/nc.shtml"/>
-    <hyperlink ref="M61" r:id="rId238" display="javascript:void(0)"/>
-    <hyperlink ref="N61" r:id="rId239" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300476"/>
-    <hyperlink ref="O61" r:id="rId240" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300476.phtml"/>
-    <hyperlink ref="C62" r:id="rId241" display="http://finance.sina.com.cn/realstock/company/sz300469/nc.shtml"/>
-    <hyperlink ref="M62" r:id="rId242" display="javascript:void(0)"/>
-    <hyperlink ref="N62" r:id="rId243" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300469"/>
-    <hyperlink ref="O62" r:id="rId244" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300469.phtml"/>
-    <hyperlink ref="C63" r:id="rId245" display="http://finance.sina.com.cn/realstock/company/sh603066/nc.shtml"/>
-    <hyperlink ref="M63" r:id="rId246" display="javascript:void(0)"/>
-    <hyperlink ref="N63" r:id="rId247" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603066"/>
-    <hyperlink ref="O63" r:id="rId248" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603066.phtml"/>
-    <hyperlink ref="C64" r:id="rId249" display="http://finance.sina.com.cn/realstock/company/sz300479/nc.shtml"/>
-    <hyperlink ref="M64" r:id="rId250" display="javascript:void(0)"/>
-    <hyperlink ref="N64" r:id="rId251" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300479"/>
-    <hyperlink ref="O64" r:id="rId252" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300479.phtml"/>
-    <hyperlink ref="C65" r:id="rId253" display="http://finance.sina.com.cn/realstock/company/sz300472/nc.shtml"/>
-    <hyperlink ref="M65" r:id="rId254" display="javascript:void(0)"/>
-    <hyperlink ref="N65" r:id="rId255" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300472"/>
-    <hyperlink ref="O65" r:id="rId256" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300472.phtml"/>
-    <hyperlink ref="C66" r:id="rId257" display="http://finance.sina.com.cn/realstock/company/sz002760/nc.shtml"/>
-    <hyperlink ref="M66" r:id="rId258" display="javascript:void(0)"/>
-    <hyperlink ref="N66" r:id="rId259" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002760"/>
-    <hyperlink ref="O66" r:id="rId260" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002760.phtml"/>
-    <hyperlink ref="C67" r:id="rId261" display="http://finance.sina.com.cn/realstock/company/sz300478/nc.shtml"/>
-    <hyperlink ref="M67" r:id="rId262" display="javascript:void(0)"/>
-    <hyperlink ref="N67" r:id="rId263" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300478"/>
-    <hyperlink ref="O67" r:id="rId264" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300478.phtml"/>
-    <hyperlink ref="C68" r:id="rId265" display="http://finance.sina.com.cn/realstock/company/sz300464/nc.shtml"/>
-    <hyperlink ref="M68" r:id="rId266" display="javascript:void(0)"/>
-    <hyperlink ref="N68" r:id="rId267" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300464"/>
-    <hyperlink ref="O68" r:id="rId268" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300464.phtml"/>
-    <hyperlink ref="C69" r:id="rId269" display="http://finance.sina.com.cn/realstock/company/sz300477/nc.shtml"/>
-    <hyperlink ref="M69" r:id="rId270" display="javascript:void(0)"/>
-    <hyperlink ref="N69" r:id="rId271" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300477"/>
-    <hyperlink ref="O69" r:id="rId272" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300477.phtml"/>
-    <hyperlink ref="C70" r:id="rId273" display="http://finance.sina.com.cn/realstock/company/sz300470/nc.shtml"/>
-    <hyperlink ref="M70" r:id="rId274" display="javascript:void(0)"/>
-    <hyperlink ref="N70" r:id="rId275" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300470"/>
-    <hyperlink ref="O70" r:id="rId276" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300470.phtml"/>
-    <hyperlink ref="C71" r:id="rId277" display="http://finance.sina.com.cn/realstock/company/sz002762/nc.shtml"/>
-    <hyperlink ref="M71" r:id="rId278" display="javascript:void(0)"/>
-    <hyperlink ref="N71" r:id="rId279" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002762"/>
-    <hyperlink ref="O71" r:id="rId280" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002762.phtml"/>
-    <hyperlink ref="C72" r:id="rId281" display="http://finance.sina.com.cn/realstock/company/sz002761/nc.shtml"/>
-    <hyperlink ref="M72" r:id="rId282" display="javascript:void(0)"/>
-    <hyperlink ref="N72" r:id="rId283" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002761"/>
-    <hyperlink ref="O72" r:id="rId284" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002761.phtml"/>
-    <hyperlink ref="C73" r:id="rId285" display="http://finance.sina.com.cn/realstock/company/sh601368/nc.shtml"/>
-    <hyperlink ref="M73" r:id="rId286" display="javascript:void(0)"/>
-    <hyperlink ref="N73" r:id="rId287" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=601368"/>
-    <hyperlink ref="O73" r:id="rId288" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/601368.phtml"/>
-    <hyperlink ref="C74" r:id="rId289" display="http://finance.sina.com.cn/realstock/company/sz002765/nc.shtml"/>
-    <hyperlink ref="M74" r:id="rId290" display="javascript:void(0)"/>
-    <hyperlink ref="N74" r:id="rId291" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002765"/>
-    <hyperlink ref="O74" r:id="rId292" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002765.phtml"/>
-    <hyperlink ref="C75" r:id="rId293" display="http://finance.sina.com.cn/realstock/company/sz300475/nc.shtml"/>
-    <hyperlink ref="M75" r:id="rId294" display="javascript:void(0)"/>
-    <hyperlink ref="N75" r:id="rId295" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300475"/>
-    <hyperlink ref="O75" r:id="rId296" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300475.phtml"/>
-    <hyperlink ref="C76" r:id="rId297" display="http://finance.sina.com.cn/realstock/company/sz002763/nc.shtml"/>
-    <hyperlink ref="M76" r:id="rId298" display="javascript:void(0)"/>
-    <hyperlink ref="N76" r:id="rId299" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002763"/>
-    <hyperlink ref="O76" r:id="rId300" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002763.phtml"/>
-    <hyperlink ref="C77" r:id="rId301" display="http://finance.sina.com.cn/realstock/company/sh601985/nc.shtml"/>
-    <hyperlink ref="M77" r:id="rId302" display="javascript:void(0)"/>
-    <hyperlink ref="N77" r:id="rId303" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=601985"/>
-    <hyperlink ref="O77" r:id="rId304" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/601985.phtml"/>
-    <hyperlink ref="C78" r:id="rId305" display="http://finance.sina.com.cn/realstock/company/sh603026/nc.shtml"/>
-    <hyperlink ref="M78" r:id="rId306" display="javascript:void(0)"/>
-    <hyperlink ref="N78" r:id="rId307" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603026"/>
-    <hyperlink ref="O78" r:id="rId308" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603026.phtml"/>
-    <hyperlink ref="C79" r:id="rId309" display="http://finance.sina.com.cn/realstock/company/sz300465/nc.shtml"/>
-    <hyperlink ref="M79" r:id="rId310" display="javascript:void(0)"/>
-    <hyperlink ref="N79" r:id="rId311" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300465"/>
-    <hyperlink ref="O79" r:id="rId312" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300465.phtml"/>
-    <hyperlink ref="C80" r:id="rId313" display="http://finance.sina.com.cn/realstock/company/sh603918/nc.shtml"/>
-    <hyperlink ref="M80" r:id="rId314" display="javascript:void(0)"/>
-    <hyperlink ref="N80" r:id="rId315" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603918"/>
-    <hyperlink ref="O80" r:id="rId316" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603918.phtml"/>
-    <hyperlink ref="C81" r:id="rId317" display="http://finance.sina.com.cn/realstock/company/sh603669/nc.shtml"/>
-    <hyperlink ref="M81" r:id="rId318" display="javascript:void(0)"/>
-    <hyperlink ref="N81" r:id="rId319" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603669"/>
-    <hyperlink ref="O81" r:id="rId320" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603669.phtml"/>
-    <hyperlink ref="C82" r:id="rId321" display="http://finance.sina.com.cn/realstock/company/sh603300/nc.shtml"/>
-    <hyperlink ref="M82" r:id="rId322" display="javascript:void(0)"/>
-    <hyperlink ref="N82" r:id="rId323" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603300"/>
-    <hyperlink ref="O82" r:id="rId324" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603300.phtml"/>
+    <hyperlink ref="A1" r:id="rId1" display="http://money.finance.sina.com.cn/corp/go.php/vRPD_NewStockIssue/page/?page=1&amp;cngem=0&amp;orderBy=PaperCode&amp;orderType=asc"/>
+    <hyperlink ref="C1" r:id="rId2" display="http://money.finance.sina.com.cn/corp/go.php/vRPD_NewStockIssue/page/?page=1&amp;cngem=0&amp;orderBy=PaperName&amp;orderType=asc"/>
+    <hyperlink ref="D1" r:id="rId3" display="http://money.finance.sina.com.cn/corp/go.php/vRPD_NewStockIssue/page/?page=1&amp;cngem=0&amp;orderBy=NetDate&amp;orderType=asc"/>
+    <hyperlink ref="D2" r:id="rId4" display="http://money.finance.sina.com.cn/corp/go.php/vRPD_NewStockIssue/page/?page=1&amp;cngem=0&amp;orderBy=NetDate&amp;orderType=asc"/>
+    <hyperlink ref="E1" r:id="rId5" display="http://money.finance.sina.com.cn/corp/go.php/vRPD_NewStockIssue/page/?page=1&amp;cngem=0&amp;orderBy=MarketDate&amp;orderType=asc"/>
+    <hyperlink ref="C3" r:id="rId6" display="http://finance.sina.com.cn/realstock/company/sz300497/nc.shtml"/>
+    <hyperlink ref="M3" r:id="rId7" display="javascript:void(0)"/>
+    <hyperlink ref="N3" r:id="rId8" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300497"/>
+    <hyperlink ref="O3" r:id="rId9" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300497.phtml"/>
+    <hyperlink ref="C4" r:id="rId10" display="http://finance.sina.com.cn/realstock/company/sz002785/nc.shtml"/>
+    <hyperlink ref="M4" r:id="rId11" display="javascript:void(0)"/>
+    <hyperlink ref="N4" r:id="rId12" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002785"/>
+    <hyperlink ref="O4" r:id="rId13" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002785.phtml"/>
+    <hyperlink ref="C5" r:id="rId14" display="http://finance.sina.com.cn/realstock/company/sz300494/nc.shtml"/>
+    <hyperlink ref="M5" r:id="rId15" display="javascript:void(0)"/>
+    <hyperlink ref="N5" r:id="rId16" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300494"/>
+    <hyperlink ref="O5" r:id="rId17" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300494.phtml"/>
+    <hyperlink ref="C6" r:id="rId18" display="http://finance.sina.com.cn/realstock/company/sz002778/nc.shtml"/>
+    <hyperlink ref="M6" r:id="rId19" display="javascript:void(0)"/>
+    <hyperlink ref="N6" r:id="rId20" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002778"/>
+    <hyperlink ref="O6" r:id="rId21" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002778.phtml"/>
+    <hyperlink ref="C7" r:id="rId22" display="http://finance.sina.com.cn/realstock/company/sz300491/nc.shtml"/>
+    <hyperlink ref="M7" r:id="rId23" display="javascript:void(0)"/>
+    <hyperlink ref="N7" r:id="rId24" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300491"/>
+    <hyperlink ref="O7" r:id="rId25" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300491.phtml"/>
+    <hyperlink ref="C8" r:id="rId26" display="http://finance.sina.com.cn/realstock/company/sh603299/nc.shtml"/>
+    <hyperlink ref="M8" r:id="rId27" display="javascript:void(0)"/>
+    <hyperlink ref="N8" r:id="rId28" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603299"/>
+    <hyperlink ref="O8" r:id="rId29" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603299.phtml"/>
+    <hyperlink ref="C9" r:id="rId30" display="http://finance.sina.com.cn/realstock/company/sz002787/nc.shtml"/>
+    <hyperlink ref="M9" r:id="rId31" display="javascript:void(0)"/>
+    <hyperlink ref="N9" r:id="rId32" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002787"/>
+    <hyperlink ref="O9" r:id="rId33" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002787.phtml"/>
+    <hyperlink ref="C10" r:id="rId34" display="http://finance.sina.com.cn/realstock/company/sz300490/nc.shtml"/>
+    <hyperlink ref="M10" r:id="rId35" display="javascript:void(0)"/>
+    <hyperlink ref="N10" r:id="rId36" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300490"/>
+    <hyperlink ref="O10" r:id="rId37" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300490.phtml"/>
+    <hyperlink ref="C11" r:id="rId38" display="http://finance.sina.com.cn/realstock/company/sz002786/nc.shtml"/>
+    <hyperlink ref="M11" r:id="rId39" display="javascript:void(0)"/>
+    <hyperlink ref="N11" r:id="rId40" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002786"/>
+    <hyperlink ref="O11" r:id="rId41" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002786.phtml"/>
+    <hyperlink ref="C12" r:id="rId42" display="http://finance.sina.com.cn/realstock/company/sz002781/nc.shtml"/>
+    <hyperlink ref="M12" r:id="rId43" display="javascript:void(0)"/>
+    <hyperlink ref="N12" r:id="rId44" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002781"/>
+    <hyperlink ref="O12" r:id="rId45" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002781.phtml"/>
+    <hyperlink ref="C13" r:id="rId46" display="http://finance.sina.com.cn/realstock/company/sh603996/nc.shtml"/>
+    <hyperlink ref="M13" r:id="rId47" display="javascript:void(0)"/>
+    <hyperlink ref="N13" r:id="rId48" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603996"/>
+    <hyperlink ref="O13" r:id="rId49" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603996.phtml"/>
+    <hyperlink ref="C14" r:id="rId50" display="http://finance.sina.com.cn/realstock/company/sh603508/nc.shtml"/>
+    <hyperlink ref="M14" r:id="rId51" display="javascript:void(0)"/>
+    <hyperlink ref="N14" r:id="rId52" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603508"/>
+    <hyperlink ref="O14" r:id="rId53" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603508.phtml"/>
+    <hyperlink ref="C15" r:id="rId54" display="http://finance.sina.com.cn/realstock/company/sz300492/nc.shtml"/>
+    <hyperlink ref="M15" r:id="rId55" display="javascript:void(0)"/>
+    <hyperlink ref="N15" r:id="rId56" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300492"/>
+    <hyperlink ref="O15" r:id="rId57" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300492.phtml"/>
+    <hyperlink ref="C16" r:id="rId58" display="http://finance.sina.com.cn/realstock/company/sz002777/nc.shtml"/>
+    <hyperlink ref="M16" r:id="rId59" display="javascript:void(0)"/>
+    <hyperlink ref="N16" r:id="rId60" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002777"/>
+    <hyperlink ref="O16" r:id="rId61" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002777.phtml"/>
+    <hyperlink ref="C17" r:id="rId62" display="http://finance.sina.com.cn/realstock/company/sh603778/nc.shtml"/>
+    <hyperlink ref="M17" r:id="rId63" display="javascript:void(0)"/>
+    <hyperlink ref="N17" r:id="rId64" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603778"/>
+    <hyperlink ref="O17" r:id="rId65" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603778.phtml"/>
+    <hyperlink ref="C18" r:id="rId66" display="http://finance.sina.com.cn/realstock/company/sz300495/nc.shtml"/>
+    <hyperlink ref="M18" r:id="rId67" display="javascript:void(0)"/>
+    <hyperlink ref="N18" r:id="rId68" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300495"/>
+    <hyperlink ref="O18" r:id="rId69" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300495.phtml"/>
+    <hyperlink ref="C19" r:id="rId70" display="http://finance.sina.com.cn/realstock/company/sz002782/nc.shtml"/>
+    <hyperlink ref="M19" r:id="rId71" display="javascript:void(0)"/>
+    <hyperlink ref="N19" r:id="rId72" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002782"/>
+    <hyperlink ref="O19" r:id="rId73" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002782.phtml"/>
+    <hyperlink ref="C20" r:id="rId74" display="http://finance.sina.com.cn/realstock/company/sh603866/nc.shtml"/>
+    <hyperlink ref="M20" r:id="rId75" display="javascript:void(0)"/>
+    <hyperlink ref="N20" r:id="rId76" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603866"/>
+    <hyperlink ref="O20" r:id="rId77" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603866.phtml"/>
+    <hyperlink ref="C21" r:id="rId78" display="http://finance.sina.com.cn/realstock/company/sz300493/nc.shtml"/>
+    <hyperlink ref="M21" r:id="rId79" display="javascript:void(0)"/>
+    <hyperlink ref="N21" r:id="rId80" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300493"/>
+    <hyperlink ref="O21" r:id="rId81" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300493.phtml"/>
+    <hyperlink ref="C22" r:id="rId82" display="http://finance.sina.com.cn/realstock/company/sh603800/nc.shtml"/>
+    <hyperlink ref="M22" r:id="rId83" display="javascript:void(0)"/>
+    <hyperlink ref="N22" r:id="rId84" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603800"/>
+    <hyperlink ref="O22" r:id="rId85" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603800.phtml"/>
+    <hyperlink ref="C23" r:id="rId86" display="http://finance.sina.com.cn/realstock/company/sh603398/nc.shtml"/>
+    <hyperlink ref="M23" r:id="rId87" display="javascript:void(0)"/>
+    <hyperlink ref="N23" r:id="rId88" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603398"/>
+    <hyperlink ref="O23" r:id="rId89" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603398.phtml"/>
+    <hyperlink ref="C24" r:id="rId90" display="http://finance.sina.com.cn/realstock/company/sz300496/nc.shtml"/>
+    <hyperlink ref="M24" r:id="rId91" display="javascript:void(0)"/>
+    <hyperlink ref="N24" r:id="rId92" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300496"/>
+    <hyperlink ref="O24" r:id="rId93" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300496.phtml"/>
+    <hyperlink ref="C25" r:id="rId94" display="http://finance.sina.com.cn/realstock/company/sz002783/nc.shtml"/>
+    <hyperlink ref="M25" r:id="rId95" display="javascript:void(0)"/>
+    <hyperlink ref="N25" r:id="rId96" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002783"/>
+    <hyperlink ref="O25" r:id="rId97" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002783.phtml"/>
+    <hyperlink ref="C26" r:id="rId98" display="http://finance.sina.com.cn/realstock/company/sz002780/nc.shtml"/>
+    <hyperlink ref="M26" r:id="rId99" display="javascript:void(0)"/>
+    <hyperlink ref="N26" r:id="rId100" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002780"/>
+    <hyperlink ref="O26" r:id="rId101" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002780.phtml"/>
+    <hyperlink ref="C27" r:id="rId102" display="http://finance.sina.com.cn/realstock/company/sh603936/nc.shtml"/>
+    <hyperlink ref="M27" r:id="rId103" display="javascript:void(0)"/>
+    <hyperlink ref="N27" r:id="rId104" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603936"/>
+    <hyperlink ref="O27" r:id="rId105" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603936.phtml"/>
+    <hyperlink ref="C28" r:id="rId106" display="http://finance.sina.com.cn/realstock/company/sz002779/nc.shtml"/>
+    <hyperlink ref="M28" r:id="rId107" display="javascript:void(0)"/>
+    <hyperlink ref="N28" r:id="rId108" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002779"/>
+    <hyperlink ref="O28" r:id="rId109" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002779.phtml"/>
+    <hyperlink ref="C29" r:id="rId110" display="http://finance.sina.com.cn/realstock/company/sh603999/nc.shtml"/>
+    <hyperlink ref="M29" r:id="rId111" display="javascript:void(0)"/>
+    <hyperlink ref="N29" r:id="rId112" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603999"/>
+    <hyperlink ref="O29" r:id="rId113" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603999.phtml"/>
+    <hyperlink ref="C30" r:id="rId114" display="http://finance.sina.com.cn/realstock/company/sh603696/nc.shtml"/>
+    <hyperlink ref="M30" r:id="rId115" display="javascript:void(0)"/>
+    <hyperlink ref="N30" r:id="rId116" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603696"/>
+    <hyperlink ref="O30" r:id="rId117" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603696.phtml"/>
+    <hyperlink ref="C31" r:id="rId118" display="http://finance.sina.com.cn/realstock/company/sz300480/nc.shtml"/>
+    <hyperlink ref="M31" r:id="rId119" display="javascript:void(0)"/>
+    <hyperlink ref="N31" r:id="rId120" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300480"/>
+    <hyperlink ref="O31" r:id="rId121" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300480.phtml"/>
+    <hyperlink ref="C32" r:id="rId122" display="http://finance.sina.com.cn/realstock/company/sz300488/nc.shtml"/>
+    <hyperlink ref="M32" r:id="rId123" display="javascript:void(0)"/>
+    <hyperlink ref="N32" r:id="rId124" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300488"/>
+    <hyperlink ref="O32" r:id="rId125" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300488.phtml"/>
+    <hyperlink ref="C33" r:id="rId126" display="http://finance.sina.com.cn/realstock/company/sh603979/nc.shtml"/>
+    <hyperlink ref="M33" r:id="rId127" display="javascript:void(0)"/>
+    <hyperlink ref="N33" r:id="rId128" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603979"/>
+    <hyperlink ref="O33" r:id="rId129" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603979.phtml"/>
+    <hyperlink ref="C34" r:id="rId130" display="http://finance.sina.com.cn/realstock/company/sh603223/nc.shtml"/>
+    <hyperlink ref="M34" r:id="rId131" display="javascript:void(0)"/>
+    <hyperlink ref="N34" r:id="rId132" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603223"/>
+    <hyperlink ref="O34" r:id="rId133" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603223.phtml"/>
+    <hyperlink ref="C35" r:id="rId134" display="http://finance.sina.com.cn/realstock/company/sz300486/nc.shtml"/>
+    <hyperlink ref="M35" r:id="rId135" display="javascript:void(0)"/>
+    <hyperlink ref="N35" r:id="rId136" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300486"/>
+    <hyperlink ref="O35" r:id="rId137" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300486.phtml"/>
+    <hyperlink ref="C36" r:id="rId138" display="http://finance.sina.com.cn/realstock/company/sz300482/nc.shtml"/>
+    <hyperlink ref="M36" r:id="rId139" display="javascript:void(0)"/>
+    <hyperlink ref="N36" r:id="rId140" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300482"/>
+    <hyperlink ref="O36" r:id="rId141" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300482.phtml"/>
+    <hyperlink ref="C37" r:id="rId142" display="http://finance.sina.com.cn/realstock/company/sz002770/nc.shtml"/>
+    <hyperlink ref="M37" r:id="rId143" display="javascript:void(0)"/>
+    <hyperlink ref="N37" r:id="rId144" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002770"/>
+    <hyperlink ref="O37" r:id="rId145" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002770.phtml"/>
+    <hyperlink ref="C38" r:id="rId146" display="http://finance.sina.com.cn/realstock/company/sz300489/nc.shtml"/>
+    <hyperlink ref="M38" r:id="rId147" display="javascript:void(0)"/>
+    <hyperlink ref="N38" r:id="rId148" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300489"/>
+    <hyperlink ref="O38" r:id="rId149" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300489.phtml"/>
+    <hyperlink ref="C39" r:id="rId150" display="http://finance.sina.com.cn/realstock/company/sz300481/nc.shtml"/>
+    <hyperlink ref="M39" r:id="rId151" display="javascript:void(0)"/>
+    <hyperlink ref="N39" r:id="rId152" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300481"/>
+    <hyperlink ref="O39" r:id="rId153" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300481.phtml"/>
+    <hyperlink ref="C40" r:id="rId154" display="http://finance.sina.com.cn/realstock/company/sh603085/nc.shtml"/>
+    <hyperlink ref="M40" r:id="rId155" display="javascript:void(0)"/>
+    <hyperlink ref="N40" r:id="rId156" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=603085"/>
+    <hyperlink ref="O40" r:id="rId157" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/603085.phtml"/>
+    <hyperlink ref="C41" r:id="rId158" display="http://finance.sina.com.cn/realstock/company/sz300487/nc.shtml"/>
+    <hyperlink ref="M41" r:id="rId159" display="javascript:void(0)"/>
+    <hyperlink ref="N41" r:id="rId160" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=300487"/>
+    <hyperlink ref="O41" r:id="rId161" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/300487.phtml"/>
+    <hyperlink ref="C42" r:id="rId162" display="http://finance.sina.com.cn/realstock/company/sz002776/nc.shtml"/>
+    <hyperlink ref="M42" r:id="rId163" display="javascript:void(0)"/>
+    <hyperlink ref="N42" r:id="rId164" display="http://biz.finance.sina.com.cn/qmx/stockreports.php?symbol=002776"/>
+    <hyperlink ref="O42" r:id="rId165" display="http://money.finance.sina.com.cn/corp/go.php/vCB_AllBulletin/stockid/002776.phtml"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId325"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId166"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
